--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5860F-1145-426E-8CD1-D5C1DA48F108}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12465"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="战场数据" sheetId="26" r:id="rId2"/>
     <sheet name="战场角色" sheetId="27" r:id="rId3"/>
-    <sheet name="战场技能" sheetId="28" r:id="rId4"/>
-    <sheet name="fxConfig" sheetId="29" r:id="rId5"/>
+    <sheet name="skillInfo" sheetId="30" r:id="rId4"/>
+    <sheet name="战场技能" sheetId="28" r:id="rId5"/>
+    <sheet name="fxConfig" sheetId="29" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="645">
   <si>
     <t>sheet名</t>
   </si>
@@ -79,246 +81,12 @@
     <t>CameraEuler[3]</t>
   </si>
   <si>
-    <t>battleGroupMinePos[1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][3]</t>
-  </si>
-  <si>
     <t>int:&lt;</t>
   </si>
   <si>
     <t>float:&lt;</t>
   </si>
   <si>
-    <t>相机X</t>
-  </si>
-  <si>
-    <t>相机Y</t>
-  </si>
-  <si>
-    <t>相机Z</t>
-  </si>
-  <si>
-    <t>相机旋转X</t>
-  </si>
-  <si>
-    <t>相机旋转Y</t>
-  </si>
-  <si>
-    <t>相机旋转Z</t>
-  </si>
-  <si>
-    <t>我方单位1位置X</t>
-  </si>
-  <si>
-    <t>我方单位1位置Y</t>
-  </si>
-  <si>
-    <t>我方单位1位置Z</t>
-  </si>
-  <si>
-    <t>我方单位2位置X</t>
-  </si>
-  <si>
-    <t>我方单位2位置Y</t>
-  </si>
-  <si>
-    <t>我方单位2位置Z</t>
-  </si>
-  <si>
-    <t>我方单位3位置X</t>
-  </si>
-  <si>
-    <t>我方单位3位置Y</t>
-  </si>
-  <si>
-    <t>我方单位3位置Z</t>
-  </si>
-  <si>
-    <t>敌方单位1位置X</t>
-  </si>
-  <si>
-    <t>敌方单位1位置Y</t>
-  </si>
-  <si>
-    <t>敌方单位1位置Z</t>
-  </si>
-  <si>
-    <t>敌方单位2位置X</t>
-  </si>
-  <si>
-    <t>敌方单位2位置Y</t>
-  </si>
-  <si>
-    <t>敌方单位2位置Z</t>
-  </si>
-  <si>
-    <t>敌方单位3位置X</t>
-  </si>
-  <si>
-    <t>敌方单位3位置Y</t>
-  </si>
-  <si>
-    <t>敌方单位3位置Z</t>
-  </si>
-  <si>
-    <t>我方单位旋转1X</t>
-  </si>
-  <si>
-    <t>我方单位旋转1Y</t>
-  </si>
-  <si>
-    <t>我方单位旋转1Z</t>
-  </si>
-  <si>
-    <t>我方单位旋转2X</t>
-  </si>
-  <si>
-    <t>我方单位旋转2Y</t>
-  </si>
-  <si>
-    <t>我方单位旋转2Z</t>
-  </si>
-  <si>
-    <t>我方单位旋转3X</t>
-  </si>
-  <si>
-    <t>我方单位旋转3Y</t>
-  </si>
-  <si>
-    <t>我方单位旋转3Z</t>
-  </si>
-  <si>
-    <t>敌方单位旋转1X</t>
-  </si>
-  <si>
-    <t>敌方单位旋转1Y</t>
-  </si>
-  <si>
-    <t>敌方单位旋转1Z</t>
-  </si>
-  <si>
-    <t>敌方单位旋转2X</t>
-  </si>
-  <si>
-    <t>敌方单位旋转2Y</t>
-  </si>
-  <si>
-    <t>敌方单位旋转2Z</t>
-  </si>
-  <si>
-    <t>敌方单位旋转3X</t>
-  </si>
-  <si>
-    <t>敌方单位旋转3Y</t>
-  </si>
-  <si>
-    <t>敌方单位旋转3Z</t>
-  </si>
-  <si>
     <t>prefab</t>
   </si>
   <si>
@@ -355,9 +123,6 @@
     <t>float:e&lt;</t>
   </si>
   <si>
-    <t>string:ae&lt;</t>
-  </si>
-  <si>
     <t>float:ae&lt;</t>
   </si>
   <si>
@@ -400,9 +165,6 @@
     <t>Art/Roles/rol_1101001/Pefabs/model_cfcyb_1101001_p.prefab</t>
   </si>
   <si>
-    <t>1301001-1#Art/Roles/rol_1101001/Animations/1101001_exskill_1.playable|1302001-1#Art/Roles/rol_1101001/Animations/1101001_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101001/Animations/1101001_summon_nwe 1.playable</t>
   </si>
   <si>
@@ -418,9 +180,6 @@
     <t>Art/Roles/rol_1101002/Pefabs/model_cxl_1101002_p.prefab</t>
   </si>
   <si>
-    <t>1301002-1#Art/Roles/rol_1101002/Animations/1101002_exskill_1.playable|1302002-1#Art/Roles/rol_1101002/Animations/1101002_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101002/Animations/1101002_summon.playable</t>
   </si>
   <si>
@@ -436,9 +195,6 @@
     <t>Art/Roles/rol_1101003/Pefabs/model_zdxl_1101003_p.prefab</t>
   </si>
   <si>
-    <t>1301003-1#Art/Roles/rol_1101003/Animations/1101003_exskill_1.playable|1302003-1#Art/Roles/rol_1101003/Animations/1101003_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101003/Animations/1101003_summon.playable</t>
   </si>
   <si>
@@ -454,9 +210,6 @@
     <t>Art/Roles/rol_1101007/Pefabs/model_zdcyb_1101007_p.prefab</t>
   </si>
   <si>
-    <t>1301007-1#Art/Roles/rol_1101007/Animations/1101007_exskill_1.playable|1302007-1#Art/Roles/rol_1101007/Animations/1101007_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101007/Animations/1101007_summon.playable</t>
   </si>
   <si>
@@ -472,9 +225,6 @@
     <t>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</t>
   </si>
   <si>
-    <t>1301008-1#Art/Roles/rol_1101008/Animations/1101008_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101008/Animations/1101008_summon.playable</t>
   </si>
   <si>
@@ -490,9 +240,6 @@
     <t>Art/Roles/rol_1102001/Pefabs/model_gy_1102001_p.prefab</t>
   </si>
   <si>
-    <t>1303001-1#Art/Roles/rol_1102001/Animations/1102001_exskill_1_a.playable|1303001-2#Art/Roles/rol_1102001/Animations/1102001_exskill_1_b.playable|1303001-3#Art/Roles/rol_1102001/Animations/1102001_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102001/Animations/1102001_win.playable</t>
   </si>
   <si>
@@ -505,9 +252,6 @@
     <t>Art/Roles/rol_1102002/Pefabs/model_xc_1102002_p.prefab</t>
   </si>
   <si>
-    <t>1303002-1#Art/Roles/rol_1102002/Animations/1102002_exskill_1_a.playable|1303002-2#Art/Roles/rol_1102002/Animations/1102002_exskill_1_b.playable|1303002-3#Art/Roles/rol_1102002/Animations/1102002_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102002/Animations/1102002_win.playable</t>
   </si>
   <si>
@@ -520,9 +264,6 @@
     <t>Art/Roles/rol_1102004/Pefabs/model_tly_1102004_p.prefab</t>
   </si>
   <si>
-    <t>1303004-1#Art/Roles/rol_1102004/Animations/1102004_exskill_1_a.playable|1303004-2#Art/Roles/rol_1102004/Animations/1102004_exskill_1_b.playable|1303004-3#Art/Roles/rol_1102004/Animations/1102004_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102004/Animations/1102004_win.playable</t>
   </si>
   <si>
@@ -535,9 +276,6 @@
     <t>Art/Roles/rol_1102015/Pefabs/model_yj_1102015_p.prefab</t>
   </si>
   <si>
-    <t>1303015-1#Art/Roles/rol_1102015/Animations/1102015_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102015/Animations/1102015_win.playable</t>
   </si>
   <si>
@@ -550,9 +288,6 @@
     <t>Art/Roles/rol_1101004/Pefabs/model_xkl_1101004_p.prefab</t>
   </si>
   <si>
-    <t>1301004-1#Art/Roles/rol_1101004/Animations/1101004_exskill_1.playable|1302004-1#Art/Roles/rol_1101004/Animations/1101004_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101004/Animations/1101004_summon.playable</t>
   </si>
   <si>
@@ -565,9 +300,6 @@
     <t>Art/Roles/rol_1101005/Pefabs/model_lyc_1101005_p.prefab</t>
   </si>
   <si>
-    <t>1301005-1#Art/Roles/rol_1101005/Animations/1101005_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101005/Animations/1101005_summon.playable</t>
   </si>
   <si>
@@ -580,9 +312,6 @@
     <t>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</t>
   </si>
   <si>
-    <t>1301006-1#Art/Roles/rol_1101006/Animations/1101006_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101006/Animations/1101006_summon.playable</t>
   </si>
   <si>
@@ -598,9 +327,6 @@
     <t>Art/Roles/rol_1101009/Pefabs/model_blsm_1101009_p.prefab</t>
   </si>
   <si>
-    <t>1301009-1#Art/Roles/rol_1101009/Animations/1101009_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101009/Animations/1101009_summon.playable</t>
   </si>
   <si>
@@ -613,9 +339,6 @@
     <t>Art/Roles/rol_1101010/Pefabs/model_gw_1101010_p.prefab</t>
   </si>
   <si>
-    <t>1301010-1#Art/Roles/rol_1101010/Animations/1101010_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101010/Animations/1101010_summon.playable</t>
   </si>
   <si>
@@ -628,9 +351,6 @@
     <t>Art/Roles/rol_1101011/Pefabs/model_yfz_1101011_p.prefab</t>
   </si>
   <si>
-    <t>1301011-1#Art/Roles/rol_1101011/Animations/1101011_exskill_1.playable|1302011-1#Art/Roles/rol_1101011/Animations/1101011_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101011/Animations/1101011_summon.playable</t>
   </si>
   <si>
@@ -643,9 +363,6 @@
     <t>Art/Roles/rol_1101012/Pefabs/model_nyf_1101012_p.prefab</t>
   </si>
   <si>
-    <t>1301012-1#Art/Roles/rol_1101012/Animations/1101012_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101012/Animations/1101012_summon.playable</t>
   </si>
   <si>
@@ -658,9 +375,6 @@
     <t>Art/Roles/rol_1101013/Pefabs/model_jl_1101013_p.prefab</t>
   </si>
   <si>
-    <t>1301013-1#Art/Roles/rol_1101013/Animations/1101013_exskill_1.playable|1302013-1#Art/Roles/rol_1101013/Animations/1101013_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101013/Animations/1101013_summon.playable</t>
   </si>
   <si>
@@ -673,9 +387,6 @@
     <t>Art/Roles/rol_1101014/Pefabs/model_lxg_1101014_p.prefab</t>
   </si>
   <si>
-    <t>1301014-1#Art/Roles/rol_1101014/Animations/1101014_exskill_1.playable|1302014-1#Art/Roles/rol_1101014/Animations/1101014_exskill_2.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101014/Animations/1101014_summon.playable</t>
   </si>
   <si>
@@ -688,9 +399,6 @@
     <t>Art/Roles/rol_1101015/Pefabs/model_yqq_1101015_p.prefab</t>
   </si>
   <si>
-    <t>1301015-1#Art/Roles/rol_1101015/Animations/1101015_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101015/Animations/1101015_summon.playable</t>
   </si>
   <si>
@@ -703,9 +411,6 @@
     <t>Art/Roles/rol_1102003/Pefabs/model_dw_1102003_p.prefab</t>
   </si>
   <si>
-    <t>1303003-1#Art/Roles/rol_1102003/Animations/1102003_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102003/Animations/1102003_win.playable</t>
   </si>
   <si>
@@ -718,9 +423,6 @@
     <t>Art/Roles/rol_1102005/Pefabs/model_lxy_1102005_p.prefab</t>
   </si>
   <si>
-    <t>1303005-1#Art/Roles/rol_1102005/Animations/1102005_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102005/Animations/1102005_win.playable</t>
   </si>
   <si>
@@ -730,9 +432,6 @@
     <t>Art/Roles/rol_1102006/Pefabs/model_xy_1102006_p.prefab</t>
   </si>
   <si>
-    <t>1303006-1#Art/Roles/rol_1102006/Animations/1102006_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102006/Animations/1102006_win.playable</t>
   </si>
   <si>
@@ -742,9 +441,6 @@
     <t>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</t>
   </si>
   <si>
-    <t>1303007-1#Art/Roles/rol_1102007/Animations/1102007_exskill_1_a.playable|1303007-2#Art/Roles/rol_1102007/Animations/1102007_exskill_1_b.playable|1303007-3#Art/Roles/rol_1102007/Animations/1102007_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
   </si>
   <si>
@@ -754,9 +450,6 @@
     <t>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</t>
   </si>
   <si>
-    <t>1303008-1#Art/Roles/rol_1102008/Animations/1102008_exskill_1_a.playable|1303008-2#Art/Roles/rol_1102008/Animations/1102008_exskill_1_b.playable|1303008-3#Art/Roles/rol_1102008/Animations/1102008_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102008/Animations/1102008_win.playable</t>
   </si>
   <si>
@@ -766,9 +459,6 @@
     <t>Art/Roles/rol_1102009/Pefabs/model_xh_1102009_p.prefab</t>
   </si>
   <si>
-    <t>1303009-1#Art/Roles/rol_1102009/Animations/1102009_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102009/Animations/1102009_win.playable</t>
   </si>
   <si>
@@ -778,9 +468,6 @@
     <t>Art/Roles/rol_1102010/Pefabs/model_zh_1102010_p.prefab</t>
   </si>
   <si>
-    <t>1303010-1#Art/Roles/rol_1102010/Animations/1102010_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102010/Animations/1102010_win.playable</t>
   </si>
   <si>
@@ -790,9 +477,6 @@
     <t>Art/Roles/rol_1102011/Pefabs/model_zf_1102011_p.prefab</t>
   </si>
   <si>
-    <t>1303011-1#Art/Roles/rol_1102011/Animations/1102011_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102011/Animations/1102011_win.playable</t>
   </si>
   <si>
@@ -802,9 +486,6 @@
     <t>Art/Roles/rol_1102012/Pefabs/model_xhd_1102012_p.prefab</t>
   </si>
   <si>
-    <t>1303012-1#Art/Roles/rol_1102012/Animations/1102012_exskill_1_a.playable|1303012-2#Art/Roles/rol_1102012/Animations/1102012_exskill_1_b.playable|1303012-3#Art/Roles/rol_1102012/Animations/1102012_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102012/Animations/1102012_win.playable</t>
   </si>
   <si>
@@ -814,9 +495,6 @@
     <t>Art/Roles/rol_1102013/Pefabs/model_sbls_1102013_p.prefab</t>
   </si>
   <si>
-    <t>1303013-1#Art/Roles/rol_1102013/Animations/1102013_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102013/Animations/1102013_win.playable</t>
   </si>
   <si>
@@ -826,9 +504,6 @@
     <t>Art/Roles/rol_1102014/Pefabs/model_slm_1102014_p.prefab</t>
   </si>
   <si>
-    <t>1303014-1#Art/Roles/rol_1102014/Animations/1102014_exskill_1_a.playable|1303014-2#Art/Roles/rol_1102014/Animations/1102014_exskill_1_b.playable|1303014-3#Art/Roles/rol_1102014/Animations/1102014_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102014/Animations/1102014_win.playable</t>
   </si>
   <si>
@@ -838,9 +513,6 @@
     <t>Art/Roles/rol_1102016/Pefabs/model_xfl_1102016_p.prefab</t>
   </si>
   <si>
-    <t>1303016-1#Art/Roles/rol_1102016/Animations/1102016_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102016/Animations/1102016_win.playable</t>
   </si>
   <si>
@@ -850,9 +522,6 @@
     <t>Art/Roles/rol_1102017/Pefabs/model_fl_1102017_p.prefab</t>
   </si>
   <si>
-    <t>1303017-1#Art/Roles/rol_1102017/Animations/1102017_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102017/Animations/1102017_win.playable</t>
   </si>
   <si>
@@ -862,9 +531,6 @@
     <t>Art/Roles/rol_1102018/Pefabs/model_sr_1102018_p.prefab</t>
   </si>
   <si>
-    <t>1303018-1#Art/Roles/rol_1102018/Animations/1102018_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102018/Animations/1102018_win.playable</t>
   </si>
   <si>
@@ -874,9 +540,6 @@
     <t>Art/Roles/rol_1102019/Pefabs/model_shx_1102019_p.prefab</t>
   </si>
   <si>
-    <t>1303019-1#Art/Roles/rol_1102019/Animations/1102019_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102019/Animations/1102019_win.playable</t>
   </si>
   <si>
@@ -886,9 +549,6 @@
     <t>Art/Roles/rol_1102020/Pefabs/model_gs_1102020_p.prefab</t>
   </si>
   <si>
-    <t>1303020-1#Art/Roles/rol_1102020/Animations/1102020_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102020/Animations/1102020_win.playable</t>
   </si>
   <si>
@@ -898,9 +558,6 @@
     <t>Art/Roles/rol_1102021/Pefabs/model_lftl_1102021_p.prefab</t>
   </si>
   <si>
-    <t>1303021-1#Art/Roles/rol_1102021/Animations/1102021_exskill_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102021/Animations/1102021_win.playable</t>
   </si>
   <si>
@@ -910,108 +567,72 @@
     <t>Art/Roles/rol_1201001/Pefabs/model_jsgb1_1201001_p.prefab</t>
   </si>
   <si>
-    <t>1801001-1#Art/Roles/rol_1201001/Animations/1201001_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_jsgb2_1201002_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201002/Pefabs/model_jsgb2_1201002_p.prefab</t>
   </si>
   <si>
-    <t>1801002-1#Art/Roles/rol_1201002/Animations/1201002_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_jsgb3_1201003_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201003/Pefabs/model_jsgb3_1201003_p.prefab</t>
   </si>
   <si>
-    <t>1801003-1#Art/Roles/rol_1201003/Animations/1201003_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_gjj1_1201004_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201004/Pefabs/model_gjj1_1201004_p.prefab</t>
   </si>
   <si>
-    <t>1801004-1#Art/Roles/rol_1201004/Animations/1201004_skill_1.playable|1802004-1#Art/Roles/rol_1201004/Animations/1201004_skill_2.playable</t>
-  </si>
-  <si>
     <t>model_gjj2_1201005_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201005/Pefabs/model_gjj2_1201005_p.prefab</t>
   </si>
   <si>
-    <t>1801005-1#Art/Roles/rol_1201005/Animations/1201005_skill_1.playable|1802005-1#Art/Roles/rol_1201005/Animations/1201005_skill_2.playable|1803005-1#Art/Roles/rol_1201005/Animations/1201005_skill_3.playable</t>
-  </si>
-  <si>
     <t>model_klxb1_1201006_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201006/Pefabs/model_klxb1_1201006_p.prefab</t>
   </si>
   <si>
-    <t>1801006-1#Art/Roles/rol_1201006/Animations/1201006_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_klxb2_1201007_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201007/Pefabs/model_klxb2_1201007_p.prefab</t>
   </si>
   <si>
-    <t>1801007-1#Art/Roles/rol_1201007/Animations/1201007_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_fsjj_1201008_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201008/Pefabs/model_fsjj_1201008_p.prefab</t>
   </si>
   <si>
-    <t>1801008-1#Art/Roles/rol_1201008/Animations/1201008_skill_1.playable|1802008-1#Art/Roles/rol_1201008/Animations/1201008_skill_2.playable|1803008-1#Art/Roles/rol_1201008/Animations/1201008_skill_3.playable</t>
-  </si>
-  <si>
     <t>model_spjj_1201009_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201009/Pefabs/model_spjj_1201009_p.prefab</t>
   </si>
   <si>
-    <t>1801009-1#Art/Roles/rol_1201009/Animations/1201009_skill_1.playable|1802009-1#Art/Roles/rol_1201009/Animations/1201009_skill_2.playable</t>
-  </si>
-  <si>
     <t>model_xzz_1201010_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201010/Pefabs/model_xzz_1201010_p.prefab</t>
   </si>
   <si>
-    <t>1801010-1#Art/Roles/rol_1201010/Animations/1201010_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_mdjbt_1201011_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201011/Pefabs/model_mdjbt_1201011_p.prefab</t>
   </si>
   <si>
-    <t>1801011-1#Art/Roles/rol_1201011/Animations/1201011_skill_1.playable</t>
-  </si>
-  <si>
     <t>model_szz_1201012_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201012/Pefabs/model_szz_1201012_p.prefab</t>
   </si>
   <si>
-    <t>1801012-1#Art/Roles/rol_1201012/Animations/1201012_skill_1.playable|1802012-1#Art/Roles/rol_1201012/Animations/1201012_skill_2.playable|1803012-1#Art/Roles/rol_1201012/Animations/1201012_skill_3.playable</t>
-  </si>
-  <si>
     <t>skillTimeLine</t>
   </si>
   <si>
@@ -1181,7 +802,6 @@
   </si>
   <si>
     <t>battle_role_config.lua</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1192,11 +812,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.lua</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1207,56 +826,1231 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>.lua</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabZoom</t>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+  </si>
+  <si>
+    <t>模型缩放倍数</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>汉字ID</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔坎普</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>盖文</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>砍刀鬼兵</t>
+  </si>
+  <si>
+    <t>链球鬼兵</t>
+  </si>
+  <si>
+    <t>双刀鬼兵</t>
+  </si>
+  <si>
+    <t>鬼将军</t>
+  </si>
+  <si>
+    <t>变身鬼将军</t>
+  </si>
+  <si>
+    <t>伏尸将军</t>
+  </si>
+  <si>
+    <t>石瀑将军</t>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+  </si>
+  <si>
+    <t>魔导机兵团</t>
+  </si>
+  <si>
+    <t>山蜘蛛</t>
+  </si>
+  <si>
+    <t>骷髅小兵1</t>
+  </si>
+  <si>
+    <t>骷髅小兵2</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][3]</t>
+  </si>
+  <si>
+    <t>相机位置.x</t>
+  </si>
+  <si>
+    <t>相机位置.y</t>
+  </si>
+  <si>
+    <t>相机位置.z</t>
+  </si>
+  <si>
+    <t>相机旋转.x</t>
+  </si>
+  <si>
+    <t>相机旋转.y</t>
+  </si>
+  <si>
+    <t>相机旋转.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>战场数据</t>
+  </si>
+  <si>
+    <t>battle_field_data.lua</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>辅助列</t>
+  </si>
+  <si>
+    <t>prefab_Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>skillInfo</t>
+  </si>
+  <si>
+    <t>1301001-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Animations/1101001_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302001-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Animations/1101001_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301002-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Animations/1101002_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302002-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Animations/1101002_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301003-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Animations/1101003_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302003-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Animations/1101003_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301007-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Animations/1101007_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302007-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Animations/1101007_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303001-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102001/Animations/1102001_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303001-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102001/Animations/1102001_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303001-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102001/Animations/1102001_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303002-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102002/Animations/1102002_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303002-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102002/Animations/1102002_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303002-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102002/Animations/1102002_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303004-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102004/Animations/1102004_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303004-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102004/Animations/1102004_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303004-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102004/Animations/1102004_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303015-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102015/Animations/1102015_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301004-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Animations/1101004_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302004-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Animations/1101004_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301005-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101005/Animations/1101005_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301006-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301009-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101009/Animations/1101009_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301010-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101010/Animations/1101010_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301011-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Animations/1101011_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302011-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Animations/1101011_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301012-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101012/Animations/1101012_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1301013-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Animations/1101013_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302013-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Animations/1101013_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301014-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Animations/1101014_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1302014-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Animations/1101014_exskill_2.playable</t>
+  </si>
+  <si>
+    <t>1301015-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Animations/1101015_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303003-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102003/Animations/1102003_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303005-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102005/Animations/1102005_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303006-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102006/Animations/1102006_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303007-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Animations/1102007_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303007-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Animations/1102007_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303007-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Animations/1102007_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303008-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303008-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303009-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102009/Animations/1102009_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303010-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102010/Animations/1102010_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303011-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102011/Animations/1102011_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303012-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102012/Animations/1102012_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303012-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102012/Animations/1102012_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303012-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102012/Animations/1102012_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303013-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102013/Animations/1102013_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303014-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102014/Animations/1102014_exskill_1_a.playable</t>
+  </si>
+  <si>
+    <t>1303014-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102014/Animations/1102014_exskill_1_b.playable</t>
+  </si>
+  <si>
+    <t>1303014-3</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102014/Animations/1102014_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303016-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102016/Animations/1102016_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303017-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102017/Animations/1102017_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303018-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102018/Animations/1102018_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303019-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102019/Animations/1102019_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303020-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102020/Animations/1102020_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1303021-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102021/Animations/1102021_exskill_1.playable</t>
+  </si>
+  <si>
+    <t>1801001-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201001/Animations/1201001_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801002-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201002/Animations/1201002_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801003-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201003/Animations/1201003_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801004-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201004/Animations/1201004_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1802004-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201004/Animations/1201004_skill_2.playable</t>
+  </si>
+  <si>
+    <t>1801005-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201005/Animations/1201005_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1802005-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201005/Animations/1201005_skill_2.playable</t>
+  </si>
+  <si>
+    <t>1803005-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201005/Animations/1201005_skill_3.playable</t>
+  </si>
+  <si>
+    <t>1801006-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201006/Animations/1201006_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801007-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201007/Animations/1201007_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201008/Animations/1201008_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1802008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201008/Animations/1201008_skill_2.playable</t>
+  </si>
+  <si>
+    <t>1803008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201008/Animations/1201008_skill_3.playable</t>
+  </si>
+  <si>
+    <t>1801009-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201009/Animations/1201009_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1802009-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201009/Animations/1201009_skill_2.playable</t>
+  </si>
+  <si>
+    <t>1801010-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201010/Animations/1201010_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801011-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201011/Animations/1201011_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1801012-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201012/Animations/1201012_skill_1.playable</t>
+  </si>
+  <si>
+    <t>1802012-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201012/Animations/1201012_skill_2.playable</t>
+  </si>
+  <si>
+    <t>1803012-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201012/Animations/1201012_skill_3.playable</t>
+  </si>
+  <si>
+    <t>skillInfo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleKey</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID,HelpCol,key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302008-1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_2.playable</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,7 +2058,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1272,19 +2066,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1298,25 +2107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +2131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0" tint="-0.34931485946226387"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,69 +2177,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+  <cellStyleXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+  <cellStyles count="18">
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Grid" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="大标题" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="横向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="因变Grid" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="英文标题" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="纵向标题" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1702,11 +2524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1718,9 +2540,10 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1745,59 +2568,68 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>386</v>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
+      <c r="D3" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>387</v>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3"/>
@@ -1805,43 +2637,79 @@
         <v>1</v>
       </c>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H5" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:CA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="43" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="43" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:79" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1862,377 +2730,701 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>389</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>391</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>393</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>395</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>396</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>397</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
+        <v>401</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>403</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>406</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>83</v>
+        <v>415</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>84</v>
+        <v>416</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>85</v>
+        <v>417</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>88</v>
+        <v>420</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>89</v>
+        <v>421</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>90</v>
+        <v>422</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>91</v>
+        <v>423</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>92</v>
+        <v>424</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>93</v>
+        <v>425</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>94</v>
+        <v>426</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>95</v>
+        <v>427</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2272,38 +3464,206 @@
       <c r="M4" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-    </row>
-    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N4" s="3">
+        <v>-5.24</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>-6.05</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-3.5798999999999999</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>-10.08</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>-4.38</v>
+      </c>
+      <c r="W4" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>-8.41</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>9.66</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>8.9299900000000001</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-6.8</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>-6.89</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>174.917</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>180</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>171.59</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>180</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>121.45399999999999</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>180</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2343,38 +3703,206 @@
       <c r="M5" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-    </row>
-    <row r="6" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="3">
+        <v>-5.24</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-6.05</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-3.5798999999999999</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>-10.08</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>-4.38</v>
+      </c>
+      <c r="W5" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>-8.41</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>9.66</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>8.9299900000000001</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>-6.8</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>-6.89</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>174.917</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>180</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>171.59</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>180</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>121.45399999999999</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>180</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2414,38 +3942,206 @@
       <c r="M6" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-    </row>
-    <row r="7" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N6" s="3">
+        <v>-5.24</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-6.05</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-3.5798999999999999</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-10.08</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>-4.38</v>
+      </c>
+      <c r="W6" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>-8.41</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>9.66</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>8.9299900000000001</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>-6.8</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>-6.89</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>174.917</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>180</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>171.59</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>180</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>121.45399999999999</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="3">
+        <v>180</v>
+      </c>
+      <c r="CA6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2485,1788 +4181,3239 @@
       <c r="M7" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-    </row>
-    <row r="8" spans="1:43" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
+      <c r="N7" s="3">
+        <v>-5.24</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-6.05</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-3.5798999999999999</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-10.08</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>-4.38</v>
+      </c>
+      <c r="W7" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>-8.41</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>9.66</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>8.9299900000000001</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>-6.8</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>2.06</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>-6.89</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>174.917</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>180</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>171.59</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>180</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>121.45399999999999</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>180</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="62.75" customWidth="1"/>
-    <col min="8" max="8" width="106.75" customWidth="1"/>
-    <col min="9" max="9" width="69.625" customWidth="1"/>
-    <col min="10" max="10" width="62.375" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="62.75" customWidth="1"/>
+    <col min="10" max="10" width="69.625" customWidth="1"/>
+    <col min="11" max="11" width="62.375" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>261</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="3">
+        <v>267</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3">
         <v>1.83</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>2.13</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>0.3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>0.23</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>125</v>
+      <c r="H4" s="6">
+        <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1101002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="3">
+        <v>268</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3">
         <v>1.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1.5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>0.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>0.13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>131</v>
+      <c r="H5" s="6">
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1101003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="3">
+        <v>269</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3">
         <v>1.73</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>0.3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>0.2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>137</v>
+      <c r="H6" s="6">
+        <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1101007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="3">
+        <v>270</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3">
         <v>1.8</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>2.1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>0.3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>0.44</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>143</v>
+      <c r="H7" s="6">
+        <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1101008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="3">
+        <v>271</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3">
         <v>1.96</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>0.3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>0.22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>149</v>
+      <c r="H8" s="6">
+        <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1102001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="3">
+        <v>272</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.86</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>3.16</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>0.3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>0.81</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1102002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="3">
+        <v>273</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3">
         <v>2.9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>3.2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>0.3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1.03</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1102004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="3">
+        <v>274</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3">
         <v>2.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>2.8</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>0.3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>0.78</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1102015</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="3">
+        <v>275</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3">
         <v>2.54</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>2.84</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>0.3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>0.64</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1101004</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="3">
+        <v>276</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="3">
         <v>1.9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>0.3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>0.62</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>175</v>
+      <c r="H13" s="6">
+        <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1101005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="3">
+        <v>277</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3">
         <v>1.8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>2.1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>0.3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>0.21</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>180</v>
+      <c r="H14" s="6">
+        <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1101006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="3">
+        <v>278</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3">
         <v>1.8</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>2.1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>0.3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>0.33</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>185</v>
+      <c r="H15" s="6">
+        <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1101009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="3">
+        <v>279</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="3">
         <v>1.83</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>2.13</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>0.3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>0.26</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>191</v>
+      <c r="H16" s="6">
+        <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1101010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="3">
+        <v>280</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="3">
         <v>1.9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>0.3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>0.41</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>196</v>
+      <c r="H17" s="6">
+        <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1101011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="3">
+        <v>281</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="3">
         <v>1.65</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>1.95</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>0.3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>0.22</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>201</v>
+      <c r="H18" s="6">
+        <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1101012</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="3">
+        <v>282</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="3">
         <v>1.9</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>0.3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>0.38</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>206</v>
+      <c r="H19" s="6">
+        <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1101013</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="3">
+        <v>283</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="3">
         <v>1.81</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>2.11</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>0.3</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>0.22</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>211</v>
+      <c r="H20" s="6">
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>213</v>
+        <v>116</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1101014</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="3">
+        <v>284</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="3">
         <v>1.76</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>2.06</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>0.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>0.24</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>216</v>
+      <c r="H21" s="6">
+        <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1101015</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="3">
+        <v>285</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="3">
         <v>1.75</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>0.3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>0.17</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>221</v>
+      <c r="H22" s="6">
+        <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1102003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2.8</v>
+        <v>286</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D23" s="3">
         <v>2.8</v>
       </c>
       <c r="E23" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="F23" s="3">
         <v>0.3</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1.31</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1102005</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="3">
+        <v>287</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>2.6</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>0.3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>0.32</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1102006</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="3">
+        <v>288</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="3">
         <v>3.4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>3.7</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>0.3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>0.9</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1102007</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="3">
+        <v>289</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="3">
         <v>2.17</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>0.3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>0.45</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>240</v>
-      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1102008</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="3">
+        <v>290</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="3">
         <v>3.3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>3.6</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>0.3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1102009</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="3">
+        <v>291</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="3">
         <v>3.06</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>3.36</v>
       </c>
-      <c r="E28" s="3">
+      <c r="F28" s="3">
         <v>0.3</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>0.77</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1102010</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="3">
+        <v>292</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="3">
         <v>3.78</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>4.08</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>0.3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>0.76</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="H29" s="6">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1102011</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="3">
+        <v>293</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="3">
         <v>2.96</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>3.26</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>0.3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>0.78</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3" t="s">
-        <v>256</v>
-      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1102012</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C31" s="3">
+        <v>294</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3">
         <v>2.97</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>3.27</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>0.3</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>1.05</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>260</v>
-      </c>
+      <c r="H31" s="6">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1102013</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="3">
+        <v>295</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="3">
         <v>2.5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="E32" s="3">
         <v>2.8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>0.35</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1.24</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1102014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="3">
+        <v>296</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="3">
         <v>2.94</v>
       </c>
-      <c r="D33" s="3">
+      <c r="E33" s="3">
         <v>3.24</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>0.3</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="H33" s="6">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1102016</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="3">
+        <v>297</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="3">
         <v>3.22</v>
       </c>
-      <c r="D34" s="3">
+      <c r="E34" s="3">
         <v>3.52</v>
       </c>
-      <c r="E34" s="3">
+      <c r="F34" s="3">
         <v>0.3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>0.7</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="s">
-        <v>272</v>
-      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1102017</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C35" s="3">
+        <v>298</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="3">
         <v>2.9</v>
       </c>
-      <c r="D35" s="3">
+      <c r="E35" s="3">
         <v>3.2</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>0.3</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>0.68</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="H35" s="6">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1102018</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C36" s="3">
+        <v>299</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="3">
         <v>3.14</v>
       </c>
-      <c r="D36" s="3">
+      <c r="E36" s="3">
         <v>3.44</v>
       </c>
-      <c r="E36" s="3">
+      <c r="F36" s="3">
         <v>0.3</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>1.19</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1102019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="3">
+        <v>300</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="3">
         <v>2.84</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>3.14</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>0.3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>0.4</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>284</v>
-      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1102020</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C38" s="3">
+        <v>301</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="3">
         <v>2.96</v>
       </c>
-      <c r="D38" s="3">
+      <c r="E38" s="3">
         <v>3.26</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>0.3</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>0.94</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>288</v>
-      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1102021</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="3">
+        <v>302</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" s="3">
         <v>2.75</v>
       </c>
-      <c r="D39" s="3">
+      <c r="E39" s="3">
         <v>3.05</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>0.3</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>0.61</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1201001</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="3">
+        <v>303</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="3">
         <v>2.35</v>
       </c>
-      <c r="D40" s="3">
+      <c r="E40" s="3">
         <v>2.65</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>0.3</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>0.69</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1201002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" s="3">
+        <v>305</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="3">
         <v>1.98</v>
       </c>
-      <c r="D41" s="3">
+      <c r="E41" s="3">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>0.3</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>0.4</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I41" s="3"/>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1201003</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="3">
+        <v>304</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="3">
         <v>1.34</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>1.64</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>0.3</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>0.32</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I42" s="3"/>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1201004</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" s="3">
+        <v>306</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="3">
         <v>2.8</v>
       </c>
-      <c r="D43" s="3">
+      <c r="E43" s="3">
         <v>3.1</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>0.3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>0.78</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I43" s="3"/>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1201005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C44" s="3">
+        <v>307</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" s="3">
         <v>2.8</v>
       </c>
-      <c r="D44" s="3">
+      <c r="E44" s="3">
         <v>3.1</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>0.3</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>0.78</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I44" s="3"/>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1201006</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="3">
+        <v>313</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="3">
         <v>1.96</v>
       </c>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>0.3</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>0.46</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I45" s="3"/>
+      <c r="H45" s="6">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1201007</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C46" s="3">
+        <v>314</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="3">
         <v>1.96</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>0.3</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>0.46</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I46" s="3"/>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1201008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C47" s="3">
+        <v>308</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="3">
         <v>2.97</v>
       </c>
-      <c r="D47" s="3">
+      <c r="E47" s="3">
         <v>3.27</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>0.3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I47" s="3"/>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1201009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C48" s="3">
+        <v>309</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="3">
         <v>2.67</v>
       </c>
-      <c r="D48" s="3">
+      <c r="E48" s="3">
         <v>2.97</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>0.3</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1.08</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="I48" s="3"/>
+      <c r="H48" s="6">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1201010</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C49" s="3">
+        <v>310</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="3">
         <v>1.19</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>1.49</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>0.2</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="3"/>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1201011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C50" s="3">
+        <v>311</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="3">
         <v>1.8</v>
       </c>
-      <c r="D50" s="3">
+      <c r="E50" s="3">
         <v>2.1</v>
       </c>
-      <c r="E50" s="3">
+      <c r="F50" s="3">
         <v>0.3</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>0.4</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I50" s="3"/>
+      <c r="H50" s="6">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1201012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C51" s="3">
+        <v>312</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D51" s="3">
+      <c r="E51" s="3">
         <v>2.48</v>
       </c>
-      <c r="E51" s="3">
+      <c r="F51" s="3">
         <v>0.35</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>1.75</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I51" s="3"/>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="62.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1101001</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1101001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1101002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1101002</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1101003</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1101003</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1101007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1101007</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1101008</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1101008</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1102001</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1102001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1102001</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1102002</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1102002</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1102002</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1102004</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1102004</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1102004</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1102015</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1101004</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1101004</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1101005</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1101006</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1101009</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1101010</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1101011</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1101011</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1101012</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>1101013</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1101013</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>1101014</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1101014</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>1101015</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>1102003</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>1102005</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1102006</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1102007</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>1102007</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>1102007</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>1102008</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>1102008</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>1102008</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>1102009</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>1102010</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>1102011</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>1102012</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>1102012</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>1102012</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>1102013</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>1102014</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>1102014</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>1102014</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>1102016</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>1102017</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>1102018</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>1102019</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>1102020</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>1102021</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>1201001</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>1201002</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>1201003</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>1201004</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>1201004</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>1201005</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>1201005</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>1201005</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>1201006</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>1201007</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>1201008</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>1201008</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>1201008</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>1201009</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>1201009</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>1201010</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>1201011</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>1201012</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>1201012</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>1201012</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4284,23 +7431,23 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4308,7 +7455,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4316,7 +7463,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4324,7 +7471,7 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4338,7 +7485,7 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4352,7 +7499,7 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4360,7 +7507,7 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4368,7 +7515,7 @@
         <v>1304009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -4430,17 +7577,18 @@
         <v>1304019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>330</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4462,68 +7610,68 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>206</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>334</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>339</v>
+        <v>212</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>344</v>
+        <v>217</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4531,7 +7679,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -4540,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>347</v>
+        <v>220</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -4554,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -4563,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>349</v>
+        <v>222</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -4575,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>350</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -4584,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>351</v>
+        <v>224</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -4596,7 +7744,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>352</v>
+        <v>225</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -4605,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -4620,7 +7768,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>354</v>
+        <v>227</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -4634,7 +7782,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -4643,7 +7791,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -4655,7 +7803,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>357</v>
+        <v>230</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -4664,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>358</v>
+        <v>231</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -4676,7 +7824,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -4685,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -4697,7 +7845,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -4706,7 +7854,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>362</v>
+        <v>235</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -4718,7 +7866,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>363</v>
+        <v>236</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -4727,7 +7875,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -4739,7 +7887,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>365</v>
+        <v>238</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -4748,7 +7896,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -4763,7 +7911,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -4775,7 +7923,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>368</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -4784,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -4798,7 +7946,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>370</v>
+        <v>243</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -4807,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>371</v>
+        <v>244</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -4821,7 +7969,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -4830,7 +7978,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>373</v>
+        <v>246</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -4844,7 +7992,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>374</v>
+        <v>247</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -4853,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -4865,7 +8013,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>376</v>
+        <v>249</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -4874,7 +8022,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -4888,7 +8036,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>378</v>
+        <v>251</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -4897,7 +8045,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>379</v>
+        <v>252</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -4914,7 +8062,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>380</v>
+        <v>253</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -4931,7 +8079,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -4948,7 +8096,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -4965,7 +8113,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>383</v>
+        <v>256</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -4982,7 +8130,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>384</v>
+        <v>257</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -4992,7 +8140,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F5860F-1145-426E-8CD1-D5C1DA48F108}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C23DC-3398-4CDE-9F36-96437DF912FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="战场技能" sheetId="28" r:id="rId5"/>
     <sheet name="fxConfig" sheetId="29" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="637">
   <si>
     <t>sheet名</t>
   </si>
@@ -51,760 +51,35 @@
     <t>常驻内存</t>
   </si>
   <si>
+    <t>SingleKey</t>
+  </si>
+  <si>
     <t>战场角色</t>
   </si>
   <si>
+    <t>battle_role_config.lua</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>skillInfo</t>
+  </si>
+  <si>
+    <t>ID,HelpCol,key</t>
+  </si>
+  <si>
     <t>战场技能</t>
   </si>
   <si>
-    <t>fxConfig</t>
-  </si>
-  <si>
-    <t>cameraPos[1]</t>
-  </si>
-  <si>
-    <t>cameraPos[2]</t>
-  </si>
-  <si>
-    <t>cameraPos[3]</t>
-  </si>
-  <si>
-    <t>CameraEuler[1]</t>
-  </si>
-  <si>
-    <t>CameraEuler[2]</t>
-  </si>
-  <si>
-    <t>CameraEuler[3]</t>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-  </si>
-  <si>
-    <t>float:&lt;</t>
-  </si>
-  <si>
-    <t>prefab</t>
-  </si>
-  <si>
-    <t>NormalHeight</t>
-  </si>
-  <si>
-    <t>PrefabHeight</t>
-  </si>
-  <si>
-    <t>PrefabBloodOffset</t>
-  </si>
-  <si>
-    <t>PrefabRadii</t>
-  </si>
-  <si>
-    <t>prefab_Name</t>
-  </si>
-  <si>
-    <t>skillInfo</t>
-  </si>
-  <si>
-    <t>guarDianTimeLine</t>
-  </si>
-  <si>
-    <t>winTimeLine</t>
-  </si>
-  <si>
-    <t>CastingPos</t>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
-  </si>
-  <si>
-    <t>float:e&lt;</t>
-  </si>
-  <si>
-    <t>float:ae&lt;</t>
-  </si>
-  <si>
-    <t>战斗角色唯一ID，其它各个角色表怪物表唯一ID与此对应，不能重复</t>
-  </si>
-  <si>
-    <t>角色模型</t>
-  </si>
-  <si>
-    <t>预设身高</t>
-  </si>
-  <si>
-    <t>模型高度</t>
-  </si>
-  <si>
-    <t>血条偏移高度</t>
-  </si>
-  <si>
-    <t>模型半径</t>
-  </si>
-  <si>
-    <t>战斗角色对应timeLine</t>
-  </si>
-  <si>
-    <t>技能|技能    技能ID-连击数#timeLine路径</t>
-  </si>
-  <si>
-    <t>召唤技能timeLine</t>
-  </si>
-  <si>
-    <t>胜利庆祝timeLine</t>
-  </si>
-  <si>
-    <t>casting位置：X#Y</t>
-  </si>
-  <si>
-    <t>model_cfcyb_1101001_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101001/Pefabs/model_cfcyb_1101001_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101001/Animations/1101001_summon_nwe 1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101001/Animations/1101001_win.playable</t>
-  </si>
-  <si>
-    <t>0#0</t>
-  </si>
-  <si>
-    <t>model_cxl_1101002_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101002/Pefabs/model_cxl_1101002_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101002/Animations/1101002_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101002/Animations/1101002_win.playable</t>
-  </si>
-  <si>
-    <t>-192#197</t>
-  </si>
-  <si>
-    <t>model_zdxl_1101003_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101003/Pefabs/model_zdxl_1101003_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101003/Animations/1101003_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101003/Animations/1101003_win.playable</t>
-  </si>
-  <si>
-    <t>-573#195</t>
-  </si>
-  <si>
-    <t>model_zdcyb_1101007_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101007/Pefabs/model_zdcyb_1101007_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101007/Animations/1101007_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101007/Animations/1101007_win.playable</t>
-  </si>
-  <si>
-    <t>-459#307</t>
-  </si>
-  <si>
-    <t>model_hekp_1101008_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_win.playable</t>
-  </si>
-  <si>
-    <t>-676#34</t>
-  </si>
-  <si>
-    <t>model_gy_1102001_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102001/Pefabs/model_gy_1102001_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102001/Animations/1102001_win.playable</t>
-  </si>
-  <si>
-    <t>-588#148</t>
-  </si>
-  <si>
-    <t>model_xc_1102002_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102002/Pefabs/model_xc_1102002_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102002/Animations/1102002_win.playable</t>
-  </si>
-  <si>
-    <t>-405#296</t>
-  </si>
-  <si>
-    <t>model_tly_1102004_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102004/Pefabs/model_tly_1102004_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102004/Animations/1102004_win.playable</t>
-  </si>
-  <si>
-    <t>-518#461</t>
-  </si>
-  <si>
-    <t>model_yj_1102015_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102015/Pefabs/model_yj_1102015_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102015/Animations/1102015_win.playable</t>
-  </si>
-  <si>
-    <t>-459#252</t>
-  </si>
-  <si>
-    <t>model_xkl_1101004_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101004/Pefabs/model_xkl_1101004_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101004/Animations/1101004_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101004/Animations/1101004_win.playable</t>
-  </si>
-  <si>
-    <t>model_lyc_1101005_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101005/Pefabs/model_lyc_1101005_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101005/Animations/1101005_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101005/Animations/1101005_win.playable</t>
-  </si>
-  <si>
-    <t>model_hltn_1101006_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Animations/1101006_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Animations/1101006_win.playable</t>
-  </si>
-  <si>
-    <t>-480#184</t>
-  </si>
-  <si>
-    <t>model_blsm_1101009_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101009/Pefabs/model_blsm_1101009_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101009/Animations/1101009_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101009/Animations/1101009_win.playable</t>
-  </si>
-  <si>
-    <t>model_gw_1101010_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101010/Pefabs/model_gw_1101010_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101010/Animations/1101010_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101010/Animations/1101010_win.playable</t>
-  </si>
-  <si>
-    <t>model_yfz_1101011_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101011/Pefabs/model_yfz_1101011_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101011/Animations/1101011_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101011/Animations/1101011_win.playable</t>
-  </si>
-  <si>
-    <t>model_nyf_1101012_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101012/Pefabs/model_nyf_1101012_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101012/Animations/1101012_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101012/Animations/1101012_win.playable</t>
-  </si>
-  <si>
-    <t>model_jl_1101013_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101013/Pefabs/model_jl_1101013_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101013/Animations/1101013_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101013/Animations/1101013_win.playable</t>
-  </si>
-  <si>
-    <t>model_lxg_1101014_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101014/Pefabs/model_lxg_1101014_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101014/Animations/1101014_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101014/Animations/1101014_win.playable</t>
-  </si>
-  <si>
-    <t>model_yqq_1101015_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101015/Pefabs/model_yqq_1101015_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101015/Animations/1101015_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101015/Animations/1101015_win.playable</t>
-  </si>
-  <si>
-    <t>model_dw_1102003_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102003/Pefabs/model_dw_1102003_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102003/Animations/1102003_win.playable</t>
-  </si>
-  <si>
-    <t>-729#449</t>
-  </si>
-  <si>
-    <t>model_lxy_1102005_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102005/Pefabs/model_lxy_1102005_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102005/Animations/1102005_win.playable</t>
-  </si>
-  <si>
-    <t>model_xy_1102006_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102006/Pefabs/model_xy_1102006_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102006/Animations/1102006_win.playable</t>
-  </si>
-  <si>
-    <t>model_tstn_1102007_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
-  </si>
-  <si>
-    <t>model_xhy_1102008_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Animations/1102008_win.playable</t>
-  </si>
-  <si>
-    <t>model_xh_1102009_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102009/Pefabs/model_xh_1102009_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102009/Animations/1102009_win.playable</t>
-  </si>
-  <si>
-    <t>model_zh_1102010_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102010/Pefabs/model_zh_1102010_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102010/Animations/1102010_win.playable</t>
-  </si>
-  <si>
-    <t>model_zf_1102011_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102011/Pefabs/model_zf_1102011_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102011/Animations/1102011_win.playable</t>
-  </si>
-  <si>
-    <t>model_xhd_1102012_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102012/Pefabs/model_xhd_1102012_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102012/Animations/1102012_win.playable</t>
-  </si>
-  <si>
-    <t>model_sbls_1102013_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102013/Pefabs/model_sbls_1102013_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102013/Animations/1102013_win.playable</t>
-  </si>
-  <si>
-    <t>model_slm_1102014_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102014/Pefabs/model_slm_1102014_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102014/Animations/1102014_win.playable</t>
-  </si>
-  <si>
-    <t>model_xfl_1102016_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102016/Pefabs/model_xfl_1102016_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102016/Animations/1102016_win.playable</t>
-  </si>
-  <si>
-    <t>model_fl_1102017_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102017/Pefabs/model_fl_1102017_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102017/Animations/1102017_win.playable</t>
-  </si>
-  <si>
-    <t>model_sr_1102018_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102018/Pefabs/model_sr_1102018_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102018/Animations/1102018_win.playable</t>
-  </si>
-  <si>
-    <t>model_shx_1102019_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102019/Pefabs/model_shx_1102019_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102019/Animations/1102019_win.playable</t>
-  </si>
-  <si>
-    <t>model_gs_1102020_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102020/Pefabs/model_gs_1102020_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102020/Animations/1102020_win.playable</t>
-  </si>
-  <si>
-    <t>model_lftl_1102021_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102021/Pefabs/model_lftl_1102021_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102021/Animations/1102021_win.playable</t>
-  </si>
-  <si>
-    <t>model_jsgb1_1201001_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201001/Pefabs/model_jsgb1_1201001_p.prefab</t>
-  </si>
-  <si>
-    <t>model_jsgb2_1201002_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201002/Pefabs/model_jsgb2_1201002_p.prefab</t>
-  </si>
-  <si>
-    <t>model_jsgb3_1201003_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201003/Pefabs/model_jsgb3_1201003_p.prefab</t>
-  </si>
-  <si>
-    <t>model_gjj1_1201004_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201004/Pefabs/model_gjj1_1201004_p.prefab</t>
-  </si>
-  <si>
-    <t>model_gjj2_1201005_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201005/Pefabs/model_gjj2_1201005_p.prefab</t>
-  </si>
-  <si>
-    <t>model_klxb1_1201006_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201006/Pefabs/model_klxb1_1201006_p.prefab</t>
-  </si>
-  <si>
-    <t>model_klxb2_1201007_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201007/Pefabs/model_klxb2_1201007_p.prefab</t>
-  </si>
-  <si>
-    <t>model_fsjj_1201008_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201008/Pefabs/model_fsjj_1201008_p.prefab</t>
-  </si>
-  <si>
-    <t>model_spjj_1201009_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201009/Pefabs/model_spjj_1201009_p.prefab</t>
-  </si>
-  <si>
-    <t>model_xzz_1201010_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201010/Pefabs/model_xzz_1201010_p.prefab</t>
-  </si>
-  <si>
-    <t>model_mdjbt_1201011_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201011/Pefabs/model_mdjbt_1201011_p.prefab</t>
-  </si>
-  <si>
-    <t>model_szz_1201012_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201012/Pefabs/model_szz_1201012_p.prefab</t>
-  </si>
-  <si>
-    <t>skillTimeLine</t>
-  </si>
-  <si>
-    <t>skill_2.playable</t>
-  </si>
-  <si>
-    <t>skill_1.playable</t>
-  </si>
-  <si>
-    <t>follow_Type</t>
-  </si>
-  <si>
-    <t>FxPosId</t>
-  </si>
-  <si>
-    <t>#note</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>LifeTime</t>
-  </si>
-  <si>
-    <t>int:e&lt;</t>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
-    <t>特效Id</t>
-  </si>
-  <si>
-    <t>预设路径名字</t>
-  </si>
-  <si>
-    <t>跟随类型（1完全跟随，2只跟随位置，3不跟随）</t>
-  </si>
-  <si>
-    <t>特效挂点id(0脚下,1被击点,2头顶.)</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>是否循环0-否，1-是</t>
-  </si>
-  <si>
-    <t>持续时长</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_imprisonment</t>
-  </si>
-  <si>
-    <t>禁锢</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhizhaohuan</t>
-  </si>
-  <si>
-    <t>禁止召唤</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhizhudong</t>
-  </si>
-  <si>
-    <t>禁止主动技能</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jinzhibeidong</t>
-  </si>
-  <si>
-    <t>封印被动技能</t>
-  </si>
-  <si>
-    <t>护盾</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy gongji</t>
-  </si>
-  <si>
-    <t>提升攻击</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy shanghai</t>
-  </si>
-  <si>
-    <t>提高伤害</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zy zhiliao</t>
-  </si>
-  <si>
-    <t>提高治疗</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy shanghai</t>
-  </si>
-  <si>
-    <t>减少伤害</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy zhiliao</t>
-  </si>
-  <si>
-    <t>减少目标受到的治疗</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jy fangyu</t>
-  </si>
-  <si>
-    <t>减少防御</t>
-  </si>
-  <si>
-    <t>增加暴击伤害</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_xixue</t>
-  </si>
-  <si>
-    <t>吸血状态</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_bingxiang</t>
-  </si>
-  <si>
-    <t>冰冻</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_xuanyun</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_zhuoshao</t>
-  </si>
-  <si>
-    <t>灼烧</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_yanfengcha</t>
-  </si>
-  <si>
-    <t>阎风吒的标记</t>
-  </si>
-  <si>
-    <t>Art\Effects\_Common\_PrefabsFX_c_buff_jihuo</t>
-  </si>
-  <si>
-    <t>集火标记</t>
-  </si>
-  <si>
-    <t>北落师门印记</t>
-  </si>
-  <si>
-    <t>项昆仑印记</t>
-  </si>
-  <si>
-    <t>血魔印记</t>
-  </si>
-  <si>
-    <t>盖文印记</t>
-  </si>
-  <si>
-    <t>烈风螳螂印记</t>
-  </si>
-  <si>
-    <t>battle_role_config.lua</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>battle_ccskill_config</t>
     </r>
     <r>
@@ -813,12 +88,23 @@
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.lua</t>
     </r>
   </si>
   <si>
+    <t>fxConfig</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>fx_config</t>
     </r>
     <r>
@@ -827,651 +113,1206 @@
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>.lua</t>
     </r>
   </si>
   <si>
+    <t>战场数据</t>
+  </si>
+  <si>
+    <t>battle_field_data.lua</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>cameraPos[1]</t>
+  </si>
+  <si>
+    <t>cameraPos[2]</t>
+  </si>
+  <si>
+    <t>cameraPos[3]</t>
+  </si>
+  <si>
+    <t>CameraEuler[1]</t>
+  </si>
+  <si>
+    <t>CameraEuler[2]</t>
+  </si>
+  <si>
+    <t>CameraEuler[3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMinePos[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyPos[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupMineEuler[3][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[1][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[2][2][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][1][3]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][1]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][2]</t>
+  </si>
+  <si>
+    <t>battleGroupEnemyEuler[3][2][3]</t>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+  </si>
+  <si>
+    <t>相机位置.x</t>
+  </si>
+  <si>
+    <t>相机位置.y</t>
+  </si>
+  <si>
+    <t>相机位置.z</t>
+  </si>
+  <si>
+    <t>相机旋转.x</t>
+  </si>
+  <si>
+    <t>相机旋转.y</t>
+  </si>
+  <si>
+    <t>相机旋转.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方位置.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方位置.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>我方旋转.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[1].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[2].守护灵.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].寄灵人.z</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.x</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.y</t>
+  </si>
+  <si>
+    <t>敌方旋转.pos[3].守护灵.z</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>NormalHeight</t>
+  </si>
+  <si>
+    <t>PrefabHeight</t>
+  </si>
+  <si>
+    <t>PrefabBloodOffset</t>
+  </si>
+  <si>
+    <t>PrefabRadii</t>
+  </si>
+  <si>
     <t>PrefabZoom</t>
   </si>
   <si>
+    <t>prefab_Name</t>
+  </si>
+  <si>
+    <t>guarDianTimeLine</t>
+  </si>
+  <si>
+    <t>winTimeLine</t>
+  </si>
+  <si>
+    <t>CastingPos</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+  </si>
+  <si>
     <t>float:e&lt;</t>
   </si>
   <si>
+    <t>float:ae&lt;</t>
+  </si>
+  <si>
+    <t>战斗角色唯一ID，其它各个角色表怪物表唯一ID与此对应，不能重复</t>
+  </si>
+  <si>
+    <t>汉字ID</t>
+  </si>
+  <si>
+    <t>角色模型</t>
+  </si>
+  <si>
+    <t>预设身高</t>
+  </si>
+  <si>
+    <t>模型高度</t>
+  </si>
+  <si>
+    <t>血条偏移高度</t>
+  </si>
+  <si>
+    <t>模型半径</t>
+  </si>
+  <si>
     <t>模型缩放倍数</t>
   </si>
   <si>
-    <t>#note</t>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>汉字ID</t>
+    <t>战斗角色对应timeLine</t>
+  </si>
+  <si>
+    <t>召唤技能timeLine</t>
+  </si>
+  <si>
+    <t>胜利庆祝timeLine</t>
+  </si>
+  <si>
+    <t>casting位置：X#Y</t>
   </si>
   <si>
     <t>常服曹焱兵</t>
   </si>
   <si>
+    <t>model_cfcyb_1101001_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Pefabs/model_cfcyb_1101001_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Animations/1101001_summon_nwe 1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Animations/1101001_win.playable</t>
+  </si>
+  <si>
+    <t>0#0</t>
+  </si>
+  <si>
     <t>曹玄亮</t>
   </si>
   <si>
+    <t>model_cxl_1101002_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Pefabs/model_cxl_1101002_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Animations/1101002_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Animations/1101002_win.playable</t>
+  </si>
+  <si>
+    <t>-192#197</t>
+  </si>
+  <si>
     <t>战斗夏玲</t>
   </si>
   <si>
+    <t>model_zdxl_1101003_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Pefabs/model_zdxl_1101003_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Animations/1101003_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Animations/1101003_win.playable</t>
+  </si>
+  <si>
+    <t>-573#195</t>
+  </si>
+  <si>
     <t>战斗曹焱兵</t>
   </si>
   <si>
+    <t>model_zdcyb_1101007_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Pefabs/model_zdcyb_1101007_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Animations/1101007_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Animations/1101007_win.playable</t>
+  </si>
+  <si>
+    <t>-459#307</t>
+  </si>
+  <si>
     <t>黑尔坎普</t>
   </si>
   <si>
+    <t>model_hekp_1101008_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_win.playable</t>
+  </si>
+  <si>
+    <t>-676#34</t>
+  </si>
+  <si>
     <t>关羽</t>
   </si>
   <si>
+    <t>model_gy_1102001_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102001/Pefabs/model_gy_1102001_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102001/Animations/1102001_win.playable</t>
+  </si>
+  <si>
+    <t>-588#148</t>
+  </si>
+  <si>
     <t>许褚</t>
   </si>
   <si>
+    <t>model_xc_1102002_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102002/Pefabs/model_xc_1102002_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102002/Animations/1102002_win.playable</t>
+  </si>
+  <si>
+    <t>-405#296</t>
+  </si>
+  <si>
     <t>唐流雨</t>
   </si>
   <si>
+    <t>model_tly_1102004_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102004/Pefabs/model_tly_1102004_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102004/Animations/1102004_win.playable</t>
+  </si>
+  <si>
+    <t>-518#461</t>
+  </si>
+  <si>
     <t>于禁</t>
   </si>
   <si>
+    <t>model_yj_1102015_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102015/Pefabs/model_yj_1102015_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102015/Animations/1102015_win.playable</t>
+  </si>
+  <si>
+    <t>-459#252</t>
+  </si>
+  <si>
     <t>项昆仑</t>
   </si>
   <si>
+    <t>model_xkl_1101004_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Pefabs/model_xkl_1101004_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Animations/1101004_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Animations/1101004_win.playable</t>
+  </si>
+  <si>
     <t>刘羽禅</t>
   </si>
   <si>
+    <t>model_lyc_1101005_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101005/Pefabs/model_lyc_1101005_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101005/Animations/1101005_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101005/Animations/1101005_win.playable</t>
+  </si>
+  <si>
     <t>红莲缇娜</t>
   </si>
   <si>
+    <t>model_hltn_1101006_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_win.playable</t>
+  </si>
+  <si>
+    <t>-480#184</t>
+  </si>
+  <si>
     <t>北落师门</t>
   </si>
   <si>
+    <t>model_blsm_1101009_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101009/Pefabs/model_blsm_1101009_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101009/Animations/1101009_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101009/Animations/1101009_win.playable</t>
+  </si>
+  <si>
     <t>盖文</t>
   </si>
   <si>
+    <t>model_gw_1101010_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101010/Pefabs/model_gw_1101010_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101010/Animations/1101010_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101010/Animations/1101010_win.playable</t>
+  </si>
+  <si>
     <t>阎风吒</t>
   </si>
   <si>
+    <t>model_yfz_1101011_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Pefabs/model_yfz_1101011_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Animations/1101011_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Animations/1101011_win.playable</t>
+  </si>
+  <si>
     <t>南御夫</t>
   </si>
   <si>
+    <t>model_nyf_1101012_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101012/Pefabs/model_nyf_1101012_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101012/Animations/1101012_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101012/Animations/1101012_win.playable</t>
+  </si>
+  <si>
     <t>吉拉</t>
   </si>
   <si>
+    <t>model_jl_1101013_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Pefabs/model_jl_1101013_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Animations/1101013_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Animations/1101013_win.playable</t>
+  </si>
+  <si>
     <t>吕仙宫</t>
   </si>
   <si>
+    <t>model_lxg_1101014_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Pefabs/model_lxg_1101014_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Animations/1101014_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Animations/1101014_win.playable</t>
+  </si>
+  <si>
     <t>阎巧巧</t>
   </si>
   <si>
+    <t>model_yqq_1101015_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Pefabs/model_yqq_1101015_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Animations/1101015_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Animations/1101015_win.playable</t>
+  </si>
+  <si>
     <t>典韦</t>
   </si>
   <si>
+    <t>model_dw_1102003_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102003/Pefabs/model_dw_1102003_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102003/Animations/1102003_win.playable</t>
+  </si>
+  <si>
+    <t>-729#449</t>
+  </si>
+  <si>
     <t>李轩辕</t>
   </si>
   <si>
+    <t>model_lxy_1102005_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102005/Pefabs/model_lxy_1102005_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102005/Animations/1102005_win.playable</t>
+  </si>
+  <si>
     <t>项羽</t>
   </si>
   <si>
+    <t>model_xy_1102006_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102006/Pefabs/model_xy_1102006_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102006/Animations/1102006_win.playable</t>
+  </si>
+  <si>
     <t>天使缇娜</t>
   </si>
   <si>
+    <t>model_tstn_1102007_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
+  </si>
+  <si>
     <t>夏侯渊</t>
   </si>
   <si>
+    <t>model_xhy_1102008_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Animations/1102008_win.playable</t>
+  </si>
+  <si>
     <t>徐晃</t>
   </si>
   <si>
+    <t>model_xh_1102009_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102009/Pefabs/model_xh_1102009_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102009/Animations/1102009_win.playable</t>
+  </si>
+  <si>
     <t>张郃</t>
   </si>
   <si>
+    <t>model_zh_1102010_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102010/Pefabs/model_zh_1102010_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102010/Animations/1102010_win.playable</t>
+  </si>
+  <si>
     <t>张飞</t>
   </si>
   <si>
+    <t>model_zf_1102011_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102011/Pefabs/model_zf_1102011_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102011/Animations/1102011_win.playable</t>
+  </si>
+  <si>
     <t>夏侯惇</t>
   </si>
   <si>
+    <t>model_xhd_1102012_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102012/Pefabs/model_xhd_1102012_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102012/Animations/1102012_win.playable</t>
+  </si>
+  <si>
     <t>塞伯罗斯</t>
   </si>
   <si>
+    <t>model_sbls_1102013_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102013/Pefabs/model_sbls_1102013_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102013/Animations/1102013_win.playable</t>
+  </si>
+  <si>
     <t>石灵明</t>
   </si>
   <si>
+    <t>model_slm_1102014_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102014/Pefabs/model_slm_1102014_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102014/Animations/1102014_win.playable</t>
+  </si>
+  <si>
     <t>西方龙</t>
   </si>
   <si>
+    <t>model_xfl_1102016_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102016/Pefabs/model_xfl_1102016_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102016/Animations/1102016_win.playable</t>
+  </si>
+  <si>
     <t>飞廉</t>
   </si>
   <si>
+    <t>model_fl_1102017_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102017/Pefabs/model_fl_1102017_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102017/Animations/1102017_win.playable</t>
+  </si>
+  <si>
     <t>噬日</t>
   </si>
   <si>
+    <t>model_sr_1102018_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102018/Pefabs/model_sr_1102018_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102018/Animations/1102018_win.playable</t>
+  </si>
+  <si>
     <t>食火蜥</t>
   </si>
   <si>
+    <t>model_shx_1102019_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102019/Pefabs/model_shx_1102019_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102019/Animations/1102019_win.playable</t>
+  </si>
+  <si>
     <t>高顺</t>
   </si>
   <si>
+    <t>model_gs_1102020_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102020/Pefabs/model_gs_1102020_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102020/Animations/1102020_win.playable</t>
+  </si>
+  <si>
     <t>烈风螳螂</t>
   </si>
   <si>
+    <t>model_lftl_1102021_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102021/Pefabs/model_lftl_1102021_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102021/Animations/1102021_win.playable</t>
+  </si>
+  <si>
     <t>砍刀鬼兵</t>
   </si>
   <si>
+    <t>model_jsgb1_1201001_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201001/Pefabs/model_jsgb1_1201001_p.prefab</t>
+  </si>
+  <si>
+    <t>model_jsgb2_1201002_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201002/Pefabs/model_jsgb2_1201002_p.prefab</t>
+  </si>
+  <si>
     <t>链球鬼兵</t>
   </si>
   <si>
-    <t>双刀鬼兵</t>
+    <t>model_jsgb3_1201003_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201003/Pefabs/model_jsgb3_1201003_p.prefab</t>
   </si>
   <si>
     <t>鬼将军</t>
   </si>
   <si>
-    <t>变身鬼将军</t>
+    <t>model_gjj1_1201004_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201004/Pefabs/model_gjj1_1201004_p.prefab</t>
+  </si>
+  <si>
+    <t>model_gjj2_1201005_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201005/Pefabs/model_gjj2_1201005_p.prefab</t>
+  </si>
+  <si>
+    <t>骷髅小兵1</t>
+  </si>
+  <si>
+    <t>model_klxb1_1201006_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201006/Pefabs/model_klxb1_1201006_p.prefab</t>
+  </si>
+  <si>
+    <t>骷髅小兵2</t>
+  </si>
+  <si>
+    <t>model_klxb2_1201007_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201007/Pefabs/model_klxb2_1201007_p.prefab</t>
   </si>
   <si>
     <t>伏尸将军</t>
   </si>
   <si>
+    <t>model_fsjj_1201008_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201008/Pefabs/model_fsjj_1201008_p.prefab</t>
+  </si>
+  <si>
     <t>石瀑将军</t>
   </si>
   <si>
+    <t>model_spjj_1201009_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201009/Pefabs/model_spjj_1201009_p.prefab</t>
+  </si>
+  <si>
     <t>小蜘蛛</t>
   </si>
   <si>
+    <t>model_xzz_1201010_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201010/Pefabs/model_xzz_1201010_p.prefab</t>
+  </si>
+  <si>
     <t>魔导机兵团</t>
   </si>
   <si>
+    <t>model_mdjbt_1201011_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201011/Pefabs/model_mdjbt_1201011_p.prefab</t>
+  </si>
+  <si>
     <t>山蜘蛛</t>
   </si>
   <si>
-    <t>骷髅小兵1</t>
-  </si>
-  <si>
-    <t>骷髅小兵2</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[1][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[2][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMinePos[3][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[1][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[2][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyPos[3][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[1][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[2][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupMineEuler[3][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[1][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[2][2][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][1][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][1][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][1][3]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][2][1]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][2][2]</t>
-  </si>
-  <si>
-    <t>battleGroupEnemyEuler[3][2][3]</t>
-  </si>
-  <si>
-    <t>相机位置.x</t>
-  </si>
-  <si>
-    <t>相机位置.y</t>
-  </si>
-  <si>
-    <t>相机位置.z</t>
-  </si>
-  <si>
-    <t>相机旋转.x</t>
-  </si>
-  <si>
-    <t>相机旋转.y</t>
-  </si>
-  <si>
-    <t>相机旋转.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[1].守护灵.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[2].守护灵.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方位置.pos[3].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[1].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[2].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方位置.pos[3].守护灵.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[1].守护灵.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[2].守护灵.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].寄灵人.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].寄灵人.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].寄灵人.z</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].守护灵.x</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].守护灵.y</t>
-  </si>
-  <si>
-    <t>我方旋转.pos[3].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[1].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[2].守护灵.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].寄灵人.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].寄灵人.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].寄灵人.z</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].守护灵.x</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].守护灵.y</t>
-  </si>
-  <si>
-    <t>敌方旋转.pos[3].守护灵.z</t>
-  </si>
-  <si>
-    <t>战场数据</t>
-  </si>
-  <si>
-    <t>battle_field_data.lua</t>
-  </si>
-  <si>
-    <t>键</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>model_szz_1201012_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201012/Pefabs/model_szz_1201012_p.prefab</t>
+  </si>
+  <si>
+    <t>HelpCol</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>val</t>
   </si>
   <si>
-    <t>int:&lt;</t>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>string</t>
     </r>
     <r>
@@ -1480,6 +1321,7 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:&lt;</t>
@@ -1492,16 +1334,10 @@
     <t>辅助列</t>
   </si>
   <si>
-    <t>prefab_Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>skillInfo</t>
+    <t>键</t>
+  </si>
+  <si>
+    <t>值</t>
   </si>
   <si>
     <t>1301001-1</t>
@@ -1558,6 +1394,12 @@
     <t>Art/Roles/rol_1101008/Animations/1101008_exskill_1.playable</t>
   </si>
   <si>
+    <t>1302008-1</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_2.playable</t>
+  </si>
+  <si>
     <t>1303001-1</t>
   </si>
   <si>
@@ -1972,35 +1814,190 @@
     <t>Art/Roles/rol_1201012/Animations/1201012_skill_3.playable</t>
   </si>
   <si>
-    <t>skillInfo</t>
+    <t>skillTimeLine</t>
+  </si>
+  <si>
+    <t>技能|技能    技能ID-连击数#timeLine路径</t>
+  </si>
+  <si>
+    <t>skill_2.playable</t>
+  </si>
+  <si>
+    <t>skill_1.playable</t>
+  </si>
+  <si>
+    <t>follow_Type</t>
+  </si>
+  <si>
+    <t>FxPosId</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>LifeTime</t>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+  </si>
+  <si>
+    <t>特效Id</t>
+  </si>
+  <si>
+    <t>预设路径名字</t>
+  </si>
+  <si>
+    <t>跟随类型（1完全跟随，2只跟随位置，3不跟随）</t>
+  </si>
+  <si>
+    <t>特效挂点id(0脚下,1被击点,2头顶.)</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>是否循环0-否，1-是</t>
+  </si>
+  <si>
+    <t>持续时长</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_imprisonment.prefab</t>
+  </si>
+  <si>
+    <t>禁锢</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhizhaohuan.prefab</t>
+  </si>
+  <si>
+    <t>禁止召唤</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhizhudong.prefab</t>
+  </si>
+  <si>
+    <t>禁止主动技能</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhibeidong.prefab</t>
+  </si>
+  <si>
+    <t>封印被动技能</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_FX_c_buff_hudun.prefab</t>
+  </si>
+  <si>
+    <t>护盾</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy gongji.prefab</t>
+  </si>
+  <si>
+    <t>提升攻击</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy shanghai.prefab</t>
+  </si>
+  <si>
+    <t>提高伤害</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy zhiliao.prefab</t>
+  </si>
+  <si>
+    <t>提高治疗</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy shanghai.prefab</t>
+  </si>
+  <si>
+    <t>减少伤害</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy zhiliao.prefab</t>
+  </si>
+  <si>
+    <t>减少目标受到的治疗</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy fangyu.prefab</t>
+  </si>
+  <si>
+    <t>减少防御</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_FX_c_buff_zy baoji.prefab</t>
+  </si>
+  <si>
+    <t>增加暴击伤害</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_xixue.prefab</t>
+  </si>
+  <si>
+    <t>吸血状态</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_bingxiang.prefab</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_xuanyun.prefab</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zhuoshao.prefab</t>
+  </si>
+  <si>
+    <t>灼烧</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_yanfengcha.prefab</t>
+  </si>
+  <si>
+    <t>阎风吒的标记</t>
+  </si>
+  <si>
+    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jihuo.prefab</t>
+  </si>
+  <si>
+    <t>集火标记</t>
+  </si>
+  <si>
+    <t>北落师门印记</t>
+  </si>
+  <si>
+    <t>项昆仑印记</t>
+  </si>
+  <si>
+    <t>血魔印记</t>
+  </si>
+  <si>
+    <t>盖文印记</t>
+  </si>
+  <si>
+    <t>烈风螳螂印记</t>
+  </si>
+  <si>
+    <t>Fov</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>SingleKey</t>
+    <t>相机广角</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
+    <t>双刃鬼兵</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>HelpCol</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,HelpCol,key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>1302008-1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_2.playable</t>
+    <t>变身后鬼将军</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2009,17 +2006,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2028,29 +2048,18 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2059,6 +2068,15 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2067,20 +2085,7 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2088,6 +2093,7 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2107,19 +2113,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0" tint="-0.34931485946226387"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,13 +2143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34931485946226387"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,78 +2187,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Grid" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma [0]" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="大标题" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="横向标题" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="因变Grid" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="英文标题" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="纵向标题" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2569,22 +2578,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>638</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>639</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="b">
@@ -2597,17 +2606,17 @@
     </row>
     <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>637</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>642</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>642</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="b">
@@ -2620,17 +2629,17 @@
     </row>
     <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -2641,17 +2650,17 @@
     </row>
     <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="b">
@@ -2662,17 +2671,17 @@
     </row>
     <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>466</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>467</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="b">
@@ -2682,7 +2691,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2693,1690 +2702,1717 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CA7"/>
+  <dimension ref="A1:CB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="43" width="10.625" customWidth="1"/>
+    <col min="1" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="44" width="10.625" customWidth="1"/>
+    <col min="64" max="64" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:80" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>633</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>323</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>325</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>326</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>333</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>341</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>342</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>343</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>344</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>345</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>348</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>352</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>353</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>355</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>356</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>357</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>361</v>
+        <v>71</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>364</v>
+        <v>74</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>365</v>
+        <v>75</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>375</v>
+        <v>85</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>376</v>
+        <v>86</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>377</v>
+        <v>87</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>379</v>
+        <v>89</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>381</v>
+        <v>91</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>383</v>
+        <v>93</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>385</v>
+        <v>95</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>386</v>
+        <v>96</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BW2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BX2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="BZ2" s="5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="CA2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>388</v>
+        <v>634</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>389</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>390</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>392</v>
+        <v>104</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>393</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>399</v>
+        <v>111</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>401</v>
+        <v>113</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>402</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>403</v>
+        <v>115</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>404</v>
+        <v>116</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>406</v>
+        <v>118</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>407</v>
+        <v>119</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>408</v>
+        <v>120</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>409</v>
+        <v>121</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>410</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>411</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>415</v>
+        <v>127</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>417</v>
+        <v>129</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>418</v>
+        <v>130</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>419</v>
+        <v>131</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>420</v>
+        <v>132</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>421</v>
+        <v>133</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>422</v>
+        <v>134</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>424</v>
+        <v>136</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>425</v>
+        <v>137</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>426</v>
+        <v>138</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>427</v>
+        <v>139</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>428</v>
+        <v>140</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>429</v>
+        <v>141</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>430</v>
+        <v>142</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>431</v>
+        <v>143</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>432</v>
+        <v>144</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>434</v>
+        <v>146</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>435</v>
+        <v>147</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>436</v>
+        <v>148</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>437</v>
+        <v>149</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>438</v>
+        <v>150</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>439</v>
+        <v>151</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>440</v>
+        <v>152</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>441</v>
+        <v>153</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>442</v>
+        <v>154</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>444</v>
+        <v>156</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>445</v>
+        <v>157</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>446</v>
+        <v>158</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>447</v>
+        <v>159</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>448</v>
+        <v>160</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>452</v>
+        <v>164</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>453</v>
+        <v>165</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>454</v>
+        <v>166</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>456</v>
+        <v>168</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>457</v>
+        <v>169</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>458</v>
+        <v>170</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>459</v>
+        <v>171</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>460</v>
+        <v>172</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>461</v>
+        <v>173</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>462</v>
+        <v>174</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>463</v>
+        <v>175</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>464</v>
+        <v>176</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1.26</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
-        <v>3.9035120000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D4" s="3">
-        <v>-10.749219999999999</v>
+        <v>8.32</v>
       </c>
       <c r="E4" s="3">
-        <v>21.390999999999998</v>
+        <v>-21.95</v>
       </c>
       <c r="F4" s="3">
-        <v>-12.994999999999999</v>
+        <v>18.527999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>-2.794</v>
+        <v>-16.178999999999998</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.57999999999999996</v>
+        <v>-1.7410000000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="J4" s="3">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
+        <v>-6.63</v>
+      </c>
+      <c r="L4" s="3">
         <v>1.08</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
       <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N4" s="3">
-        <v>-5.24</v>
-      </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>-7.11</v>
       </c>
       <c r="P4" s="3">
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="R4" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
       <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>-10.08</v>
       </c>
-      <c r="T4" s="3">
-        <v>3.6</v>
-      </c>
       <c r="U4" s="3">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="V4" s="3">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3">
+        <v>-4.22</v>
+      </c>
+      <c r="X4" s="3">
         <v>5.26</v>
       </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
       <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
         <v>-8.41</v>
       </c>
-      <c r="Z4" s="3">
-        <v>-2.5099999999999998</v>
-      </c>
       <c r="AA4" s="3">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
       <c r="AB4" s="3">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="AD4" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AD4" s="3">
-        <v>0</v>
-      </c>
       <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
         <v>9.66</v>
       </c>
-      <c r="AF4" s="3">
-        <v>2.65</v>
-      </c>
       <c r="AG4" s="3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH4" s="3">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="3">
         <v>1.48</v>
       </c>
-      <c r="AJ4" s="3">
-        <v>0</v>
-      </c>
       <c r="AK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AL4" s="3">
-        <v>-6.8</v>
-      </c>
       <c r="AM4" s="3">
-        <v>0</v>
+        <v>-9.19</v>
       </c>
       <c r="AN4" s="3">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AP4" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AP4" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
         <v>6.02</v>
       </c>
-      <c r="AR4" s="3">
-        <v>0</v>
-      </c>
       <c r="AS4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3">
         <v>-10</v>
       </c>
-      <c r="AT4" s="3">
-        <v>0</v>
-      </c>
       <c r="AU4" s="3">
         <v>0</v>
       </c>
       <c r="AV4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3">
         <v>-10</v>
       </c>
-      <c r="AW4" s="3">
-        <v>0</v>
-      </c>
       <c r="AX4" s="3">
         <v>0</v>
       </c>
       <c r="AY4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>28.154</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>0</v>
-      </c>
       <c r="BD4" s="3">
         <v>0</v>
       </c>
       <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>-35.4</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>0</v>
-      </c>
       <c r="BJ4" s="3">
         <v>0</v>
       </c>
       <c r="BK4" s="3">
-        <v>174.917</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="3">
-        <v>0</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BM4" s="3">
         <v>0</v>
       </c>
       <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
         <v>180</v>
       </c>
-      <c r="BO4" s="3">
-        <v>0</v>
-      </c>
       <c r="BP4" s="3">
         <v>0</v>
       </c>
       <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
         <v>171.59</v>
       </c>
-      <c r="BR4" s="3">
-        <v>0</v>
-      </c>
       <c r="BS4" s="3">
         <v>0</v>
       </c>
       <c r="BT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="3">
         <v>180</v>
       </c>
-      <c r="BU4" s="3">
-        <v>0</v>
-      </c>
       <c r="BV4" s="3">
         <v>0</v>
       </c>
       <c r="BW4" s="3">
-        <v>121.45399999999999</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="3">
-        <v>0</v>
+        <v>-169.947</v>
       </c>
       <c r="BY4" s="3">
         <v>0</v>
       </c>
       <c r="BZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="3">
         <v>180</v>
       </c>
-      <c r="CA4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CB4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1.26</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
-        <v>3.9035120000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D5" s="3">
-        <v>-10.749219999999999</v>
+        <v>8.32</v>
       </c>
       <c r="E5" s="3">
-        <v>21.390999999999998</v>
+        <v>-21.95</v>
       </c>
       <c r="F5" s="3">
-        <v>-12.994999999999999</v>
+        <v>18.527999999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>-2.794</v>
+        <v>-16.178999999999998</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.57999999999999996</v>
+        <v>-1.7410000000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="J5" s="3">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
+        <v>-6.63</v>
+      </c>
+      <c r="L5" s="3">
         <v>1.08</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
       <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N5" s="3">
-        <v>-5.24</v>
-      </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>-7.11</v>
       </c>
       <c r="P5" s="3">
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="3">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="R5" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
       <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
         <v>-10.08</v>
       </c>
-      <c r="T5" s="3">
-        <v>3.6</v>
-      </c>
       <c r="U5" s="3">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="V5" s="3">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
+        <v>-4.22</v>
+      </c>
+      <c r="X5" s="3">
         <v>5.26</v>
       </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
       <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
         <v>-8.41</v>
       </c>
-      <c r="Z5" s="3">
-        <v>-2.5099999999999998</v>
-      </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
       <c r="AB5" s="3">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="AD5" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AD5" s="3">
-        <v>0</v>
-      </c>
       <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
         <v>9.66</v>
       </c>
-      <c r="AF5" s="3">
-        <v>2.65</v>
-      </c>
       <c r="AG5" s="3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH5" s="3">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="3">
         <v>1.48</v>
       </c>
-      <c r="AJ5" s="3">
-        <v>0</v>
-      </c>
       <c r="AK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AL5" s="3">
-        <v>-6.8</v>
-      </c>
       <c r="AM5" s="3">
-        <v>0</v>
+        <v>-9.19</v>
       </c>
       <c r="AN5" s="3">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AP5" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AP5" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3">
         <v>6.02</v>
       </c>
-      <c r="AR5" s="3">
-        <v>0</v>
-      </c>
       <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
         <v>-10</v>
       </c>
-      <c r="AT5" s="3">
-        <v>0</v>
-      </c>
       <c r="AU5" s="3">
         <v>0</v>
       </c>
       <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
         <v>-10</v>
       </c>
-      <c r="AW5" s="3">
-        <v>0</v>
-      </c>
       <c r="AX5" s="3">
         <v>0</v>
       </c>
       <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>28.154</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>0</v>
-      </c>
       <c r="BD5" s="3">
         <v>0</v>
       </c>
       <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>-35.4</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>0</v>
-      </c>
       <c r="BJ5" s="3">
         <v>0</v>
       </c>
       <c r="BK5" s="3">
-        <v>174.917</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="3">
-        <v>0</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BM5" s="3">
         <v>0</v>
       </c>
       <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
         <v>180</v>
       </c>
-      <c r="BO5" s="3">
-        <v>0</v>
-      </c>
       <c r="BP5" s="3">
         <v>0</v>
       </c>
       <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
         <v>171.59</v>
       </c>
-      <c r="BR5" s="3">
-        <v>0</v>
-      </c>
       <c r="BS5" s="3">
         <v>0</v>
       </c>
       <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="3">
         <v>180</v>
       </c>
-      <c r="BU5" s="3">
-        <v>0</v>
-      </c>
       <c r="BV5" s="3">
         <v>0</v>
       </c>
       <c r="BW5" s="3">
-        <v>121.45399999999999</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="3">
-        <v>0</v>
+        <v>-169.947</v>
       </c>
       <c r="BY5" s="3">
         <v>0</v>
       </c>
       <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
         <v>180</v>
       </c>
-      <c r="CA5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CB5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1.26</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3">
-        <v>3.9035120000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D6" s="3">
-        <v>-10.749219999999999</v>
+        <v>8.32</v>
       </c>
       <c r="E6" s="3">
-        <v>21.390999999999998</v>
+        <v>-21.95</v>
       </c>
       <c r="F6" s="3">
-        <v>-12.994999999999999</v>
+        <v>18.527999999999999</v>
       </c>
       <c r="G6" s="3">
-        <v>-2.794</v>
+        <v>-16.178999999999998</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.57999999999999996</v>
+        <v>-1.7410000000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="J6" s="3">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
+        <v>-6.63</v>
+      </c>
+      <c r="L6" s="3">
         <v>1.08</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
       <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N6" s="3">
-        <v>-5.24</v>
-      </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>-7.11</v>
       </c>
       <c r="P6" s="3">
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="R6" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
       <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <v>-10.08</v>
       </c>
-      <c r="T6" s="3">
-        <v>3.6</v>
-      </c>
       <c r="U6" s="3">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="V6" s="3">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
+        <v>-4.22</v>
+      </c>
+      <c r="X6" s="3">
         <v>5.26</v>
       </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
       <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
         <v>-8.41</v>
       </c>
-      <c r="Z6" s="3">
-        <v>-2.5099999999999998</v>
-      </c>
       <c r="AA6" s="3">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
       <c r="AB6" s="3">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="AD6" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AD6" s="3">
-        <v>0</v>
-      </c>
       <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
         <v>9.66</v>
       </c>
-      <c r="AF6" s="3">
-        <v>2.65</v>
-      </c>
       <c r="AG6" s="3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH6" s="3">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="3">
         <v>1.48</v>
       </c>
-      <c r="AJ6" s="3">
-        <v>0</v>
-      </c>
       <c r="AK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AL6" s="3">
-        <v>-6.8</v>
-      </c>
       <c r="AM6" s="3">
-        <v>0</v>
+        <v>-9.19</v>
       </c>
       <c r="AN6" s="3">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AP6" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AP6" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="3">
         <v>6.02</v>
       </c>
-      <c r="AR6" s="3">
-        <v>0</v>
-      </c>
       <c r="AS6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="3">
         <v>-10</v>
       </c>
-      <c r="AT6" s="3">
-        <v>0</v>
-      </c>
       <c r="AU6" s="3">
         <v>0</v>
       </c>
       <c r="AV6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="3">
         <v>-10</v>
       </c>
-      <c r="AW6" s="3">
-        <v>0</v>
-      </c>
       <c r="AX6" s="3">
         <v>0</v>
       </c>
       <c r="AY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>28.154</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>0</v>
-      </c>
       <c r="BD6" s="3">
         <v>0</v>
       </c>
       <c r="BE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>-35.4</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>0</v>
-      </c>
       <c r="BJ6" s="3">
         <v>0</v>
       </c>
       <c r="BK6" s="3">
-        <v>174.917</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="3">
-        <v>0</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BM6" s="3">
         <v>0</v>
       </c>
       <c r="BN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="3">
         <v>180</v>
       </c>
-      <c r="BO6" s="3">
-        <v>0</v>
-      </c>
       <c r="BP6" s="3">
         <v>0</v>
       </c>
       <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
         <v>171.59</v>
       </c>
-      <c r="BR6" s="3">
-        <v>0</v>
-      </c>
       <c r="BS6" s="3">
         <v>0</v>
       </c>
       <c r="BT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="3">
         <v>180</v>
       </c>
-      <c r="BU6" s="3">
-        <v>0</v>
-      </c>
       <c r="BV6" s="3">
         <v>0</v>
       </c>
       <c r="BW6" s="3">
-        <v>121.45399999999999</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="3">
-        <v>0</v>
+        <v>-169.947</v>
       </c>
       <c r="BY6" s="3">
         <v>0</v>
       </c>
       <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="3">
         <v>180</v>
       </c>
-      <c r="CA6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CB6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1.26</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
-        <v>3.9035120000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="D7" s="3">
-        <v>-10.749219999999999</v>
+        <v>8.32</v>
       </c>
       <c r="E7" s="3">
-        <v>21.390999999999998</v>
+        <v>-21.95</v>
       </c>
       <c r="F7" s="3">
-        <v>-12.994999999999999</v>
+        <v>18.527999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>-2.794</v>
+        <v>-16.178999999999998</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.57999999999999996</v>
+        <v>-1.7410000000000001</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
       <c r="J7" s="3">
-        <v>-6.52</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
+        <v>-6.63</v>
+      </c>
+      <c r="L7" s="3">
         <v>1.08</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
       <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>-10.55</v>
       </c>
-      <c r="N7" s="3">
-        <v>-5.24</v>
-      </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>-7.11</v>
       </c>
       <c r="P7" s="3">
-        <v>-6.05</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="R7" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
       <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <v>-10.08</v>
       </c>
-      <c r="T7" s="3">
-        <v>3.6</v>
-      </c>
       <c r="U7" s="3">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="V7" s="3">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
+        <v>-4.22</v>
+      </c>
+      <c r="X7" s="3">
         <v>5.26</v>
       </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
       <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
         <v>-8.41</v>
       </c>
-      <c r="Z7" s="3">
-        <v>-2.5099999999999998</v>
-      </c>
       <c r="AA7" s="3">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
       <c r="AB7" s="3">
-        <v>3.99</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="AD7" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AD7" s="3">
-        <v>0</v>
-      </c>
       <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
         <v>9.66</v>
       </c>
-      <c r="AF7" s="3">
-        <v>2.65</v>
-      </c>
       <c r="AG7" s="3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH7" s="3">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="3">
         <v>1.48</v>
       </c>
-      <c r="AJ7" s="3">
-        <v>0</v>
-      </c>
       <c r="AK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AL7" s="3">
-        <v>-6.8</v>
-      </c>
       <c r="AM7" s="3">
-        <v>0</v>
+        <v>-9.19</v>
       </c>
       <c r="AN7" s="3">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="AP7" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AP7" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
         <v>6.02</v>
       </c>
-      <c r="AR7" s="3">
-        <v>0</v>
-      </c>
       <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
         <v>-10</v>
       </c>
-      <c r="AT7" s="3">
-        <v>0</v>
-      </c>
       <c r="AU7" s="3">
         <v>0</v>
       </c>
       <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
         <v>-10</v>
       </c>
-      <c r="AW7" s="3">
-        <v>0</v>
-      </c>
       <c r="AX7" s="3">
         <v>0</v>
       </c>
       <c r="AY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>28.154</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>0</v>
-      </c>
       <c r="BD7" s="3">
         <v>0</v>
       </c>
       <c r="BE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>-35.4</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>0</v>
-      </c>
       <c r="BJ7" s="3">
         <v>0</v>
       </c>
       <c r="BK7" s="3">
-        <v>174.917</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="3">
-        <v>0</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BM7" s="3">
         <v>0</v>
       </c>
       <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
         <v>180</v>
       </c>
-      <c r="BO7" s="3">
-        <v>0</v>
-      </c>
       <c r="BP7" s="3">
         <v>0</v>
       </c>
       <c r="BQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="3">
         <v>171.59</v>
       </c>
-      <c r="BR7" s="3">
-        <v>0</v>
-      </c>
       <c r="BS7" s="3">
         <v>0</v>
       </c>
       <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="3">
         <v>180</v>
       </c>
-      <c r="BU7" s="3">
-        <v>0</v>
-      </c>
       <c r="BV7" s="3">
         <v>0</v>
       </c>
       <c r="BW7" s="3">
-        <v>121.45399999999999</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="3">
-        <v>0</v>
+        <v>-169.947</v>
       </c>
       <c r="BY7" s="3">
         <v>0</v>
       </c>
       <c r="BZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="3">
         <v>180</v>
       </c>
-      <c r="CA7" s="3">
+      <c r="CB7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4391,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4412,116 +4448,116 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>477</v>
+        <v>186</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>472</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4529,10 +4565,10 @@
         <v>1101001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="D4" s="3">
         <v>1.83</v>
@@ -4550,16 +4586,16 @@
         <v>1</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4567,10 +4603,10 @@
         <v>1101002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -4588,16 +4624,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4605,10 +4641,10 @@
         <v>1101003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3">
         <v>1.73</v>
@@ -4626,16 +4662,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4643,10 +4679,10 @@
         <v>1101007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="D7" s="3">
         <v>1.8</v>
@@ -4664,16 +4700,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4681,10 +4717,10 @@
         <v>1101008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="D8" s="3">
         <v>1.96</v>
@@ -4702,16 +4738,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4719,10 +4755,10 @@
         <v>1102001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="D9" s="3">
         <v>2.86</v>
@@ -4740,14 +4776,14 @@
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4755,10 +4791,10 @@
         <v>1102002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="D10" s="3">
         <v>2.9</v>
@@ -4776,14 +4812,14 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4791,10 +4827,10 @@
         <v>1102004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="D11" s="3">
         <v>2.5</v>
@@ -4812,14 +4848,14 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4827,10 +4863,10 @@
         <v>1102015</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="D12" s="3">
         <v>2.54</v>
@@ -4848,14 +4884,14 @@
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4863,10 +4899,10 @@
         <v>1101004</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="D13" s="3">
         <v>1.9</v>
@@ -4884,16 +4920,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4901,10 +4937,10 @@
         <v>1101005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
       <c r="D14" s="3">
         <v>1.8</v>
@@ -4922,16 +4958,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4939,10 +4975,10 @@
         <v>1101006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="D15" s="3">
         <v>1.8</v>
@@ -4960,16 +4996,16 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4977,10 +5013,10 @@
         <v>1101009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="D16" s="3">
         <v>1.83</v>
@@ -4998,16 +5034,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5015,10 +5051,10 @@
         <v>1101010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="D17" s="3">
         <v>1.9</v>
@@ -5036,16 +5072,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5053,10 +5089,10 @@
         <v>1101011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="D18" s="3">
         <v>1.65</v>
@@ -5074,16 +5110,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>107</v>
+        <v>284</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5091,10 +5127,10 @@
         <v>1101012</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="D19" s="3">
         <v>1.9</v>
@@ -5112,16 +5148,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5129,10 +5165,10 @@
         <v>1101013</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="D20" s="3">
         <v>1.81</v>
@@ -5150,16 +5186,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5167,10 +5203,10 @@
         <v>1101014</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="D21" s="3">
         <v>1.76</v>
@@ -5188,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5205,10 +5241,10 @@
         <v>1101015</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="D22" s="3">
         <v>1.75</v>
@@ -5226,16 +5262,16 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>125</v>
+        <v>306</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5243,10 +5279,10 @@
         <v>1102003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="D23" s="3">
         <v>2.8</v>
@@ -5264,14 +5300,14 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5279,10 +5315,10 @@
         <v>1102005</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="D24" s="3">
         <v>2.2999999999999998</v>
@@ -5300,14 +5336,14 @@
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5315,10 +5351,10 @@
         <v>1102006</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="D25" s="3">
         <v>3.4</v>
@@ -5336,14 +5372,14 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5351,10 +5387,10 @@
         <v>1102007</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="D26" s="3">
         <v>2.17</v>
@@ -5372,14 +5408,14 @@
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>322</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>138</v>
+        <v>323</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5387,10 +5423,10 @@
         <v>1102008</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="D27" s="3">
         <v>3.3</v>
@@ -5408,14 +5444,14 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5423,10 +5459,10 @@
         <v>1102009</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="D28" s="3">
         <v>3.06</v>
@@ -5444,14 +5480,14 @@
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>144</v>
+        <v>331</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5459,10 +5495,10 @@
         <v>1102010</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="D29" s="3">
         <v>3.78</v>
@@ -5480,14 +5516,14 @@
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5495,10 +5531,10 @@
         <v>1102011</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="D30" s="3">
         <v>2.96</v>
@@ -5516,14 +5552,14 @@
         <v>1</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5531,10 +5567,10 @@
         <v>1102012</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>151</v>
+        <v>341</v>
       </c>
       <c r="D31" s="3">
         <v>2.97</v>
@@ -5552,14 +5588,14 @@
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>152</v>
+        <v>342</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5567,10 +5603,10 @@
         <v>1102013</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="D32" s="3">
         <v>2.5</v>
@@ -5588,14 +5624,14 @@
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5603,10 +5639,10 @@
         <v>1102014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="D33" s="3">
         <v>2.94</v>
@@ -5624,14 +5660,14 @@
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>159</v>
+        <v>351</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5639,10 +5675,10 @@
         <v>1102016</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="D34" s="3">
         <v>3.22</v>
@@ -5660,14 +5696,14 @@
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5675,10 +5711,10 @@
         <v>1102017</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="D35" s="3">
         <v>2.9</v>
@@ -5696,14 +5732,14 @@
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5711,10 +5747,10 @@
         <v>1102018</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>166</v>
+        <v>361</v>
       </c>
       <c r="D36" s="3">
         <v>3.14</v>
@@ -5732,14 +5768,14 @@
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>167</v>
+        <v>362</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5747,10 +5783,10 @@
         <v>1102019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="D37" s="3">
         <v>2.84</v>
@@ -5768,14 +5804,14 @@
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>170</v>
+        <v>366</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5783,10 +5819,10 @@
         <v>1102020</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>172</v>
+        <v>369</v>
       </c>
       <c r="D38" s="3">
         <v>2.96</v>
@@ -5804,14 +5840,14 @@
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>173</v>
+        <v>370</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>174</v>
+        <v>371</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5819,10 +5855,10 @@
         <v>1102021</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="D39" s="3">
         <v>2.75</v>
@@ -5840,14 +5876,14 @@
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>176</v>
+        <v>374</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -5855,10 +5891,10 @@
         <v>1201001</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="D40" s="3">
         <v>2.35</v>
@@ -5876,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -5887,10 +5923,10 @@
         <v>1201002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>305</v>
+        <v>635</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>180</v>
+        <v>379</v>
       </c>
       <c r="D41" s="3">
         <v>1.98</v>
@@ -5908,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>181</v>
+        <v>380</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5919,10 +5955,10 @@
         <v>1201003</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>182</v>
+        <v>382</v>
       </c>
       <c r="D42" s="3">
         <v>1.34</v>
@@ -5940,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -5951,10 +5987,10 @@
         <v>1201004</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>184</v>
+        <v>385</v>
       </c>
       <c r="D43" s="3">
         <v>2.8</v>
@@ -5972,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>185</v>
+        <v>386</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -5983,10 +6019,10 @@
         <v>1201005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>307</v>
+        <v>636</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>186</v>
+        <v>387</v>
       </c>
       <c r="D44" s="3">
         <v>2.8</v>
@@ -6004,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>187</v>
+        <v>388</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -6015,10 +6051,10 @@
         <v>1201006</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>188</v>
+        <v>390</v>
       </c>
       <c r="D45" s="3">
         <v>1.96</v>
@@ -6036,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>189</v>
+        <v>391</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -6047,10 +6083,10 @@
         <v>1201007</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>190</v>
+        <v>393</v>
       </c>
       <c r="D46" s="3">
         <v>1.96</v>
@@ -6068,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>191</v>
+        <v>394</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -6079,10 +6115,10 @@
         <v>1201008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>192</v>
+        <v>396</v>
       </c>
       <c r="D47" s="3">
         <v>2.97</v>
@@ -6100,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -6111,10 +6147,10 @@
         <v>1201009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>309</v>
+        <v>398</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="D48" s="3">
         <v>2.67</v>
@@ -6132,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -6143,10 +6179,10 @@
         <v>1201010</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="D49" s="3">
         <v>1.19</v>
@@ -6164,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -6175,10 +6211,10 @@
         <v>1201011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="D50" s="3">
         <v>1.8</v>
@@ -6196,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -6207,10 +6243,10 @@
         <v>1201012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="D51" s="3">
         <v>2.1800000000000002</v>
@@ -6228,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6245,8 +6281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6259,44 +6295,44 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>640</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>641</v>
+        <v>411</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>474</v>
+        <v>413</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>475</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6304,13 +6340,13 @@
         <v>1101001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6318,13 +6354,13 @@
         <v>1101001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6332,13 +6368,13 @@
         <v>1101002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6346,13 +6382,13 @@
         <v>1101002</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6360,13 +6396,13 @@
         <v>1101003</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6374,13 +6410,13 @@
         <v>1101003</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6388,13 +6424,13 @@
         <v>1101007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>494</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6402,13 +6438,13 @@
         <v>1101007</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6416,13 +6452,13 @@
         <v>1101008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6430,13 +6466,13 @@
         <v>1101008</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>644</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6444,13 +6480,13 @@
         <v>1102001</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6458,13 +6494,13 @@
         <v>1102001</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6472,13 +6508,13 @@
         <v>1102001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6486,13 +6522,13 @@
         <v>1102002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6500,13 +6536,13 @@
         <v>1102002</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6514,13 +6550,13 @@
         <v>1102002</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>510</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6528,13 +6564,13 @@
         <v>1102004</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>511</v>
+        <v>450</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>512</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6542,13 +6578,13 @@
         <v>1102004</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6556,13 +6592,13 @@
         <v>1102004</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>516</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6570,13 +6606,13 @@
         <v>1102015</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>517</v>
+        <v>456</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>518</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6584,13 +6620,13 @@
         <v>1101004</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>519</v>
+        <v>458</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>520</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6598,13 +6634,13 @@
         <v>1101004</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6612,13 +6648,13 @@
         <v>1101005</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>523</v>
+        <v>462</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6626,13 +6662,13 @@
         <v>1101006</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>526</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6640,13 +6676,13 @@
         <v>1101009</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>527</v>
+        <v>466</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>528</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6654,13 +6690,13 @@
         <v>1101010</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>530</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6668,13 +6704,13 @@
         <v>1101011</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>532</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6682,13 +6718,13 @@
         <v>1101011</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>534</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6696,13 +6732,13 @@
         <v>1101012</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>535</v>
+        <v>474</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>536</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6710,13 +6746,13 @@
         <v>1101013</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>537</v>
+        <v>476</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>538</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6724,13 +6760,13 @@
         <v>1101013</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>539</v>
+        <v>478</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>540</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6738,13 +6774,13 @@
         <v>1101014</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>542</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6752,13 +6788,13 @@
         <v>1101014</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>543</v>
+        <v>482</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>544</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6766,13 +6802,13 @@
         <v>1101015</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>545</v>
+        <v>484</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>546</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6780,13 +6816,13 @@
         <v>1102003</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>548</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6794,13 +6830,13 @@
         <v>1102005</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>550</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6808,13 +6844,13 @@
         <v>1102006</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>551</v>
+        <v>490</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>552</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6822,13 +6858,13 @@
         <v>1102007</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>554</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6836,13 +6872,13 @@
         <v>1102007</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>556</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6850,13 +6886,13 @@
         <v>1102007</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>557</v>
+        <v>496</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>558</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6864,13 +6900,13 @@
         <v>1102008</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>560</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6878,13 +6914,13 @@
         <v>1102008</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>562</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6892,13 +6928,13 @@
         <v>1102008</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>564</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6906,13 +6942,13 @@
         <v>1102009</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>565</v>
+        <v>504</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6920,13 +6956,13 @@
         <v>1102010</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>567</v>
+        <v>506</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6934,13 +6970,13 @@
         <v>1102011</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>570</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6948,13 +6984,13 @@
         <v>1102012</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>571</v>
+        <v>510</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>572</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6962,13 +6998,13 @@
         <v>1102012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>573</v>
+        <v>512</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>574</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6976,13 +7012,13 @@
         <v>1102012</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>480</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>575</v>
+        <v>514</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6990,13 +7026,13 @@
         <v>1102013</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>577</v>
+        <v>516</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>578</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7004,13 +7040,13 @@
         <v>1102014</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>580</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7018,13 +7054,13 @@
         <v>1102014</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>581</v>
+        <v>520</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>582</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7032,13 +7068,13 @@
         <v>1102014</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>583</v>
+        <v>522</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>584</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7046,13 +7082,13 @@
         <v>1102016</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>585</v>
+        <v>524</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>586</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7060,13 +7096,13 @@
         <v>1102017</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7074,13 +7110,13 @@
         <v>1102018</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>589</v>
+        <v>528</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7088,13 +7124,13 @@
         <v>1102019</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>591</v>
+        <v>530</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7102,13 +7138,13 @@
         <v>1102020</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>594</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7116,13 +7152,13 @@
         <v>1102021</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>595</v>
+        <v>534</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>596</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7130,13 +7166,13 @@
         <v>1201001</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>598</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7144,13 +7180,13 @@
         <v>1201002</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>599</v>
+        <v>538</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>600</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7158,13 +7194,13 @@
         <v>1201003</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>601</v>
+        <v>540</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7172,13 +7208,13 @@
         <v>1201004</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7186,13 +7222,13 @@
         <v>1201004</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7200,13 +7236,13 @@
         <v>1201005</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7214,13 +7250,13 @@
         <v>1201005</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>609</v>
+        <v>548</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>610</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7228,13 +7264,13 @@
         <v>1201005</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>612</v>
+        <v>551</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7242,13 +7278,13 @@
         <v>1201006</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>613</v>
+        <v>552</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>614</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7256,13 +7292,13 @@
         <v>1201007</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>616</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7270,13 +7306,13 @@
         <v>1201008</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7284,13 +7320,13 @@
         <v>1201008</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7298,13 +7334,13 @@
         <v>1201008</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7312,13 +7348,13 @@
         <v>1201009</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7326,13 +7362,13 @@
         <v>1201009</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>625</v>
+        <v>564</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>626</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7340,13 +7376,13 @@
         <v>1201010</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>627</v>
+        <v>566</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7354,13 +7390,13 @@
         <v>1201011</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>630</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7368,13 +7404,13 @@
         <v>1201012</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>631</v>
+        <v>570</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>632</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7382,13 +7418,13 @@
         <v>1201012</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>633</v>
+        <v>572</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>634</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -7396,28 +7432,28 @@
         <v>1201012</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>635</v>
+        <v>574</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7428,26 +7464,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7455,7 +7491,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>203</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7463,7 +7499,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7471,35 +7507,39 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1304004</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1304005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1304006</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1304007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7507,16 +7547,14 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1304009</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -7559,26 +7597,6 @@
         <v>1304016</v>
       </c>
       <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>1304017</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>1304018</v>
-      </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1304019</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>203</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -7589,10 +7607,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7600,78 +7618,78 @@
     <col min="2" max="2" width="93.625" customWidth="1"/>
     <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>581</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>582</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>584</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>586</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>587</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>588</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>589</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>590</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -7679,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7688,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>220</v>
+        <v>593</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -7702,7 +7720,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>594</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -7711,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>222</v>
+        <v>595</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -7723,7 +7741,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>596</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -7732,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>224</v>
+        <v>597</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -7744,7 +7762,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>225</v>
+        <v>598</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -7753,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>226</v>
+        <v>599</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -7764,11 +7782,17 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>227</v>
+        <v>601</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -7782,7 +7806,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>228</v>
+        <v>602</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -7791,7 +7815,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>229</v>
+        <v>603</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -7803,7 +7827,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>604</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -7812,7 +7836,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>231</v>
+        <v>605</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -7824,7 +7848,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>606</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -7833,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>233</v>
+        <v>607</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -7845,7 +7869,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>234</v>
+        <v>608</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7854,19 +7878,19 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>235</v>
+        <v>609</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>236</v>
+        <v>610</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -7875,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>237</v>
+        <v>611</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -7887,7 +7911,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>238</v>
+        <v>612</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -7896,7 +7920,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -7907,11 +7931,17 @@
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>240</v>
+        <v>615</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -7923,7 +7953,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>241</v>
+        <v>616</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -7932,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>242</v>
+        <v>617</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -7946,7 +7976,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>243</v>
+        <v>618</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -7955,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>244</v>
+        <v>619</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -7969,7 +7999,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>245</v>
+        <v>620</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -7978,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>246</v>
+        <v>621</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -7992,7 +8022,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>247</v>
+        <v>622</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -8001,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>248</v>
+        <v>623</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -8013,7 +8043,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>249</v>
+        <v>624</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8022,7 +8052,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>250</v>
+        <v>625</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -8036,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>251</v>
+        <v>626</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -8045,7 +8075,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>252</v>
+        <v>627</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -8062,7 +8092,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>253</v>
+        <v>628</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -8079,7 +8109,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>254</v>
+        <v>629</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -8096,7 +8126,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>255</v>
+        <v>630</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -8113,7 +8143,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>256</v>
+        <v>631</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -8130,7 +8160,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>257</v>
+        <v>632</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -8138,6 +8168,9 @@
       <c r="G26" s="3">
         <v>2.5</v>
       </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C23DC-3398-4CDE-9F36-96437DF912FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D56FA-5D99-4875-9EC2-F577E5331E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3459,19 +3459,19 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="D4" s="3">
-        <v>8.32</v>
+        <v>6.67</v>
       </c>
       <c r="E4" s="3">
-        <v>-21.95</v>
+        <v>-22.61</v>
       </c>
       <c r="F4" s="3">
-        <v>18.527999999999999</v>
+        <v>13.073</v>
       </c>
       <c r="G4" s="3">
-        <v>-16.178999999999998</v>
+        <v>-16.009</v>
       </c>
       <c r="H4" s="3">
-        <v>-1.7410000000000001</v>
+        <v>-1.6950000000000001</v>
       </c>
       <c r="I4" s="3">
         <v>-0.84</v>
@@ -3701,19 +3701,19 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="D5" s="3">
-        <v>8.32</v>
+        <v>6.67</v>
       </c>
       <c r="E5" s="3">
-        <v>-21.95</v>
+        <v>-22.61</v>
       </c>
       <c r="F5" s="3">
-        <v>18.527999999999999</v>
+        <v>13.073</v>
       </c>
       <c r="G5" s="3">
-        <v>-16.178999999999998</v>
+        <v>-16.009</v>
       </c>
       <c r="H5" s="3">
-        <v>-1.7410000000000001</v>
+        <v>-1.6950000000000001</v>
       </c>
       <c r="I5" s="3">
         <v>-0.84</v>
@@ -3943,19 +3943,19 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="D6" s="3">
-        <v>8.32</v>
+        <v>6.67</v>
       </c>
       <c r="E6" s="3">
-        <v>-21.95</v>
+        <v>-22.61</v>
       </c>
       <c r="F6" s="3">
-        <v>18.527999999999999</v>
+        <v>13.073</v>
       </c>
       <c r="G6" s="3">
-        <v>-16.178999999999998</v>
+        <v>-16.009</v>
       </c>
       <c r="H6" s="3">
-        <v>-1.7410000000000001</v>
+        <v>-1.6950000000000001</v>
       </c>
       <c r="I6" s="3">
         <v>-0.84</v>
@@ -4185,19 +4185,19 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="D7" s="3">
-        <v>8.32</v>
+        <v>6.67</v>
       </c>
       <c r="E7" s="3">
-        <v>-21.95</v>
+        <v>-22.61</v>
       </c>
       <c r="F7" s="3">
-        <v>18.527999999999999</v>
+        <v>13.073</v>
       </c>
       <c r="G7" s="3">
-        <v>-16.178999999999998</v>
+        <v>-16.009</v>
       </c>
       <c r="H7" s="3">
-        <v>-1.7410000000000001</v>
+        <v>-1.6950000000000001</v>
       </c>
       <c r="I7" s="3">
         <v>-0.84</v>
@@ -4427,8 +4427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236D56FA-5D99-4875-9EC2-F577E5331E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6BE93-9C15-4B65-8229-E2A7B4460381}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <sheet name="战场技能" sheetId="28" r:id="rId5"/>
     <sheet name="fxConfig" sheetId="29" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="714">
   <si>
     <t>sheet名</t>
   </si>
@@ -128,6 +136,30 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Centre[1]</t>
+  </si>
+  <si>
+    <t>Centre[2]</t>
+  </si>
+  <si>
+    <t>Centre[3]</t>
+  </si>
+  <si>
+    <t>CentreEuler[1]</t>
+  </si>
+  <si>
+    <t>CentreEuler[2]</t>
+  </si>
+  <si>
+    <t>CentreEuler[3]</t>
+  </si>
+  <si>
+    <t>Fov</t>
+  </si>
+  <si>
     <t>cameraPos[1]</t>
   </si>
   <si>
@@ -365,9 +397,36 @@
     <t>int:&lt;</t>
   </si>
   <si>
+    <t>string:e</t>
+  </si>
+  <si>
     <t>float:&lt;</t>
   </si>
   <si>
+    <t>使用位置备注</t>
+  </si>
+  <si>
+    <t>中心位置x</t>
+  </si>
+  <si>
+    <t>中心位置y</t>
+  </si>
+  <si>
+    <t>中心位置z</t>
+  </si>
+  <si>
+    <t>中心旋转角度x</t>
+  </si>
+  <si>
+    <t>中心旋转角度y</t>
+  </si>
+  <si>
+    <t>中心旋转角度z</t>
+  </si>
+  <si>
+    <t>相机广角</t>
+  </si>
+  <si>
     <t>相机位置.x</t>
   </si>
   <si>
@@ -635,16 +694,72 @@
     <t>CastingPos</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>string:&lt;&gt;</t>
   </si>
   <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>float:e&lt;</t>
+  </si>
+  <si>
+    <t>res:e&lt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:e&lt;</t>
+    </r>
+  </si>
+  <si>
+    <t>float:ae&lt;</t>
+  </si>
+  <si>
     <t>string:e&lt;</t>
   </si>
   <si>
-    <t>float:e&lt;</t>
-  </si>
-  <si>
-    <t>float:ae&lt;</t>
+    <t>int:&lt;&gt;</t>
   </si>
   <si>
     <t>战斗角色唯一ID，其它各个角色表怪物表唯一ID与此对应，不能重复</t>
@@ -683,6 +798,18 @@
     <t>casting位置：X#Y</t>
   </si>
   <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>名称前缀</t>
+  </si>
+  <si>
+    <t>品质1-N  2-R 3-SR 4-SSR</t>
+  </si>
+  <si>
     <t>常服曹焱兵</t>
   </si>
   <si>
@@ -692,7 +819,7 @@
     <t>Art/Roles/rol_1101001/Pefabs/model_cfcyb_1101001_p.prefab</t>
   </si>
   <si>
-    <t>Art/Roles/rol_1101001/Animations/1101001_summon_nwe 1.playable</t>
+    <t>Art/Roles/rol_1101001/Animations/1101001_summon.playable</t>
   </si>
   <si>
     <t>Art/Roles/rol_1101001/Animations/1101001_win.playable</t>
@@ -701,6 +828,12 @@
     <t>0#0</t>
   </si>
   <si>
+    <t>head_cfcyb_1101001</t>
+  </si>
+  <si>
+    <t>厉害的</t>
+  </si>
+  <si>
     <t>曹玄亮</t>
   </si>
   <si>
@@ -719,6 +852,12 @@
     <t>-192#197</t>
   </si>
   <si>
+    <t>head_cxl_1101002</t>
+  </si>
+  <si>
+    <t>不太厉害的</t>
+  </si>
+  <si>
     <t>战斗夏玲</t>
   </si>
   <si>
@@ -737,6 +876,9 @@
     <t>-573#195</t>
   </si>
   <si>
+    <t>head_zdxl_1101003</t>
+  </si>
+  <si>
     <t>战斗曹焱兵</t>
   </si>
   <si>
@@ -755,7 +897,13 @@
     <t>-459#307</t>
   </si>
   <si>
-    <t>黑尔坎普</t>
+    <t>head_zdcyb_1101007</t>
+  </si>
+  <si>
+    <t>非常厉害的</t>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
   </si>
   <si>
     <t>model_hekp_1101008_p</t>
@@ -773,6 +921,9 @@
     <t>-676#34</t>
   </si>
   <si>
+    <t>head_hekp_1101008</t>
+  </si>
+  <si>
     <t>关羽</t>
   </si>
   <si>
@@ -788,6 +939,9 @@
     <t>-588#148</t>
   </si>
   <si>
+    <t>head_gy_1102001</t>
+  </si>
+  <si>
     <t>许褚</t>
   </si>
   <si>
@@ -803,6 +957,9 @@
     <t>-405#296</t>
   </si>
   <si>
+    <t>head_xc_1102002</t>
+  </si>
+  <si>
     <t>唐流雨</t>
   </si>
   <si>
@@ -818,6 +975,9 @@
     <t>-518#461</t>
   </si>
   <si>
+    <t>head_tly_1102004</t>
+  </si>
+  <si>
     <t>于禁</t>
   </si>
   <si>
@@ -833,6 +993,9 @@
     <t>-459#252</t>
   </si>
   <si>
+    <t>head_yj_1102015</t>
+  </si>
+  <si>
     <t>项昆仑</t>
   </si>
   <si>
@@ -848,6 +1011,9 @@
     <t>Art/Roles/rol_1101004/Animations/1101004_win.playable</t>
   </si>
   <si>
+    <t>head_xkl_1101004</t>
+  </si>
+  <si>
     <t>刘羽禅</t>
   </si>
   <si>
@@ -863,7 +1029,10 @@
     <t>Art/Roles/rol_1101005/Animations/1101005_win.playable</t>
   </si>
   <si>
-    <t>红莲缇娜</t>
+    <t>head_lyc_1101005</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
   </si>
   <si>
     <t>model_hltn_1101006_p</t>
@@ -881,6 +1050,9 @@
     <t>-480#184</t>
   </si>
   <si>
+    <t>head_hltn_1101006</t>
+  </si>
+  <si>
     <t>北落师门</t>
   </si>
   <si>
@@ -896,6 +1068,9 @@
     <t>Art/Roles/rol_1101009/Animations/1101009_win.playable</t>
   </si>
   <si>
+    <t>head_blsm_1101009</t>
+  </si>
+  <si>
     <t>盖文</t>
   </si>
   <si>
@@ -911,6 +1086,9 @@
     <t>Art/Roles/rol_1101010/Animations/1101010_win.playable</t>
   </si>
   <si>
+    <t>head_gw_1101010</t>
+  </si>
+  <si>
     <t>阎风吒</t>
   </si>
   <si>
@@ -926,6 +1104,9 @@
     <t>Art/Roles/rol_1101011/Animations/1101011_win.playable</t>
   </si>
   <si>
+    <t>head_yfz_1101011</t>
+  </si>
+  <si>
     <t>南御夫</t>
   </si>
   <si>
@@ -941,6 +1122,9 @@
     <t>Art/Roles/rol_1101012/Animations/1101012_win.playable</t>
   </si>
   <si>
+    <t>head_nyf_1101012</t>
+  </si>
+  <si>
     <t>吉拉</t>
   </si>
   <si>
@@ -956,6 +1140,9 @@
     <t>Art/Roles/rol_1101013/Animations/1101013_win.playable</t>
   </si>
   <si>
+    <t>head_jl_1101013</t>
+  </si>
+  <si>
     <t>吕仙宫</t>
   </si>
   <si>
@@ -971,6 +1158,9 @@
     <t>Art/Roles/rol_1101014/Animations/1101014_win.playable</t>
   </si>
   <si>
+    <t>head_lxg_1101014</t>
+  </si>
+  <si>
     <t>阎巧巧</t>
   </si>
   <si>
@@ -986,6 +1176,9 @@
     <t>Art/Roles/rol_1101015/Animations/1101015_win.playable</t>
   </si>
   <si>
+    <t>head_yqq_1101015</t>
+  </si>
+  <si>
     <t>典韦</t>
   </si>
   <si>
@@ -1001,6 +1194,9 @@
     <t>-729#449</t>
   </si>
   <si>
+    <t>head_dw_1102003</t>
+  </si>
+  <si>
     <t>李轩辕</t>
   </si>
   <si>
@@ -1013,6 +1209,9 @@
     <t>Art/Roles/rol_1102005/Animations/1102005_win.playable</t>
   </si>
   <si>
+    <t>head_lxy_1102005</t>
+  </si>
+  <si>
     <t>项羽</t>
   </si>
   <si>
@@ -1025,16 +1224,25 @@
     <t>Art/Roles/rol_1102006/Animations/1102006_win.playable</t>
   </si>
   <si>
+    <t>head_xy_1102006</t>
+  </si>
+  <si>
+    <t>天使·缇娜</t>
+  </si>
+  <si>
+    <t>model_tstn_1102007_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
+  </si>
+  <si>
     <t>天使缇娜</t>
   </si>
   <si>
-    <t>model_tstn_1102007_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102007/Pefabs/model_tstn_1102007_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
+    <t>head_tstn_1102007</t>
   </si>
   <si>
     <t>夏侯渊</t>
@@ -1043,12 +1251,6 @@
     <t>model_xhy_1102008_p</t>
   </si>
   <si>
-    <t>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Animations/1102008_win.playable</t>
-  </si>
-  <si>
     <t>徐晃</t>
   </si>
   <si>
@@ -1061,6 +1263,9 @@
     <t>Art/Roles/rol_1102009/Animations/1102009_win.playable</t>
   </si>
   <si>
+    <t>head_xh_1102009</t>
+  </si>
+  <si>
     <t>张郃</t>
   </si>
   <si>
@@ -1073,6 +1278,9 @@
     <t>Art/Roles/rol_1102010/Animations/1102010_win.playable</t>
   </si>
   <si>
+    <t>head_zh_1102010</t>
+  </si>
+  <si>
     <t>张飞</t>
   </si>
   <si>
@@ -1085,6 +1293,9 @@
     <t>Art/Roles/rol_1102011/Animations/1102011_win.playable</t>
   </si>
   <si>
+    <t>head_zf_1102011</t>
+  </si>
+  <si>
     <t>夏侯惇</t>
   </si>
   <si>
@@ -1097,6 +1308,9 @@
     <t>Art/Roles/rol_1102012/Animations/1102012_win.playable</t>
   </si>
   <si>
+    <t>head_xhd_1102012</t>
+  </si>
+  <si>
     <t>塞伯罗斯</t>
   </si>
   <si>
@@ -1109,6 +1323,9 @@
     <t>Art/Roles/rol_1102013/Animations/1102013_win.playable</t>
   </si>
   <si>
+    <t>head_sbls_1102013</t>
+  </si>
+  <si>
     <t>石灵明</t>
   </si>
   <si>
@@ -1121,6 +1338,9 @@
     <t>Art/Roles/rol_1102014/Animations/1102014_win.playable</t>
   </si>
   <si>
+    <t>head_slm_1102014</t>
+  </si>
+  <si>
     <t>西方龙</t>
   </si>
   <si>
@@ -1133,6 +1353,9 @@
     <t>Art/Roles/rol_1102016/Animations/1102016_win.playable</t>
   </si>
   <si>
+    <t>head_xfl_1102016</t>
+  </si>
+  <si>
     <t>飞廉</t>
   </si>
   <si>
@@ -1145,6 +1368,9 @@
     <t>Art/Roles/rol_1102017/Animations/1102017_win.playable</t>
   </si>
   <si>
+    <t>head_fl_1102017</t>
+  </si>
+  <si>
     <t>噬日</t>
   </si>
   <si>
@@ -1157,6 +1383,9 @@
     <t>Art/Roles/rol_1102018/Animations/1102018_win.playable</t>
   </si>
   <si>
+    <t>head_sr_1102018</t>
+  </si>
+  <si>
     <t>食火蜥</t>
   </si>
   <si>
@@ -1169,6 +1398,9 @@
     <t>Art/Roles/rol_1102019/Animations/1102019_win.playable</t>
   </si>
   <si>
+    <t>head_shx_1102019</t>
+  </si>
+  <si>
     <t>高顺</t>
   </si>
   <si>
@@ -1181,6 +1413,9 @@
     <t>Art/Roles/rol_1102020/Animations/1102020_win.playable</t>
   </si>
   <si>
+    <t>head_gs_1102020</t>
+  </si>
+  <si>
     <t>烈风螳螂</t>
   </si>
   <si>
@@ -1193,6 +1428,9 @@
     <t>Art/Roles/rol_1102021/Animations/1102021_win.playable</t>
   </si>
   <si>
+    <t>head_lftl_1102021</t>
+  </si>
+  <si>
     <t>砍刀鬼兵</t>
   </si>
   <si>
@@ -1202,12 +1440,21 @@
     <t>Art/Roles/rol_1201001/Pefabs/model_jsgb1_1201001_p.prefab</t>
   </si>
   <si>
+    <t>head_jsgb1_1201001</t>
+  </si>
+  <si>
+    <t>双刃鬼兵</t>
+  </si>
+  <si>
     <t>model_jsgb2_1201002_p</t>
   </si>
   <si>
     <t>Art/Roles/rol_1201002/Pefabs/model_jsgb2_1201002_p.prefab</t>
   </si>
   <si>
+    <t>head_jsgb2_1201002</t>
+  </si>
+  <si>
     <t>链球鬼兵</t>
   </si>
   <si>
@@ -1217,13 +1464,22 @@
     <t>Art/Roles/rol_1201003/Pefabs/model_jsgb3_1201003_p.prefab</t>
   </si>
   <si>
+    <t>head_jsgb3_1201003</t>
+  </si>
+  <si>
     <t>鬼将军</t>
   </si>
   <si>
-    <t>model_gjj1_1201004_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201004/Pefabs/model_gjj1_1201004_p.prefab</t>
+    <t>model_gjj_1201004_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201004/Pefabs/model_gjj_1201004_p.prefab</t>
+  </si>
+  <si>
+    <t>head_gjj1_1201004</t>
+  </si>
+  <si>
+    <t>变身后鬼将军</t>
   </si>
   <si>
     <t>model_gjj2_1201005_p</t>
@@ -1232,6 +1488,9 @@
     <t>Art/Roles/rol_1201005/Pefabs/model_gjj2_1201005_p.prefab</t>
   </si>
   <si>
+    <t>head_gjj2_1201005</t>
+  </si>
+  <si>
     <t>骷髅小兵1</t>
   </si>
   <si>
@@ -1241,6 +1500,9 @@
     <t>Art/Roles/rol_1201006/Pefabs/model_klxb1_1201006_p.prefab</t>
   </si>
   <si>
+    <t>head_klxb1_1201006</t>
+  </si>
+  <si>
     <t>骷髅小兵2</t>
   </si>
   <si>
@@ -1250,6 +1512,9 @@
     <t>Art/Roles/rol_1201007/Pefabs/model_klxb2_1201007_p.prefab</t>
   </si>
   <si>
+    <t>head_klxb2_1201007</t>
+  </si>
+  <si>
     <t>伏尸将军</t>
   </si>
   <si>
@@ -1259,6 +1524,9 @@
     <t>Art/Roles/rol_1201008/Pefabs/model_fsjj_1201008_p.prefab</t>
   </si>
   <si>
+    <t>head_fsjj_1201008</t>
+  </si>
+  <si>
     <t>石瀑将军</t>
   </si>
   <si>
@@ -1268,6 +1536,9 @@
     <t>Art/Roles/rol_1201009/Pefabs/model_spjj_1201009_p.prefab</t>
   </si>
   <si>
+    <t>head_spjj_1201009</t>
+  </si>
+  <si>
     <t>小蜘蛛</t>
   </si>
   <si>
@@ -1277,6 +1548,9 @@
     <t>Art/Roles/rol_1201010/Pefabs/model_xzz_1201010_p.prefab</t>
   </si>
   <si>
+    <t>head_xzz_1201010</t>
+  </si>
+  <si>
     <t>魔导机兵团</t>
   </si>
   <si>
@@ -1286,6 +1560,9 @@
     <t>Art/Roles/rol_1201011/Pefabs/model_mdjbt_1201011_p.prefab</t>
   </si>
   <si>
+    <t>head_mdjbt_1201011</t>
+  </si>
+  <si>
     <t>山蜘蛛</t>
   </si>
   <si>
@@ -1293,6 +1570,9 @@
   </si>
   <si>
     <t>Art/Roles/rol_1201012/Pefabs/model_szz_1201012_p.prefab</t>
+  </si>
+  <si>
+    <t>head_szz_1201012</t>
   </si>
   <si>
     <t>HelpCol</t>
@@ -1328,7 +1608,28 @@
     </r>
   </si>
   <si>
-    <t>string:&lt;</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
   </si>
   <si>
     <t>辅助列</t>
@@ -1394,12 +1695,6 @@
     <t>Art/Roles/rol_1101008/Animations/1101008_exskill_1.playable</t>
   </si>
   <si>
-    <t>1302008-1</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_2.playable</t>
-  </si>
-  <si>
     <t>1303001-1</t>
   </si>
   <si>
@@ -1580,24 +1875,6 @@
     <t>Art/Roles/rol_1102007/Animations/1102007_exskill_1.playable</t>
   </si>
   <si>
-    <t>1303008-1</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1_a.playable</t>
-  </si>
-  <si>
-    <t>1303008-2</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1_b.playable</t>
-  </si>
-  <si>
-    <t>1303008-3</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1102008/Animations/1102008_exskill_1.playable</t>
-  </si>
-  <si>
     <t>1303009-1</t>
   </si>
   <si>
@@ -1688,6 +1965,12 @@
     <t>Art/Roles/rol_1102020/Animations/1102020_exskill_1.playable</t>
   </si>
   <si>
+    <t>1303020-2</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102020/Animations/1102020_exskill_2.playable</t>
+  </si>
+  <si>
     <t>1303021-1</t>
   </si>
   <si>
@@ -1736,12 +2019,6 @@
     <t>Art/Roles/rol_1201005/Animations/1201005_skill_2.playable</t>
   </si>
   <si>
-    <t>1803005-1</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1201005/Animations/1201005_skill_3.playable</t>
-  </si>
-  <si>
     <t>1801006-1</t>
   </si>
   <si>
@@ -1862,142 +2139,155 @@
     <t>持续时长</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_imprisonment.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_imprisonment.prefab</t>
   </si>
   <si>
     <t>禁锢</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhizhaohuan.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jinzhizhaohuan.prefab</t>
   </si>
   <si>
     <t>禁止召唤</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhizhudong.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jinzhizhudong.prefab</t>
   </si>
   <si>
     <t>禁止主动技能</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jinzhibeidong.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jinzhibeidong.prefab</t>
   </si>
   <si>
     <t>封印被动技能</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_FX_c_buff_hudun.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_hudun.prefab</t>
   </si>
   <si>
     <t>护盾</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy gongji.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_zy gongji.prefab</t>
   </si>
   <si>
     <t>提升攻击</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy shanghai.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_zy shanghai.prefab</t>
   </si>
   <si>
     <t>提高伤害</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zy zhiliao.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_zy zhiliao.prefab</t>
   </si>
   <si>
     <t>提高治疗</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy shanghai.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jy shanghai.prefab</t>
   </si>
   <si>
     <t>减少伤害</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy zhiliao.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jy zhiliao.prefab</t>
   </si>
   <si>
     <t>减少目标受到的治疗</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jy fangyu.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jy fangyu.prefab</t>
   </si>
   <si>
     <t>减少防御</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_FX_c_buff_zy baoji.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_zy baoji.prefab</t>
   </si>
   <si>
     <t>增加暴击伤害</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_xixue.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_xixue.prefab</t>
   </si>
   <si>
     <t>吸血状态</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_bingxiang.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_bingxiang.prefab</t>
   </si>
   <si>
     <t>冰冻</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_xuanyun.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_xuanyun.prefab</t>
   </si>
   <si>
     <t>眩晕</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_zhuoshao.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_zhuoshao.prefab</t>
   </si>
   <si>
     <t>灼烧</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_yanfengcha.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_yanfengcha.prefab</t>
   </si>
   <si>
     <t>阎风吒的标记</t>
   </si>
   <si>
-    <t>Art\EffectRes\Common\_PrefabsFX_c_buff_jihuo.prefab</t>
+    <t>Art/EffectRes/Common/FX_c_buff_jihuo.prefab</t>
   </si>
   <si>
     <t>集火标记</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/FX_c_buff_yj_blsm.prefab</t>
+  </si>
+  <si>
     <t>北落师门印记</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/FX_c_buff_yj_xkl.prefab</t>
+  </si>
+  <si>
     <t>项昆仑印记</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/FX_c_buff_yj_xm.prefab</t>
+  </si>
+  <si>
     <t>血魔印记</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/FX_c_buff_yj_gw.prefab</t>
+  </si>
+  <si>
     <t>盖文印记</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/FX_c_buff_yj_lftl.prefab</t>
+  </si>
+  <si>
     <t>烈风螳螂印记</t>
   </si>
   <si>
-    <t>Fov</t>
+    <t>Art/EffectRes/Common/FX_c_buff_qimenhuashang.prefab</t>
+  </si>
+  <si>
+    <t>增加格挡率</t>
+  </si>
+  <si>
+    <t>3.21修改前</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>相机广角</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>双刃鬼兵</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身后鬼将军</t>
+    <t>镜头拉近版本</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2008,8 +2298,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -2055,6 +2345,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2080,15 +2379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2104,7 +2394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2119,25 +2409,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79964598529007846"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14978484450819421"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34931485946226387"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2187,41 +2483,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2235,17 +2531,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Comma" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Comma [0]" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma [0]" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -2537,7 +2840,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2691,7 +2994,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2702,1739 +3005,2147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CB7"/>
+  <dimension ref="A1:CI8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="44" width="10.625" customWidth="1"/>
-    <col min="64" max="64" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="9.75" customWidth="1"/>
+    <col min="17" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="10.375" customWidth="1"/>
+    <col min="20" max="51" width="10.625" customWidth="1"/>
+    <col min="71" max="71" width="9.75" customWidth="1"/>
+    <col min="83" max="83" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="CC1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BX2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CA2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB2" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:80" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:87" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:87" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>634</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BC3" s="2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BI3" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BL3" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BM3" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:87" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>35</v>
       </c>
-      <c r="C4" s="3">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6.67</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-22.61</v>
-      </c>
-      <c r="F4" s="3">
-        <v>13.073</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-16.009</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-1.6950000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-0.84</v>
-      </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>4.43</v>
       </c>
       <c r="K4" s="3">
-        <v>-6.63</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="L4" s="3">
-        <v>1.08</v>
+        <v>-15.32</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>15.23</v>
       </c>
       <c r="N4" s="3">
-        <v>-10.55</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="O4" s="3">
-        <v>-7.11</v>
+        <v>-1.712</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="Q4" s="3">
-        <v>-4.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>-3.5798999999999999</v>
+        <v>-5.5</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T4" s="3">
-        <v>-10.08</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3">
-        <v>5.39</v>
+        <v>-9.18</v>
       </c>
       <c r="V4" s="3">
-        <v>0</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="W4" s="3">
-        <v>-4.22</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>5.26</v>
+        <v>-5.25</v>
       </c>
       <c r="Y4" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z4" s="3">
-        <v>-8.41</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="3">
-        <v>-2.64</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AB4" s="3">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="AC4" s="3">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
-        <v>-2.33</v>
+        <v>-3.01</v>
       </c>
       <c r="AE4" s="3">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AF4" s="3">
-        <v>9.66</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="3">
-        <v>3.8</v>
+        <v>-7.6</v>
       </c>
       <c r="AH4" s="3">
-        <v>0</v>
+        <v>-0.76</v>
       </c>
       <c r="AI4" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="3">
-        <v>1.48</v>
+        <v>5.33</v>
       </c>
       <c r="AK4" s="3">
-        <v>0</v>
+        <v>-2.67</v>
       </c>
       <c r="AL4" s="3">
-        <v>8.9299900000000001</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="3">
-        <v>-9.19</v>
+        <v>10.87</v>
       </c>
       <c r="AN4" s="3">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AO4" s="3">
-        <v>10.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="3">
-        <v>-6.89</v>
+        <v>3.62</v>
       </c>
       <c r="AQ4" s="3">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AR4" s="3">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="3">
-        <v>0</v>
+        <v>10.14</v>
       </c>
       <c r="AT4" s="3">
+        <v>-3.97</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>-7.23</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
         <v>-10</v>
       </c>
-      <c r="AU4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="3">
+      <c r="BB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
         <v>-10</v>
       </c>
-      <c r="AX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="3">
+      <c r="BE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="3">
         <v>28.154</v>
       </c>
-      <c r="BA4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="3">
+      <c r="BH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="BD4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="3">
+      <c r="BK4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="3">
         <v>-53.210999999999999</v>
       </c>
-      <c r="BG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="3">
+      <c r="BN4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="3">
+      <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="3">
         <v>-178.66800000000001</v>
       </c>
-      <c r="BM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="3">
+      <c r="BT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="3">
         <v>180</v>
       </c>
-      <c r="BP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="3">
+      <c r="BW4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="3">
         <v>171.59</v>
       </c>
-      <c r="BS4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="3">
+      <c r="BZ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="3">
         <v>180</v>
       </c>
-      <c r="BV4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="3">
+      <c r="CC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="3">
         <v>-169.947</v>
       </c>
-      <c r="BY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="3">
+      <c r="CF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="3">
         <v>180</v>
       </c>
-      <c r="CB4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CI4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:87" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>35</v>
       </c>
-      <c r="C5" s="3">
+      <c r="J5" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D5" s="3">
+      <c r="K5" s="3">
         <v>6.67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="L5" s="3">
         <v>-22.61</v>
       </c>
-      <c r="F5" s="3">
+      <c r="M5" s="3">
         <v>13.073</v>
       </c>
-      <c r="G5" s="3">
+      <c r="N5" s="3">
         <v>-16.009</v>
       </c>
-      <c r="H5" s="3">
+      <c r="O5" s="3">
         <v>-1.6950000000000001</v>
       </c>
-      <c r="I5" s="3">
+      <c r="P5" s="3">
         <v>-0.84</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
         <v>-6.63</v>
       </c>
-      <c r="L5" s="3">
+      <c r="S5" s="3">
         <v>1.08</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
         <v>-10.55</v>
       </c>
-      <c r="O5" s="3">
+      <c r="V5" s="3">
         <v>-7.11</v>
       </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
         <v>-4.0599999999999996</v>
       </c>
-      <c r="R5" s="3">
+      <c r="Y5" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
         <v>-10.08</v>
       </c>
-      <c r="U5" s="3">
+      <c r="AB5" s="3">
         <v>5.39</v>
       </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
         <v>-4.22</v>
       </c>
-      <c r="X5" s="3">
+      <c r="AE5" s="3">
         <v>5.26</v>
       </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
         <v>-8.41</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AH5" s="3">
         <v>-2.64</v>
       </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3">
+      <c r="AI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="3">
         <v>12.36</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AK5" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
         <v>9.66</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AN5" s="3">
         <v>3.8</v>
       </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3">
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
         <v>9</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AQ5" s="3">
         <v>1.48</v>
       </c>
-      <c r="AK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="3">
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AT5" s="3">
         <v>-9.19</v>
       </c>
-      <c r="AN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="3">
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
         <v>10.050000000000001</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AW5" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="3">
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
         <v>6.02</v>
       </c>
-      <c r="AS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="3">
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
         <v>-10</v>
       </c>
-      <c r="AU5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="3">
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
         <v>-10</v>
       </c>
-      <c r="AX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="3">
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
         <v>28.154</v>
       </c>
-      <c r="BA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="3">
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="BD5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="3">
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="3">
         <v>-53.210999999999999</v>
       </c>
-      <c r="BG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="3">
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="3">
+      <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3">
         <v>-178.66800000000001</v>
       </c>
-      <c r="BM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="3">
+      <c r="BT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
         <v>180</v>
       </c>
-      <c r="BP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="3">
+      <c r="BW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="3">
         <v>171.59</v>
       </c>
-      <c r="BS5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="3">
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3">
         <v>180</v>
       </c>
-      <c r="BV5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="3">
+      <c r="CC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="3">
         <v>-169.947</v>
       </c>
-      <c r="BY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="3">
+      <c r="CF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="3">
         <v>180</v>
       </c>
-      <c r="CB5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CI5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:87" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>35</v>
       </c>
-      <c r="C6" s="3">
+      <c r="J6" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="K6" s="3">
         <v>6.67</v>
       </c>
-      <c r="E6" s="3">
+      <c r="L6" s="3">
         <v>-22.61</v>
       </c>
-      <c r="F6" s="3">
+      <c r="M6" s="3">
         <v>13.073</v>
       </c>
-      <c r="G6" s="3">
+      <c r="N6" s="3">
         <v>-16.009</v>
       </c>
-      <c r="H6" s="3">
+      <c r="O6" s="3">
         <v>-1.6950000000000001</v>
       </c>
-      <c r="I6" s="3">
+      <c r="P6" s="3">
         <v>-0.84</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>-6.63</v>
       </c>
-      <c r="L6" s="3">
+      <c r="S6" s="3">
         <v>1.08</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
         <v>-10.55</v>
       </c>
-      <c r="O6" s="3">
+      <c r="V6" s="3">
         <v>-7.11</v>
       </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
         <v>-4.0599999999999996</v>
       </c>
-      <c r="R6" s="3">
+      <c r="Y6" s="3">
         <v>-3.5798999999999999</v>
       </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
         <v>-10.08</v>
       </c>
-      <c r="U6" s="3">
+      <c r="AB6" s="3">
         <v>5.39</v>
       </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
         <v>-4.22</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AE6" s="3">
         <v>5.26</v>
       </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
         <v>-8.41</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AH6" s="3">
         <v>-2.64</v>
       </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3">
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
         <v>12.36</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AK6" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
+      <c r="AL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
         <v>9.66</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AN6" s="3">
         <v>3.8</v>
       </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
+      <c r="AO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3">
         <v>9</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AQ6" s="3">
         <v>1.48</v>
       </c>
-      <c r="AK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="3">
+      <c r="AR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AT6" s="3">
         <v>-9.19</v>
       </c>
-      <c r="AN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="3">
+      <c r="AU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="3">
         <v>10.050000000000001</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AW6" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="3">
+      <c r="AX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
         <v>6.02</v>
       </c>
-      <c r="AS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="3">
+      <c r="AZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="3">
         <v>-10</v>
       </c>
-      <c r="AU6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="3">
+      <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="3">
         <v>-10</v>
       </c>
-      <c r="AX6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="3">
+      <c r="BE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="3">
         <v>28.154</v>
       </c>
-      <c r="BA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="3">
+      <c r="BH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="BD6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="3">
+      <c r="BK6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="3">
         <v>-53.210999999999999</v>
       </c>
-      <c r="BG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="3">
+      <c r="BN6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BJ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="3">
+      <c r="BQ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="3">
         <v>-178.66800000000001</v>
       </c>
-      <c r="BM6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="3">
+      <c r="BT6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="3">
         <v>180</v>
       </c>
-      <c r="BP6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="3">
+      <c r="BW6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="3">
         <v>171.59</v>
       </c>
-      <c r="BS6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="3">
+      <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="3">
         <v>180</v>
       </c>
-      <c r="BV6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="3">
+      <c r="CC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="3">
         <v>-169.947</v>
       </c>
-      <c r="BY6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="3">
+      <c r="CF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="3">
         <v>180</v>
       </c>
-      <c r="CB6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:80" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="CI6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:87" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>35</v>
       </c>
-      <c r="C7" s="3">
+      <c r="J7" s="3">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D7" s="3">
+      <c r="K7" s="3">
         <v>6.67</v>
       </c>
-      <c r="E7" s="3">
+      <c r="L7" s="3">
         <v>-22.61</v>
       </c>
-      <c r="F7" s="3">
+      <c r="M7" s="3">
         <v>13.073</v>
       </c>
-      <c r="G7" s="3">
+      <c r="N7" s="3">
         <v>-16.009</v>
       </c>
-      <c r="H7" s="3">
+      <c r="O7" s="3">
         <v>-1.6950000000000001</v>
       </c>
-      <c r="I7" s="3">
-        <v>-0.84</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>-6.63</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-10.55</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-7.11</v>
-      </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q7" s="3">
-        <v>-4.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>-3.5798999999999999</v>
+        <v>-7.74</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="T7" s="3">
-        <v>-10.08</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3">
-        <v>5.39</v>
+        <v>-11.42</v>
       </c>
       <c r="V7" s="3">
-        <v>0</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="W7" s="3">
-        <v>-4.22</v>
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>5.26</v>
+        <v>-8.5399999999999991</v>
       </c>
       <c r="Y7" s="3">
-        <v>0</v>
+        <v>-3.51</v>
       </c>
       <c r="Z7" s="3">
-        <v>-8.41</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="3">
-        <v>-2.64</v>
+        <v>-11.44</v>
       </c>
       <c r="AB7" s="3">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AC7" s="3">
-        <v>12.36</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="3">
+        <v>-6.31</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>5.29</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>-9.84</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>-3.02</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>5.27</v>
+      </c>
+      <c r="AK7" s="3">
         <v>-2.33</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
         <v>9.66</v>
       </c>
-      <c r="AG7" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>9</v>
-      </c>
-      <c r="AJ7" s="3">
+      <c r="AN7" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="AQ7" s="3">
         <v>1.48</v>
       </c>
-      <c r="AK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3">
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
         <v>8.9299900000000001</v>
       </c>
-      <c r="AM7" s="3">
-        <v>-9.19</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="AP7" s="3">
+      <c r="AT7" s="3">
+        <v>-10.28</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AW7" s="3">
         <v>-6.89</v>
       </c>
-      <c r="AQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="3">
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
         <v>6.02</v>
       </c>
-      <c r="AS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="3">
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
         <v>-10</v>
       </c>
-      <c r="AU7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="3">
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
         <v>-10</v>
       </c>
-      <c r="AX7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="3">
+      <c r="BE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
         <v>28.154</v>
       </c>
-      <c r="BA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="3">
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="BD7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="3">
+      <c r="BK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="3">
         <v>-53.210999999999999</v>
       </c>
-      <c r="BG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="3">
+      <c r="BN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="3">
         <v>-35.4</v>
       </c>
-      <c r="BJ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="3">
+      <c r="BQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="3">
         <v>-178.66800000000001</v>
       </c>
-      <c r="BM7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="3">
+      <c r="BT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="3">
         <v>180</v>
       </c>
-      <c r="BP7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="3">
+      <c r="BW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="3">
         <v>171.59</v>
       </c>
-      <c r="BS7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="3">
+      <c r="BZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="3">
         <v>180</v>
       </c>
-      <c r="BV7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="3">
+      <c r="CC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="3">
         <v>-169.947</v>
       </c>
-      <c r="BY7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="3">
+      <c r="CF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="3">
         <v>180</v>
       </c>
-      <c r="CB7" s="3">
+      <c r="CI7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:87" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6.29</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6.53</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-21.78</v>
+      </c>
+      <c r="M8" s="3">
+        <v>15.576000000000001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-16.085999999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1.714</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1.86</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-6.71</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2.82</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>-10.39</v>
+      </c>
+      <c r="V8" s="3">
+        <v>-2.59</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>-7.51</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>-1.66</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>-10.41</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>7.25</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>-5.28</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>7.14</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>-8.81</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>6.31</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>-2.33</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>9.66</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>4.54</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>8.9299900000000001</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>-6.32</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>-6.89</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>-10</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>28.154</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>-35.4</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>180</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>171.59</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="3">
+        <v>180</v>
+      </c>
+      <c r="CC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="3">
+        <v>-169.947</v>
+      </c>
+      <c r="CF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="3">
+        <v>180</v>
+      </c>
+      <c r="CI8" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="20.25" customWidth="1"/>
@@ -4443,132 +5154,168 @@
     <col min="9" max="9" width="62.75" customWidth="1"/>
     <col min="10" max="10" width="69.625" customWidth="1"/>
     <col min="11" max="11" width="62.375" customWidth="1"/>
-    <col min="12" max="12" width="20.625" customWidth="1"/>
+    <col min="12" max="16" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" t="s">
-        <v>191</v>
+        <v>206</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>192</v>
+        <v>213</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="M2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1101001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="D4" s="3">
         <v>1.83</v>
@@ -4580,33 +5327,45 @@
         <v>0.3</v>
       </c>
       <c r="G4" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
+        <v>0.64</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.4</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1101002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="D5" s="3">
         <v>1.2</v>
@@ -4618,33 +5377,45 @@
         <v>0.3</v>
       </c>
       <c r="G5" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
+        <v>0.36</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.4</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1101003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D6" s="3">
         <v>1.73</v>
@@ -4656,33 +5427,45 @@
         <v>0.3</v>
       </c>
       <c r="G6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1101007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D7" s="3">
         <v>1.8</v>
@@ -4694,33 +5477,45 @@
         <v>0.3</v>
       </c>
       <c r="G7" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
+        <v>1.22</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1101008</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="D8" s="3">
         <v>1.96</v>
@@ -4732,33 +5527,45 @@
         <v>0.3</v>
       </c>
       <c r="G8" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
+        <v>0.62</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.4</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1102001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D9" s="3">
         <v>2.86</v>
@@ -4770,31 +5577,43 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="3">
-        <v>0.81</v>
-      </c>
-      <c r="H9" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1102002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="D10" s="3">
         <v>2.9</v>
@@ -4806,31 +5625,43 @@
         <v>0.3</v>
       </c>
       <c r="G10" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="H10" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1102004</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3">
         <v>2.5</v>
@@ -4842,31 +5673,43 @@
         <v>0.3</v>
       </c>
       <c r="G11" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H11" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="H11" s="8">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1102015</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="D12" s="3">
         <v>2.54</v>
@@ -4878,31 +5721,43 @@
         <v>0.3</v>
       </c>
       <c r="G12" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="H12" s="6">
+        <v>1.28</v>
+      </c>
+      <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1101004</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="D13" s="3">
         <v>1.9</v>
@@ -4914,33 +5769,45 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="3">
-        <v>0.62</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
+        <v>1.72</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.4</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P13" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1101005</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="D14" s="3">
         <v>1.8</v>
@@ -4952,33 +5819,45 @@
         <v>0.3</v>
       </c>
       <c r="G14" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1101006</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D15" s="3">
         <v>1.8</v>
@@ -4990,33 +5869,45 @@
         <v>0.3</v>
       </c>
       <c r="G15" s="3">
-        <v>0.33</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1.4</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1101009</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="D16" s="3">
         <v>1.83</v>
@@ -5028,33 +5919,45 @@
         <v>0.3</v>
       </c>
       <c r="G16" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
+        <v>0.72</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1.4</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1101010</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="D17" s="3">
         <v>1.9</v>
@@ -5066,33 +5969,45 @@
         <v>0.3</v>
       </c>
       <c r="G17" s="3">
-        <v>0.41</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.4</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1101011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="D18" s="3">
         <v>1.65</v>
@@ -5104,33 +6019,45 @@
         <v>0.3</v>
       </c>
       <c r="G18" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
+        <v>0.62</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1.4</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1101012</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="D19" s="3">
         <v>1.9</v>
@@ -5142,33 +6069,45 @@
         <v>0.3</v>
       </c>
       <c r="G19" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
+        <v>1.06</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1.4</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1101013</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="D20" s="3">
         <v>1.81</v>
@@ -5180,33 +6119,45 @@
         <v>0.3</v>
       </c>
       <c r="G20" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
+        <v>0.62</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.4</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>1101014</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="D21" s="3">
         <v>1.76</v>
@@ -5218,33 +6169,45 @@
         <v>0.3</v>
       </c>
       <c r="G21" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
+        <v>0.66</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>1101015</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="D22" s="3">
         <v>1.75</v>
@@ -5256,33 +6219,45 @@
         <v>0.3</v>
       </c>
       <c r="G22" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
+        <v>0.48</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.4</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>1102003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="D23" s="3">
         <v>2.8</v>
@@ -5294,31 +6269,43 @@
         <v>0.3</v>
       </c>
       <c r="G23" s="3">
-        <v>1.31</v>
-      </c>
-      <c r="H23" s="6">
+        <v>2.62</v>
+      </c>
+      <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1102005</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="D24" s="3">
         <v>2.2999999999999998</v>
@@ -5330,31 +6317,43 @@
         <v>0.3</v>
       </c>
       <c r="G24" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="H24" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>1102006</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="D25" s="3">
         <v>3.4</v>
@@ -5366,31 +6365,43 @@
         <v>0.3</v>
       </c>
       <c r="G25" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H25" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>319</v>
+        <v>372</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>1102007</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="D26" s="3">
         <v>2.17</v>
@@ -5402,31 +6413,43 @@
         <v>0.3</v>
       </c>
       <c r="G26" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="H26" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="8">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>1102008</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="D27" s="3">
         <v>3.3</v>
@@ -5438,31 +6461,43 @@
         <v>0.3</v>
       </c>
       <c r="G27" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H27" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H27" s="8">
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1102009</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="D28" s="3">
         <v>3.06</v>
@@ -5474,31 +6509,43 @@
         <v>0.3</v>
       </c>
       <c r="G28" s="3">
-        <v>0.77</v>
-      </c>
-      <c r="H28" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1102010</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
       <c r="D29" s="3">
         <v>3.78</v>
@@ -5507,34 +6554,46 @@
         <v>4.08</v>
       </c>
       <c r="F29" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="3">
-        <v>0.76</v>
-      </c>
-      <c r="H29" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="H29" s="8">
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1102011</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="D30" s="3">
         <v>2.96</v>
@@ -5546,31 +6605,43 @@
         <v>0.3</v>
       </c>
       <c r="G30" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H30" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="H30" s="8">
         <v>1</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>1102012</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="D31" s="3">
         <v>2.97</v>
@@ -5582,31 +6653,43 @@
         <v>0.3</v>
       </c>
       <c r="G31" s="3">
-        <v>1.05</v>
-      </c>
-      <c r="H31" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="H31" s="8">
         <v>1</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>1102013</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="D32" s="3">
         <v>2.5</v>
@@ -5618,31 +6701,43 @@
         <v>0.35</v>
       </c>
       <c r="G32" s="3">
-        <v>1.24</v>
-      </c>
-      <c r="H32" s="6">
+        <v>2.48</v>
+      </c>
+      <c r="H32" s="8">
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>1102014</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="D33" s="3">
         <v>2.94</v>
@@ -5654,31 +6749,43 @@
         <v>0.3</v>
       </c>
       <c r="G33" s="3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H33" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H33" s="8">
         <v>1</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1102016</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="D34" s="3">
         <v>3.22</v>
@@ -5690,31 +6797,43 @@
         <v>0.3</v>
       </c>
       <c r="G34" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H34" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="H34" s="8">
         <v>1</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="P34" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>1102017</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="D35" s="3">
         <v>2.9</v>
@@ -5726,31 +6845,43 @@
         <v>0.3</v>
       </c>
       <c r="G35" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="H35" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="H35" s="8">
         <v>1</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1102018</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="D36" s="3">
         <v>3.14</v>
@@ -5762,31 +6893,43 @@
         <v>0.3</v>
       </c>
       <c r="G36" s="3">
-        <v>1.19</v>
-      </c>
-      <c r="H36" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="H36" s="8">
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>1102019</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D37" s="3">
         <v>2.84</v>
@@ -5798,31 +6941,43 @@
         <v>0.3</v>
       </c>
       <c r="G37" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H37" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H37" s="8">
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1102020</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="D38" s="3">
         <v>2.96</v>
@@ -5834,31 +6989,43 @@
         <v>0.3</v>
       </c>
       <c r="G38" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="H38" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="H38" s="8">
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>1102021</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="D39" s="3">
         <v>2.75</v>
@@ -5870,31 +7037,43 @@
         <v>0.3</v>
       </c>
       <c r="G39" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="H39" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="H39" s="8">
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1201001</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D40" s="3">
         <v>2.35</v>
@@ -5906,27 +7085,37 @@
         <v>0.3</v>
       </c>
       <c r="G40" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="H40" s="6">
+        <v>1.38</v>
+      </c>
+      <c r="H40" s="8">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M40" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>1201002</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>635</v>
+        <v>446</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="D41" s="3">
         <v>1.98</v>
@@ -5938,27 +7127,37 @@
         <v>0.3</v>
       </c>
       <c r="G41" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H41" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H41" s="8">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1201003</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="D42" s="3">
         <v>1.34</v>
@@ -5970,27 +7169,37 @@
         <v>0.3</v>
       </c>
       <c r="G42" s="3">
-        <v>0.32</v>
-      </c>
-      <c r="H42" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="H42" s="8">
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>1201004</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="D43" s="3">
         <v>2.8</v>
@@ -6002,27 +7211,37 @@
         <v>0.3</v>
       </c>
       <c r="G43" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H43" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="H43" s="8">
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>386</v>
+        <v>456</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1201005</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>636</v>
+        <v>458</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="D44" s="3">
         <v>2.8</v>
@@ -6034,27 +7253,37 @@
         <v>0.3</v>
       </c>
       <c r="G44" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H44" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="H44" s="8">
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1201006</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="D45" s="3">
         <v>1.96</v>
@@ -6066,27 +7295,37 @@
         <v>0.3</v>
       </c>
       <c r="G45" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="H45" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H45" s="8">
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1201007</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>393</v>
+        <v>467</v>
       </c>
       <c r="D46" s="3">
         <v>1.96</v>
@@ -6098,27 +7337,37 @@
         <v>0.3</v>
       </c>
       <c r="G46" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="H46" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H46" s="8">
         <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>1201008</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="D47" s="3">
         <v>2.97</v>
@@ -6130,27 +7379,37 @@
         <v>0.3</v>
       </c>
       <c r="G47" s="3">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H47" s="6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="H47" s="8">
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>1201009</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="D48" s="3">
         <v>2.67</v>
@@ -6162,27 +7421,37 @@
         <v>0.3</v>
       </c>
       <c r="G48" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="H48" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="H48" s="8">
         <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>1201010</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="D49" s="3">
         <v>1.19</v>
@@ -6191,30 +7460,40 @@
         <v>1.49</v>
       </c>
       <c r="F49" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G49" s="3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="H49" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H49" s="8">
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>1201011</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D50" s="3">
         <v>1.8</v>
@@ -6226,27 +7505,37 @@
         <v>0.3</v>
       </c>
       <c r="G50" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H50" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="H50" s="8">
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>406</v>
+        <v>484</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M50" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1201012</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="D51" s="3">
         <v>2.1800000000000002</v>
@@ -6258,17 +7547,27 @@
         <v>0.35</v>
       </c>
       <c r="G51" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H51" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H51" s="8">
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
+      <c r="M51" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -6279,10 +7578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6298,27 +7597,27 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>414</v>
+      <c r="A2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -6326,13 +7625,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>415</v>
+        <v>495</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>417</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6343,10 +7642,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>418</v>
+        <v>498</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>419</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6357,10 +7656,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6371,10 +7670,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>422</v>
+        <v>502</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>423</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6385,10 +7684,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>425</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6399,10 +7698,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>427</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6413,10 +7712,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6427,10 +7726,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6441,10 +7740,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>432</v>
+        <v>512</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6455,24 +7754,24 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>1101008</v>
+        <v>1102001</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6483,10 +7782,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>438</v>
+        <v>518</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6497,24 +7796,24 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>1102001</v>
+        <v>1102002</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6525,10 +7824,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>444</v>
+        <v>524</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>445</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6539,24 +7838,24 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>446</v>
+        <v>526</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1102002</v>
+        <v>1102004</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6567,10 +7866,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>451</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6581,38 +7880,38 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>1102004</v>
+      <c r="A22" s="7">
+        <v>1102015</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>1102015</v>
+        <v>1101004</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>457</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6623,80 +7922,80 @@
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1101004</v>
+        <v>1101005</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1101005</v>
+        <v>1101006</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1101006</v>
+        <v>1101009</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1101009</v>
+        <v>1101010</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1101010</v>
+        <v>1101011</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6707,38 +8006,38 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>1101011</v>
+        <v>1101012</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>1101012</v>
+        <v>1101013</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>475</v>
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6749,24 +8048,24 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>1101013</v>
+        <v>1101014</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6777,80 +8076,80 @@
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>1101014</v>
+        <v>1101015</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>482</v>
+        <v>562</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1101015</v>
+        <v>1102003</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>1102003</v>
+        <v>1102005</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>487</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1102005</v>
+        <v>1102006</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1102006</v>
+        <v>1102007</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6861,10 +8160,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -6875,570 +8174,514 @@
         <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>1102007</v>
+        <v>1102009</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>1102008</v>
+        <v>1102010</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>1102008</v>
+        <v>1102011</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>1102008</v>
+        <v>1102012</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>1102009</v>
+        <v>1102012</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1102010</v>
+        <v>1102012</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1102011</v>
+        <v>1102013</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>1102012</v>
+        <v>1102014</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>511</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>1102012</v>
+        <v>1102014</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1102012</v>
+        <v>1102014</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>1102013</v>
+        <v>1102016</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>1102014</v>
+        <v>1102017</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>1102014</v>
+        <v>1102018</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>1102014</v>
+        <v>1102019</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>1102016</v>
+        <v>1102020</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>1102017</v>
+        <v>1102020</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>1102018</v>
+        <v>1102021</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>1102019</v>
+        <v>1201001</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>1102020</v>
+        <v>1201002</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>1102021</v>
+        <v>1201003</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>1201001</v>
+        <v>1201004</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>1201002</v>
+        <v>1201004</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>1201003</v>
+        <v>1201005</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1201004</v>
+        <v>1201005</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1201004</v>
+        <v>1201006</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1201005</v>
+        <v>1201007</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1201005</v>
+        <v>1201008</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1201005</v>
+        <v>1201008</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>1201006</v>
+        <v>1201008</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>1201007</v>
+        <v>1201009</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1201008</v>
+        <v>1201009</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>556</v>
+        <v>636</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>1201008</v>
+        <v>1201010</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>1201008</v>
+        <v>1201011</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1201009</v>
+        <v>1201012</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>1201009</v>
+        <v>1201012</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>1201010</v>
+        <v>1201012</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>1201011</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>1201012</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>1201012</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>1201012</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -7453,7 +8696,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7467,23 +8710,23 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7491,7 +8734,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7499,7 +8742,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7507,7 +8750,7 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7515,7 +8758,7 @@
         <v>1304004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7523,7 +8766,7 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7531,7 +8774,7 @@
         <v>1304006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7539,7 +8782,7 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -7547,26 +8790,32 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1304009</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1304010</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1304011</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -7578,25 +8827,33 @@
       <c r="A16" s="3">
         <v>1304013</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1304014</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1304015</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1304016</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -7610,12 +8867,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="93.625" customWidth="1"/>
+    <col min="2" max="2" width="67.75" customWidth="1"/>
     <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="41.5" customWidth="1"/>
     <col min="5" max="5" width="22.875" customWidth="1"/>
@@ -7628,68 +8885,68 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>582</v>
+        <v>654</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>583</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -7697,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -7706,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -7720,7 +8977,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>594</v>
+        <v>666</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -7729,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -7741,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -7750,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -7762,7 +9019,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -7771,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -7783,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -7792,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -7806,7 +9063,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -7815,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -7827,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -7836,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -7848,7 +9105,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
@@ -7857,7 +9114,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -7869,7 +9126,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7878,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -7890,7 +9147,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -7899,7 +9156,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -7911,7 +9168,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -7920,7 +9177,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -7932,7 +9189,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -7941,7 +9198,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -7953,7 +9210,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -7962,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>617</v>
+        <v>689</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -7976,7 +9233,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -7985,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -7999,7 +9256,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -8008,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -8022,7 +9279,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -8031,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -8043,7 +9300,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -8052,7 +9309,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -8066,7 +9323,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -8075,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -8088,11 +9345,17 @@
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
       <c r="E22" s="3" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -8105,11 +9368,17 @@
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
       <c r="E23" s="3" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -8122,11 +9391,17 @@
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -8139,11 +9414,17 @@
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -8156,11 +9437,17 @@
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -8168,6 +9455,27 @@
       <c r="G26" s="3">
         <v>2.5</v>
       </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5A31A5-92B8-41BD-9D01-BAE5D1C7CBCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="742">
   <si>
     <t>sheet名</t>
   </si>
@@ -77,7 +71,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>battle_ccskill_config</t>
@@ -87,7 +80,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.lua</t>
@@ -102,7 +94,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>fx_config</t>
@@ -112,7 +103,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.lua</t>
@@ -757,7 +747,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -768,7 +757,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -779,7 +767,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -889,7 +876,7 @@
     <t>不太厉害的</t>
   </si>
   <si>
-    <t>战斗夏玲</t>
+    <t>战斗夏铃</t>
   </si>
   <si>
     <t>model_zdxl_1101003_p</t>
@@ -934,24 +921,27 @@
     <t>非常厉害的</t>
   </si>
   <si>
+    <t>黑尔</t>
+  </si>
+  <si>
+    <t>model_hekp_1101008_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_win.playable</t>
+  </si>
+  <si>
+    <t>-676#34</t>
+  </si>
+  <si>
     <t>黑尔·坎普</t>
   </si>
   <si>
-    <t>model_hekp_1101008_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Pefabs/model_hekp_1101008_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_win.playable</t>
-  </si>
-  <si>
-    <t>-676#34</t>
-  </si>
-  <si>
     <t>head_hekp_1101008</t>
   </si>
   <si>
@@ -1063,24 +1053,27 @@
     <t>head_lyc_1101005</t>
   </si>
   <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>model_hltn_1101006_p</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_summon.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_win.playable</t>
+  </si>
+  <si>
+    <t>-480#184</t>
+  </si>
+  <si>
     <t>红莲·缇娜</t>
   </si>
   <si>
-    <t>model_hltn_1101006_p</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Pefabs/model_hltn_1101006_p.prefab</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Animations/1101006_summon.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Animations/1101006_win.playable</t>
-  </si>
-  <si>
-    <t>-480#184</t>
-  </si>
-  <si>
     <t>head_hltn_1101006</t>
   </si>
   <si>
@@ -1258,7 +1251,7 @@
     <t>head_xy_1102006</t>
   </si>
   <si>
-    <t>天使·缇娜</t>
+    <t>天使缇娜</t>
   </si>
   <si>
     <t>model_tstn_1102007_p</t>
@@ -1270,9 +1263,6 @@
     <t>Art/Roles/rol_1102007/Animations/1102007_win.playable</t>
   </si>
   <si>
-    <t>天使缇娜</t>
-  </si>
-  <si>
     <t>head_tstn_1102007</t>
   </si>
   <si>
@@ -1342,7 +1332,7 @@
     <t>head_xhd_1102012</t>
   </si>
   <si>
-    <t>塞伯罗斯</t>
+    <t>塞伯洛斯</t>
   </si>
   <si>
     <t>model_sbls_1102013_p</t>
@@ -1620,7 +1610,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1631,7 +1620,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,7 +1632,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1655,7 +1642,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2158,6 +2144,12 @@
     <t>skill_1.playable</t>
   </si>
   <si>
+    <t>Art/EffectRes/Common/fx_ls_N07.prefab</t>
+  </si>
+  <si>
+    <t>Art/EffectRes/Common/fx_ls_N08.prefab</t>
+  </si>
+  <si>
     <t>Art/EffectRes/Common/fx_ls_N09.prefab</t>
   </si>
   <si>
@@ -2351,32 +2343,24 @@
   </si>
   <si>
     <t>Art/EffectRes/Common/FX_c_buff_shuijingwaike.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>水晶外壳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/EffectRes/Common/fx_ls_N08.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/EffectRes/Common/fx_ls_N07.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2389,21 +2373,92 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2411,36 +2466,94 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2449,27 +2562,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2490,7 +2595,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79955442976165048"/>
+        <fgColor theme="7" tint="0.79955442976165"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149693288979766"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,13 +2667,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14969328897976622"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34931485946226387"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.349314859462264"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,7 +2810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2571,6 +2862,104 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2580,115 +2969,303 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="64">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="16" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="64" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="35">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="35" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="35" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="35" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="64" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="35" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Comma [0]" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+  <cellStyles count="66">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="Currency" xfId="13"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="16"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
+    <cellStyle name="标题" xfId="20" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
+    <cellStyle name="输出" xfId="28" builtinId="21"/>
+    <cellStyle name="计算" xfId="29" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="Currency [0]" xfId="32"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
+    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
+    <cellStyle name="Grid" xfId="35"/>
+    <cellStyle name="汇总" xfId="36" builtinId="25"/>
+    <cellStyle name="好" xfId="37" builtinId="26"/>
+    <cellStyle name="适中" xfId="38" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="大标题" xfId="49"/>
+    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
+    <cellStyle name="Comma [0]" xfId="56"/>
+    <cellStyle name="Comma" xfId="57"/>
+    <cellStyle name="Normal" xfId="58"/>
+    <cellStyle name="Percent" xfId="59"/>
+    <cellStyle name="常规 2" xfId="60"/>
+    <cellStyle name="超链接 2" xfId="61"/>
+    <cellStyle name="文本" xfId="62"/>
+    <cellStyle name="无效" xfId="63"/>
+    <cellStyle name="中文标题" xfId="64"/>
+    <cellStyle name="纵向标题" xfId="65"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2946,19 +3523,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2970,7 +3547,7 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +3576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3022,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="47.25" customHeight="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3045,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="57.75" customHeight="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3066,7 +3643,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="54" customHeight="1" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3664,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="55.5" customHeight="1" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3108,25 +3685,26 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:1">
+      <c r="A10" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CJ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -3146,7 +3724,7 @@
     <col min="84" max="84" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:88">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3412,273 +3990,273 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:88">
+      <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AF2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AG2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AH2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AI2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AL2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AM2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AN2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AO2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BG2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="BI2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BK2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BL2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BM2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BN2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BO2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BP2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BQ2" s="9" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BR2" s="9" t="s">
+      <c r="BR2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BS2" s="9" t="s">
+      <c r="BS2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BT2" s="9" t="s">
+      <c r="BT2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BU2" s="9" t="s">
+      <c r="BU2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BV2" s="9" t="s">
+      <c r="BV2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BW2" s="9" t="s">
+      <c r="BW2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BX2" s="9" t="s">
+      <c r="BX2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BY2" s="9" t="s">
+      <c r="BY2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CA2" s="9" t="s">
+      <c r="CA2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CB2" s="9" t="s">
+      <c r="CB2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CC2" s="9" t="s">
+      <c r="CC2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CD2" s="9" t="s">
+      <c r="CD2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CE2" s="9" t="s">
+      <c r="CE2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CF2" s="9" t="s">
+      <c r="CF2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CG2" s="9" t="s">
+      <c r="CG2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CH2" s="9" t="s">
+      <c r="CH2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CI2" s="9" t="s">
+      <c r="CI2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="CJ2" s="9" t="s">
+      <c r="CJ2" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="45" customHeight="1" spans="1:88">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3944,7 +4522,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:88">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3988,7 +4566,7 @@
         <v>15.23</v>
       </c>
       <c r="O4" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P4" s="4">
         <v>-1.712</v>
@@ -4027,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC4" s="4">
         <v>6.13</v>
@@ -4075,7 +4653,7 @@
         <v>4.45</v>
       </c>
       <c r="AR4" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS4" s="4">
         <v>0</v>
@@ -4132,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL4" s="4">
         <v>0</v>
@@ -4141,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO4" s="4">
         <v>0</v>
@@ -4159,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="BT4" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU4" s="4">
         <v>0</v>
@@ -4210,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:88">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4254,7 +4832,7 @@
         <v>15.23</v>
       </c>
       <c r="O5" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P5" s="4">
         <v>-1.712</v>
@@ -4293,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC5" s="4">
         <v>6.13</v>
@@ -4341,7 +4919,7 @@
         <v>4.45</v>
       </c>
       <c r="AR5" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS5" s="4">
         <v>0</v>
@@ -4398,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL5" s="4">
         <v>0</v>
@@ -4407,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO5" s="4">
         <v>0</v>
@@ -4425,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="BT5" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU5" s="4">
         <v>0</v>
@@ -4476,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:88">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4520,7 +5098,7 @@
         <v>15.23</v>
       </c>
       <c r="O6" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P6" s="4">
         <v>-1.712</v>
@@ -4559,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC6" s="4">
         <v>6.13</v>
@@ -4607,7 +5185,7 @@
         <v>4.45</v>
       </c>
       <c r="AR6" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS6" s="4">
         <v>0</v>
@@ -4664,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL6" s="4">
         <v>0</v>
@@ -4673,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO6" s="4">
         <v>0</v>
@@ -4691,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="BT6" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU6" s="4">
         <v>0</v>
@@ -4742,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:88">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -4786,7 +5364,7 @@
         <v>15.23</v>
       </c>
       <c r="O7" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P7" s="4">
         <v>-1.712</v>
@@ -4825,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC7" s="4">
         <v>6.13</v>
@@ -4873,7 +5451,7 @@
         <v>4.45</v>
       </c>
       <c r="AR7" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS7" s="4">
         <v>0</v>
@@ -4930,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL7" s="4">
         <v>0</v>
@@ -4939,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO7" s="4">
         <v>0</v>
@@ -4957,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="BT7" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU7" s="4">
         <v>0</v>
@@ -5008,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:88">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -5052,7 +5630,7 @@
         <v>15.23</v>
       </c>
       <c r="O8" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P8" s="4">
         <v>-1.712</v>
@@ -5091,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC8" s="4">
         <v>6.13</v>
@@ -5139,7 +5717,7 @@
         <v>4.45</v>
       </c>
       <c r="AR8" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS8" s="4">
         <v>0</v>
@@ -5196,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL8" s="4">
         <v>0</v>
@@ -5205,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO8" s="4">
         <v>0</v>
@@ -5223,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="BT8" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU8" s="4">
         <v>0</v>
@@ -5274,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:88">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -5318,7 +5896,7 @@
         <v>15.23</v>
       </c>
       <c r="O9" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P9" s="4">
         <v>-1.712</v>
@@ -5357,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC9" s="4">
         <v>6.13</v>
@@ -5405,7 +5983,7 @@
         <v>4.45</v>
       </c>
       <c r="AR9" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS9" s="4">
         <v>0</v>
@@ -5462,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL9" s="4">
         <v>0</v>
@@ -5471,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO9" s="4">
         <v>0</v>
@@ -5489,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BT9" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU9" s="4">
         <v>0</v>
@@ -5540,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:88">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -5584,7 +6162,7 @@
         <v>15.23</v>
       </c>
       <c r="O10" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P10" s="4">
         <v>-1.712</v>
@@ -5623,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC10" s="4">
         <v>6.13</v>
@@ -5671,7 +6249,7 @@
         <v>4.45</v>
       </c>
       <c r="AR10" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS10" s="4">
         <v>0</v>
@@ -5728,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL10" s="4">
         <v>0</v>
@@ -5737,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO10" s="4">
         <v>0</v>
@@ -5755,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="BT10" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU10" s="4">
         <v>0</v>
@@ -5806,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:88">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -5850,7 +6428,7 @@
         <v>15.23</v>
       </c>
       <c r="O11" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P11" s="4">
         <v>-1.712</v>
@@ -5889,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC11" s="4">
         <v>6.13</v>
@@ -5937,7 +6515,7 @@
         <v>4.45</v>
       </c>
       <c r="AR11" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS11" s="4">
         <v>0</v>
@@ -5994,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL11" s="4">
         <v>0</v>
@@ -6003,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO11" s="4">
         <v>0</v>
@@ -6021,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="BT11" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU11" s="4">
         <v>0</v>
@@ -6072,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:88">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6116,7 +6694,7 @@
         <v>15.23</v>
       </c>
       <c r="O12" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P12" s="4">
         <v>-1.712</v>
@@ -6155,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC12" s="4">
         <v>6.13</v>
@@ -6203,7 +6781,7 @@
         <v>4.45</v>
       </c>
       <c r="AR12" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS12" s="4">
         <v>0</v>
@@ -6260,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL12" s="4">
         <v>0</v>
@@ -6269,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO12" s="4">
         <v>0</v>
@@ -6287,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="BT12" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU12" s="4">
         <v>0</v>
@@ -6338,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:88">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6382,7 +6960,7 @@
         <v>15.23</v>
       </c>
       <c r="O13" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P13" s="4">
         <v>-1.712</v>
@@ -6421,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC13" s="4">
         <v>6.13</v>
@@ -6469,7 +7047,7 @@
         <v>4.45</v>
       </c>
       <c r="AR13" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS13" s="4">
         <v>0</v>
@@ -6526,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL13" s="4">
         <v>0</v>
@@ -6535,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO13" s="4">
         <v>0</v>
@@ -6553,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="BT13" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU13" s="4">
         <v>0</v>
@@ -6604,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:88">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -6648,7 +7226,7 @@
         <v>15.23</v>
       </c>
       <c r="O14" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P14" s="4">
         <v>-1.712</v>
@@ -6687,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC14" s="4">
         <v>6.13</v>
@@ -6735,7 +7313,7 @@
         <v>4.45</v>
       </c>
       <c r="AR14" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS14" s="4">
         <v>0</v>
@@ -6792,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL14" s="4">
         <v>0</v>
@@ -6801,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO14" s="4">
         <v>0</v>
@@ -6819,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="BT14" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU14" s="4">
         <v>0</v>
@@ -6870,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:88">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -6914,7 +7492,7 @@
         <v>15.23</v>
       </c>
       <c r="O15" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P15" s="4">
         <v>-1.712</v>
@@ -6953,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC15" s="4">
         <v>6.13</v>
@@ -7001,7 +7579,7 @@
         <v>4.45</v>
       </c>
       <c r="AR15" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS15" s="4">
         <v>0</v>
@@ -7058,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL15" s="4">
         <v>0</v>
@@ -7067,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO15" s="4">
         <v>0</v>
@@ -7085,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="BT15" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU15" s="4">
         <v>0</v>
@@ -7136,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:88">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -7180,7 +7758,7 @@
         <v>15.23</v>
       </c>
       <c r="O16" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P16" s="4">
         <v>-1.712</v>
@@ -7219,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC16" s="4">
         <v>6.13</v>
@@ -7267,7 +7845,7 @@
         <v>4.45</v>
       </c>
       <c r="AR16" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS16" s="4">
         <v>0</v>
@@ -7324,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL16" s="4">
         <v>0</v>
@@ -7333,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO16" s="4">
         <v>0</v>
@@ -7351,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="BT16" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU16" s="4">
         <v>0</v>
@@ -7402,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:88">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -7446,7 +8024,7 @@
         <v>15.23</v>
       </c>
       <c r="O17" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P17" s="4">
         <v>-1.712</v>
@@ -7485,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC17" s="4">
         <v>6.13</v>
@@ -7533,7 +8111,7 @@
         <v>4.45</v>
       </c>
       <c r="AR17" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS17" s="4">
         <v>0</v>
@@ -7590,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL17" s="4">
         <v>0</v>
@@ -7599,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO17" s="4">
         <v>0</v>
@@ -7617,7 +8195,7 @@
         <v>0</v>
       </c>
       <c r="BT17" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU17" s="4">
         <v>0</v>
@@ -7668,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:88">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -7712,7 +8290,7 @@
         <v>15.23</v>
       </c>
       <c r="O18" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P18" s="4">
         <v>-1.712</v>
@@ -7751,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC18" s="4">
         <v>6.13</v>
@@ -7799,7 +8377,7 @@
         <v>4.45</v>
       </c>
       <c r="AR18" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS18" s="4">
         <v>0</v>
@@ -7856,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL18" s="4">
         <v>0</v>
@@ -7865,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO18" s="4">
         <v>0</v>
@@ -7883,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="BT18" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU18" s="4">
         <v>0</v>
@@ -7934,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:88">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -7978,7 +8556,7 @@
         <v>15.23</v>
       </c>
       <c r="O19" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P19" s="4">
         <v>-1.712</v>
@@ -8017,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC19" s="4">
         <v>6.13</v>
@@ -8065,7 +8643,7 @@
         <v>4.45</v>
       </c>
       <c r="AR19" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS19" s="4">
         <v>0</v>
@@ -8122,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL19" s="4">
         <v>0</v>
@@ -8131,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="BN19" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO19" s="4">
         <v>0</v>
@@ -8149,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="BT19" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU19" s="4">
         <v>0</v>
@@ -8200,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:88">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -8244,7 +8822,7 @@
         <v>15.23</v>
       </c>
       <c r="O20" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P20" s="4">
         <v>-1.712</v>
@@ -8283,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC20" s="4">
         <v>6.13</v>
@@ -8331,7 +8909,7 @@
         <v>4.45</v>
       </c>
       <c r="AR20" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS20" s="4">
         <v>0</v>
@@ -8388,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL20" s="4">
         <v>0</v>
@@ -8397,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO20" s="4">
         <v>0</v>
@@ -8415,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="BT20" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU20" s="4">
         <v>0</v>
@@ -8466,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:88">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -8510,7 +9088,7 @@
         <v>15.23</v>
       </c>
       <c r="O21" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P21" s="4">
         <v>-1.712</v>
@@ -8549,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC21" s="4">
         <v>6.13</v>
@@ -8597,7 +9175,7 @@
         <v>4.45</v>
       </c>
       <c r="AR21" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS21" s="4">
         <v>0</v>
@@ -8654,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL21" s="4">
         <v>0</v>
@@ -8663,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO21" s="4">
         <v>0</v>
@@ -8681,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="BT21" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU21" s="4">
         <v>0</v>
@@ -8732,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:88">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -8752,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>-25</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -8776,7 +9354,7 @@
         <v>15.23</v>
       </c>
       <c r="O22" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P22" s="4">
         <v>-1.712</v>
@@ -8815,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC22" s="4">
         <v>6.13</v>
@@ -8863,7 +9441,7 @@
         <v>4.45</v>
       </c>
       <c r="AR22" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS22" s="4">
         <v>0</v>
@@ -8920,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL22" s="4">
         <v>0</v>
@@ -8929,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO22" s="4">
         <v>0</v>
@@ -8947,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="BT22" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU22" s="4">
         <v>0</v>
@@ -8998,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:88">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -9042,7 +9620,7 @@
         <v>15.23</v>
       </c>
       <c r="O23" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P23" s="4">
         <v>-1.712</v>
@@ -9081,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC23" s="4">
         <v>6.13</v>
@@ -9129,7 +9707,7 @@
         <v>4.45</v>
       </c>
       <c r="AR23" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS23" s="4">
         <v>0</v>
@@ -9186,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL23" s="4">
         <v>0</v>
@@ -9195,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO23" s="4">
         <v>0</v>
@@ -9213,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="BT23" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU23" s="4">
         <v>0</v>
@@ -9264,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:88">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -9308,7 +9886,7 @@
         <v>15.23</v>
       </c>
       <c r="O24" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P24" s="4">
         <v>-1.712</v>
@@ -9347,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC24" s="4">
         <v>6.13</v>
@@ -9395,7 +9973,7 @@
         <v>4.45</v>
       </c>
       <c r="AR24" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS24" s="4">
         <v>0</v>
@@ -9452,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL24" s="4">
         <v>0</v>
@@ -9461,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO24" s="4">
         <v>0</v>
@@ -9479,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="BT24" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU24" s="4">
         <v>0</v>
@@ -9530,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:88">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -9574,7 +10152,7 @@
         <v>15.23</v>
       </c>
       <c r="O25" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P25" s="4">
         <v>-1.712</v>
@@ -9613,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC25" s="4">
         <v>6.13</v>
@@ -9661,7 +10239,7 @@
         <v>4.45</v>
       </c>
       <c r="AR25" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS25" s="4">
         <v>0</v>
@@ -9718,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL25" s="4">
         <v>0</v>
@@ -9727,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO25" s="4">
         <v>0</v>
@@ -9745,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="BT25" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU25" s="4">
         <v>0</v>
@@ -9796,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:88">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -9804,7 +10382,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -9840,7 +10418,7 @@
         <v>15.23</v>
       </c>
       <c r="O26" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P26" s="4">
         <v>-1.712</v>
@@ -9879,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC26" s="4">
         <v>6.13</v>
@@ -9927,7 +10505,7 @@
         <v>4.45</v>
       </c>
       <c r="AR26" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS26" s="4">
         <v>0</v>
@@ -9984,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL26" s="4">
         <v>0</v>
@@ -9993,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO26" s="4">
         <v>0</v>
@@ -10011,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="BT26" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU26" s="4">
         <v>0</v>
@@ -10062,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:88">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -10070,7 +10648,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -10106,7 +10684,7 @@
         <v>15.23</v>
       </c>
       <c r="O27" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P27" s="4">
         <v>-1.712</v>
@@ -10145,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC27" s="4">
         <v>6.13</v>
@@ -10193,7 +10771,7 @@
         <v>4.45</v>
       </c>
       <c r="AR27" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS27" s="4">
         <v>0</v>
@@ -10250,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL27" s="4">
         <v>0</v>
@@ -10259,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO27" s="4">
         <v>0</v>
@@ -10277,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="BT27" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU27" s="4">
         <v>0</v>
@@ -10328,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:88">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -10336,7 +10914,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -10372,7 +10950,7 @@
         <v>15.23</v>
       </c>
       <c r="O28" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P28" s="4">
         <v>-1.712</v>
@@ -10411,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC28" s="4">
         <v>6.13</v>
@@ -10459,7 +11037,7 @@
         <v>4.45</v>
       </c>
       <c r="AR28" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS28" s="4">
         <v>0</v>
@@ -10516,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL28" s="4">
         <v>0</v>
@@ -10525,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO28" s="4">
         <v>0</v>
@@ -10543,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="BT28" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU28" s="4">
         <v>0</v>
@@ -10594,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:88">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -10608,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -10638,7 +11216,7 @@
         <v>15.23</v>
       </c>
       <c r="O29" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P29" s="4">
         <v>-1.712</v>
@@ -10677,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC29" s="4">
         <v>6.13</v>
@@ -10725,7 +11303,7 @@
         <v>4.45</v>
       </c>
       <c r="AR29" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS29" s="4">
         <v>0</v>
@@ -10782,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL29" s="4">
         <v>0</v>
@@ -10791,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO29" s="4">
         <v>0</v>
@@ -10809,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="BT29" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU29" s="4">
         <v>0</v>
@@ -10860,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:88">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -10874,13 +11452,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>265.39999999999998</v>
+        <v>265.4</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -10904,7 +11482,7 @@
         <v>15.23</v>
       </c>
       <c r="O30" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P30" s="4">
         <v>-1.712</v>
@@ -10943,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC30" s="4">
         <v>6.13</v>
@@ -10991,7 +11569,7 @@
         <v>4.45</v>
       </c>
       <c r="AR30" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS30" s="4">
         <v>0</v>
@@ -11048,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL30" s="4">
         <v>0</v>
@@ -11057,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO30" s="4">
         <v>0</v>
@@ -11075,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BT30" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU30" s="4">
         <v>0</v>
@@ -11126,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:88">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -11140,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -11170,7 +11748,7 @@
         <v>15.23</v>
       </c>
       <c r="O31" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P31" s="4">
         <v>-1.712</v>
@@ -11209,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC31" s="4">
         <v>6.13</v>
@@ -11257,7 +11835,7 @@
         <v>4.45</v>
       </c>
       <c r="AR31" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS31" s="4">
         <v>0</v>
@@ -11314,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL31" s="4">
         <v>0</v>
@@ -11323,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="BN31" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO31" s="4">
         <v>0</v>
@@ -11341,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="BT31" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU31" s="4">
         <v>0</v>
@@ -11392,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:88">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -11436,7 +12014,7 @@
         <v>15.23</v>
       </c>
       <c r="O32" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P32" s="4">
         <v>-1.712</v>
@@ -11475,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC32" s="4">
         <v>6.13</v>
@@ -11523,7 +12101,7 @@
         <v>4.45</v>
       </c>
       <c r="AR32" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS32" s="4">
         <v>0</v>
@@ -11580,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL32" s="4">
         <v>0</v>
@@ -11589,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO32" s="4">
         <v>0</v>
@@ -11607,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="BT32" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU32" s="4">
         <v>0</v>
@@ -11658,7 +12236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:88">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -11702,7 +12280,7 @@
         <v>15.23</v>
       </c>
       <c r="O33" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P33" s="4">
         <v>-1.712</v>
@@ -11741,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC33" s="4">
         <v>6.13</v>
@@ -11789,7 +12367,7 @@
         <v>4.45</v>
       </c>
       <c r="AR33" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS33" s="4">
         <v>0</v>
@@ -11846,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL33" s="4">
         <v>0</v>
@@ -11855,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO33" s="4">
         <v>0</v>
@@ -11873,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="BT33" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU33" s="4">
         <v>0</v>
@@ -11924,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:88">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -11968,7 +12546,7 @@
         <v>15.23</v>
       </c>
       <c r="O34" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P34" s="4">
         <v>-1.712</v>
@@ -12007,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC34" s="4">
         <v>6.13</v>
@@ -12055,7 +12633,7 @@
         <v>4.45</v>
       </c>
       <c r="AR34" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS34" s="4">
         <v>0</v>
@@ -12112,7 +12690,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL34" s="4">
         <v>0</v>
@@ -12121,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO34" s="4">
         <v>0</v>
@@ -12139,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="BT34" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU34" s="4">
         <v>0</v>
@@ -12190,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:88">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -12198,7 +12776,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -12234,7 +12812,7 @@
         <v>15.23</v>
       </c>
       <c r="O35" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P35" s="4">
         <v>-1.712</v>
@@ -12273,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC35" s="4">
         <v>6.13</v>
@@ -12321,7 +12899,7 @@
         <v>4.45</v>
       </c>
       <c r="AR35" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS35" s="4">
         <v>0</v>
@@ -12378,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL35" s="4">
         <v>0</v>
@@ -12387,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO35" s="4">
         <v>0</v>
@@ -12405,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="BT35" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU35" s="4">
         <v>0</v>
@@ -12456,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:88">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -12464,7 +13042,7 @@
         <v>208</v>
       </c>
       <c r="C36" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -12500,7 +13078,7 @@
         <v>15.23</v>
       </c>
       <c r="O36" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P36" s="4">
         <v>-1.712</v>
@@ -12539,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC36" s="4">
         <v>6.13</v>
@@ -12587,7 +13165,7 @@
         <v>4.45</v>
       </c>
       <c r="AR36" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS36" s="4">
         <v>0</v>
@@ -12644,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL36" s="4">
         <v>0</v>
@@ -12653,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO36" s="4">
         <v>0</v>
@@ -12671,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="BT36" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU36" s="4">
         <v>0</v>
@@ -12722,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:88">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -12730,7 +13308,7 @@
         <v>208</v>
       </c>
       <c r="C37" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -12766,7 +13344,7 @@
         <v>15.23</v>
       </c>
       <c r="O37" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P37" s="4">
         <v>-1.712</v>
@@ -12805,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC37" s="4">
         <v>6.13</v>
@@ -12853,7 +13431,7 @@
         <v>4.45</v>
       </c>
       <c r="AR37" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS37" s="4">
         <v>0</v>
@@ -12910,7 +13488,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL37" s="4">
         <v>0</v>
@@ -12919,7 +13497,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO37" s="4">
         <v>0</v>
@@ -12937,7 +13515,7 @@
         <v>0</v>
       </c>
       <c r="BT37" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU37" s="4">
         <v>0</v>
@@ -12988,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:88">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -13002,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -13032,7 +13610,7 @@
         <v>15.23</v>
       </c>
       <c r="O38" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P38" s="4">
         <v>-1.712</v>
@@ -13071,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC38" s="4">
         <v>6.13</v>
@@ -13119,7 +13697,7 @@
         <v>4.45</v>
       </c>
       <c r="AR38" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS38" s="4">
         <v>0</v>
@@ -13176,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL38" s="4">
         <v>0</v>
@@ -13185,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO38" s="4">
         <v>0</v>
@@ -13203,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="BT38" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU38" s="4">
         <v>0</v>
@@ -13254,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:88">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -13268,13 +13846,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>265.39999999999998</v>
+        <v>265.4</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -13298,7 +13876,7 @@
         <v>15.23</v>
       </c>
       <c r="O39" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P39" s="4">
         <v>-1.712</v>
@@ -13337,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC39" s="4">
         <v>6.13</v>
@@ -13385,7 +13963,7 @@
         <v>4.45</v>
       </c>
       <c r="AR39" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS39" s="4">
         <v>0</v>
@@ -13442,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL39" s="4">
         <v>0</v>
@@ -13451,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO39" s="4">
         <v>0</v>
@@ -13469,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="BT39" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU39" s="4">
         <v>0</v>
@@ -13520,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:88">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -13534,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -13564,7 +14142,7 @@
         <v>15.23</v>
       </c>
       <c r="O40" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P40" s="4">
         <v>-1.712</v>
@@ -13603,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC40" s="4">
         <v>6.13</v>
@@ -13651,7 +14229,7 @@
         <v>4.45</v>
       </c>
       <c r="AR40" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS40" s="4">
         <v>0</v>
@@ -13708,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL40" s="4">
         <v>0</v>
@@ -13717,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO40" s="4">
         <v>0</v>
@@ -13735,7 +14313,7 @@
         <v>0</v>
       </c>
       <c r="BT40" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU40" s="4">
         <v>0</v>
@@ -13786,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:88">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -13830,7 +14408,7 @@
         <v>15.23</v>
       </c>
       <c r="O41" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P41" s="4">
         <v>-1.712</v>
@@ -13869,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC41" s="4">
         <v>6.13</v>
@@ -13917,7 +14495,7 @@
         <v>4.45</v>
       </c>
       <c r="AR41" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS41" s="4">
         <v>0</v>
@@ -13974,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL41" s="4">
         <v>0</v>
@@ -13983,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO41" s="4">
         <v>0</v>
@@ -14001,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="BT41" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU41" s="4">
         <v>0</v>
@@ -14052,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:88">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -14096,7 +14674,7 @@
         <v>15.23</v>
       </c>
       <c r="O42" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P42" s="4">
         <v>-1.712</v>
@@ -14135,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC42" s="4">
         <v>6.13</v>
@@ -14183,7 +14761,7 @@
         <v>4.45</v>
       </c>
       <c r="AR42" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS42" s="4">
         <v>0</v>
@@ -14240,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="BK42" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL42" s="4">
         <v>0</v>
@@ -14249,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO42" s="4">
         <v>0</v>
@@ -14267,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="BT42" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU42" s="4">
         <v>0</v>
@@ -14318,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:88">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -14362,7 +14940,7 @@
         <v>15.23</v>
       </c>
       <c r="O43" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P43" s="4">
         <v>-1.712</v>
@@ -14401,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC43" s="4">
         <v>6.13</v>
@@ -14449,7 +15027,7 @@
         <v>4.45</v>
       </c>
       <c r="AR43" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS43" s="4">
         <v>0</v>
@@ -14506,7 +15084,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL43" s="4">
         <v>0</v>
@@ -14515,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO43" s="4">
         <v>0</v>
@@ -14533,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="BT43" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU43" s="4">
         <v>0</v>
@@ -14584,7 +15162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:88">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -14592,7 +15170,7 @@
         <v>209</v>
       </c>
       <c r="C44" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -14628,7 +15206,7 @@
         <v>15.23</v>
       </c>
       <c r="O44" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P44" s="4">
         <v>-1.712</v>
@@ -14667,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC44" s="4">
         <v>6.13</v>
@@ -14715,7 +15293,7 @@
         <v>4.45</v>
       </c>
       <c r="AR44" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS44" s="4">
         <v>0</v>
@@ -14772,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL44" s="4">
         <v>0</v>
@@ -14781,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO44" s="4">
         <v>0</v>
@@ -14799,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="BT44" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU44" s="4">
         <v>0</v>
@@ -14850,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:88">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -14858,7 +15436,7 @@
         <v>209</v>
       </c>
       <c r="C45" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -14894,7 +15472,7 @@
         <v>15.23</v>
       </c>
       <c r="O45" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P45" s="4">
         <v>-1.712</v>
@@ -14933,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC45" s="4">
         <v>6.13</v>
@@ -14981,7 +15559,7 @@
         <v>4.45</v>
       </c>
       <c r="AR45" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS45" s="4">
         <v>0</v>
@@ -15038,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL45" s="4">
         <v>0</v>
@@ -15047,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO45" s="4">
         <v>0</v>
@@ -15065,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="BT45" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU45" s="4">
         <v>0</v>
@@ -15116,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:88">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -15124,7 +15702,7 @@
         <v>209</v>
       </c>
       <c r="C46" s="4">
-        <v>-27.513000000000002</v>
+        <v>-27.513</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -15160,7 +15738,7 @@
         <v>15.23</v>
       </c>
       <c r="O46" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P46" s="4">
         <v>-1.712</v>
@@ -15199,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC46" s="4">
         <v>6.13</v>
@@ -15247,7 +15825,7 @@
         <v>4.45</v>
       </c>
       <c r="AR46" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS46" s="4">
         <v>0</v>
@@ -15304,7 +15882,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL46" s="4">
         <v>0</v>
@@ -15313,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO46" s="4">
         <v>0</v>
@@ -15331,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="BT46" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU46" s="4">
         <v>0</v>
@@ -15382,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:88">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -15396,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -15426,7 +16004,7 @@
         <v>15.23</v>
       </c>
       <c r="O47" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P47" s="4">
         <v>-1.712</v>
@@ -15465,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC47" s="4">
         <v>6.13</v>
@@ -15513,7 +16091,7 @@
         <v>4.45</v>
       </c>
       <c r="AR47" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS47" s="4">
         <v>0</v>
@@ -15570,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL47" s="4">
         <v>0</v>
@@ -15579,7 +16157,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO47" s="4">
         <v>0</v>
@@ -15597,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="BT47" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU47" s="4">
         <v>0</v>
@@ -15648,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:88">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -15662,13 +16240,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <v>265.39999999999998</v>
+        <v>265.4</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
@@ -15692,7 +16270,7 @@
         <v>15.23</v>
       </c>
       <c r="O48" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P48" s="4">
         <v>-1.712</v>
@@ -15731,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC48" s="4">
         <v>6.13</v>
@@ -15779,7 +16357,7 @@
         <v>4.45</v>
       </c>
       <c r="AR48" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS48" s="4">
         <v>0</v>
@@ -15836,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="BK48" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL48" s="4">
         <v>0</v>
@@ -15845,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO48" s="4">
         <v>0</v>
@@ -15863,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="BT48" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU48" s="4">
         <v>0</v>
@@ -15914,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:88">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -15928,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>-44.112000000000002</v>
+        <v>-44.112</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -15958,7 +16536,7 @@
         <v>15.23</v>
       </c>
       <c r="O49" s="4">
-        <v>-16.074999999999999</v>
+        <v>-16.075</v>
       </c>
       <c r="P49" s="4">
         <v>-1.712</v>
@@ -15997,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-9.2</v>
       </c>
       <c r="AC49" s="4">
         <v>6.13</v>
@@ -16045,7 +16623,7 @@
         <v>4.45</v>
       </c>
       <c r="AR49" s="4">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AS49" s="4">
         <v>0</v>
@@ -16102,7 +16680,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="4">
-        <v>0.98599999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="BL49" s="4">
         <v>0</v>
@@ -16111,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="4">
-        <v>-53.210999999999999</v>
+        <v>-53.211</v>
       </c>
       <c r="BO49" s="4">
         <v>0</v>
@@ -16129,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="BT49" s="4">
-        <v>-178.66800000000001</v>
+        <v>-178.668</v>
       </c>
       <c r="BU49" s="4">
         <v>0</v>
@@ -16181,21 +16759,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="39.625" customWidth="1"/>
@@ -16209,7 +16788,7 @@
     <col min="12" max="16" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -16259,14 +16838,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>226</v>
       </c>
       <c r="D2" t="s">
@@ -16278,10 +16857,10 @@
       <c r="F2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>227</v>
       </c>
       <c r="I2" t="s">
@@ -16309,7 +16888,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" ht="75" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>232</v>
       </c>
@@ -16359,7 +16938,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="4">
         <v>1101001</v>
       </c>
@@ -16378,13 +16957,13 @@
       <c r="F4" s="4">
         <v>0.3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <v>0.96</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="13">
         <v>1.4</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>250</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -16409,7 +16988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="4">
         <v>1101002</v>
       </c>
@@ -16428,13 +17007,13 @@
       <c r="F5" s="4">
         <v>0.3</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>0.54</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>1.4</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>258</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -16459,7 +17038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="4">
         <v>1101003</v>
       </c>
@@ -16473,18 +17052,18 @@
         <v>1.73</v>
       </c>
       <c r="E6" s="4">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="F6" s="4">
         <v>0.3</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="12">
         <v>0.84</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="13">
         <v>1.4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>266</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -16509,7 +17088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:16">
       <c r="A7" s="4">
         <v>1101007</v>
       </c>
@@ -16528,13 +17107,13 @@
       <c r="F7" s="4">
         <v>0.3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>0.96</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>1.4</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>273</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -16559,7 +17138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:16">
       <c r="A8" s="4">
         <v>1101008</v>
       </c>
@@ -16573,18 +17152,18 @@
         <v>1.96</v>
       </c>
       <c r="E8" s="4">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F8" s="4">
         <v>0.3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>0.93</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>1.4</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="14" t="s">
         <v>281</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -16597,10 +17176,10 @@
         <v>284</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>263</v>
@@ -16609,15 +17188,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:16">
       <c r="A9" s="4">
         <v>1102001</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" s="4">
         <v>2.86</v>
@@ -16628,27 +17207,27 @@
       <c r="F9" s="4">
         <v>0.3</v>
       </c>
-      <c r="G9" s="11">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="12">
+        <v>2.43</v>
+      </c>
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>288</v>
+      <c r="I9" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>278</v>
@@ -16657,15 +17236,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:16">
       <c r="A10" s="4">
         <v>1102002</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D10" s="4">
         <v>2.9</v>
@@ -16676,27 +17255,27 @@
       <c r="F10" s="4">
         <v>0.3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>2.09</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>294</v>
+      <c r="I10" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>255</v>
@@ -16705,15 +17284,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:16">
       <c r="A11" s="4">
         <v>1102004</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D11" s="4">
         <v>2.5</v>
@@ -16724,27 +17303,27 @@
       <c r="F11" s="4">
         <v>0.3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>2.34</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>300</v>
+      <c r="I11" s="14" t="s">
+        <v>301</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>263</v>
@@ -16753,15 +17332,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:16">
       <c r="A12" s="4">
         <v>1102015</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D12" s="4">
         <v>2.54</v>
@@ -16772,27 +17351,27 @@
       <c r="F12" s="4">
         <v>0.3</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>1.92</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>306</v>
+      <c r="I12" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>263</v>
@@ -16801,48 +17380,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:16">
       <c r="A13" s="4">
         <v>1101004</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D13" s="4">
         <v>1.9</v>
       </c>
       <c r="E13" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F13" s="4">
         <v>0.3</v>
       </c>
-      <c r="G13" s="11">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G13" s="12">
+        <v>1.11</v>
+      </c>
+      <c r="H13" s="13">
         <v>1.4</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>312</v>
+      <c r="I13" s="14" t="s">
+        <v>313</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>278</v>
@@ -16851,15 +17430,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:16">
       <c r="A14" s="4">
         <v>1101005</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D14" s="4">
         <v>1.8</v>
@@ -16870,29 +17449,29 @@
       <c r="F14" s="4">
         <v>0.3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="12">
         <v>0.87</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>1.4</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>318</v>
+      <c r="I14" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>255</v>
@@ -16901,15 +17480,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:16">
       <c r="A15" s="4">
         <v>1101006</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D15" s="4">
         <v>1.8</v>
@@ -16920,29 +17499,29 @@
       <c r="F15" s="4">
         <v>0.3</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>0.96</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="13">
         <v>1.4</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>324</v>
+      <c r="I15" s="14" t="s">
+        <v>325</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>255</v>
@@ -16951,15 +17530,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:16">
       <c r="A16" s="4">
         <v>1101009</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D16" s="4">
         <v>1.83</v>
@@ -16970,29 +17549,29 @@
       <c r="F16" s="4">
         <v>0.3</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>1.08</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="13">
         <v>1.4</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>331</v>
+      <c r="I16" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>255</v>
@@ -17001,48 +17580,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:16">
       <c r="A17" s="4">
         <v>1101010</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D17" s="4">
         <v>1.9</v>
       </c>
       <c r="E17" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F17" s="4">
         <v>0.3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>1.31</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="13">
         <v>1.4</v>
       </c>
-      <c r="I17" s="13" t="s">
-        <v>337</v>
+      <c r="I17" s="14" t="s">
+        <v>339</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>278</v>
@@ -17051,15 +17630,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:16">
       <c r="A18" s="4">
         <v>1101011</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D18" s="4">
         <v>1.65</v>
@@ -17070,29 +17649,29 @@
       <c r="F18" s="4">
         <v>0.3</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>0.93</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="13">
         <v>1.4</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>343</v>
+      <c r="I18" s="14" t="s">
+        <v>345</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>255</v>
@@ -17101,48 +17680,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:16">
       <c r="A19" s="4">
         <v>1101012</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D19" s="4">
         <v>1.9</v>
       </c>
       <c r="E19" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F19" s="4">
         <v>0.3</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <v>1.4</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>349</v>
+      <c r="I19" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>255</v>
@@ -17151,15 +17730,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:16">
       <c r="A20" s="4">
         <v>1101013</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D20" s="4">
         <v>1.81</v>
@@ -17170,29 +17749,29 @@
       <c r="F20" s="4">
         <v>0.3</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>0.93</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <v>1.4</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>355</v>
+      <c r="I20" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>255</v>
@@ -17201,15 +17780,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:16">
       <c r="A21" s="4">
         <v>1101014</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D21" s="4">
         <v>1.76</v>
@@ -17220,29 +17799,29 @@
       <c r="F21" s="4">
         <v>0.3</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="12">
         <v>0.99</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <v>1.4</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>361</v>
+      <c r="I21" s="14" t="s">
+        <v>363</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>255</v>
@@ -17251,48 +17830,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:16">
       <c r="A22" s="4">
         <v>1101015</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D22" s="4">
         <v>1.75</v>
       </c>
       <c r="E22" s="4">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="F22" s="4">
         <v>0.3</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <v>0.72</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>1.4</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>367</v>
+      <c r="I22" s="14" t="s">
+        <v>369</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>255</v>
@@ -17301,15 +17880,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:16">
       <c r="A23" s="4">
         <v>1102003</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D23" s="4">
         <v>2.8</v>
@@ -17320,27 +17899,27 @@
       <c r="F23" s="4">
         <v>0.3</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <v>2.63</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <v>1</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>373</v>
+      <c r="I23" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>255</v>
@@ -17349,18 +17928,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:16">
       <c r="A24" s="4">
         <v>1102005</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D24" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E24" s="4">
         <v>2.6</v>
@@ -17368,27 +17947,27 @@
       <c r="F24" s="4">
         <v>0.3</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>0.96</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>1</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>379</v>
+      <c r="I24" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>255</v>
@@ -17397,15 +17976,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:16">
       <c r="A25" s="4">
         <v>1102006</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D25" s="4">
         <v>3.4</v>
@@ -17416,27 +17995,27 @@
       <c r="F25" s="4">
         <v>0.3</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>2.7</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="13">
         <v>1</v>
       </c>
-      <c r="I25" s="13" t="s">
-        <v>384</v>
+      <c r="I25" s="14" t="s">
+        <v>386</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>278</v>
@@ -17445,46 +18024,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:16">
       <c r="A26" s="4">
         <v>1102007</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D26" s="4">
         <v>2.17</v>
       </c>
       <c r="E26" s="4">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="F26" s="4">
         <v>0.3</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <v>1.35</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>389</v>
+      <c r="I26" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>255</v>
@@ -17493,15 +18072,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:16">
       <c r="A27" s="4">
         <v>1102008</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D27" s="4">
         <v>3.3</v>
@@ -17512,27 +18091,27 @@
       <c r="F27" s="4">
         <v>0.3</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="12">
         <v>2.42</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="13">
         <v>1</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>389</v>
+      <c r="I27" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M27" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>278</v>
@@ -17541,15 +18120,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:16">
       <c r="A28" s="4">
         <v>1102009</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D28" s="4">
         <v>3.06</v>
@@ -17560,27 +18139,27 @@
       <c r="F28" s="4">
         <v>0.3</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="12">
         <v>2.31</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="13">
         <v>1</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>397</v>
+      <c r="I28" s="14" t="s">
+        <v>398</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>255</v>
@@ -17589,15 +18168,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:16">
       <c r="A29" s="4">
         <v>1102010</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D29" s="4">
         <v>3.78</v>
@@ -17608,27 +18187,27 @@
       <c r="F29" s="4">
         <v>0.2</v>
       </c>
-      <c r="G29" s="11">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="G29" s="12">
+        <v>2.28</v>
+      </c>
+      <c r="H29" s="13">
         <v>1</v>
       </c>
-      <c r="I29" s="13" t="s">
-        <v>402</v>
+      <c r="I29" s="14" t="s">
+        <v>403</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>278</v>
@@ -17637,15 +18216,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:16">
       <c r="A30" s="4">
         <v>1102011</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D30" s="4">
         <v>2.96</v>
@@ -17656,27 +18235,27 @@
       <c r="F30" s="4">
         <v>0.3</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="12">
         <v>2.34</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="13">
         <v>1</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>407</v>
+      <c r="I30" s="14" t="s">
+        <v>408</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>278</v>
@@ -17685,15 +18264,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:16">
       <c r="A31" s="4">
         <v>1102012</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D31" s="4">
         <v>2.97</v>
@@ -17704,27 +18283,27 @@
       <c r="F31" s="4">
         <v>0.3</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="12">
         <v>2.15</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="13">
         <v>1</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>412</v>
+      <c r="I31" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>255</v>
@@ -17733,15 +18312,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:16">
       <c r="A32" s="4">
         <v>1102013</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D32" s="4">
         <v>2.5</v>
@@ -17752,27 +18331,27 @@
       <c r="F32" s="4">
         <v>0.35</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="12">
         <v>2.72</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="13">
         <v>1</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>417</v>
+      <c r="I32" s="14" t="s">
+        <v>418</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>263</v>
@@ -17781,15 +18360,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:16">
       <c r="A33" s="4">
         <v>1102014</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D33" s="4">
         <v>2.94</v>
@@ -17800,27 +18379,27 @@
       <c r="F33" s="4">
         <v>0.3</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="12">
         <v>2.42</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="13">
         <v>1</v>
       </c>
-      <c r="I33" s="13" t="s">
-        <v>422</v>
+      <c r="I33" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>255</v>
@@ -17829,15 +18408,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:16">
       <c r="A34" s="4">
         <v>1102016</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D34" s="4">
         <v>3.22</v>
@@ -17848,27 +18427,27 @@
       <c r="F34" s="4">
         <v>0.3</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="12">
         <v>2.1</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="13">
         <v>1</v>
       </c>
-      <c r="I34" s="13" t="s">
-        <v>427</v>
+      <c r="I34" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>278</v>
@@ -17877,15 +18456,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" ht="16.5" spans="1:16">
       <c r="A35" s="4">
         <v>1102017</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D35" s="4">
         <v>2.9</v>
@@ -17896,27 +18475,27 @@
       <c r="F35" s="4">
         <v>0.3</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="12">
         <v>2.04</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="13">
         <v>1</v>
       </c>
-      <c r="I35" s="13" t="s">
-        <v>432</v>
+      <c r="I35" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>255</v>
@@ -17925,15 +18504,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" ht="16.5" spans="1:16">
       <c r="A36" s="4">
         <v>1102018</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D36" s="4">
         <v>3.14</v>
@@ -17944,27 +18523,27 @@
       <c r="F36" s="4">
         <v>0.3</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="12">
         <v>2.17</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="13">
         <v>1</v>
       </c>
-      <c r="I36" s="13" t="s">
-        <v>437</v>
+      <c r="I36" s="14" t="s">
+        <v>438</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>255</v>
@@ -17973,15 +18552,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" ht="16.5" spans="1:16">
       <c r="A37" s="4">
         <v>1102019</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D37" s="4">
         <v>2.84</v>
@@ -17992,27 +18571,27 @@
       <c r="F37" s="4">
         <v>0.3</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="12">
         <v>1.2</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="13">
         <v>1</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>442</v>
+      <c r="I37" s="14" t="s">
+        <v>443</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>255</v>
@@ -18021,15 +18600,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:16">
       <c r="A38" s="4">
         <v>1102020</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D38" s="4">
         <v>2.96</v>
@@ -18040,27 +18619,27 @@
       <c r="F38" s="4">
         <v>0.3</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="12">
         <v>2.42</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="13">
         <v>1</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>447</v>
+      <c r="I38" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>255</v>
@@ -18069,15 +18648,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:16">
       <c r="A39" s="4">
         <v>1102021</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D39" s="4">
         <v>2.75</v>
@@ -18088,27 +18667,27 @@
       <c r="F39" s="4">
         <v>0.3</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="12">
         <v>1.83</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="13">
         <v>1</v>
       </c>
-      <c r="I39" s="13" t="s">
-        <v>452</v>
+      <c r="I39" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>253</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>255</v>
@@ -18117,15 +18696,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="16.5" spans="1:16">
       <c r="A40" s="4">
         <v>1201001</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D40" s="4">
         <v>2.35</v>
@@ -18136,80 +18715,80 @@
       <c r="F40" s="4">
         <v>0.3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="12">
         <v>1.51</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="13">
         <v>1</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>457</v>
+      <c r="I40" s="14" t="s">
+        <v>458</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14">
+        <v>456</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="16.5" spans="1:16">
       <c r="A41" s="4">
         <v>1201002</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D41" s="4">
         <v>1.98</v>
       </c>
       <c r="E41" s="4">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="F41" s="4">
         <v>0.3</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="12">
         <v>1.2</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="13">
         <v>1</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>461</v>
+      <c r="I41" s="14" t="s">
+        <v>462</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14">
+        <v>460</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="16.5" spans="1:16">
       <c r="A42" s="4">
         <v>1201003</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D42" s="4">
         <v>1.34</v>
@@ -18220,38 +18799,38 @@
       <c r="F42" s="4">
         <v>0.3</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="12">
         <v>0.96</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="13">
         <v>1</v>
       </c>
-      <c r="I42" s="13" t="s">
-        <v>465</v>
+      <c r="I42" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14">
+        <v>464</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" ht="16.5" spans="1:16">
       <c r="A43" s="4">
         <v>1201004</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D43" s="4">
         <v>2.8</v>
@@ -18262,38 +18841,38 @@
       <c r="F43" s="4">
         <v>0.3</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="12">
         <v>2.34</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="13">
         <v>1</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>469</v>
+      <c r="I43" s="14" t="s">
+        <v>470</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14">
+        <v>468</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" ht="16.5" spans="1:16">
       <c r="A44" s="4">
         <v>1201005</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D44" s="4">
         <v>2.8</v>
@@ -18304,122 +18883,122 @@
       <c r="F44" s="4">
         <v>0.3</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="12">
         <v>2.34</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="13">
         <v>1</v>
       </c>
-      <c r="I44" s="13" t="s">
-        <v>473</v>
+      <c r="I44" s="14" t="s">
+        <v>474</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14">
+        <v>472</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="16.5" spans="1:16">
       <c r="A45" s="4">
         <v>1201006</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D45" s="4">
         <v>1.96</v>
       </c>
       <c r="E45" s="4">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F45" s="4">
         <v>0.3</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="12">
         <v>1.38</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="13">
         <v>1</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>477</v>
+      <c r="I45" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14">
+        <v>476</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="16.5" spans="1:16">
       <c r="A46" s="4">
         <v>1201007</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D46" s="4">
         <v>1.96</v>
       </c>
       <c r="E46" s="4">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="F46" s="4">
         <v>0.3</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="12">
         <v>1.38</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="13">
         <v>1</v>
       </c>
-      <c r="I46" s="13" t="s">
-        <v>481</v>
+      <c r="I46" s="14" t="s">
+        <v>482</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14">
+        <v>480</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" ht="16.5" spans="1:16">
       <c r="A47" s="4">
         <v>1201008</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D47" s="4">
         <v>2.97</v>
@@ -18430,38 +19009,38 @@
       <c r="F47" s="4">
         <v>0.3</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="12">
         <v>2.33</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="13">
         <v>1</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>485</v>
+      <c r="I47" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14">
+        <v>484</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" ht="16.5" spans="1:16">
       <c r="A48" s="4">
         <v>1201009</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D48" s="4">
         <v>2.67</v>
@@ -18472,38 +19051,38 @@
       <c r="F48" s="4">
         <v>0.3</v>
       </c>
-      <c r="G48" s="11">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="G48" s="12">
+        <v>2.24</v>
+      </c>
+      <c r="H48" s="13">
         <v>1</v>
       </c>
-      <c r="I48" s="13" t="s">
-        <v>489</v>
+      <c r="I48" s="14" t="s">
+        <v>490</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14">
+        <v>488</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" ht="16.5" spans="1:16">
       <c r="A49" s="4">
         <v>1201010</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D49" s="4">
         <v>1.19</v>
@@ -18514,38 +19093,38 @@
       <c r="F49" s="4">
         <v>0.3</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="12">
         <v>1.7</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="13">
         <v>1</v>
       </c>
-      <c r="I49" s="13" t="s">
-        <v>493</v>
+      <c r="I49" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14">
+        <v>492</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="16.5" spans="1:16">
       <c r="A50" s="4">
         <v>1201011</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D50" s="4">
         <v>1.8</v>
@@ -18556,41 +19135,41 @@
       <c r="F50" s="4">
         <v>0.3</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="12">
         <v>1.2</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="13">
         <v>1</v>
       </c>
-      <c r="I50" s="13" t="s">
-        <v>497</v>
+      <c r="I50" s="14" t="s">
+        <v>498</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14">
+        <v>496</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="16.5" spans="1:16">
       <c r="A51" s="4">
         <v>1201012</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D51" s="4">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="E51" s="4">
         <v>2.48</v>
@@ -18598,45 +19177,46 @@
       <c r="F51" s="4">
         <v>0.35</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="12">
         <v>2.25</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="13">
         <v>1</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>501</v>
+      <c r="I51" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14">
+        <v>500</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -18644,49 +19224,49 @@
     <col min="4" max="4" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="4">
         <v>1101001</v>
       </c>
@@ -18694,13 +19274,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="4">
         <v>1101001</v>
       </c>
@@ -18708,13 +19288,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="4">
         <v>1101002</v>
       </c>
@@ -18722,13 +19302,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="4">
         <v>1101002</v>
       </c>
@@ -18736,13 +19316,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="4">
         <v>1101003</v>
       </c>
@@ -18750,13 +19330,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="4">
         <v>1101003</v>
       </c>
@@ -18764,13 +19344,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="4">
         <v>1101007</v>
       </c>
@@ -18778,13 +19358,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="4">
         <v>1101007</v>
       </c>
@@ -18792,13 +19372,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="4">
         <v>1101008</v>
       </c>
@@ -18806,13 +19386,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="4">
         <v>1102001</v>
       </c>
@@ -18820,13 +19400,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="4">
         <v>1102001</v>
       </c>
@@ -18834,13 +19414,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="4">
         <v>1102001</v>
       </c>
@@ -18848,13 +19428,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="4">
         <v>1102002</v>
       </c>
@@ -18862,13 +19442,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
       <c r="A17" s="4">
         <v>1102002</v>
       </c>
@@ -18876,13 +19456,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="4">
         <v>1102002</v>
       </c>
@@ -18890,13 +19470,13 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="4">
         <v>1102004</v>
       </c>
@@ -18904,13 +19484,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
       <c r="A20" s="4">
         <v>1102004</v>
       </c>
@@ -18918,13 +19498,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="4">
         <v>1102004</v>
       </c>
@@ -18932,27 +19512,27 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="11">
         <v>1102015</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="4">
         <v>1101004</v>
       </c>
@@ -18960,13 +19540,13 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="4">
         <v>1101004</v>
       </c>
@@ -18974,13 +19554,13 @@
         <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="4">
         <v>1101005</v>
       </c>
@@ -18988,13 +19568,13 @@
         <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="4">
         <v>1101006</v>
       </c>
@@ -19002,13 +19582,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="4">
         <v>1101009</v>
       </c>
@@ -19016,13 +19596,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="4">
         <v>1101010</v>
       </c>
@@ -19030,13 +19610,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="4">
         <v>1101011</v>
       </c>
@@ -19044,13 +19624,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="4">
         <v>1101011</v>
       </c>
@@ -19058,13 +19638,13 @@
         <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:4">
       <c r="A31" s="4">
         <v>1101012</v>
       </c>
@@ -19072,13 +19652,13 @@
         <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:4">
       <c r="A32" s="4">
         <v>1101013</v>
       </c>
@@ -19086,13 +19666,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:4">
       <c r="A33" s="4">
         <v>1101013</v>
       </c>
@@ -19100,13 +19680,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
       <c r="A34" s="4">
         <v>1101014</v>
       </c>
@@ -19114,13 +19694,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
       <c r="A35" s="4">
         <v>1101014</v>
       </c>
@@ -19128,13 +19708,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
       <c r="A36" s="4">
         <v>1101015</v>
       </c>
@@ -19142,13 +19722,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
       <c r="A37" s="4">
         <v>1102003</v>
       </c>
@@ -19156,13 +19736,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:4">
       <c r="A38" s="4">
         <v>1102005</v>
       </c>
@@ -19170,13 +19750,13 @@
         <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:4">
       <c r="A39" s="4">
         <v>1102006</v>
       </c>
@@ -19184,13 +19764,13 @@
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:4">
       <c r="A40" s="4">
         <v>1102007</v>
       </c>
@@ -19198,13 +19778,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
       <c r="A41" s="4">
         <v>1102007</v>
       </c>
@@ -19212,13 +19792,13 @@
         <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
       <c r="A42" s="4">
         <v>1102007</v>
       </c>
@@ -19226,13 +19806,13 @@
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
       <c r="A43" s="4">
         <v>1102009</v>
       </c>
@@ -19240,13 +19820,13 @@
         <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
       <c r="A44" s="4">
         <v>1102010</v>
       </c>
@@ -19254,13 +19834,13 @@
         <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:4">
       <c r="A45" s="4">
         <v>1102011</v>
       </c>
@@ -19268,13 +19848,13 @@
         <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:4">
       <c r="A46" s="4">
         <v>1102012</v>
       </c>
@@ -19282,13 +19862,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:4">
       <c r="A47" s="4">
         <v>1102012</v>
       </c>
@@ -19296,13 +19876,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:4">
       <c r="A48" s="4">
         <v>1102012</v>
       </c>
@@ -19310,13 +19890,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:4">
       <c r="A49" s="4">
         <v>1102013</v>
       </c>
@@ -19324,13 +19904,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:4">
       <c r="A50" s="4">
         <v>1102014</v>
       </c>
@@ -19338,13 +19918,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:4">
       <c r="A51" s="4">
         <v>1102014</v>
       </c>
@@ -19352,13 +19932,13 @@
         <v>12</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:4">
       <c r="A52" s="4">
         <v>1102014</v>
       </c>
@@ -19366,13 +19946,13 @@
         <v>12</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:4">
       <c r="A53" s="4">
         <v>1102016</v>
       </c>
@@ -19380,13 +19960,13 @@
         <v>12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:4">
       <c r="A54" s="4">
         <v>1102017</v>
       </c>
@@ -19394,13 +19974,13 @@
         <v>12</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:4">
       <c r="A55" s="4">
         <v>1102018</v>
       </c>
@@ -19408,13 +19988,13 @@
         <v>12</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:4">
       <c r="A56" s="4">
         <v>1102019</v>
       </c>
@@ -19422,13 +20002,13 @@
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:4">
       <c r="A57" s="4">
         <v>1102020</v>
       </c>
@@ -19436,13 +20016,13 @@
         <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:4">
       <c r="A58" s="4">
         <v>1102020</v>
       </c>
@@ -19450,13 +20030,13 @@
         <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:4">
       <c r="A59" s="4">
         <v>1102021</v>
       </c>
@@ -19464,13 +20044,13 @@
         <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:4">
       <c r="A60" s="4">
         <v>1201001</v>
       </c>
@@ -19478,13 +20058,13 @@
         <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:4">
       <c r="A61" s="4">
         <v>1201002</v>
       </c>
@@ -19492,13 +20072,13 @@
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:4">
       <c r="A62" s="4">
         <v>1201003</v>
       </c>
@@ -19506,13 +20086,13 @@
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:4">
       <c r="A63" s="4">
         <v>1201004</v>
       </c>
@@ -19520,13 +20100,13 @@
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="1:4">
       <c r="A64" s="4">
         <v>1201004</v>
       </c>
@@ -19534,13 +20114,13 @@
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:4">
       <c r="A65" s="4">
         <v>1201005</v>
       </c>
@@ -19548,13 +20128,13 @@
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:4">
       <c r="A66" s="4">
         <v>1201005</v>
       </c>
@@ -19562,13 +20142,13 @@
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:4">
       <c r="A67" s="4">
         <v>1201006</v>
       </c>
@@ -19576,13 +20156,13 @@
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:4">
       <c r="A68" s="4">
         <v>1201007</v>
       </c>
@@ -19590,13 +20170,13 @@
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="1:4">
       <c r="A69" s="4">
         <v>1201008</v>
       </c>
@@ -19604,13 +20184,13 @@
         <v>12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:4">
       <c r="A70" s="4">
         <v>1201008</v>
       </c>
@@ -19618,13 +20198,13 @@
         <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:4">
       <c r="A71" s="4">
         <v>1201008</v>
       </c>
@@ -19632,13 +20212,13 @@
         <v>12</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:4">
       <c r="A72" s="4">
         <v>1201009</v>
       </c>
@@ -19646,13 +20226,13 @@
         <v>12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:4">
       <c r="A73" s="4">
         <v>1201009</v>
       </c>
@@ -19660,13 +20240,13 @@
         <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:4">
       <c r="A74" s="4">
         <v>1201010</v>
       </c>
@@ -19674,13 +20254,13 @@
         <v>12</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="1:4">
       <c r="A75" s="4">
         <v>1201011</v>
       </c>
@@ -19688,13 +20268,13 @@
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:4">
       <c r="A76" s="4">
         <v>1201012</v>
       </c>
@@ -19702,13 +20282,13 @@
         <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:4">
       <c r="A77" s="4">
         <v>1201012</v>
       </c>
@@ -19716,13 +20296,13 @@
         <v>12</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:4">
       <c r="A78" s="4">
         <v>1201012</v>
       </c>
@@ -19730,46 +20310,47 @@
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -19780,201 +20361,202 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" ht="60" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="4">
         <v>1304001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="4">
         <v>1304002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="4">
         <v>1304003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="4">
         <v>1304004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="4">
         <v>1304005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="4">
         <v>1304006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="4">
         <v>1304007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="4">
         <v>1304008</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="4">
         <v>1304009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:3">
       <c r="A13" s="4">
         <v>1304010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="4">
         <v>1304011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
       <c r="A15" s="4">
         <v>1304012</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:3">
       <c r="A16" s="4">
         <v>1304013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="4">
         <v>1304014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="4">
         <v>1304015</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:3">
       <c r="A19" s="4">
         <v>1304016</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="67.75" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
@@ -19984,7 +20566,7 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -19992,22 +20574,22 @@
         <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -20015,10 +20597,10 @@
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E2" t="s">
         <v>226</v>
@@ -20030,35 +20612,35 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" ht="30" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -20067,7 +20649,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -20076,12 +20658,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -20090,7 +20672,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -20099,12 +20681,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -20113,7 +20695,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -20122,12 +20704,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -20136,7 +20718,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -20145,12 +20727,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -20159,7 +20741,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
@@ -20168,21 +20750,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -20191,21 +20773,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -20214,21 +20796,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -20237,21 +20819,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -20260,21 +20842,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:7">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -20283,21 +20865,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:7">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -20306,21 +20888,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:7">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -20329,12 +20911,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:7">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -20343,7 +20925,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -20352,12 +20934,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:7">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -20366,7 +20948,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -20375,12 +20957,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:7">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -20389,7 +20971,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -20398,12 +20980,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:7">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -20412,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -20421,21 +21003,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:7">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -20444,21 +21026,21 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:7">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -20467,12 +21049,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:7">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -20481,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -20490,12 +21072,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:7">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -20504,7 +21086,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -20513,12 +21095,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -20527,7 +21109,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -20536,12 +21118,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:7">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -20550,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -20559,12 +21141,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:7">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -20573,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
@@ -20582,12 +21164,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:7">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -20596,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -20605,12 +21187,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:7">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -20619,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -20628,12 +21210,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12B4C94-6701-48D8-8008-E78982B6E8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="742">
   <si>
     <t>sheet名</t>
   </si>
@@ -71,6 +77,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>battle_ccskill_config</t>
@@ -80,6 +87,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.lua</t>
@@ -94,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>fx_config</t>
@@ -103,6 +112,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.lua</t>
@@ -747,6 +757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -757,6 +768,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,6 +779,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1610,6 +1623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1620,6 +1634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1632,6 +1647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1642,6 +1658,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2351,16 +2368,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,92 +2388,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2466,94 +2418,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2562,6 +2439,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2570,11 +2448,19 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2595,67 +2481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79955442976165"/>
+        <fgColor theme="7" tint="0.79952391125217448"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149693288979766"/>
+        <fgColor theme="0" tint="-0.14966277047029022"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,139 +2499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349314859462264"/>
+        <fgColor theme="0" tint="-0.34931485946226387"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2810,7 +2510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2862,104 +2562,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2969,303 +2571,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="64">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="16">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="64" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="16" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="35">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="35" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="35" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="35" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="6" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="64" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="16" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="35" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="6" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="58">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="18">
+    <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma [0]" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="Currency" xfId="13"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="18" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="19" builtinId="11"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="Currency [0]" xfId="32"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="Grid" xfId="35"/>
-    <cellStyle name="汇总" xfId="36" builtinId="25"/>
-    <cellStyle name="好" xfId="37" builtinId="26"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="大标题" xfId="49"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="51" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="52" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="53" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="54" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="55" builtinId="52"/>
-    <cellStyle name="Comma [0]" xfId="56"/>
-    <cellStyle name="Comma" xfId="57"/>
-    <cellStyle name="Normal" xfId="58"/>
-    <cellStyle name="Percent" xfId="59"/>
-    <cellStyle name="常规 2" xfId="60"/>
-    <cellStyle name="超链接 2" xfId="61"/>
-    <cellStyle name="文本" xfId="62"/>
-    <cellStyle name="无效" xfId="63"/>
-    <cellStyle name="中文标题" xfId="64"/>
-    <cellStyle name="纵向标题" xfId="65"/>
+    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3523,19 +2937,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -3547,7 +2961,7 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -3599,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="47.25" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3622,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="57.75" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -3643,7 +3057,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="54" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +3078,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="55.5" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3685,26 +3099,25 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -3724,7 +3137,7 @@
     <col min="84" max="84" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:88">
+    <row r="1" spans="1:88" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3990,7 +3403,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
@@ -4256,7 +3669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:88">
+    <row r="3" spans="1:88" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4522,7 +3935,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:88">
+    <row r="4" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4566,7 +3979,7 @@
         <v>15.23</v>
       </c>
       <c r="O4" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P4" s="4">
         <v>-1.712</v>
@@ -4605,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC4" s="4">
         <v>6.13</v>
@@ -4653,7 +4066,7 @@
         <v>4.45</v>
       </c>
       <c r="AR4" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS4" s="4">
         <v>0</v>
@@ -4710,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL4" s="4">
         <v>0</v>
@@ -4719,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO4" s="4">
         <v>0</v>
@@ -4737,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="BT4" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU4" s="4">
         <v>0</v>
@@ -4788,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:88">
+    <row r="5" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4832,7 +4245,7 @@
         <v>15.23</v>
       </c>
       <c r="O5" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P5" s="4">
         <v>-1.712</v>
@@ -4871,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC5" s="4">
         <v>6.13</v>
@@ -4919,7 +4332,7 @@
         <v>4.45</v>
       </c>
       <c r="AR5" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS5" s="4">
         <v>0</v>
@@ -4976,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL5" s="4">
         <v>0</v>
@@ -4985,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO5" s="4">
         <v>0</v>
@@ -5003,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BT5" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU5" s="4">
         <v>0</v>
@@ -5054,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:88">
+    <row r="6" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -5098,7 +4511,7 @@
         <v>15.23</v>
       </c>
       <c r="O6" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P6" s="4">
         <v>-1.712</v>
@@ -5137,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC6" s="4">
         <v>6.13</v>
@@ -5185,7 +4598,7 @@
         <v>4.45</v>
       </c>
       <c r="AR6" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS6" s="4">
         <v>0</v>
@@ -5242,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BK6" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL6" s="4">
         <v>0</v>
@@ -5251,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO6" s="4">
         <v>0</v>
@@ -5269,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="BT6" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU6" s="4">
         <v>0</v>
@@ -5320,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:88">
+    <row r="7" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -5364,7 +4777,7 @@
         <v>15.23</v>
       </c>
       <c r="O7" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P7" s="4">
         <v>-1.712</v>
@@ -5403,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC7" s="4">
         <v>6.13</v>
@@ -5451,7 +4864,7 @@
         <v>4.45</v>
       </c>
       <c r="AR7" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS7" s="4">
         <v>0</v>
@@ -5508,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL7" s="4">
         <v>0</v>
@@ -5517,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO7" s="4">
         <v>0</v>
@@ -5535,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="BT7" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU7" s="4">
         <v>0</v>
@@ -5586,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:88">
+    <row r="8" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -5630,7 +5043,7 @@
         <v>15.23</v>
       </c>
       <c r="O8" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P8" s="4">
         <v>-1.712</v>
@@ -5669,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC8" s="4">
         <v>6.13</v>
@@ -5717,7 +5130,7 @@
         <v>4.45</v>
       </c>
       <c r="AR8" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS8" s="4">
         <v>0</v>
@@ -5774,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL8" s="4">
         <v>0</v>
@@ -5783,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="BN8" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO8" s="4">
         <v>0</v>
@@ -5801,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="BT8" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU8" s="4">
         <v>0</v>
@@ -5852,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:88">
+    <row r="9" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -5896,7 +5309,7 @@
         <v>15.23</v>
       </c>
       <c r="O9" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P9" s="4">
         <v>-1.712</v>
@@ -5935,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC9" s="4">
         <v>6.13</v>
@@ -5983,7 +5396,7 @@
         <v>4.45</v>
       </c>
       <c r="AR9" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS9" s="4">
         <v>0</v>
@@ -6040,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="BK9" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL9" s="4">
         <v>0</v>
@@ -6049,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO9" s="4">
         <v>0</v>
@@ -6067,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="BT9" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU9" s="4">
         <v>0</v>
@@ -6118,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:88">
+    <row r="10" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -6162,7 +5575,7 @@
         <v>15.23</v>
       </c>
       <c r="O10" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P10" s="4">
         <v>-1.712</v>
@@ -6201,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC10" s="4">
         <v>6.13</v>
@@ -6249,7 +5662,7 @@
         <v>4.45</v>
       </c>
       <c r="AR10" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS10" s="4">
         <v>0</v>
@@ -6306,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL10" s="4">
         <v>0</v>
@@ -6315,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="BN10" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO10" s="4">
         <v>0</v>
@@ -6333,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="BT10" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU10" s="4">
         <v>0</v>
@@ -6384,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:88">
+    <row r="11" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -6428,7 +5841,7 @@
         <v>15.23</v>
       </c>
       <c r="O11" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P11" s="4">
         <v>-1.712</v>
@@ -6467,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC11" s="4">
         <v>6.13</v>
@@ -6515,7 +5928,7 @@
         <v>4.45</v>
       </c>
       <c r="AR11" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS11" s="4">
         <v>0</v>
@@ -6572,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL11" s="4">
         <v>0</v>
@@ -6581,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO11" s="4">
         <v>0</v>
@@ -6599,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="BT11" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU11" s="4">
         <v>0</v>
@@ -6650,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:88">
+    <row r="12" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -6694,7 +6107,7 @@
         <v>15.23</v>
       </c>
       <c r="O12" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P12" s="4">
         <v>-1.712</v>
@@ -6733,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC12" s="4">
         <v>6.13</v>
@@ -6781,7 +6194,7 @@
         <v>4.45</v>
       </c>
       <c r="AR12" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS12" s="4">
         <v>0</v>
@@ -6838,7 +6251,7 @@
         <v>0</v>
       </c>
       <c r="BK12" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL12" s="4">
         <v>0</v>
@@ -6847,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO12" s="4">
         <v>0</v>
@@ -6865,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="BT12" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU12" s="4">
         <v>0</v>
@@ -6916,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:88">
+    <row r="13" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -6960,7 +6373,7 @@
         <v>15.23</v>
       </c>
       <c r="O13" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P13" s="4">
         <v>-1.712</v>
@@ -6999,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC13" s="4">
         <v>6.13</v>
@@ -7047,7 +6460,7 @@
         <v>4.45</v>
       </c>
       <c r="AR13" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS13" s="4">
         <v>0</v>
@@ -7104,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="BK13" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL13" s="4">
         <v>0</v>
@@ -7113,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO13" s="4">
         <v>0</v>
@@ -7131,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="BT13" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU13" s="4">
         <v>0</v>
@@ -7182,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:88">
+    <row r="14" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -7226,7 +6639,7 @@
         <v>15.23</v>
       </c>
       <c r="O14" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P14" s="4">
         <v>-1.712</v>
@@ -7265,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC14" s="4">
         <v>6.13</v>
@@ -7313,7 +6726,7 @@
         <v>4.45</v>
       </c>
       <c r="AR14" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS14" s="4">
         <v>0</v>
@@ -7370,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="BK14" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL14" s="4">
         <v>0</v>
@@ -7379,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="BN14" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO14" s="4">
         <v>0</v>
@@ -7397,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="BT14" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU14" s="4">
         <v>0</v>
@@ -7448,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:88">
+    <row r="15" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -7492,7 +6905,7 @@
         <v>15.23</v>
       </c>
       <c r="O15" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P15" s="4">
         <v>-1.712</v>
@@ -7531,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC15" s="4">
         <v>6.13</v>
@@ -7579,7 +6992,7 @@
         <v>4.45</v>
       </c>
       <c r="AR15" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS15" s="4">
         <v>0</v>
@@ -7636,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL15" s="4">
         <v>0</v>
@@ -7645,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO15" s="4">
         <v>0</v>
@@ -7663,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="BT15" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU15" s="4">
         <v>0</v>
@@ -7714,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:88">
+    <row r="16" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -7758,7 +7171,7 @@
         <v>15.23</v>
       </c>
       <c r="O16" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P16" s="4">
         <v>-1.712</v>
@@ -7797,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC16" s="4">
         <v>6.13</v>
@@ -7845,7 +7258,7 @@
         <v>4.45</v>
       </c>
       <c r="AR16" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS16" s="4">
         <v>0</v>
@@ -7902,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL16" s="4">
         <v>0</v>
@@ -7911,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO16" s="4">
         <v>0</v>
@@ -7929,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="BT16" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU16" s="4">
         <v>0</v>
@@ -7980,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:88">
+    <row r="17" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -8024,7 +7437,7 @@
         <v>15.23</v>
       </c>
       <c r="O17" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P17" s="4">
         <v>-1.712</v>
@@ -8063,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC17" s="4">
         <v>6.13</v>
@@ -8111,7 +7524,7 @@
         <v>4.45</v>
       </c>
       <c r="AR17" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS17" s="4">
         <v>0</v>
@@ -8168,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL17" s="4">
         <v>0</v>
@@ -8177,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO17" s="4">
         <v>0</v>
@@ -8195,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="BT17" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU17" s="4">
         <v>0</v>
@@ -8246,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:88">
+    <row r="18" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -8290,7 +7703,7 @@
         <v>15.23</v>
       </c>
       <c r="O18" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P18" s="4">
         <v>-1.712</v>
@@ -8329,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC18" s="4">
         <v>6.13</v>
@@ -8377,7 +7790,7 @@
         <v>4.45</v>
       </c>
       <c r="AR18" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS18" s="4">
         <v>0</v>
@@ -8434,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL18" s="4">
         <v>0</v>
@@ -8443,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO18" s="4">
         <v>0</v>
@@ -8461,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="BT18" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU18" s="4">
         <v>0</v>
@@ -8512,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:88">
+    <row r="19" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -8556,7 +7969,7 @@
         <v>15.23</v>
       </c>
       <c r="O19" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P19" s="4">
         <v>-1.712</v>
@@ -8595,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC19" s="4">
         <v>6.13</v>
@@ -8643,7 +8056,7 @@
         <v>4.45</v>
       </c>
       <c r="AR19" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS19" s="4">
         <v>0</v>
@@ -8700,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL19" s="4">
         <v>0</v>
@@ -8709,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="BN19" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO19" s="4">
         <v>0</v>
@@ -8727,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="BT19" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU19" s="4">
         <v>0</v>
@@ -8778,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:88">
+    <row r="20" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -8822,7 +8235,7 @@
         <v>15.23</v>
       </c>
       <c r="O20" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P20" s="4">
         <v>-1.712</v>
@@ -8861,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC20" s="4">
         <v>6.13</v>
@@ -8909,7 +8322,7 @@
         <v>4.45</v>
       </c>
       <c r="AR20" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS20" s="4">
         <v>0</v>
@@ -8966,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="BK20" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL20" s="4">
         <v>0</v>
@@ -8975,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="BN20" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO20" s="4">
         <v>0</v>
@@ -8993,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="BT20" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU20" s="4">
         <v>0</v>
@@ -9044,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:88">
+    <row r="21" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -9088,7 +8501,7 @@
         <v>15.23</v>
       </c>
       <c r="O21" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P21" s="4">
         <v>-1.712</v>
@@ -9127,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC21" s="4">
         <v>6.13</v>
@@ -9175,7 +8588,7 @@
         <v>4.45</v>
       </c>
       <c r="AR21" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS21" s="4">
         <v>0</v>
@@ -9232,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL21" s="4">
         <v>0</v>
@@ -9241,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO21" s="4">
         <v>0</v>
@@ -9259,7 +8672,7 @@
         <v>0</v>
       </c>
       <c r="BT21" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU21" s="4">
         <v>0</v>
@@ -9310,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:88">
+    <row r="22" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -9354,7 +8767,7 @@
         <v>15.23</v>
       </c>
       <c r="O22" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P22" s="4">
         <v>-1.712</v>
@@ -9393,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC22" s="4">
         <v>6.13</v>
@@ -9441,7 +8854,7 @@
         <v>4.45</v>
       </c>
       <c r="AR22" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS22" s="4">
         <v>0</v>
@@ -9498,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL22" s="4">
         <v>0</v>
@@ -9507,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO22" s="4">
         <v>0</v>
@@ -9525,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="BT22" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU22" s="4">
         <v>0</v>
@@ -9576,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:88">
+    <row r="23" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -9620,7 +9033,7 @@
         <v>15.23</v>
       </c>
       <c r="O23" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P23" s="4">
         <v>-1.712</v>
@@ -9659,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC23" s="4">
         <v>6.13</v>
@@ -9707,7 +9120,7 @@
         <v>4.45</v>
       </c>
       <c r="AR23" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS23" s="4">
         <v>0</v>
@@ -9764,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="BK23" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL23" s="4">
         <v>0</v>
@@ -9773,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="BN23" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO23" s="4">
         <v>0</v>
@@ -9791,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="BT23" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU23" s="4">
         <v>0</v>
@@ -9842,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:88">
+    <row r="24" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -9886,7 +9299,7 @@
         <v>15.23</v>
       </c>
       <c r="O24" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P24" s="4">
         <v>-1.712</v>
@@ -9925,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC24" s="4">
         <v>6.13</v>
@@ -9973,7 +9386,7 @@
         <v>4.45</v>
       </c>
       <c r="AR24" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS24" s="4">
         <v>0</v>
@@ -10030,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="BK24" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL24" s="4">
         <v>0</v>
@@ -10039,7 +9452,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO24" s="4">
         <v>0</v>
@@ -10057,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="BT24" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU24" s="4">
         <v>0</v>
@@ -10108,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:88">
+    <row r="25" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -10152,7 +9565,7 @@
         <v>15.23</v>
       </c>
       <c r="O25" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P25" s="4">
         <v>-1.712</v>
@@ -10191,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC25" s="4">
         <v>6.13</v>
@@ -10239,7 +9652,7 @@
         <v>4.45</v>
       </c>
       <c r="AR25" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS25" s="4">
         <v>0</v>
@@ -10296,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL25" s="4">
         <v>0</v>
@@ -10305,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO25" s="4">
         <v>0</v>
@@ -10323,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="BT25" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU25" s="4">
         <v>0</v>
@@ -10374,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:88">
+    <row r="26" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -10382,7 +9795,7 @@
         <v>207</v>
       </c>
       <c r="C26" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -10418,7 +9831,7 @@
         <v>15.23</v>
       </c>
       <c r="O26" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P26" s="4">
         <v>-1.712</v>
@@ -10457,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC26" s="4">
         <v>6.13</v>
@@ -10505,7 +9918,7 @@
         <v>4.45</v>
       </c>
       <c r="AR26" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS26" s="4">
         <v>0</v>
@@ -10562,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="BK26" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL26" s="4">
         <v>0</v>
@@ -10571,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="BN26" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO26" s="4">
         <v>0</v>
@@ -10589,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="BT26" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU26" s="4">
         <v>0</v>
@@ -10640,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:88">
+    <row r="27" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -10648,7 +10061,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -10684,7 +10097,7 @@
         <v>15.23</v>
       </c>
       <c r="O27" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P27" s="4">
         <v>-1.712</v>
@@ -10723,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC27" s="4">
         <v>6.13</v>
@@ -10771,7 +10184,7 @@
         <v>4.45</v>
       </c>
       <c r="AR27" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS27" s="4">
         <v>0</v>
@@ -10828,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="BK27" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL27" s="4">
         <v>0</v>
@@ -10837,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO27" s="4">
         <v>0</v>
@@ -10855,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="BT27" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU27" s="4">
         <v>0</v>
@@ -10906,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:88">
+    <row r="28" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -10914,7 +10327,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -10950,7 +10363,7 @@
         <v>15.23</v>
       </c>
       <c r="O28" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P28" s="4">
         <v>-1.712</v>
@@ -10989,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC28" s="4">
         <v>6.13</v>
@@ -11037,7 +10450,7 @@
         <v>4.45</v>
       </c>
       <c r="AR28" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS28" s="4">
         <v>0</v>
@@ -11094,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL28" s="4">
         <v>0</v>
@@ -11103,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO28" s="4">
         <v>0</v>
@@ -11121,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="BT28" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU28" s="4">
         <v>0</v>
@@ -11172,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:88">
+    <row r="29" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -11186,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -11216,7 +10629,7 @@
         <v>15.23</v>
       </c>
       <c r="O29" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P29" s="4">
         <v>-1.712</v>
@@ -11255,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC29" s="4">
         <v>6.13</v>
@@ -11303,7 +10716,7 @@
         <v>4.45</v>
       </c>
       <c r="AR29" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS29" s="4">
         <v>0</v>
@@ -11360,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="BK29" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL29" s="4">
         <v>0</v>
@@ -11369,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO29" s="4">
         <v>0</v>
@@ -11387,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="BT29" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU29" s="4">
         <v>0</v>
@@ -11438,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:88">
+    <row r="30" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -11452,13 +10865,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>265.4</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -11482,7 +10895,7 @@
         <v>15.23</v>
       </c>
       <c r="O30" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P30" s="4">
         <v>-1.712</v>
@@ -11521,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC30" s="4">
         <v>6.13</v>
@@ -11569,7 +10982,7 @@
         <v>4.45</v>
       </c>
       <c r="AR30" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS30" s="4">
         <v>0</v>
@@ -11626,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="BK30" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL30" s="4">
         <v>0</v>
@@ -11635,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO30" s="4">
         <v>0</v>
@@ -11653,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="BT30" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU30" s="4">
         <v>0</v>
@@ -11704,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:88">
+    <row r="31" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -11718,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -11748,7 +11161,7 @@
         <v>15.23</v>
       </c>
       <c r="O31" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P31" s="4">
         <v>-1.712</v>
@@ -11787,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC31" s="4">
         <v>6.13</v>
@@ -11835,7 +11248,7 @@
         <v>4.45</v>
       </c>
       <c r="AR31" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS31" s="4">
         <v>0</v>
@@ -11892,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL31" s="4">
         <v>0</v>
@@ -11901,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="BN31" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO31" s="4">
         <v>0</v>
@@ -11919,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="BT31" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU31" s="4">
         <v>0</v>
@@ -11970,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:88">
+    <row r="32" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -12014,7 +11427,7 @@
         <v>15.23</v>
       </c>
       <c r="O32" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P32" s="4">
         <v>-1.712</v>
@@ -12053,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC32" s="4">
         <v>6.13</v>
@@ -12101,7 +11514,7 @@
         <v>4.45</v>
       </c>
       <c r="AR32" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS32" s="4">
         <v>0</v>
@@ -12158,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL32" s="4">
         <v>0</v>
@@ -12167,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO32" s="4">
         <v>0</v>
@@ -12185,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="BT32" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU32" s="4">
         <v>0</v>
@@ -12236,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:88">
+    <row r="33" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -12280,7 +11693,7 @@
         <v>15.23</v>
       </c>
       <c r="O33" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P33" s="4">
         <v>-1.712</v>
@@ -12319,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC33" s="4">
         <v>6.13</v>
@@ -12367,7 +11780,7 @@
         <v>4.45</v>
       </c>
       <c r="AR33" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS33" s="4">
         <v>0</v>
@@ -12424,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL33" s="4">
         <v>0</v>
@@ -12433,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO33" s="4">
         <v>0</v>
@@ -12451,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="BT33" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU33" s="4">
         <v>0</v>
@@ -12502,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:88">
+    <row r="34" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -12546,7 +11959,7 @@
         <v>15.23</v>
       </c>
       <c r="O34" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P34" s="4">
         <v>-1.712</v>
@@ -12585,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC34" s="4">
         <v>6.13</v>
@@ -12633,7 +12046,7 @@
         <v>4.45</v>
       </c>
       <c r="AR34" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS34" s="4">
         <v>0</v>
@@ -12690,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL34" s="4">
         <v>0</v>
@@ -12699,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO34" s="4">
         <v>0</v>
@@ -12717,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="BT34" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU34" s="4">
         <v>0</v>
@@ -12768,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:88">
+    <row r="35" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -12776,7 +12189,7 @@
         <v>208</v>
       </c>
       <c r="C35" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -12812,7 +12225,7 @@
         <v>15.23</v>
       </c>
       <c r="O35" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P35" s="4">
         <v>-1.712</v>
@@ -12851,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC35" s="4">
         <v>6.13</v>
@@ -12899,7 +12312,7 @@
         <v>4.45</v>
       </c>
       <c r="AR35" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS35" s="4">
         <v>0</v>
@@ -12956,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL35" s="4">
         <v>0</v>
@@ -12965,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO35" s="4">
         <v>0</v>
@@ -12983,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="BT35" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU35" s="4">
         <v>0</v>
@@ -13034,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:88">
+    <row r="36" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -13042,7 +12455,7 @@
         <v>208</v>
       </c>
       <c r="C36" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -13078,7 +12491,7 @@
         <v>15.23</v>
       </c>
       <c r="O36" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P36" s="4">
         <v>-1.712</v>
@@ -13117,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC36" s="4">
         <v>6.13</v>
@@ -13165,7 +12578,7 @@
         <v>4.45</v>
       </c>
       <c r="AR36" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS36" s="4">
         <v>0</v>
@@ -13222,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL36" s="4">
         <v>0</v>
@@ -13231,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BN36" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO36" s="4">
         <v>0</v>
@@ -13249,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BT36" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU36" s="4">
         <v>0</v>
@@ -13300,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:88">
+    <row r="37" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -13308,7 +12721,7 @@
         <v>208</v>
       </c>
       <c r="C37" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -13344,7 +12757,7 @@
         <v>15.23</v>
       </c>
       <c r="O37" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P37" s="4">
         <v>-1.712</v>
@@ -13383,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC37" s="4">
         <v>6.13</v>
@@ -13431,7 +12844,7 @@
         <v>4.45</v>
       </c>
       <c r="AR37" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS37" s="4">
         <v>0</v>
@@ -13488,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL37" s="4">
         <v>0</v>
@@ -13497,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="BN37" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO37" s="4">
         <v>0</v>
@@ -13515,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="BT37" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU37" s="4">
         <v>0</v>
@@ -13566,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:88">
+    <row r="38" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -13580,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F38" s="4">
         <v>0</v>
@@ -13610,7 +13023,7 @@
         <v>15.23</v>
       </c>
       <c r="O38" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P38" s="4">
         <v>-1.712</v>
@@ -13649,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC38" s="4">
         <v>6.13</v>
@@ -13697,7 +13110,7 @@
         <v>4.45</v>
       </c>
       <c r="AR38" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS38" s="4">
         <v>0</v>
@@ -13754,7 +13167,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL38" s="4">
         <v>0</v>
@@ -13763,7 +13176,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO38" s="4">
         <v>0</v>
@@ -13781,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="BT38" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU38" s="4">
         <v>0</v>
@@ -13832,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:88">
+    <row r="39" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -13846,13 +13259,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
       </c>
       <c r="G39" s="4">
-        <v>265.4</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="H39" s="4">
         <v>0</v>
@@ -13876,7 +13289,7 @@
         <v>15.23</v>
       </c>
       <c r="O39" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P39" s="4">
         <v>-1.712</v>
@@ -13915,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC39" s="4">
         <v>6.13</v>
@@ -13963,7 +13376,7 @@
         <v>4.45</v>
       </c>
       <c r="AR39" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS39" s="4">
         <v>0</v>
@@ -14020,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="BK39" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL39" s="4">
         <v>0</v>
@@ -14029,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO39" s="4">
         <v>0</v>
@@ -14047,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="BT39" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU39" s="4">
         <v>0</v>
@@ -14098,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:88">
+    <row r="40" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -14112,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
@@ -14142,7 +13555,7 @@
         <v>15.23</v>
       </c>
       <c r="O40" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P40" s="4">
         <v>-1.712</v>
@@ -14181,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC40" s="4">
         <v>6.13</v>
@@ -14229,7 +13642,7 @@
         <v>4.45</v>
       </c>
       <c r="AR40" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS40" s="4">
         <v>0</v>
@@ -14286,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL40" s="4">
         <v>0</v>
@@ -14295,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="BN40" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO40" s="4">
         <v>0</v>
@@ -14313,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="BT40" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU40" s="4">
         <v>0</v>
@@ -14364,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:88">
+    <row r="41" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -14408,7 +13821,7 @@
         <v>15.23</v>
       </c>
       <c r="O41" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P41" s="4">
         <v>-1.712</v>
@@ -14447,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC41" s="4">
         <v>6.13</v>
@@ -14495,7 +13908,7 @@
         <v>4.45</v>
       </c>
       <c r="AR41" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS41" s="4">
         <v>0</v>
@@ -14552,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="BK41" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL41" s="4">
         <v>0</v>
@@ -14561,7 +13974,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO41" s="4">
         <v>0</v>
@@ -14579,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="BT41" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU41" s="4">
         <v>0</v>
@@ -14630,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:88">
+    <row r="42" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -14674,7 +14087,7 @@
         <v>15.23</v>
       </c>
       <c r="O42" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P42" s="4">
         <v>-1.712</v>
@@ -14713,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC42" s="4">
         <v>6.13</v>
@@ -14761,7 +14174,7 @@
         <v>4.45</v>
       </c>
       <c r="AR42" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS42" s="4">
         <v>0</v>
@@ -14818,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="BK42" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL42" s="4">
         <v>0</v>
@@ -14827,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO42" s="4">
         <v>0</v>
@@ -14845,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="BT42" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU42" s="4">
         <v>0</v>
@@ -14896,7 +14309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:88">
+    <row r="43" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -14940,7 +14353,7 @@
         <v>15.23</v>
       </c>
       <c r="O43" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P43" s="4">
         <v>-1.712</v>
@@ -14979,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC43" s="4">
         <v>6.13</v>
@@ -15027,7 +14440,7 @@
         <v>4.45</v>
       </c>
       <c r="AR43" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS43" s="4">
         <v>0</v>
@@ -15084,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL43" s="4">
         <v>0</v>
@@ -15093,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="BN43" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO43" s="4">
         <v>0</v>
@@ -15111,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="BT43" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU43" s="4">
         <v>0</v>
@@ -15162,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:88">
+    <row r="44" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -15170,7 +14583,7 @@
         <v>209</v>
       </c>
       <c r="C44" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -15206,7 +14619,7 @@
         <v>15.23</v>
       </c>
       <c r="O44" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P44" s="4">
         <v>-1.712</v>
@@ -15245,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC44" s="4">
         <v>6.13</v>
@@ -15293,7 +14706,7 @@
         <v>4.45</v>
       </c>
       <c r="AR44" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS44" s="4">
         <v>0</v>
@@ -15350,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="BK44" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL44" s="4">
         <v>0</v>
@@ -15359,7 +14772,7 @@
         <v>0</v>
       </c>
       <c r="BN44" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO44" s="4">
         <v>0</v>
@@ -15377,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="BT44" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU44" s="4">
         <v>0</v>
@@ -15428,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:88">
+    <row r="45" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -15436,7 +14849,7 @@
         <v>209</v>
       </c>
       <c r="C45" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -15472,7 +14885,7 @@
         <v>15.23</v>
       </c>
       <c r="O45" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P45" s="4">
         <v>-1.712</v>
@@ -15511,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC45" s="4">
         <v>6.13</v>
@@ -15559,7 +14972,7 @@
         <v>4.45</v>
       </c>
       <c r="AR45" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS45" s="4">
         <v>0</v>
@@ -15616,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="BK45" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL45" s="4">
         <v>0</v>
@@ -15625,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO45" s="4">
         <v>0</v>
@@ -15643,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="BT45" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU45" s="4">
         <v>0</v>
@@ -15694,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:88">
+    <row r="46" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -15702,7 +15115,7 @@
         <v>209</v>
       </c>
       <c r="C46" s="4">
-        <v>-27.513</v>
+        <v>-27.513000000000002</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -15738,7 +15151,7 @@
         <v>15.23</v>
       </c>
       <c r="O46" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P46" s="4">
         <v>-1.712</v>
@@ -15777,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC46" s="4">
         <v>6.13</v>
@@ -15825,7 +15238,7 @@
         <v>4.45</v>
       </c>
       <c r="AR46" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS46" s="4">
         <v>0</v>
@@ -15882,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL46" s="4">
         <v>0</v>
@@ -15891,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="BN46" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO46" s="4">
         <v>0</v>
@@ -15909,7 +15322,7 @@
         <v>0</v>
       </c>
       <c r="BT46" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU46" s="4">
         <v>0</v>
@@ -15960,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:88">
+    <row r="47" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -15974,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
@@ -16004,7 +15417,7 @@
         <v>15.23</v>
       </c>
       <c r="O47" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P47" s="4">
         <v>-1.712</v>
@@ -16043,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC47" s="4">
         <v>6.13</v>
@@ -16091,7 +15504,7 @@
         <v>4.45</v>
       </c>
       <c r="AR47" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS47" s="4">
         <v>0</v>
@@ -16148,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL47" s="4">
         <v>0</v>
@@ -16157,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO47" s="4">
         <v>0</v>
@@ -16175,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="BT47" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU47" s="4">
         <v>0</v>
@@ -16226,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:88">
+    <row r="48" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -16240,13 +15653,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F48" s="4">
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <v>265.4</v>
+        <v>265.39999999999998</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
@@ -16270,7 +15683,7 @@
         <v>15.23</v>
       </c>
       <c r="O48" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P48" s="4">
         <v>-1.712</v>
@@ -16309,7 +15722,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC48" s="4">
         <v>6.13</v>
@@ -16357,7 +15770,7 @@
         <v>4.45</v>
       </c>
       <c r="AR48" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS48" s="4">
         <v>0</v>
@@ -16414,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="BK48" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL48" s="4">
         <v>0</v>
@@ -16423,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO48" s="4">
         <v>0</v>
@@ -16441,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="BT48" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU48" s="4">
         <v>0</v>
@@ -16492,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:88">
+    <row r="49" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -16506,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>-44.112</v>
+        <v>-44.112000000000002</v>
       </c>
       <c r="F49" s="4">
         <v>0</v>
@@ -16536,7 +15949,7 @@
         <v>15.23</v>
       </c>
       <c r="O49" s="4">
-        <v>-16.075</v>
+        <v>-16.074999999999999</v>
       </c>
       <c r="P49" s="4">
         <v>-1.712</v>
@@ -16575,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="4">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="AC49" s="4">
         <v>6.13</v>
@@ -16623,7 +16036,7 @@
         <v>4.45</v>
       </c>
       <c r="AR49" s="4">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AS49" s="4">
         <v>0</v>
@@ -16680,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="4">
-        <v>0.986</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="BL49" s="4">
         <v>0</v>
@@ -16689,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="4">
-        <v>-53.211</v>
+        <v>-53.210999999999999</v>
       </c>
       <c r="BO49" s="4">
         <v>0</v>
@@ -16707,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="BT49" s="4">
-        <v>-178.668</v>
+        <v>-178.66800000000001</v>
       </c>
       <c r="BU49" s="4">
         <v>0</v>
@@ -16759,22 +16172,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="39.625" customWidth="1"/>
@@ -16788,7 +16200,7 @@
     <col min="12" max="16" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:16">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -16838,7 +16250,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
@@ -16888,7 +16300,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="1:16">
+    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>232</v>
       </c>
@@ -16938,7 +16350,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1101001</v>
       </c>
@@ -16988,7 +16400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1101002</v>
       </c>
@@ -17038,7 +16450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:16">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1101003</v>
       </c>
@@ -17052,7 +16464,7 @@
         <v>1.73</v>
       </c>
       <c r="E6" s="4">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F6" s="4">
         <v>0.3</v>
@@ -17088,7 +16500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:16">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1101007</v>
       </c>
@@ -17138,7 +16550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:16">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1101008</v>
       </c>
@@ -17152,7 +16564,7 @@
         <v>1.96</v>
       </c>
       <c r="E8" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F8" s="4">
         <v>0.3</v>
@@ -17188,7 +16600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1102001</v>
       </c>
@@ -17208,7 +16620,7 @@
         <v>0.3</v>
       </c>
       <c r="G9" s="12">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
@@ -17236,7 +16648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:16">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1102002</v>
       </c>
@@ -17284,7 +16696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:16">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1102004</v>
       </c>
@@ -17332,7 +16744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1102015</v>
       </c>
@@ -17380,7 +16792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1101004</v>
       </c>
@@ -17394,13 +16806,13 @@
         <v>1.9</v>
       </c>
       <c r="E13" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F13" s="4">
         <v>0.3</v>
       </c>
       <c r="G13" s="12">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H13" s="13">
         <v>1.4</v>
@@ -17430,7 +16842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1101005</v>
       </c>
@@ -17480,7 +16892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:16">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1101006</v>
       </c>
@@ -17530,7 +16942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:16">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1101009</v>
       </c>
@@ -17580,7 +16992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:16">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1101010</v>
       </c>
@@ -17594,7 +17006,7 @@
         <v>1.9</v>
       </c>
       <c r="E17" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F17" s="4">
         <v>0.3</v>
@@ -17630,7 +17042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:16">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1101011</v>
       </c>
@@ -17680,7 +17092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:16">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1101012</v>
       </c>
@@ -17694,7 +17106,7 @@
         <v>1.9</v>
       </c>
       <c r="E19" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19" s="4">
         <v>0.3</v>
@@ -17730,7 +17142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:16">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1101013</v>
       </c>
@@ -17780,7 +17192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:16">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1101014</v>
       </c>
@@ -17830,7 +17242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:16">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1101015</v>
       </c>
@@ -17844,7 +17256,7 @@
         <v>1.75</v>
       </c>
       <c r="E22" s="4">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F22" s="4">
         <v>0.3</v>
@@ -17880,7 +17292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:16">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1102003</v>
       </c>
@@ -17928,7 +17340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:16">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1102005</v>
       </c>
@@ -17939,7 +17351,7 @@
         <v>380</v>
       </c>
       <c r="D24" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E24" s="4">
         <v>2.6</v>
@@ -17976,7 +17388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:16">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1102006</v>
       </c>
@@ -18024,7 +17436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:16">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1102007</v>
       </c>
@@ -18038,7 +17450,7 @@
         <v>2.17</v>
       </c>
       <c r="E26" s="4">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F26" s="4">
         <v>0.3</v>
@@ -18072,7 +17484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:16">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1102008</v>
       </c>
@@ -18120,7 +17532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:16">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1102009</v>
       </c>
@@ -18168,7 +17580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:16">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1102010</v>
       </c>
@@ -18188,7 +17600,7 @@
         <v>0.2</v>
       </c>
       <c r="G29" s="12">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
@@ -18216,7 +17628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:16">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1102011</v>
       </c>
@@ -18264,7 +17676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:16">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1102012</v>
       </c>
@@ -18312,7 +17724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:16">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1102013</v>
       </c>
@@ -18360,7 +17772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:16">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1102014</v>
       </c>
@@ -18408,7 +17820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:16">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1102016</v>
       </c>
@@ -18456,7 +17868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:16">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1102017</v>
       </c>
@@ -18504,7 +17916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:16">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1102018</v>
       </c>
@@ -18552,7 +17964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:16">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1102019</v>
       </c>
@@ -18600,7 +18012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:16">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1102020</v>
       </c>
@@ -18648,7 +18060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:16">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1102021</v>
       </c>
@@ -18696,7 +18108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:16">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1201001</v>
       </c>
@@ -18738,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:16">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1201002</v>
       </c>
@@ -18752,7 +18164,7 @@
         <v>1.98</v>
       </c>
       <c r="E41" s="4">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F41" s="4">
         <v>0.3</v>
@@ -18780,7 +18192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:16">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1201003</v>
       </c>
@@ -18822,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:16">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1201004</v>
       </c>
@@ -18864,7 +18276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:16">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1201005</v>
       </c>
@@ -18906,7 +18318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:16">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1201006</v>
       </c>
@@ -18920,7 +18332,7 @@
         <v>1.96</v>
       </c>
       <c r="E45" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F45" s="4">
         <v>0.3</v>
@@ -18948,7 +18360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:16">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1201007</v>
       </c>
@@ -18962,7 +18374,7 @@
         <v>1.96</v>
       </c>
       <c r="E46" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F46" s="4">
         <v>0.3</v>
@@ -18990,7 +18402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:16">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1201008</v>
       </c>
@@ -19032,7 +18444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:16">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1201009</v>
       </c>
@@ -19052,7 +18464,7 @@
         <v>0.3</v>
       </c>
       <c r="G48" s="12">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H48" s="13">
         <v>1</v>
@@ -19074,7 +18486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:16">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1201010</v>
       </c>
@@ -19116,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:16">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1201011</v>
       </c>
@@ -19158,7 +18570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:16">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1201012</v>
       </c>
@@ -19169,7 +18581,7 @@
         <v>501</v>
       </c>
       <c r="D51" s="4">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E51" s="4">
         <v>2.48</v>
@@ -19201,22 +18613,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -19224,7 +18635,7 @@
     <col min="4" max="4" width="62.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -19238,7 +18649,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>108</v>
       </c>
@@ -19252,7 +18663,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -19266,7 +18677,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:4">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1101001</v>
       </c>
@@ -19280,7 +18691,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:4">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1101001</v>
       </c>
@@ -19294,7 +18705,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:4">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1101002</v>
       </c>
@@ -19308,7 +18719,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:4">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1101002</v>
       </c>
@@ -19322,7 +18733,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:4">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1101003</v>
       </c>
@@ -19336,7 +18747,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:4">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1101003</v>
       </c>
@@ -19350,7 +18761,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:4">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1101007</v>
       </c>
@@ -19364,7 +18775,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:4">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1101007</v>
       </c>
@@ -19378,7 +18789,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:4">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1101008</v>
       </c>
@@ -19392,7 +18803,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1102001</v>
       </c>
@@ -19406,7 +18817,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1102001</v>
       </c>
@@ -19420,7 +18831,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:4">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1102001</v>
       </c>
@@ -19434,7 +18845,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:4">
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1102002</v>
       </c>
@@ -19448,7 +18859,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:4">
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1102002</v>
       </c>
@@ -19462,7 +18873,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:4">
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1102002</v>
       </c>
@@ -19476,7 +18887,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:4">
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1102004</v>
       </c>
@@ -19490,7 +18901,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:4">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1102004</v>
       </c>
@@ -19504,7 +18915,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:4">
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1102004</v>
       </c>
@@ -19518,7 +18929,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:4">
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>1102015</v>
       </c>
@@ -19532,7 +18943,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:4">
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1101004</v>
       </c>
@@ -19546,7 +18957,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:4">
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1101004</v>
       </c>
@@ -19560,7 +18971,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:4">
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1101005</v>
       </c>
@@ -19574,7 +18985,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:4">
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1101006</v>
       </c>
@@ -19588,7 +18999,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:4">
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1101009</v>
       </c>
@@ -19602,7 +19013,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:4">
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1101010</v>
       </c>
@@ -19616,7 +19027,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:4">
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1101011</v>
       </c>
@@ -19630,7 +19041,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:4">
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1101011</v>
       </c>
@@ -19644,7 +19055,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:4">
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1101012</v>
       </c>
@@ -19658,7 +19069,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:4">
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1101013</v>
       </c>
@@ -19672,7 +19083,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:4">
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1101013</v>
       </c>
@@ -19686,7 +19097,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:4">
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1101014</v>
       </c>
@@ -19700,7 +19111,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:4">
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1101014</v>
       </c>
@@ -19714,7 +19125,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:4">
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1101015</v>
       </c>
@@ -19728,7 +19139,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:4">
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1102003</v>
       </c>
@@ -19742,7 +19153,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:4">
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1102005</v>
       </c>
@@ -19756,7 +19167,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:4">
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1102006</v>
       </c>
@@ -19770,7 +19181,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:4">
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1102007</v>
       </c>
@@ -19784,7 +19195,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:4">
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1102007</v>
       </c>
@@ -19798,7 +19209,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:4">
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1102007</v>
       </c>
@@ -19812,7 +19223,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:4">
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1102009</v>
       </c>
@@ -19826,7 +19237,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:4">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1102010</v>
       </c>
@@ -19840,7 +19251,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:4">
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1102011</v>
       </c>
@@ -19854,7 +19265,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:4">
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1102012</v>
       </c>
@@ -19868,7 +19279,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:4">
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1102012</v>
       </c>
@@ -19882,7 +19293,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:4">
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1102012</v>
       </c>
@@ -19896,7 +19307,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:4">
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1102013</v>
       </c>
@@ -19910,7 +19321,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:4">
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1102014</v>
       </c>
@@ -19924,7 +19335,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:4">
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1102014</v>
       </c>
@@ -19938,7 +19349,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:4">
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1102014</v>
       </c>
@@ -19952,7 +19363,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:4">
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1102016</v>
       </c>
@@ -19966,7 +19377,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:4">
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1102017</v>
       </c>
@@ -19980,7 +19391,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:4">
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>1102018</v>
       </c>
@@ -19994,7 +19405,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:4">
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1102019</v>
       </c>
@@ -20008,7 +19419,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:4">
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>1102020</v>
       </c>
@@ -20022,7 +19433,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:4">
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>1102020</v>
       </c>
@@ -20036,7 +19447,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:4">
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>1102021</v>
       </c>
@@ -20050,7 +19461,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:4">
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>1201001</v>
       </c>
@@ -20064,7 +19475,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:4">
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>1201002</v>
       </c>
@@ -20078,7 +19489,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:4">
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>1201003</v>
       </c>
@@ -20092,7 +19503,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:4">
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>1201004</v>
       </c>
@@ -20106,7 +19517,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:4">
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>1201004</v>
       </c>
@@ -20120,7 +19531,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:4">
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>1201005</v>
       </c>
@@ -20134,7 +19545,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:4">
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>1201005</v>
       </c>
@@ -20148,7 +19559,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:4">
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>1201006</v>
       </c>
@@ -20162,7 +19573,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:4">
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>1201007</v>
       </c>
@@ -20176,7 +19587,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:4">
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>1201008</v>
       </c>
@@ -20190,7 +19601,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:4">
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>1201008</v>
       </c>
@@ -20204,7 +19615,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:4">
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>1201008</v>
       </c>
@@ -20218,7 +19629,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:4">
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>1201009</v>
       </c>
@@ -20232,7 +19643,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:4">
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>1201009</v>
       </c>
@@ -20246,7 +19657,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:4">
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>1201010</v>
       </c>
@@ -20260,7 +19671,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:4">
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>1201011</v>
       </c>
@@ -20274,7 +19685,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:4">
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>1201012</v>
       </c>
@@ -20288,7 +19699,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:4">
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>1201012</v>
       </c>
@@ -20302,7 +19713,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:4">
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>1201012</v>
       </c>
@@ -20317,29 +19728,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -20350,7 +19760,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -20361,7 +19771,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" ht="60" spans="1:3">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>232</v>
       </c>
@@ -20372,7 +19782,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1304001</v>
       </c>
@@ -20383,7 +19793,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1304002</v>
       </c>
@@ -20394,7 +19804,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1304003</v>
       </c>
@@ -20405,7 +19815,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1304004</v>
       </c>
@@ -20416,7 +19826,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1304005</v>
       </c>
@@ -20427,7 +19837,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1304006</v>
       </c>
@@ -20438,7 +19848,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1304007</v>
       </c>
@@ -20449,16 +19859,16 @@
         <v>672</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1304008</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>673</v>
+      <c r="B11" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1304009</v>
       </c>
@@ -20467,7 +19877,7 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" ht="16.5" spans="1:3">
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1304010</v>
       </c>
@@ -20478,7 +19888,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:3">
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1304011</v>
       </c>
@@ -20489,14 +19899,16 @@
         <v>675</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:3">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1304012</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>666</v>
+      </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" ht="16.5" spans="1:3">
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1304013</v>
       </c>
@@ -20507,7 +19919,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:3">
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1304014</v>
       </c>
@@ -20518,7 +19930,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:3">
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1304015</v>
       </c>
@@ -20529,34 +19941,33 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:3">
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1304016</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>666</v>
+      <c r="B19" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>679</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.75" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
@@ -20566,7 +19977,7 @@
     <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -20589,7 +20000,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -20612,7 +20023,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:7">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>685</v>
       </c>
@@ -20635,7 +20046,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -20658,7 +20069,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -20681,7 +20092,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -20704,7 +20115,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -20727,7 +20138,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -20750,7 +20161,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -20773,7 +20184,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -20796,7 +20207,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -20819,7 +20230,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -20842,7 +20253,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -20865,7 +20276,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -20888,7 +20299,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -20911,7 +20322,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -20934,7 +20345,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -20957,7 +20368,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -20980,7 +20391,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -21003,7 +20414,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -21026,7 +20437,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -21049,7 +20460,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -21072,7 +20483,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -21095,7 +20506,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -21118,7 +20529,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -21141,7 +20552,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -21164,7 +20575,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -21187,7 +20598,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -21210,12 +20621,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12B4C94-6701-48D8-8008-E78982B6E8DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED52AF-630F-4C80-8441-42C2A9863284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="780">
   <si>
     <t>sheet名</t>
   </si>
@@ -738,9 +738,6 @@
   </si>
   <si>
     <t>Quality</t>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
   </si>
   <si>
     <t>string:&lt;</t>
@@ -790,9 +787,6 @@
     <t>float:ae&lt;</t>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-  </si>
-  <si>
     <t>战斗角色唯一ID，其它各个角色表怪物表唯一ID与此对应，不能重复</t>
   </si>
   <si>
@@ -2364,6 +2358,166 @@
   <si>
     <t>水晶外壳</t>
   </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_role_config.lua</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_role_config.txt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>I套数据</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A套数据</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B套数据</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛一心</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬烟华</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_zgyx_1101017_p</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_jyh_1101020_p</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_h_1101022_p</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Pefabs/model_zgyx_1101017_p.prefab</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Pefabs/model_jyh_1101020_p.prefab</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Pefabs/model_h_1101022_p.prefab</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Animations/1101017_summon.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Animations/1101020_summon.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Animations/1101022_summon.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Animations/1101017_win.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Animations/1101020_win.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Animations/1101022_win.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_zgyx_1101017</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_jyh_1101020</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_h_1101022</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301017-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302017-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301020-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302020-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301022-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302022-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Animations/1101017_exskill_1.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Animations/1101017_exskill_2.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Animations/1101020_exskill_1.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Animations/1101020_exskill_2.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Animations/1101022_exskill_1.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Animations/1101022_exskill_2.playable</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter_4-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2372,8 +2526,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2578,14 +2732,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2609,7 +2763,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2651,26 +2805,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Comma [0]" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Grid" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="常规 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="超链接 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="大标题" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="文本" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="无效" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="因变Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="英文标题" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2946,7 +3101,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2995,15 +3150,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>742</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>743</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="b">
         <v>1</v>
@@ -3111,10 +3266,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CJ49"/>
+  <dimension ref="A1:CJ52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16171,6 +16329,804 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C50" s="4">
+        <v>27.988</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-44.112000000000002</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-23.5</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>30</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L50" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M50" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N50" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O50" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P50" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R50" s="4">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T50" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U50" s="4">
+        <v>0</v>
+      </c>
+      <c r="V50" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W50" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF50" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI50" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL50" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO50" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR50" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU50" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX50" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB50" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE50" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH50" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK50" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ50" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT50" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY50" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC50" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF50" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH50" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI50" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>39</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>30</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="K51" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L51" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M51" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N51" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O51" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P51" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T51" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U51" s="4">
+        <v>0</v>
+      </c>
+      <c r="V51" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W51" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC51" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF51" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI51" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL51" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO51" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR51" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU51" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX51" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH51" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK51" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ51" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT51" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW51" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY51" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF51" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH51" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI51" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>-186.85300000000001</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>30</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="K52" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L52" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M52" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N52" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O52" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P52" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T52" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U52" s="4">
+        <v>0</v>
+      </c>
+      <c r="V52" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W52" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC52" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF52" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI52" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL52" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO52" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR52" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU52" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX52" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH52" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK52" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT52" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW52" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY52" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ52" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC52" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF52" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH52" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI52" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ52" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16180,10 +17136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16252,43 +17208,43 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>740</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" t="s">
         <v>227</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>227</v>
       </c>
-      <c r="F2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>228</v>
       </c>
-      <c r="J2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>229</v>
       </c>
-      <c r="L2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
+      <c r="M2" s="17" t="s">
+        <v>741</v>
       </c>
       <c r="N2" t="s">
         <v>111</v>
@@ -16296,58 +17252,58 @@
       <c r="O2" t="s">
         <v>111</v>
       </c>
-      <c r="P2" t="s">
-        <v>231</v>
+      <c r="P2" s="17" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -16355,10 +17311,10 @@
         <v>1101001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="4">
         <v>1.83</v>
@@ -16376,25 +17332,25 @@
         <v>1.4</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P4" s="4">
         <v>3</v>
@@ -16405,10 +17361,10 @@
         <v>1101002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4">
         <v>1.2</v>
@@ -16426,25 +17382,25 @@
         <v>1.4</v>
       </c>
       <c r="I5" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="P5" s="4">
         <v>2</v>
@@ -16455,10 +17411,10 @@
         <v>1101003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D6" s="4">
         <v>1.73</v>
@@ -16476,25 +17432,25 @@
         <v>1.4</v>
       </c>
       <c r="I6" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="O6" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P6" s="4">
         <v>3</v>
@@ -16505,10 +17461,10 @@
         <v>1101007</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4">
         <v>1.8</v>
@@ -16526,25 +17482,25 @@
         <v>1.4</v>
       </c>
       <c r="I7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="P7" s="4">
         <v>4</v>
@@ -16555,10 +17511,10 @@
         <v>1101008</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D8" s="4">
         <v>1.96</v>
@@ -16576,25 +17532,25 @@
         <v>1.4</v>
       </c>
       <c r="I8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P8" s="4">
         <v>2</v>
@@ -16605,10 +17561,10 @@
         <v>1102001</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="4">
         <v>2.86</v>
@@ -16626,23 +17582,23 @@
         <v>1</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P9" s="4">
         <v>4</v>
@@ -16653,10 +17609,10 @@
         <v>1102002</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4">
         <v>2.9</v>
@@ -16674,23 +17630,23 @@
         <v>1</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P10" s="4">
         <v>3</v>
@@ -16701,10 +17657,10 @@
         <v>1102004</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D11" s="4">
         <v>2.5</v>
@@ -16722,23 +17678,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="O11" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P11" s="4">
         <v>2</v>
@@ -16749,10 +17705,10 @@
         <v>1102015</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D12" s="4">
         <v>2.54</v>
@@ -16770,23 +17726,23 @@
         <v>1</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P12" s="4">
         <v>2</v>
@@ -16797,10 +17753,10 @@
         <v>1101004</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" s="4">
         <v>1.9</v>
@@ -16818,25 +17774,25 @@
         <v>1.4</v>
       </c>
       <c r="I13" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="L13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>316</v>
-      </c>
       <c r="O13" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P13" s="4">
         <v>4</v>
@@ -16847,10 +17803,10 @@
         <v>1101005</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="4">
         <v>1.8</v>
@@ -16868,25 +17824,25 @@
         <v>1.4</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P14" s="4">
         <v>4</v>
@@ -16897,10 +17853,10 @@
         <v>1101006</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D15" s="4">
         <v>1.8</v>
@@ -16918,25 +17874,25 @@
         <v>1.4</v>
       </c>
       <c r="I15" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P15" s="4">
         <v>3</v>
@@ -16947,10 +17903,10 @@
         <v>1101009</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D16" s="4">
         <v>1.83</v>
@@ -16968,25 +17924,25 @@
         <v>1.4</v>
       </c>
       <c r="I16" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="L16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P16" s="4">
         <v>3</v>
@@ -16997,10 +17953,10 @@
         <v>1101010</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D17" s="4">
         <v>1.9</v>
@@ -17018,25 +17974,25 @@
         <v>1.4</v>
       </c>
       <c r="I17" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P17" s="4">
         <v>4</v>
@@ -17047,10 +18003,10 @@
         <v>1101011</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D18" s="4">
         <v>1.65</v>
@@ -17068,25 +18024,25 @@
         <v>1.4</v>
       </c>
       <c r="I18" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P18" s="4">
         <v>3</v>
@@ -17097,10 +18053,10 @@
         <v>1101012</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D19" s="4">
         <v>1.9</v>
@@ -17118,25 +18074,25 @@
         <v>1.4</v>
       </c>
       <c r="I19" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="L19" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="L19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P19" s="4">
         <v>2</v>
@@ -17147,10 +18103,10 @@
         <v>1101013</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D20" s="4">
         <v>1.81</v>
@@ -17168,25 +18124,25 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="L20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P20" s="4">
         <v>2</v>
@@ -17197,10 +18153,10 @@
         <v>1101014</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D21" s="4">
         <v>1.76</v>
@@ -17218,25 +18174,25 @@
         <v>1.4</v>
       </c>
       <c r="I21" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="L21" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P21" s="4">
         <v>3</v>
@@ -17247,10 +18203,10 @@
         <v>1101015</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D22" s="4">
         <v>1.75</v>
@@ -17268,25 +18224,25 @@
         <v>1.4</v>
       </c>
       <c r="I22" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="L22" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P22" s="4">
         <v>2</v>
@@ -17294,191 +18250,197 @@
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>1102003</v>
+        <v>1101017</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>373</v>
+        <v>749</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>374</v>
+        <v>752</v>
       </c>
       <c r="D23" s="4">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="E23" s="4">
-        <v>2.8</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F23" s="4">
         <v>0.3</v>
       </c>
       <c r="G23" s="12">
-        <v>2.63</v>
+        <v>0.72</v>
       </c>
       <c r="H23" s="13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="J23" s="4"/>
+        <v>755</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>758</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>376</v>
+        <v>761</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>373</v>
+        <v>749</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>378</v>
+        <v>764</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>1102005</v>
+        <v>1101020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>379</v>
+        <v>750</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>380</v>
+        <v>753</v>
       </c>
       <c r="D24" s="4">
-        <v>2.2999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="E24" s="4">
-        <v>2.6</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F24" s="4">
         <v>0.3</v>
       </c>
       <c r="G24" s="12">
-        <v>0.96</v>
+        <v>0.72</v>
       </c>
       <c r="H24" s="13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="J24" s="4"/>
+        <v>756</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>759</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>382</v>
+        <v>762</v>
       </c>
       <c r="L24" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="P24" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>1102006</v>
+        <v>1101022</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>384</v>
+        <v>751</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>385</v>
+        <v>754</v>
       </c>
       <c r="D25" s="4">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="E25" s="4">
-        <v>3.7</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F25" s="4">
         <v>0.3</v>
       </c>
       <c r="G25" s="12">
-        <v>2.7</v>
+        <v>0.72</v>
       </c>
       <c r="H25" s="13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="J25" s="4"/>
+        <v>757</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>760</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>387</v>
+        <v>763</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="P25" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>1102007</v>
+        <v>1102003</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D26" s="4">
-        <v>2.17</v>
+        <v>2.8</v>
       </c>
       <c r="E26" s="4">
-        <v>2.4700000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F26" s="4">
         <v>0.3</v>
       </c>
       <c r="G26" s="12">
-        <v>1.35</v>
+        <v>2.63</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O26" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P26" s="4">
         <v>3</v>
@@ -17486,95 +18448,95 @@
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>1102008</v>
+        <v>1102005</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="D27" s="4">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E27" s="4">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="F27" s="4">
         <v>0.3</v>
       </c>
       <c r="G27" s="12">
-        <v>2.42</v>
+        <v>0.96</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="L27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="P27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>1102009</v>
+        <v>1102006</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D28" s="4">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="E28" s="4">
-        <v>3.36</v>
+        <v>3.7</v>
       </c>
       <c r="F28" s="4">
         <v>0.3</v>
       </c>
       <c r="G28" s="12">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="H28" s="13">
         <v>1</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P28" s="4">
         <v>4</v>
@@ -17582,95 +18544,95 @@
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>1102010</v>
+        <v>1102007</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D29" s="4">
-        <v>3.78</v>
+        <v>2.17</v>
       </c>
       <c r="E29" s="4">
-        <v>4.08</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F29" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G29" s="12">
-        <v>2.2799999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="H29" s="13">
         <v>1</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L29" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="P29" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>1102011</v>
+        <v>1102008</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D30" s="4">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="E30" s="4">
-        <v>3.26</v>
+        <v>3.6</v>
       </c>
       <c r="F30" s="4">
         <v>0.3</v>
       </c>
       <c r="G30" s="12">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="H30" s="13">
         <v>1</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P30" s="4">
         <v>4</v>
@@ -17678,47 +18640,47 @@
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>1102012</v>
+        <v>1102009</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D31" s="4">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="E31" s="4">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="F31" s="4">
         <v>0.3</v>
       </c>
       <c r="G31" s="12">
-        <v>2.15</v>
+        <v>2.31</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P31" s="4">
         <v>4</v>
@@ -17726,143 +18688,143 @@
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>1102013</v>
+        <v>1102010</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="D32" s="4">
-        <v>2.5</v>
+        <v>3.78</v>
       </c>
       <c r="E32" s="4">
-        <v>2.8</v>
+        <v>4.08</v>
       </c>
       <c r="F32" s="4">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="G32" s="12">
-        <v>2.72</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H32" s="13">
         <v>1</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="P32" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>1102014</v>
+        <v>1102011</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D33" s="4">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="E33" s="4">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="F33" s="4">
         <v>0.3</v>
       </c>
       <c r="G33" s="12">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="H33" s="13">
         <v>1</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>1102016</v>
+        <v>1102012</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="D34" s="4">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="E34" s="4">
-        <v>3.52</v>
+        <v>3.27</v>
       </c>
       <c r="F34" s="4">
         <v>0.3</v>
       </c>
       <c r="G34" s="12">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H34" s="13">
         <v>1</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="L34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="P34" s="4">
         <v>4</v>
@@ -17870,191 +18832,191 @@
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>1102017</v>
+        <v>1102013</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D35" s="4">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="E35" s="4">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="F35" s="4">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G35" s="12">
-        <v>2.04</v>
+        <v>2.72</v>
       </c>
       <c r="H35" s="13">
         <v>1</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>1102018</v>
+        <v>1102014</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D36" s="4">
-        <v>3.14</v>
+        <v>2.94</v>
       </c>
       <c r="E36" s="4">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="F36" s="4">
         <v>0.3</v>
       </c>
       <c r="G36" s="12">
-        <v>2.17</v>
+        <v>2.42</v>
       </c>
       <c r="H36" s="13">
         <v>1</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="L36" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="O36" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="P36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>1102019</v>
+        <v>1102016</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="D37" s="4">
-        <v>2.84</v>
+        <v>3.22</v>
       </c>
       <c r="E37" s="4">
-        <v>3.14</v>
+        <v>3.52</v>
       </c>
       <c r="F37" s="4">
         <v>0.3</v>
       </c>
       <c r="G37" s="12">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H37" s="13">
         <v>1</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P37" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>1102020</v>
+        <v>1102017</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D38" s="4">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="E38" s="4">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="F38" s="4">
         <v>0.3</v>
       </c>
       <c r="G38" s="12">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="H38" s="13">
         <v>1</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="L38" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="O38" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P38" s="4">
         <v>3</v>
@@ -18062,47 +19024,47 @@
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>1102021</v>
+        <v>1102018</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D39" s="4">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="E39" s="4">
-        <v>3.05</v>
+        <v>3.44</v>
       </c>
       <c r="F39" s="4">
         <v>0.3</v>
       </c>
       <c r="G39" s="12">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="H39" s="13">
         <v>1</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="L39" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="O39" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="P39" s="4">
         <v>2</v>
@@ -18110,166 +19072,184 @@
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>1201001</v>
+        <v>1102019</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D40" s="4">
-        <v>2.35</v>
+        <v>2.84</v>
       </c>
       <c r="E40" s="4">
-        <v>2.65</v>
+        <v>3.14</v>
       </c>
       <c r="F40" s="4">
         <v>0.3</v>
       </c>
       <c r="G40" s="12">
-        <v>1.51</v>
+        <v>1.2</v>
       </c>
       <c r="H40" s="13">
         <v>1</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="M40" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15">
-        <v>1</v>
+        <v>439</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P40" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>1201002</v>
+        <v>1102020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D41" s="4">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="E41" s="4">
-        <v>2.2799999999999998</v>
+        <v>3.26</v>
       </c>
       <c r="F41" s="4">
         <v>0.3</v>
       </c>
       <c r="G41" s="12">
-        <v>1.2</v>
+        <v>2.42</v>
       </c>
       <c r="H41" s="13">
         <v>1</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="M41" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15">
-        <v>1</v>
+        <v>444</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P41" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>1201003</v>
+        <v>1102021</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D42" s="4">
-        <v>1.34</v>
+        <v>2.75</v>
       </c>
       <c r="E42" s="4">
-        <v>1.64</v>
+        <v>3.05</v>
       </c>
       <c r="F42" s="4">
         <v>0.3</v>
       </c>
       <c r="G42" s="12">
-        <v>0.96</v>
+        <v>1.83</v>
       </c>
       <c r="H42" s="13">
         <v>1</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="M42" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15">
-        <v>1</v>
+        <v>449</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P42" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>1201004</v>
+        <v>1201001</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D43" s="4">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="E43" s="4">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="F43" s="4">
         <v>0.3</v>
       </c>
       <c r="G43" s="12">
-        <v>2.34</v>
+        <v>1.51</v>
       </c>
       <c r="H43" s="13">
         <v>1</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="O43" s="15"/>
       <c r="P43" s="15">
@@ -18278,40 +19258,40 @@
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>1201005</v>
+        <v>1201002</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D44" s="4">
-        <v>2.8</v>
+        <v>1.98</v>
       </c>
       <c r="E44" s="4">
-        <v>3.1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F44" s="4">
         <v>0.3</v>
       </c>
       <c r="G44" s="12">
-        <v>2.34</v>
+        <v>1.2</v>
       </c>
       <c r="H44" s="13">
         <v>1</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="O44" s="15"/>
       <c r="P44" s="15">
@@ -18320,40 +19300,40 @@
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>1201006</v>
+        <v>1201003</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D45" s="4">
-        <v>1.96</v>
+        <v>1.34</v>
       </c>
       <c r="E45" s="4">
-        <v>2.2599999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="F45" s="4">
         <v>0.3</v>
       </c>
       <c r="G45" s="12">
-        <v>1.38</v>
+        <v>0.96</v>
       </c>
       <c r="H45" s="13">
         <v>1</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="O45" s="15"/>
       <c r="P45" s="15">
@@ -18362,40 +19342,40 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>1201007</v>
+        <v>1201004</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D46" s="4">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="E46" s="4">
-        <v>2.2599999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="F46" s="4">
         <v>0.3</v>
       </c>
       <c r="G46" s="12">
-        <v>1.38</v>
+        <v>2.34</v>
       </c>
       <c r="H46" s="13">
         <v>1</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="O46" s="15"/>
       <c r="P46" s="15">
@@ -18404,40 +19384,40 @@
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>1201008</v>
+        <v>1201005</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D47" s="4">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="E47" s="4">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="F47" s="4">
         <v>0.3</v>
       </c>
       <c r="G47" s="12">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="H47" s="13">
         <v>1</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="O47" s="15"/>
       <c r="P47" s="15">
@@ -18446,40 +19426,40 @@
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>1201009</v>
+        <v>1201006</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D48" s="4">
-        <v>2.67</v>
+        <v>1.96</v>
       </c>
       <c r="E48" s="4">
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F48" s="4">
         <v>0.3</v>
       </c>
       <c r="G48" s="12">
-        <v>2.2400000000000002</v>
+        <v>1.38</v>
       </c>
       <c r="H48" s="13">
         <v>1</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="O48" s="15"/>
       <c r="P48" s="15">
@@ -18488,40 +19468,40 @@
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>1201010</v>
+        <v>1201007</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D49" s="4">
-        <v>1.19</v>
+        <v>1.96</v>
       </c>
       <c r="E49" s="4">
-        <v>1.49</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F49" s="4">
         <v>0.3</v>
       </c>
       <c r="G49" s="12">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="H49" s="13">
         <v>1</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="O49" s="15"/>
       <c r="P49" s="15">
@@ -18530,40 +19510,40 @@
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>1201011</v>
+        <v>1201008</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D50" s="4">
-        <v>1.8</v>
+        <v>2.97</v>
       </c>
       <c r="E50" s="4">
-        <v>2.1</v>
+        <v>3.27</v>
       </c>
       <c r="F50" s="4">
         <v>0.3</v>
       </c>
       <c r="G50" s="12">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="H50" s="13">
         <v>1</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="O50" s="15"/>
       <c r="P50" s="15">
@@ -18572,43 +19552,169 @@
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>1201012</v>
+        <v>1201009</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D51" s="4">
-        <v>2.1800000000000002</v>
+        <v>2.67</v>
       </c>
       <c r="E51" s="4">
-        <v>2.48</v>
+        <v>2.97</v>
       </c>
       <c r="F51" s="4">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="G51" s="12">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H51" s="13">
         <v>1</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="O51" s="15"/>
       <c r="P51" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1201010</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.49</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1.7</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1201011</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>1201012</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="G54" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15">
         <v>1</v>
       </c>
     </row>
@@ -18621,10 +19727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18640,13 +19746,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18654,13 +19760,13 @@
         <v>108</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
@@ -18668,13 +19774,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18685,10 +19791,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18699,10 +19805,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18713,10 +19819,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18727,10 +19833,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18741,10 +19847,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18755,10 +19861,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18769,10 +19875,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18783,10 +19889,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18797,10 +19903,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18811,10 +19917,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18825,10 +19931,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18839,10 +19945,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18853,10 +19959,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18867,10 +19973,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18881,10 +19987,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18895,10 +20001,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18909,10 +20015,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18923,10 +20029,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18937,10 +20043,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18951,10 +20057,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18965,10 +20071,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18979,10 +20085,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -18993,10 +20099,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19007,10 +20113,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19021,10 +20127,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19035,10 +20141,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19049,10 +20155,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19063,10 +20169,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19077,10 +20183,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19091,10 +20197,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19105,10 +20211,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19119,10 +20225,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19133,10 +20239,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19147,10 +20253,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19161,10 +20267,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19175,10 +20281,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19189,10 +20295,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19203,10 +20309,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19217,10 +20323,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19231,10 +20337,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19245,10 +20351,10 @@
         <v>12</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19259,10 +20365,10 @@
         <v>12</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19273,10 +20379,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19287,10 +20393,10 @@
         <v>12</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19301,10 +20407,10 @@
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19315,10 +20421,10 @@
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19329,10 +20435,10 @@
         <v>12</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19343,10 +20449,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19357,10 +20463,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19371,10 +20477,10 @@
         <v>12</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19385,10 +20491,10 @@
         <v>12</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19399,10 +20505,10 @@
         <v>12</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19413,10 +20519,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19427,10 +20533,10 @@
         <v>12</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19441,10 +20547,10 @@
         <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -19455,276 +20561,360 @@
         <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>1201001</v>
+        <v>1101017</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>624</v>
+        <v>767</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>625</v>
+        <v>773</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>1201002</v>
+        <v>1101017</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>626</v>
+        <v>768</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>627</v>
+        <v>774</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>1201003</v>
+        <v>1101020</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>628</v>
+        <v>769</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>629</v>
+        <v>775</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>1201004</v>
+        <v>1101020</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>630</v>
+        <v>770</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>631</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>1201004</v>
+        <v>1101022</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>632</v>
+        <v>771</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>633</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>1201005</v>
+        <v>1101022</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>635</v>
+        <v>778</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>1201005</v>
+        <v>1201001</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>1201006</v>
+        <v>1201002</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>1201007</v>
+        <v>1201003</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>1201008</v>
+        <v>1201004</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>1201008</v>
+        <v>1201004</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>1201008</v>
+        <v>1201005</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>1201009</v>
+        <v>1201005</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>1201009</v>
+        <v>1201006</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>1201010</v>
+        <v>1201007</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>1201011</v>
+        <v>1201008</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>1201012</v>
+        <v>1201008</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>1201012</v>
+        <v>1201008</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>1201012</v>
+        <v>1201009</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>661</v>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>1201009</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>1201010</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>1201011</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>1201012</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>1201012</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>1201012</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -19738,7 +20928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -19754,10 +20944,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -19768,18 +20958,18 @@
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19787,10 +20977,10 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19798,10 +20988,10 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19809,10 +20999,10 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19820,10 +21010,10 @@
         <v>1304004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19831,10 +21021,10 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19842,10 +21032,10 @@
         <v>1304006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19853,10 +21043,10 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19864,7 +21054,7 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -19873,7 +21063,7 @@
         <v>1304009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -19882,10 +21072,10 @@
         <v>1304010</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19893,10 +21083,10 @@
         <v>1304011</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19904,7 +21094,7 @@
         <v>1304012</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C15" s="8"/>
     </row>
@@ -19913,10 +21103,10 @@
         <v>1304013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19924,10 +21114,10 @@
         <v>1304014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19935,10 +21125,10 @@
         <v>1304015</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -19946,10 +21136,10 @@
         <v>1304016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -19985,19 +21175,19 @@
         <v>217</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -20008,42 +21198,42 @@
         <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
         <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -20051,7 +21241,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -20060,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
@@ -20074,7 +21264,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -20083,7 +21273,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -20097,7 +21287,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -20106,7 +21296,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -20120,7 +21310,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -20129,7 +21319,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -20143,7 +21333,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -20152,7 +21342,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
@@ -20166,7 +21356,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -20175,7 +21365,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -20189,7 +21379,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
@@ -20198,7 +21388,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -20212,7 +21402,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -20221,7 +21411,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -20235,7 +21425,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C12" s="4">
         <v>2</v>
@@ -20244,7 +21434,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -20258,7 +21448,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -20267,7 +21457,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -20281,7 +21471,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -20290,7 +21480,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -20304,7 +21494,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -20313,7 +21503,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -20327,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
@@ -20336,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -20350,7 +21540,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -20359,7 +21549,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -20373,7 +21563,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
@@ -20382,7 +21572,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -20396,7 +21586,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -20405,7 +21595,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -20419,7 +21609,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -20428,7 +21618,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -20442,7 +21632,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -20451,7 +21641,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -20465,7 +21655,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -20474,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -20488,7 +21678,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -20497,7 +21687,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -20511,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -20520,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -20534,7 +21724,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
@@ -20543,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -20557,7 +21747,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C26" s="4">
         <v>2</v>
@@ -20566,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
@@ -20580,7 +21770,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
@@ -20589,7 +21779,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -20603,7 +21793,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
@@ -20612,7 +21802,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED52AF-630F-4C80-8441-42C2A9863284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9C414-3C32-44E8-BA41-19277F2A7187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="782">
   <si>
     <t>sheet名</t>
   </si>
@@ -2387,14 +2387,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>A套数据</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B套数据</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>诸葛一心</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -2516,6 +2508,22 @@
   </si>
   <si>
     <t>Enter_4-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_qingguoxiang_2-4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_chilianjie_4-2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3266,13 +3274,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CJ52"/>
+  <dimension ref="A1:CJ60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16600,7 +16608,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -16624,7 +16632,7 @@
         <v>30</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K51" s="4">
         <v>5.29</v>
@@ -16866,7 +16874,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -16890,7 +16898,7 @@
         <v>30</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K52" s="4">
         <v>5.29</v>
@@ -17124,6 +17132,2134 @@
         <v>180</v>
       </c>
       <c r="CJ52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
+        <v>39</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>30</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="K53" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L53" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M53" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N53" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O53" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P53" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T53" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W53" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL53" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR53" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU53" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX53" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH53" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK53" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ53" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT53" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW53" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC53" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF53" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH53" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI53" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <v>-186.85300000000001</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>30</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="K54" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L54" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M54" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N54" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O54" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P54" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T54" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0</v>
+      </c>
+      <c r="V54" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W54" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z54" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC54" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF54" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI54" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL54" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO54" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR54" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU54" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX54" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE54" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH54" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK54" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN54" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ54" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT54" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW54" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY54" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ54" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC54" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF54" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH54" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI54" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>120</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>30</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K55" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L55" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M55" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N55" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O55" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P55" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T55" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W55" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC55" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF55" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI55" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL55" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO55" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR55" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU55" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX55" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB55" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE55" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH55" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK55" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN55" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ55" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT55" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW55" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY55" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ55" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC55" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF55" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH55" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI55" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>-35</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>30</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K56" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L56" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M56" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N56" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O56" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P56" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T56" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U56" s="4">
+        <v>0</v>
+      </c>
+      <c r="V56" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W56" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC56" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF56" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI56" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL56" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO56" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR56" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU56" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX56" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ56" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB56" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE56" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH56" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK56" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN56" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT56" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW56" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY56" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ56" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC56" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF56" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH56" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI56" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>207</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>30</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K57" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L57" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M57" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N57" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O57" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P57" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T57" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U57" s="4">
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W57" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC57" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF57" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI57" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL57" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO57" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR57" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU57" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX57" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ57" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB57" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE57" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH57" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK57" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN57" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ57" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT57" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW57" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY57" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ57" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC57" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF57" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH57" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI57" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>-135</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>30</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K58" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L58" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M58" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N58" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O58" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P58" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0</v>
+      </c>
+      <c r="S58" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T58" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U58" s="4">
+        <v>0</v>
+      </c>
+      <c r="V58" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W58" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z58" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC58" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF58" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI58" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL58" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO58" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR58" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU58" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX58" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ58" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB58" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE58" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH58" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK58" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN58" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ58" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT58" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW58" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY58" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC58" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF58" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH58" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI58" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>49</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>30</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K59" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M59" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N59" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O59" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P59" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0</v>
+      </c>
+      <c r="S59" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T59" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0</v>
+      </c>
+      <c r="V59" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W59" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC59" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF59" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI59" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL59" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO59" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR59" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU59" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX59" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ59" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB59" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE59" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH59" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK59" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN59" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ59" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT59" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW59" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY59" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ59" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC59" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF59" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH59" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI59" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:88" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>60</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>30</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K60" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="L60" s="4">
+        <v>5.89</v>
+      </c>
+      <c r="M60" s="4">
+        <v>-18.27</v>
+      </c>
+      <c r="N60" s="4">
+        <v>15.23</v>
+      </c>
+      <c r="O60" s="4">
+        <v>-16.074999999999999</v>
+      </c>
+      <c r="P60" s="4">
+        <v>-1.712</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0</v>
+      </c>
+      <c r="S60" s="4">
+        <v>-5.12</v>
+      </c>
+      <c r="T60" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0</v>
+      </c>
+      <c r="V60" s="4">
+        <v>-9.18</v>
+      </c>
+      <c r="W60" s="4">
+        <v>-3.71</v>
+      </c>
+      <c r="X60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="4">
+        <v>-4.58</v>
+      </c>
+      <c r="Z60" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AA60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="4">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="AC60" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="AD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="AF60" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AG60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="4">
+        <v>-7.6</v>
+      </c>
+      <c r="AI60" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="AJ60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="4">
+        <v>5.33</v>
+      </c>
+      <c r="AL60" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="AM60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="AO60" s="4">
+        <v>3.98</v>
+      </c>
+      <c r="AP60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="4">
+        <v>4.45</v>
+      </c>
+      <c r="AR60" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AS60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="AU60" s="4">
+        <v>-5.3</v>
+      </c>
+      <c r="AV60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="AX60" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="AY60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="4">
+        <v>7.23</v>
+      </c>
+      <c r="BA60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB60" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BC60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BE60" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BF60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH60" s="4">
+        <v>28.154</v>
+      </c>
+      <c r="BI60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BJ60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BK60" s="4">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="BL60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BN60" s="4">
+        <v>-53.210999999999999</v>
+      </c>
+      <c r="BO60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ60" s="4">
+        <v>-35.4</v>
+      </c>
+      <c r="BR60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT60" s="4">
+        <v>-178.66800000000001</v>
+      </c>
+      <c r="BU60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BV60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW60" s="4">
+        <v>180</v>
+      </c>
+      <c r="BX60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY60" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ60" s="4">
+        <v>171.59</v>
+      </c>
+      <c r="CA60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CB60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CC60" s="4">
+        <v>180</v>
+      </c>
+      <c r="CD60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CE60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CF60" s="4">
+        <v>-169.947</v>
+      </c>
+      <c r="CG60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CH60" s="4">
+        <v>0</v>
+      </c>
+      <c r="CI60" s="4">
+        <v>180</v>
+      </c>
+      <c r="CJ60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -18253,10 +20389,10 @@
         <v>1101017</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D23" s="4">
         <v>1.75</v>
@@ -18274,22 +20410,22 @@
         <v>1.4</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>251</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>253</v>
@@ -18303,10 +20439,10 @@
         <v>1101020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D24" s="4">
         <v>1.75</v>
@@ -18324,22 +20460,22 @@
         <v>1.4</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>251</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>253</v>
@@ -18353,10 +20489,10 @@
         <v>1101022</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D25" s="4">
         <v>1.75</v>
@@ -18374,22 +20510,22 @@
         <v>1.4</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>251</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>253</v>
@@ -20575,10 +22711,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -20589,10 +22725,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -20603,10 +22739,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -20617,10 +22753,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -20631,10 +22767,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -20645,10 +22781,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F9C414-3C32-44E8-BA41-19277F2A7187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F169C51-B4C8-4354-AA14-1A3CE7D7D275}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <sheet name="战场技能" sheetId="28" r:id="rId5"/>
     <sheet name="fxConfig" sheetId="29" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="792">
   <si>
     <t>sheet名</t>
   </si>
@@ -2525,6 +2532,44 @@
   <si>
     <t>Map_chilianjie_4-2</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI中的角色模型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI中模型的缩放比</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI中的坐标X</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI中的坐标Y</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI中的坐标Z</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabUI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabUIScale</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabUIPos[1]</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabUIPos[2]</t>
+  </si>
+  <si>
+    <t>PrefabUIPos[3]</t>
   </si>
 </sst>
 </file>
@@ -2771,7 +2816,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
@@ -2814,6 +2859,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3276,11 +3322,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19272,27 +19318,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="62.75" customWidth="1"/>
-    <col min="10" max="10" width="69.625" customWidth="1"/>
-    <col min="11" max="11" width="62.375" customWidth="1"/>
-    <col min="12" max="16" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -19303,46 +19358,61 @@
         <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>740</v>
       </c>
@@ -19352,47 +19422,62 @@
       <c r="C2" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" t="s">
         <v>226</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>226</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>227</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>227</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>228</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>111</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>111</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>230</v>
       </c>
@@ -19403,46 +19488,61 @@
         <v>232</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1101001</v>
       </c>
@@ -19452,47 +19552,62 @@
       <c r="C4" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4" s="4">
         <v>1.83</v>
       </c>
-      <c r="E4" s="4">
+      <c r="J4" s="4">
         <v>2.13</v>
       </c>
-      <c r="F4" s="4">
+      <c r="K4" s="4">
         <v>0.3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="L4" s="12">
         <v>0.96</v>
       </c>
-      <c r="H4" s="13">
+      <c r="M4" s="13">
         <v>1.4</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P4" s="4">
+      <c r="U4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1101002</v>
       </c>
@@ -19502,47 +19617,62 @@
       <c r="C5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="I5" s="4">
         <v>1.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="J5" s="4">
         <v>1.5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="K5" s="4">
         <v>0.3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="L5" s="12">
         <v>0.54</v>
       </c>
-      <c r="H5" s="13">
+      <c r="M5" s="13">
         <v>1.4</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="N5" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P5" s="4">
+      <c r="U5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1101003</v>
       </c>
@@ -19552,47 +19682,62 @@
       <c r="C6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="4">
         <v>1.73</v>
       </c>
-      <c r="E6" s="4">
+      <c r="J6" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F6" s="4">
+      <c r="K6" s="4">
         <v>0.3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="L6" s="12">
         <v>0.84</v>
       </c>
-      <c r="H6" s="13">
+      <c r="M6" s="13">
         <v>1.4</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P6" s="4">
+      <c r="U6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1101007</v>
       </c>
@@ -19602,47 +19747,62 @@
       <c r="C7" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="I7" s="4">
         <v>1.8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="J7" s="4">
         <v>2.1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="K7" s="4">
         <v>0.3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="L7" s="12">
         <v>0.96</v>
       </c>
-      <c r="H7" s="13">
+      <c r="M7" s="13">
         <v>1.4</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P7" s="4">
+      <c r="U7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1101008</v>
       </c>
@@ -19652,47 +19812,62 @@
       <c r="C8" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.62</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.121</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I8" s="4">
         <v>1.96</v>
       </c>
-      <c r="E8" s="4">
+      <c r="J8" s="4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F8" s="4">
+      <c r="K8" s="4">
         <v>0.3</v>
       </c>
-      <c r="G8" s="12">
+      <c r="L8" s="12">
         <v>0.93</v>
       </c>
-      <c r="H8" s="13">
+      <c r="M8" s="13">
         <v>1.4</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P8" s="4">
+      <c r="U8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1102001</v>
       </c>
@@ -19702,45 +19877,60 @@
       <c r="C9" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="I9" s="4">
         <v>2.86</v>
       </c>
-      <c r="E9" s="4">
+      <c r="J9" s="4">
         <v>3.16</v>
       </c>
-      <c r="F9" s="4">
+      <c r="K9" s="4">
         <v>0.3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="L9" s="12">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H9" s="13">
+      <c r="M9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P9" s="4">
+      <c r="U9" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>1102002</v>
       </c>
@@ -19750,45 +19940,60 @@
       <c r="C10" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="I10" s="4">
         <v>2.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="J10" s="4">
         <v>3.2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="K10" s="4">
         <v>0.3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="L10" s="12">
         <v>2.09</v>
       </c>
-      <c r="H10" s="13">
+      <c r="M10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="4">
+      <c r="U10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1102004</v>
       </c>
@@ -19798,45 +20003,60 @@
       <c r="C11" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="I11" s="4">
         <v>2.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="J11" s="4">
         <v>2.8</v>
       </c>
-      <c r="F11" s="4">
+      <c r="K11" s="4">
         <v>0.3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="L11" s="12">
         <v>2.34</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="T11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P11" s="4">
+      <c r="U11" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1102015</v>
       </c>
@@ -19846,45 +20066,60 @@
       <c r="C12" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-0.111</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I12" s="4">
         <v>2.54</v>
       </c>
-      <c r="E12" s="4">
+      <c r="J12" s="4">
         <v>2.84</v>
       </c>
-      <c r="F12" s="4">
+      <c r="K12" s="4">
         <v>0.3</v>
       </c>
-      <c r="G12" s="12">
+      <c r="L12" s="12">
         <v>1.92</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="N12" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P12" s="4">
+      <c r="U12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>1101004</v>
       </c>
@@ -19894,47 +20129,62 @@
       <c r="C13" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.626</v>
+      </c>
+      <c r="I13" s="4">
         <v>1.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="J13" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F13" s="4">
+      <c r="K13" s="4">
         <v>0.3</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1.4</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P13" s="4">
+      <c r="U13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1101005</v>
       </c>
@@ -19944,47 +20194,62 @@
       <c r="C14" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="I14" s="4">
         <v>1.8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="J14" s="4">
         <v>2.1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="K14" s="4">
         <v>0.3</v>
       </c>
-      <c r="G14" s="12">
+      <c r="L14" s="12">
         <v>0.87</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>1.4</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P14" s="4">
+      <c r="U14" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1101006</v>
       </c>
@@ -19994,47 +20259,62 @@
       <c r="C15" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I15" s="4">
         <v>1.8</v>
       </c>
-      <c r="E15" s="4">
+      <c r="J15" s="4">
         <v>2.1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="K15" s="4">
         <v>0.3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="L15" s="12">
         <v>0.96</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1.4</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="N15" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="T15" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P15" s="4">
+      <c r="U15" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>1101009</v>
       </c>
@@ -20044,47 +20324,62 @@
       <c r="C16" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.249</v>
+      </c>
+      <c r="I16" s="4">
         <v>1.83</v>
       </c>
-      <c r="E16" s="4">
+      <c r="J16" s="4">
         <v>2.13</v>
       </c>
-      <c r="F16" s="4">
+      <c r="K16" s="4">
         <v>0.3</v>
       </c>
-      <c r="G16" s="12">
+      <c r="L16" s="12">
         <v>1.08</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>1.4</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="N16" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P16" s="4">
+      <c r="U16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1101010</v>
       </c>
@@ -20094,47 +20389,62 @@
       <c r="C17" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I17" s="4">
         <v>1.9</v>
       </c>
-      <c r="E17" s="4">
+      <c r="J17" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F17" s="4">
+      <c r="K17" s="4">
         <v>0.3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="L17" s="12">
         <v>1.31</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M17" s="13">
         <v>1.4</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="N17" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P17" s="4">
+      <c r="U17" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>1101011</v>
       </c>
@@ -20144,47 +20454,62 @@
       <c r="C18" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I18" s="4">
         <v>1.65</v>
       </c>
-      <c r="E18" s="4">
+      <c r="J18" s="4">
         <v>1.95</v>
       </c>
-      <c r="F18" s="4">
+      <c r="K18" s="4">
         <v>0.3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="L18" s="12">
         <v>0.93</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>1.4</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="N18" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="P18" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="S18" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="T18" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P18" s="4">
+      <c r="U18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1101012</v>
       </c>
@@ -20194,47 +20519,62 @@
       <c r="C19" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I19" s="4">
         <v>1.9</v>
       </c>
-      <c r="E19" s="4">
+      <c r="J19" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F19" s="4">
+      <c r="K19" s="4">
         <v>0.3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="L19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>1.4</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="N19" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="P19" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="S19" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="T19" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P19" s="4">
+      <c r="U19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>1101013</v>
       </c>
@@ -20244,47 +20584,62 @@
       <c r="C20" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="I20" s="4">
         <v>1.81</v>
       </c>
-      <c r="E20" s="4">
+      <c r="J20" s="4">
         <v>2.11</v>
       </c>
-      <c r="F20" s="4">
+      <c r="K20" s="4">
         <v>0.3</v>
       </c>
-      <c r="G20" s="12">
+      <c r="L20" s="12">
         <v>0.93</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>1.4</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="N20" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="S20" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="T20" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P20" s="4">
+      <c r="U20" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1101014</v>
       </c>
@@ -20294,47 +20649,62 @@
       <c r="C21" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I21" s="4">
         <v>1.76</v>
       </c>
-      <c r="E21" s="4">
+      <c r="J21" s="4">
         <v>2.06</v>
       </c>
-      <c r="F21" s="4">
+      <c r="K21" s="4">
         <v>0.3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="L21" s="12">
         <v>0.99</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1.4</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="N21" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="T21" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P21" s="4">
+      <c r="U21" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>1101015</v>
       </c>
@@ -20344,47 +20714,62 @@
       <c r="C22" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="I22" s="4">
         <v>1.75</v>
       </c>
-      <c r="E22" s="4">
+      <c r="J22" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F22" s="4">
+      <c r="K22" s="4">
         <v>0.3</v>
       </c>
-      <c r="G22" s="12">
+      <c r="L22" s="12">
         <v>0.72</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>1.4</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="N22" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="S22" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="T22" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P22" s="4">
+      <c r="U22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>1101017</v>
       </c>
@@ -20394,47 +20779,62 @@
       <c r="C23" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="E23" s="4">
         <v>1.75</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
+        <v>-9.6000000000000002E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="J23" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F23" s="4">
+      <c r="K23" s="4">
         <v>0.3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="L23" s="12">
         <v>0.72</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1.4</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="N23" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="S23" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P23" s="4">
+      <c r="U23" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>1101020</v>
       </c>
@@ -20444,47 +20844,62 @@
       <c r="C24" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="4">
         <v>1.75</v>
       </c>
-      <c r="E24" s="4">
+      <c r="J24" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F24" s="4">
+      <c r="K24" s="4">
         <v>0.3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="L24" s="12">
         <v>0.72</v>
       </c>
-      <c r="H24" s="13">
+      <c r="M24" s="13">
         <v>1.4</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="N24" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="S24" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="T24" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P24" s="4">
+      <c r="U24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1101022</v>
       </c>
@@ -20494,47 +20909,62 @@
       <c r="C25" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="E25" s="4">
         <v>1.75</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
+        <v>-0.161</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="J25" s="4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F25" s="4">
+      <c r="K25" s="4">
         <v>0.3</v>
       </c>
-      <c r="G25" s="12">
+      <c r="L25" s="12">
         <v>0.72</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>1.4</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="N25" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="T25" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P25" s="4">
+      <c r="U25" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1102003</v>
       </c>
@@ -20544,45 +20974,60 @@
       <c r="C26" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F26" s="18">
+        <v>-0.188</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I26" s="4">
         <v>2.8</v>
       </c>
-      <c r="E26" s="4">
+      <c r="J26" s="4">
         <v>2.8</v>
       </c>
-      <c r="F26" s="4">
+      <c r="K26" s="4">
         <v>0.3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="L26" s="12">
         <v>2.63</v>
       </c>
-      <c r="H26" s="13">
+      <c r="M26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="N26" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4" t="s">
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="S26" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="T26" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P26" s="4">
+      <c r="U26" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1102005</v>
       </c>
@@ -20592,45 +21037,60 @@
       <c r="C27" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I27" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E27" s="4">
+      <c r="J27" s="4">
         <v>2.6</v>
       </c>
-      <c r="F27" s="4">
+      <c r="K27" s="4">
         <v>0.3</v>
       </c>
-      <c r="G27" s="12">
+      <c r="L27" s="12">
         <v>0.96</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="N27" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4" t="s">
+      <c r="O27" s="4"/>
+      <c r="P27" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="S27" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="T27" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P27" s="4">
+      <c r="U27" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1102006</v>
       </c>
@@ -20640,45 +21100,60 @@
       <c r="C28" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="F28" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I28" s="4">
         <v>3.4</v>
       </c>
-      <c r="E28" s="4">
+      <c r="J28" s="4">
         <v>3.7</v>
       </c>
-      <c r="F28" s="4">
+      <c r="K28" s="4">
         <v>0.3</v>
       </c>
-      <c r="G28" s="12">
+      <c r="L28" s="12">
         <v>2.7</v>
       </c>
-      <c r="H28" s="13">
+      <c r="M28" s="13">
         <v>1</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="N28" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4" t="s">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="S28" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="T28" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P28" s="4">
+      <c r="U28" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1102007</v>
       </c>
@@ -20688,45 +21163,60 @@
       <c r="C29" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="4">
         <v>2.17</v>
       </c>
-      <c r="E29" s="4">
+      <c r="J29" s="4">
         <v>2.4700000000000002</v>
       </c>
-      <c r="F29" s="4">
+      <c r="K29" s="4">
         <v>0.3</v>
       </c>
-      <c r="G29" s="12">
+      <c r="L29" s="12">
         <v>1.35</v>
       </c>
-      <c r="H29" s="13">
+      <c r="M29" s="13">
         <v>1</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="N29" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4" t="s">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="N29" s="4" t="s">
+      <c r="S29" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="T29" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P29" s="4">
+      <c r="U29" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1102008</v>
       </c>
@@ -20736,45 +21226,60 @@
       <c r="C30" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
         <v>3.3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="J30" s="4">
         <v>3.6</v>
       </c>
-      <c r="F30" s="4">
+      <c r="K30" s="4">
         <v>0.3</v>
       </c>
-      <c r="G30" s="12">
+      <c r="L30" s="12">
         <v>2.42</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>1</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="N30" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="T30" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P30" s="4">
+      <c r="U30" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1102009</v>
       </c>
@@ -20784,45 +21289,60 @@
       <c r="C31" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.497</v>
+      </c>
+      <c r="I31" s="4">
         <v>3.06</v>
       </c>
-      <c r="E31" s="4">
+      <c r="J31" s="4">
         <v>3.36</v>
       </c>
-      <c r="F31" s="4">
+      <c r="K31" s="4">
         <v>0.3</v>
       </c>
-      <c r="G31" s="12">
+      <c r="L31" s="12">
         <v>2.31</v>
       </c>
-      <c r="H31" s="13">
+      <c r="M31" s="13">
         <v>1</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="N31" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P31" s="4">
+      <c r="U31" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1102010</v>
       </c>
@@ -20832,45 +21352,60 @@
       <c r="C32" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-0.128</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.252</v>
+      </c>
+      <c r="I32" s="4">
         <v>3.78</v>
       </c>
-      <c r="E32" s="4">
+      <c r="J32" s="4">
         <v>4.08</v>
       </c>
-      <c r="F32" s="4">
+      <c r="K32" s="4">
         <v>0.2</v>
       </c>
-      <c r="G32" s="12">
+      <c r="L32" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M32" s="13">
         <v>1</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="N32" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="R32" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="S32" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="T32" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P32" s="4">
+      <c r="U32" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1102011</v>
       </c>
@@ -20880,45 +21415,60 @@
       <c r="C33" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="I33" s="4">
         <v>2.96</v>
       </c>
-      <c r="E33" s="4">
+      <c r="J33" s="4">
         <v>3.26</v>
       </c>
-      <c r="F33" s="4">
+      <c r="K33" s="4">
         <v>0.3</v>
       </c>
-      <c r="G33" s="12">
+      <c r="L33" s="12">
         <v>2.34</v>
       </c>
-      <c r="H33" s="13">
+      <c r="M33" s="13">
         <v>1</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="N33" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="S33" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="T33" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P33" s="4">
+      <c r="U33" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1102012</v>
       </c>
@@ -20928,45 +21478,60 @@
       <c r="C34" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="I34" s="4">
         <v>2.97</v>
       </c>
-      <c r="E34" s="4">
+      <c r="J34" s="4">
         <v>3.27</v>
       </c>
-      <c r="F34" s="4">
+      <c r="K34" s="4">
         <v>0.3</v>
       </c>
-      <c r="G34" s="12">
+      <c r="L34" s="12">
         <v>2.15</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>1</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="N34" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4" t="s">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="R34" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="S34" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="T34" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P34" s="4">
+      <c r="U34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1102013</v>
       </c>
@@ -20976,45 +21541,60 @@
       <c r="C35" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-2.9</v>
+      </c>
+      <c r="I35" s="4">
         <v>2.5</v>
       </c>
-      <c r="E35" s="4">
+      <c r="J35" s="4">
         <v>2.8</v>
       </c>
-      <c r="F35" s="4">
+      <c r="K35" s="4">
         <v>0.35</v>
       </c>
-      <c r="G35" s="12">
+      <c r="L35" s="12">
         <v>2.72</v>
       </c>
-      <c r="H35" s="13">
+      <c r="M35" s="13">
         <v>1</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="N35" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4" t="s">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="S35" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="T35" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P35" s="4">
+      <c r="U35" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1102014</v>
       </c>
@@ -21024,45 +21604,60 @@
       <c r="C36" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-0.129</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I36" s="4">
         <v>2.94</v>
       </c>
-      <c r="E36" s="4">
+      <c r="J36" s="4">
         <v>3.24</v>
       </c>
-      <c r="F36" s="4">
+      <c r="K36" s="4">
         <v>0.3</v>
       </c>
-      <c r="G36" s="12">
+      <c r="L36" s="12">
         <v>2.42</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>1</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="N36" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="R36" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="S36" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="T36" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="4">
+      <c r="U36" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>1102016</v>
       </c>
@@ -21072,45 +21667,60 @@
       <c r="C37" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I37" s="4">
         <v>3.22</v>
       </c>
-      <c r="E37" s="4">
+      <c r="J37" s="4">
         <v>3.52</v>
       </c>
-      <c r="F37" s="4">
+      <c r="K37" s="4">
         <v>0.3</v>
       </c>
-      <c r="G37" s="12">
+      <c r="L37" s="12">
         <v>2.1</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>1</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="N37" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4" t="s">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="P37" s="4">
+      <c r="U37" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>1102017</v>
       </c>
@@ -21120,45 +21730,60 @@
       <c r="C38" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.246</v>
+      </c>
+      <c r="I38" s="4">
         <v>2.9</v>
       </c>
-      <c r="E38" s="4">
+      <c r="J38" s="4">
         <v>3.2</v>
       </c>
-      <c r="F38" s="4">
+      <c r="K38" s="4">
         <v>0.3</v>
       </c>
-      <c r="G38" s="12">
+      <c r="L38" s="12">
         <v>2.04</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>1</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="N38" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4" t="s">
+      <c r="O38" s="4"/>
+      <c r="P38" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="Q38" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="R38" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="S38" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="O38" s="4" t="s">
+      <c r="T38" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P38" s="4">
+      <c r="U38" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>1102018</v>
       </c>
@@ -21168,45 +21793,60 @@
       <c r="C39" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="I39" s="4">
         <v>3.14</v>
       </c>
-      <c r="E39" s="4">
+      <c r="J39" s="4">
         <v>3.44</v>
       </c>
-      <c r="F39" s="4">
+      <c r="K39" s="4">
         <v>0.3</v>
       </c>
-      <c r="G39" s="12">
+      <c r="L39" s="12">
         <v>2.17</v>
       </c>
-      <c r="H39" s="13">
+      <c r="M39" s="13">
         <v>1</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="N39" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
+      <c r="O39" s="4"/>
+      <c r="P39" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="R39" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="S39" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="T39" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P39" s="4">
+      <c r="U39" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>1102019</v>
       </c>
@@ -21216,45 +21856,60 @@
       <c r="C40" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="I40" s="4">
         <v>2.84</v>
       </c>
-      <c r="E40" s="4">
+      <c r="J40" s="4">
         <v>3.14</v>
       </c>
-      <c r="F40" s="4">
+      <c r="K40" s="4">
         <v>0.3</v>
       </c>
-      <c r="G40" s="12">
+      <c r="L40" s="12">
         <v>1.2</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>1</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="N40" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="S40" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="T40" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P40" s="4">
+      <c r="U40" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>1102020</v>
       </c>
@@ -21264,45 +21919,60 @@
       <c r="C41" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="I41" s="4">
         <v>2.96</v>
       </c>
-      <c r="E41" s="4">
+      <c r="J41" s="4">
         <v>3.26</v>
       </c>
-      <c r="F41" s="4">
+      <c r="K41" s="4">
         <v>0.3</v>
       </c>
-      <c r="G41" s="12">
+      <c r="L41" s="12">
         <v>2.42</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>1</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="N41" s="14" t="s">
         <v>446</v>
       </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="T41" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P41" s="4">
+      <c r="U41" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>1102021</v>
       </c>
@@ -21312,45 +21982,60 @@
       <c r="C42" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I42" s="4">
         <v>2.75</v>
       </c>
-      <c r="E42" s="4">
+      <c r="J42" s="4">
         <v>3.05</v>
       </c>
-      <c r="F42" s="4">
+      <c r="K42" s="4">
         <v>0.3</v>
       </c>
-      <c r="G42" s="12">
+      <c r="L42" s="12">
         <v>1.83</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>1</v>
       </c>
-      <c r="I42" s="14" t="s">
+      <c r="N42" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="Q42" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="S42" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="O42" s="4" t="s">
+      <c r="T42" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P42" s="4">
+      <c r="U42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>1201001</v>
       </c>
@@ -21360,39 +22045,54 @@
       <c r="C43" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I43" s="4">
         <v>2.35</v>
       </c>
-      <c r="E43" s="4">
+      <c r="J43" s="4">
         <v>2.65</v>
       </c>
-      <c r="F43" s="4">
+      <c r="K43" s="4">
         <v>0.3</v>
       </c>
-      <c r="G43" s="12">
+      <c r="L43" s="12">
         <v>1.51</v>
       </c>
-      <c r="H43" s="13">
+      <c r="M43" s="13">
         <v>1</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="N43" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4" t="s">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="S43" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15">
+      <c r="T43" s="15"/>
+      <c r="U43" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>1201002</v>
       </c>
@@ -21402,39 +22102,54 @@
       <c r="C44" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I44" s="4">
         <v>1.98</v>
       </c>
-      <c r="E44" s="4">
+      <c r="J44" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F44" s="4">
+      <c r="K44" s="4">
         <v>0.3</v>
       </c>
-      <c r="G44" s="12">
+      <c r="L44" s="12">
         <v>1.2</v>
       </c>
-      <c r="H44" s="13">
+      <c r="M44" s="13">
         <v>1</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="N44" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4" t="s">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="S44" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15">
+      <c r="T44" s="15"/>
+      <c r="U44" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>1201003</v>
       </c>
@@ -21444,39 +22159,54 @@
       <c r="C45" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I45" s="4">
         <v>1.34</v>
       </c>
-      <c r="E45" s="4">
+      <c r="J45" s="4">
         <v>1.64</v>
       </c>
-      <c r="F45" s="4">
+      <c r="K45" s="4">
         <v>0.3</v>
       </c>
-      <c r="G45" s="12">
+      <c r="L45" s="12">
         <v>0.96</v>
       </c>
-      <c r="H45" s="13">
+      <c r="M45" s="13">
         <v>1</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="N45" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4" t="s">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="S45" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15">
+      <c r="T45" s="15"/>
+      <c r="U45" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>1201004</v>
       </c>
@@ -21486,39 +22216,54 @@
       <c r="C46" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I46" s="4">
         <v>2.8</v>
       </c>
-      <c r="E46" s="4">
+      <c r="J46" s="4">
         <v>3.1</v>
       </c>
-      <c r="F46" s="4">
+      <c r="K46" s="4">
         <v>0.3</v>
       </c>
-      <c r="G46" s="12">
+      <c r="L46" s="12">
         <v>2.34</v>
       </c>
-      <c r="H46" s="13">
+      <c r="M46" s="13">
         <v>1</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="N46" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4" t="s">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="S46" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15">
+      <c r="T46" s="15"/>
+      <c r="U46" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>1201005</v>
       </c>
@@ -21528,39 +22273,54 @@
       <c r="C47" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I47" s="4">
         <v>2.8</v>
       </c>
-      <c r="E47" s="4">
+      <c r="J47" s="4">
         <v>3.1</v>
       </c>
-      <c r="F47" s="4">
+      <c r="K47" s="4">
         <v>0.3</v>
       </c>
-      <c r="G47" s="12">
+      <c r="L47" s="12">
         <v>2.34</v>
       </c>
-      <c r="H47" s="13">
+      <c r="M47" s="13">
         <v>1</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="N47" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4" t="s">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="S47" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15">
+      <c r="T47" s="15"/>
+      <c r="U47" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>1201006</v>
       </c>
@@ -21570,39 +22330,54 @@
       <c r="C48" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I48" s="4">
         <v>1.96</v>
       </c>
-      <c r="E48" s="4">
+      <c r="J48" s="4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F48" s="4">
+      <c r="K48" s="4">
         <v>0.3</v>
       </c>
-      <c r="G48" s="12">
+      <c r="L48" s="12">
         <v>1.38</v>
       </c>
-      <c r="H48" s="13">
+      <c r="M48" s="13">
         <v>1</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="N48" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="S48" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15">
+      <c r="T48" s="15"/>
+      <c r="U48" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>1201007</v>
       </c>
@@ -21612,39 +22387,54 @@
       <c r="C49" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I49" s="4">
         <v>1.96</v>
       </c>
-      <c r="E49" s="4">
+      <c r="J49" s="4">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F49" s="4">
+      <c r="K49" s="4">
         <v>0.3</v>
       </c>
-      <c r="G49" s="12">
+      <c r="L49" s="12">
         <v>1.38</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>1</v>
       </c>
-      <c r="I49" s="14" t="s">
+      <c r="N49" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="S49" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15">
+      <c r="T49" s="15"/>
+      <c r="U49" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>1201008</v>
       </c>
@@ -21654,39 +22444,54 @@
       <c r="C50" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I50" s="4">
         <v>2.97</v>
       </c>
-      <c r="E50" s="4">
+      <c r="J50" s="4">
         <v>3.27</v>
       </c>
-      <c r="F50" s="4">
+      <c r="K50" s="4">
         <v>0.3</v>
       </c>
-      <c r="G50" s="12">
+      <c r="L50" s="12">
         <v>2.33</v>
       </c>
-      <c r="H50" s="13">
+      <c r="M50" s="13">
         <v>1</v>
       </c>
-      <c r="I50" s="14" t="s">
+      <c r="N50" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="S50" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15">
+      <c r="T50" s="15"/>
+      <c r="U50" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>1201009</v>
       </c>
@@ -21696,39 +22501,54 @@
       <c r="C51" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I51" s="4">
         <v>2.67</v>
       </c>
-      <c r="E51" s="4">
+      <c r="J51" s="4">
         <v>2.97</v>
       </c>
-      <c r="F51" s="4">
+      <c r="K51" s="4">
         <v>0.3</v>
       </c>
-      <c r="G51" s="12">
+      <c r="L51" s="12">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H51" s="13">
+      <c r="M51" s="13">
         <v>1</v>
       </c>
-      <c r="I51" s="14" t="s">
+      <c r="N51" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="S51" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15">
+      <c r="T51" s="15"/>
+      <c r="U51" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>1201010</v>
       </c>
@@ -21738,39 +22558,54 @@
       <c r="C52" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I52" s="4">
         <v>1.19</v>
       </c>
-      <c r="E52" s="4">
+      <c r="J52" s="4">
         <v>1.49</v>
       </c>
-      <c r="F52" s="4">
+      <c r="K52" s="4">
         <v>0.3</v>
       </c>
-      <c r="G52" s="12">
+      <c r="L52" s="12">
         <v>1.7</v>
       </c>
-      <c r="H52" s="13">
+      <c r="M52" s="13">
         <v>1</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="N52" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="S52" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15">
+      <c r="T52" s="15"/>
+      <c r="U52" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>1201011</v>
       </c>
@@ -21780,39 +22615,54 @@
       <c r="C53" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I53" s="4">
         <v>1.8</v>
       </c>
-      <c r="E53" s="4">
+      <c r="J53" s="4">
         <v>2.1</v>
       </c>
-      <c r="F53" s="4">
+      <c r="K53" s="4">
         <v>0.3</v>
       </c>
-      <c r="G53" s="12">
+      <c r="L53" s="12">
         <v>1.2</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>1</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="N53" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="S53" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15">
+      <c r="T53" s="15"/>
+      <c r="U53" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>1201012</v>
       </c>
@@ -21822,35 +22672,50 @@
       <c r="C54" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1.173</v>
+      </c>
+      <c r="I54" s="4">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E54" s="4">
+      <c r="J54" s="4">
         <v>2.48</v>
       </c>
-      <c r="F54" s="4">
+      <c r="K54" s="4">
         <v>0.35</v>
       </c>
-      <c r="G54" s="12">
+      <c r="L54" s="12">
         <v>2.25</v>
       </c>
-      <c r="H54" s="13">
+      <c r="M54" s="13">
         <v>1</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="N54" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="S54" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15">
+      <c r="T54" s="15"/>
+      <c r="U54" s="15">
         <v>1</v>
       </c>
     </row>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E140C56-D331-4615-852F-E36182BC7D29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7119172-FBBB-4AAC-9228-837FC8A52FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="899">
   <si>
     <t>sheet名</t>
   </si>
@@ -2268,18 +2268,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Art/Roles/rol_1101017/Pefabs/model_zgyx_1101017_p.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101020/Pefabs/model_jyh_1101020_p.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101022/Pefabs/model_h_1101022_p.prefab</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>环境音效</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2876,6 +2864,20 @@
   </si>
   <si>
     <t>string:e</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102008/Pefabs/model_xhy_1102008_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102030/Pefabs/model_yq_1102030_p.prefab</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Pefabs/model_zdcyb_1101007_z.prefab</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102030/Animations/1102030_exskill_1.playable</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3731,19 +3733,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -4015,16 +4017,16 @@
         <v>114</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>113</v>
@@ -4293,19 +4295,19 @@
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>116</v>
@@ -5929,7 +5931,7 @@
         <v>205</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D9" s="4">
         <f>CEILING(35/255,0.001)</f>
@@ -6214,7 +6216,7 @@
         <v>205</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ref="D10:F11" si="1">CEILING(35/255,0.001)</f>
@@ -6499,7 +6501,7 @@
         <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
@@ -8139,7 +8141,7 @@
         <v>208</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D17" s="4">
         <f>CEILING(35/255,0.001)</f>
@@ -8424,7 +8426,7 @@
         <v>208</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ref="D18:F19" si="5">CEILING(35/255,0.001)</f>
@@ -8709,7 +8711,7 @@
         <v>208</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" si="5"/>
@@ -17395,7 +17397,7 @@
         <v>214</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D51" s="4">
         <f>CEILING(10/255,0.001)</f>
@@ -17680,7 +17682,7 @@
         <v>214</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D52" s="4">
         <f>CEILING(10/255,0.001)</f>
@@ -17965,7 +17967,7 @@
         <v>216</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -18238,7 +18240,7 @@
         <v>216</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -18511,7 +18513,7 @@
         <v>217</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -18784,7 +18786,7 @@
         <v>217</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -19057,7 +19059,7 @@
         <v>217</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -19330,7 +19332,7 @@
         <v>218</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -19603,7 +19605,7 @@
         <v>218</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -19876,7 +19878,7 @@
         <v>218</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -20152,8 +20154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20218,7 +20220,7 @@
         <v>231</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>232</v>
@@ -20354,7 +20356,7 @@
         <v>258</v>
       </c>
       <c r="O3" s="28" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>259</v>
@@ -20422,7 +20424,7 @@
         <v>268</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>269</v>
@@ -20490,7 +20492,7 @@
         <v>276</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>277</v>
@@ -20558,7 +20560,7 @@
         <v>284</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>285</v>
@@ -20593,7 +20595,7 @@
         <v>290</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>291</v>
+        <v>897</v>
       </c>
       <c r="E7" s="4">
         <v>1.75</v>
@@ -20626,7 +20628,7 @@
         <v>291</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>292</v>
@@ -20694,7 +20696,7 @@
         <v>299</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>300</v>
@@ -21018,7 +21020,7 @@
         <v>331</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>332</v>
@@ -21086,7 +21088,7 @@
         <v>337</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>338</v>
@@ -21154,7 +21156,7 @@
         <v>343</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>344</v>
@@ -21222,7 +21224,7 @@
         <v>351</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>352</v>
@@ -21290,7 +21292,7 @@
         <v>357</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>358</v>
@@ -21358,7 +21360,7 @@
         <v>363</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>364</v>
@@ -21426,7 +21428,7 @@
         <v>369</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>370</v>
@@ -21494,7 +21496,7 @@
         <v>375</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>376</v>
@@ -21562,7 +21564,7 @@
         <v>381</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>382</v>
@@ -21630,7 +21632,7 @@
         <v>387</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>388</v>
@@ -21665,7 +21667,7 @@
         <v>392</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>723</v>
+        <v>393</v>
       </c>
       <c r="E23" s="4">
         <v>1.75</v>
@@ -21698,7 +21700,7 @@
         <v>393</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>394</v>
@@ -21733,7 +21735,7 @@
         <v>398</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>724</v>
+        <v>399</v>
       </c>
       <c r="E24" s="4">
         <v>1.7</v>
@@ -21766,7 +21768,7 @@
         <v>399</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>400</v>
@@ -21801,7 +21803,7 @@
         <v>404</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="E25" s="4">
         <v>1.75</v>
@@ -21834,7 +21836,7 @@
         <v>405</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>406</v>
@@ -22125,7 +22127,7 @@
         <v>431</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>427</v>
+        <v>895</v>
       </c>
       <c r="E30" s="4">
         <v>1.7</v>
@@ -23647,13 +23649,13 @@
         <v>1102030</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>787</v>
+        <v>896</v>
       </c>
       <c r="E55" s="4">
         <v>1.05</v>
@@ -23683,12 +23685,12 @@
         <v>1</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O55" s="15"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>271</v>
@@ -23697,7 +23699,7 @@
         <v>442</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>296</v>
@@ -23717,8 +23719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23740,10 +23742,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>720</v>
@@ -23752,7 +23754,7 @@
         <v>540</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>541</v>
@@ -23778,10 +23780,10 @@
         <v>111</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>721</v>
@@ -23790,7 +23792,7 @@
         <v>547</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>547</v>
@@ -23816,10 +23818,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>722</v>
@@ -23828,7 +23830,7 @@
         <v>548</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>549</v>
@@ -23859,7 +23861,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D4" s="31">
         <v>2</v>
@@ -23871,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H4" s="12">
         <v>1</v>
@@ -23881,7 +23883,7 @@
         <v/>
       </c>
       <c r="J4" s="29" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K4" s="29" t="str">
         <f t="shared" ref="K4:K9" si="1">IF(F4=0,"","Art/Roles/rol_"&amp;A4&amp;"/Animations/"&amp;A4&amp;"_exskill_"&amp;IF(D4=2,1,RIGHT(LEFT(G4,4),1))&amp;"_3.playable")</f>
@@ -23900,7 +23902,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D5" s="31">
         <v>2</v>
@@ -23912,7 +23914,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H5" s="12">
         <v>1</v>
@@ -23922,7 +23924,7 @@
         <v/>
       </c>
       <c r="J5" s="29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="K5" s="29" t="str">
         <f t="shared" si="1"/>
@@ -23941,7 +23943,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D6" s="31">
         <v>2</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H6" s="12">
         <v>1</v>
@@ -23963,7 +23965,7 @@
         <v/>
       </c>
       <c r="J6" s="29" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="K6" s="29" t="str">
         <f t="shared" si="1"/>
@@ -23982,7 +23984,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D7" s="31">
         <v>2</v>
@@ -23994,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H7" s="12">
         <v>1</v>
@@ -24004,7 +24006,7 @@
         <v/>
       </c>
       <c r="J7" s="29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="K7" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24023,7 +24025,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D8" s="31">
         <v>2</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -24045,7 +24047,7 @@
         <v/>
       </c>
       <c r="J8" s="29" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24064,7 +24066,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D9" s="31">
         <v>2</v>
@@ -24076,7 +24078,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H9" s="12">
         <v>1</v>
@@ -24086,7 +24088,7 @@
         <v/>
       </c>
       <c r="J9" s="29" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K9" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24105,7 +24107,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D10" s="31">
         <v>2</v>
@@ -24117,19 +24119,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H10" s="12">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="L10" s="29">
         <v>1</v>
@@ -24144,7 +24146,7 @@
         <v>黑尔</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D11" s="31">
         <v>2</v>
@@ -24156,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -24166,7 +24168,7 @@
         <v/>
       </c>
       <c r="J11" s="29" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="K11" s="29" t="str">
         <f>IF(F11=0,"","Art/Roles/rol_"&amp;A11&amp;"/Animations/"&amp;A11&amp;"_exskill_"&amp;IF(D11=2,1,RIGHT(LEFT(G11,4),1))&amp;"_3.playable")</f>
@@ -24185,7 +24187,7 @@
         <v>北落师门</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D12" s="31">
         <v>2</v>
@@ -24197,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
@@ -24207,7 +24209,7 @@
         <v/>
       </c>
       <c r="J12" s="29" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K12" s="29" t="str">
         <f>IF(F12=0,"","Art/Roles/rol_"&amp;A12&amp;"/Animations/"&amp;A12&amp;"_exskill_"&amp;IF(D12=2,1,RIGHT(LEFT(G12,4),1))&amp;"_3.playable")</f>
@@ -24226,7 +24228,7 @@
         <v>盖文</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D13" s="31">
         <v>2</v>
@@ -24238,19 +24240,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H13" s="12">
         <v>1</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="L13" s="29">
         <v>1</v>
@@ -24265,7 +24267,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D14" s="31">
         <v>2</v>
@@ -24277,19 +24279,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H14" s="12">
         <v>1</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="L14" s="29">
         <v>1</v>
@@ -24304,7 +24306,7 @@
         <v>南御夫</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D15" s="31">
         <v>2</v>
@@ -24316,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="H15" s="12">
         <v>1</v>
@@ -24326,7 +24328,7 @@
         <v/>
       </c>
       <c r="J15" s="29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K15" s="29" t="str">
         <f>IF(F15=0,"","Art/Roles/rol_"&amp;A15&amp;"/Animations/"&amp;A15&amp;"_exskill_"&amp;IF(D15=2,1,RIGHT(LEFT(G15,4),1))&amp;"_3.playable")</f>
@@ -24345,7 +24347,7 @@
         <v>吉拉</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D16" s="31">
         <v>2</v>
@@ -24357,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H16" s="12">
         <v>1</v>
@@ -24367,7 +24369,7 @@
         <v/>
       </c>
       <c r="J16" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K16" s="29" t="str">
         <f>IF(F16=0,"","Art/Roles/rol_"&amp;A16&amp;"/Animations/"&amp;A16&amp;"_exskill_"&amp;IF(D16=2,1,RIGHT(LEFT(G16,4),1))&amp;"_3.playable")</f>
@@ -24386,7 +24388,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D17" s="31">
         <v>2</v>
@@ -24398,7 +24400,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="H17" s="12">
         <v>1</v>
@@ -24408,7 +24410,7 @@
         <v/>
       </c>
       <c r="J17" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="K17" s="29" t="str">
         <f>IF(F17=0,"","Art/Roles/rol_"&amp;A17&amp;"/Animations/"&amp;A17&amp;"_exskill_"&amp;IF(D17=2,1,RIGHT(LEFT(G17,4),1))&amp;"_3.playable")</f>
@@ -24427,7 +24429,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D18" s="31">
         <v>2</v>
@@ -24439,19 +24441,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H18" s="12">
         <v>1</v>
       </c>
       <c r="I18" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="J18" s="29" t="s">
         <v>849</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="K18" s="29" t="s">
         <v>852</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>855</v>
       </c>
       <c r="L18" s="29">
         <v>1</v>
@@ -24466,7 +24468,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D19" s="31">
         <v>2</v>
@@ -24478,19 +24480,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H19" s="12">
         <v>1</v>
       </c>
       <c r="I19" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="K19" s="29" t="s">
         <v>853</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>856</v>
       </c>
       <c r="L19" s="29">
         <v>1</v>
@@ -24505,7 +24507,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D20" s="31">
         <v>2</v>
@@ -24517,19 +24519,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
       </c>
       <c r="I20" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="K20" s="29" t="s">
         <v>854</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>857</v>
       </c>
       <c r="L20" s="29">
         <v>1</v>
@@ -24544,7 +24546,7 @@
         <v>幻</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D21" s="31">
         <v>2</v>
@@ -24556,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H21" s="12">
         <v>1</v>
@@ -24566,7 +24568,7 @@
         <v/>
       </c>
       <c r="J21" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K21" s="29" t="str">
         <f>IF(F21=0,"","Art/Roles/rol_"&amp;A21&amp;"/Animations/"&amp;A21&amp;"_exskill_"&amp;IF(D21=2,1,RIGHT(LEFT(G21,4),1))&amp;"_3.playable")</f>
@@ -24585,7 +24587,7 @@
         <v>关羽</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D22" s="31">
         <v>2</v>
@@ -24597,19 +24599,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H22" s="12">
         <v>1</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="L22" s="29">
         <v>1</v>
@@ -24624,7 +24626,7 @@
         <v>许褚</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D23" s="31">
         <v>2</v>
@@ -24636,7 +24638,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H23" s="12">
         <v>1</v>
@@ -24646,7 +24648,7 @@
         <v/>
       </c>
       <c r="J23" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K23" s="29" t="str">
         <f>IF(F23=0,"","Art/Roles/rol_"&amp;A23&amp;"/Animations/"&amp;A23&amp;"_exskill_"&amp;IF(D23=2,1,RIGHT(LEFT(G23,4),1))&amp;"_3.playable")</f>
@@ -24665,7 +24667,7 @@
         <v>典韦</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D24" s="31">
         <v>2</v>
@@ -24677,19 +24679,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="H24" s="12">
         <v>1</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="L24" s="29">
         <v>1</v>
@@ -24704,7 +24706,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D25" s="31">
         <v>2</v>
@@ -24716,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -24726,7 +24728,7 @@
         <v/>
       </c>
       <c r="J25" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="K25" s="29" t="str">
         <f>IF(F25=0,"","Art/Roles/rol_"&amp;A25&amp;"/Animations/"&amp;A25&amp;"_exskill_"&amp;IF(D25=2,1,RIGHT(LEFT(G25,4),1))&amp;"_3.playable")</f>
@@ -24745,7 +24747,7 @@
         <v>李轩辕</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D26" s="31">
         <v>2</v>
@@ -24757,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H26" s="12">
         <v>1</v>
@@ -24767,7 +24769,7 @@
         <v/>
       </c>
       <c r="J26" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="K26" s="29" t="str">
         <f>IF(F26=0,"","Art/Roles/rol_"&amp;A26&amp;"/Animations/"&amp;A26&amp;"_exskill_"&amp;IF(D26=2,1,RIGHT(LEFT(G26,4),1))&amp;"_3.playable")</f>
@@ -24786,7 +24788,7 @@
         <v>项羽</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D27" s="31">
         <v>2</v>
@@ -24798,7 +24800,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="H27" s="12">
         <v>1</v>
@@ -24808,7 +24810,7 @@
         <v/>
       </c>
       <c r="J27" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="K27" s="29" t="str">
         <f>IF(F27=0,"","Art/Roles/rol_"&amp;A27&amp;"/Animations/"&amp;A27&amp;"_exskill_"&amp;IF(D27=2,1,RIGHT(LEFT(G27,4),1))&amp;"_3.playable")</f>
@@ -24827,7 +24829,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D28" s="31">
         <v>2</v>
@@ -24839,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H28" s="12">
         <v>1</v>
@@ -24849,7 +24851,7 @@
         <v/>
       </c>
       <c r="J28" s="29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K28" s="29" t="str">
         <f>IF(F28=0,"","Art/Roles/rol_"&amp;A28&amp;"/Animations/"&amp;A28&amp;"_exskill_"&amp;IF(D28=2,1,RIGHT(LEFT(G28,4),1))&amp;"_3.playable")</f>
@@ -24868,7 +24870,7 @@
         <v>夏侯渊</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D29" s="31">
         <v>2</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H29" s="12">
         <v>1</v>
@@ -24890,7 +24892,7 @@
         <v/>
       </c>
       <c r="J29" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="K29" s="29" t="str">
         <f>IF(F29=0,"","Art/Roles/rol_"&amp;A29&amp;"/Animations/"&amp;A29&amp;"_exskill_"&amp;IF(D29=2,1,RIGHT(LEFT(G29,4),1))&amp;"_3.playable")</f>
@@ -24909,7 +24911,7 @@
         <v>徐晃</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D30" s="31">
         <v>2</v>
@@ -24921,19 +24923,19 @@
         <v>0</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="L30" s="29">
         <v>1</v>
@@ -24948,7 +24950,7 @@
         <v>张郃</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D31" s="31">
         <v>2</v>
@@ -24960,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H31" s="12">
         <v>1</v>
@@ -24970,7 +24972,7 @@
         <v/>
       </c>
       <c r="J31" s="29" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="K31" s="29" t="str">
         <f>IF(F31=0,"","Art/Roles/rol_"&amp;A31&amp;"/Animations/"&amp;A31&amp;"_exskill_"&amp;IF(D31=2,1,RIGHT(LEFT(G31,4),1))&amp;"_3.playable")</f>
@@ -24989,7 +24991,7 @@
         <v>张飞</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D32" s="31">
         <v>2</v>
@@ -25001,19 +25003,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L32" s="29">
         <v>1</v>
@@ -25028,7 +25030,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D33" s="31">
         <v>2</v>
@@ -25040,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="H33" s="12">
         <v>1</v>
@@ -25050,7 +25052,7 @@
         <v/>
       </c>
       <c r="J33" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="K33" s="29" t="str">
         <f>IF(F33=0,"","Art/Roles/rol_"&amp;A33&amp;"/Animations/"&amp;A33&amp;"_exskill_"&amp;IF(D33=2,1,RIGHT(LEFT(G33,4),1))&amp;"_3.playable")</f>
@@ -25069,7 +25071,7 @@
         <v>塞伯洛斯</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D34" s="31">
         <v>2</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="H34" s="12">
         <v>1</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="L34" s="29">
         <v>1</v>
@@ -25108,7 +25110,7 @@
         <v>石灵明</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D35" s="31">
         <v>2</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="H35" s="12">
         <v>1</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="L35" s="29">
         <v>1</v>
@@ -25147,7 +25149,7 @@
         <v>于禁</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D36" s="31">
         <v>2</v>
@@ -25159,7 +25161,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
@@ -25169,7 +25171,7 @@
         <v/>
       </c>
       <c r="J36" s="29" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="K36" s="29" t="str">
         <f t="shared" ref="K36:K63" si="3">IF(F36=0,"","Art/Roles/rol_"&amp;A36&amp;"/Animations/"&amp;A36&amp;"_exskill_"&amp;IF(D36=2,1,RIGHT(LEFT(G36,4),1))&amp;"_3.playable")</f>
@@ -25188,7 +25190,7 @@
         <v>西方龙</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D37" s="31">
         <v>2</v>
@@ -25200,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="H37" s="12">
         <v>1</v>
@@ -25210,7 +25212,7 @@
         <v/>
       </c>
       <c r="J37" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25229,7 +25231,7 @@
         <v>飞廉</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D38" s="31">
         <v>2</v>
@@ -25241,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H38" s="12">
         <v>1</v>
@@ -25251,7 +25253,7 @@
         <v/>
       </c>
       <c r="J38" s="29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="K38" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25270,7 +25272,7 @@
         <v>噬日</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D39" s="31">
         <v>2</v>
@@ -25282,7 +25284,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -25292,7 +25294,7 @@
         <v/>
       </c>
       <c r="J39" s="29" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="K39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25311,7 +25313,7 @@
         <v>食火蜥</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D40" s="31">
         <v>2</v>
@@ -25323,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H40" s="12">
         <v>1</v>
@@ -25333,7 +25335,7 @@
         <v/>
       </c>
       <c r="J40" s="29" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K40" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25352,7 +25354,7 @@
         <v>高顺</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D41" s="31">
         <v>2</v>
@@ -25364,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="H41" s="12">
         <v>1</v>
@@ -25374,7 +25376,7 @@
         <v/>
       </c>
       <c r="J41" s="29" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="K41" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25393,7 +25395,7 @@
         <v>烈风螳螂</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D42" s="31">
         <v>2</v>
@@ -25405,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="H42" s="12">
         <v>1</v>
@@ -25415,7 +25417,7 @@
         <v/>
       </c>
       <c r="J42" s="29" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K42" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25434,7 +25436,7 @@
         <v>燕青</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D43" s="31">
         <v>2</v>
@@ -25446,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="H43" s="12">
         <v>1</v>
@@ -25456,7 +25458,7 @@
         <v/>
       </c>
       <c r="J43" s="29" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="K43" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25475,7 +25477,7 @@
         <v>关羽</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D44" s="29">
         <f t="shared" ref="D44:D61" si="4">IF(RIGHT(LEFT(A44,4),1)*1=2,2,1)</f>
@@ -25494,13 +25496,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="29" t="s">
+        <v>879</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="K44" s="29" t="s">
         <v>885</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>888</v>
       </c>
       <c r="L44" s="29">
         <v>1</v>
@@ -25515,7 +25517,7 @@
         <v>关羽</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D45" s="29">
         <f t="shared" si="4"/>
@@ -25534,13 +25536,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J45" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="K45" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>889</v>
       </c>
       <c r="L45" s="29">
         <v>1</v>
@@ -25555,7 +25557,7 @@
         <v>关羽</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D46" s="29">
         <f t="shared" si="4"/>
@@ -25574,13 +25576,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J46" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="K46" s="29" t="s">
         <v>884</v>
-      </c>
-      <c r="K46" s="29" t="s">
-        <v>887</v>
       </c>
       <c r="L46" s="29">
         <v>1</v>
@@ -25595,7 +25597,7 @@
         <v>许褚</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D47" s="29">
         <f t="shared" si="4"/>
@@ -25638,7 +25640,7 @@
         <v>许褚</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D48" s="29">
         <f t="shared" si="4"/>
@@ -25681,7 +25683,7 @@
         <v>许褚</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D49" s="29">
         <f t="shared" si="4"/>
@@ -25724,7 +25726,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D50" s="29">
         <f t="shared" si="4"/>
@@ -25767,7 +25769,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D51" s="29">
         <f t="shared" si="4"/>
@@ -25810,7 +25812,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D52" s="29">
         <f t="shared" si="4"/>
@@ -25853,7 +25855,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D53" s="29">
         <f t="shared" si="4"/>
@@ -25896,7 +25898,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D54" s="29">
         <f t="shared" si="4"/>
@@ -25939,7 +25941,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D55" s="29">
         <f t="shared" si="4"/>
@@ -25982,7 +25984,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D56" s="29">
         <f t="shared" si="4"/>
@@ -26025,7 +26027,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D57" s="29">
         <f t="shared" si="4"/>
@@ -26068,7 +26070,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="4"/>
@@ -26111,7 +26113,7 @@
         <v>石灵明</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D59" s="29">
         <f t="shared" si="4"/>
@@ -26130,13 +26132,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="L59" s="29">
         <v>1</v>
@@ -26151,7 +26153,7 @@
         <v>石灵明</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D60" s="29">
         <f t="shared" si="4"/>
@@ -26170,13 +26172,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J60" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="K60" s="29" t="s">
         <v>891</v>
-      </c>
-      <c r="K60" s="29" t="s">
-        <v>894</v>
       </c>
       <c r="L60" s="29">
         <v>1</v>
@@ -26191,7 +26193,7 @@
         <v>石灵明</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D61" s="29">
         <f t="shared" si="4"/>
@@ -26210,13 +26212,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J61" s="29" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="L61" s="29">
         <v>1</v>
@@ -26231,7 +26233,7 @@
         <v>燕青</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D62" s="31">
         <v>2</v>
@@ -26243,7 +26245,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="H62" s="12">
         <v>1</v>
@@ -26253,7 +26255,7 @@
         <v/>
       </c>
       <c r="J62" s="29" t="s">
-        <v>839</v>
+        <v>898</v>
       </c>
       <c r="K62" s="29" t="str">
         <f t="shared" si="3"/>
@@ -26272,7 +26274,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D63" s="29">
         <f>IF(RIGHT(LEFT(A63,4),1)*1=2,2,1)</f>
@@ -26315,7 +26317,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D64" s="29">
         <f t="shared" ref="D64:D109" si="8">IF(RIGHT(LEFT(A64,4),1)*1=2,2,1)</f>
@@ -26358,7 +26360,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="8"/>
@@ -26401,7 +26403,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D66" s="29">
         <f t="shared" si="8"/>
@@ -26444,7 +26446,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D67" s="29">
         <f t="shared" si="8"/>
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H67" s="12">
         <v>1</v>
@@ -26487,7 +26489,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="8"/>
@@ -26530,7 +26532,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D69" s="29">
         <f t="shared" si="8"/>
@@ -26573,7 +26575,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="8"/>
@@ -26616,7 +26618,7 @@
         <v>黑尔</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D71" s="29">
         <f t="shared" si="8"/>
@@ -26659,7 +26661,7 @@
         <v>于禁</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D72" s="29">
         <f t="shared" si="8"/>
@@ -26702,7 +26704,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D73" s="29">
         <f t="shared" si="8"/>
@@ -26745,7 +26747,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D74" s="29">
         <f t="shared" si="8"/>
@@ -26788,7 +26790,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D75" s="29">
         <f t="shared" si="8"/>
@@ -26831,7 +26833,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D76" s="29">
         <f t="shared" si="8"/>
@@ -26874,7 +26876,7 @@
         <v>北落师门</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D77" s="29">
         <f t="shared" si="8"/>
@@ -26917,7 +26919,7 @@
         <v>盖文</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D78" s="29">
         <f t="shared" si="8"/>
@@ -26960,7 +26962,7 @@
         <v>盖文</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D79" s="29">
         <f t="shared" si="8"/>
@@ -27003,7 +27005,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D80" s="29">
         <f t="shared" si="8"/>
@@ -27046,7 +27048,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D81" s="29">
         <f t="shared" si="8"/>
@@ -27089,7 +27091,7 @@
         <v>南御夫</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D82" s="29">
         <f t="shared" si="8"/>
@@ -27132,7 +27134,7 @@
         <v>吉拉</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D83" s="29">
         <f t="shared" si="8"/>
@@ -27175,7 +27177,7 @@
         <v>吉拉</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D84" s="29">
         <f t="shared" si="8"/>
@@ -27218,7 +27220,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D85" s="29">
         <f t="shared" si="8"/>
@@ -27261,7 +27263,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D86" s="29">
         <f t="shared" si="8"/>
@@ -27304,7 +27306,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D87" s="29">
         <f t="shared" si="8"/>
@@ -27347,7 +27349,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D88" s="29">
         <f t="shared" si="8"/>
@@ -27390,7 +27392,7 @@
         <v>典韦</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D89" s="29">
         <f t="shared" si="8"/>
@@ -27433,7 +27435,7 @@
         <v>李轩辕</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D90" s="29">
         <f t="shared" si="8"/>
@@ -27476,7 +27478,7 @@
         <v>项羽</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D91" s="29">
         <f t="shared" si="8"/>
@@ -27519,7 +27521,7 @@
         <v>徐晃</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D92" s="29">
         <f t="shared" si="8"/>
@@ -27562,7 +27564,7 @@
         <v>张郃</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D93" s="29">
         <f t="shared" si="8"/>
@@ -27605,7 +27607,7 @@
         <v>张飞</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D94" s="29">
         <f t="shared" si="8"/>
@@ -27648,7 +27650,7 @@
         <v>塞伯洛斯</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D95" s="29">
         <f t="shared" si="8"/>
@@ -27691,7 +27693,7 @@
         <v>西方龙</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D96" s="29">
         <f t="shared" si="8"/>
@@ -27734,7 +27736,7 @@
         <v>飞廉</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D97" s="29">
         <f t="shared" si="8"/>
@@ -27777,7 +27779,7 @@
         <v>噬日</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D98" s="29">
         <f t="shared" si="8"/>
@@ -27820,7 +27822,7 @@
         <v>食火蜥</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D99" s="29">
         <f t="shared" si="8"/>
@@ -27863,7 +27865,7 @@
         <v>高顺</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D100" s="29">
         <f t="shared" si="8"/>
@@ -27906,7 +27908,7 @@
         <v>高顺</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D101" s="29">
         <f t="shared" si="8"/>
@@ -27949,7 +27951,7 @@
         <v>烈风螳螂</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D102" s="29">
         <f t="shared" si="8"/>
@@ -27992,7 +27994,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D103" s="29">
         <f t="shared" si="8"/>
@@ -28035,7 +28037,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D104" s="29">
         <f t="shared" si="8"/>
@@ -28078,7 +28080,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D105" s="29">
         <f t="shared" si="8"/>
@@ -28121,7 +28123,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D106" s="29">
         <f t="shared" si="8"/>
@@ -28164,7 +28166,7 @@
         <v>幻</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D107" s="29">
         <f t="shared" si="8"/>
@@ -28207,7 +28209,7 @@
         <v>幻</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D108" s="29">
         <f t="shared" si="8"/>
@@ -28250,7 +28252,7 @@
         <v>砍刀鬼兵</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D109" s="29">
         <f t="shared" si="8"/>
@@ -28293,7 +28295,7 @@
         <v>双刃鬼兵</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D110" s="29">
         <f t="shared" ref="D110:D127" si="12">IF(RIGHT(LEFT(A110,4),1)*1=2,2,1)</f>
@@ -28336,7 +28338,7 @@
         <v>链球鬼兵</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D111" s="29">
         <f t="shared" si="12"/>
@@ -28379,7 +28381,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D112" s="29">
         <f t="shared" si="12"/>
@@ -28422,7 +28424,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D113" s="29">
         <f t="shared" si="12"/>
@@ -28465,7 +28467,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D114" s="29">
         <f t="shared" si="12"/>
@@ -28508,7 +28510,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D115" s="29">
         <f t="shared" si="12"/>
@@ -28551,7 +28553,7 @@
         <v>骷髅小兵1</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D116" s="29">
         <f t="shared" si="12"/>
@@ -28594,7 +28596,7 @@
         <v>骷髅小兵2</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D117" s="29">
         <f t="shared" si="12"/>
@@ -28637,7 +28639,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D118" s="29">
         <f t="shared" si="12"/>
@@ -28680,7 +28682,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D119" s="29">
         <f t="shared" si="12"/>
@@ -28723,7 +28725,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D120" s="29">
         <f t="shared" si="12"/>
@@ -28766,7 +28768,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D121" s="29">
         <f t="shared" si="12"/>
@@ -28809,7 +28811,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D122" s="29">
         <f t="shared" si="12"/>
@@ -28852,7 +28854,7 @@
         <v>小蜘蛛</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D123" s="29">
         <f t="shared" si="12"/>
@@ -28895,7 +28897,7 @@
         <v>魔导机兵团</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D124" s="29">
         <f t="shared" si="12"/>
@@ -28938,7 +28940,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D125" s="29">
         <f t="shared" si="12"/>
@@ -28981,7 +28983,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D126" s="29">
         <f t="shared" si="12"/>
@@ -29024,7 +29026,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D127" s="29">
         <f t="shared" si="12"/>
@@ -29118,7 +29120,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>641</v>
@@ -29129,7 +29131,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>642</v>
@@ -29140,7 +29142,7 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>643</v>
@@ -29151,7 +29153,7 @@
         <v>1304004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>644</v>
@@ -29162,7 +29164,7 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>645</v>
@@ -29173,7 +29175,7 @@
         <v>1304006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>645</v>
@@ -29184,7 +29186,7 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>646</v>
@@ -29195,7 +29197,7 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -29204,7 +29206,7 @@
         <v>1304009</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -29213,7 +29215,7 @@
         <v>1304010</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>647</v>
@@ -29224,7 +29226,7 @@
         <v>1304011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>648</v>
@@ -29235,7 +29237,7 @@
         <v>1304012</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -29244,7 +29246,7 @@
         <v>1304013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>649</v>
@@ -29255,7 +29257,7 @@
         <v>1304014</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>650</v>
@@ -29266,7 +29268,7 @@
         <v>1304015</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>651</v>
@@ -29277,7 +29279,7 @@
         <v>1304016</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>652</v>
@@ -29318,7 +29320,7 @@
         <v>653</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>542</v>
@@ -29374,7 +29376,7 @@
         <v>656</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>550</v>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7119172-FBBB-4AAC-9228-837FC8A52FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49648C9-6693-4451-8725-C8C66E2AAA4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="901">
   <si>
     <t>sheet名</t>
   </si>
@@ -2499,60 +2499,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Art/Roles/rol_1101001/Animations/1101001_exskill_1_1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101002/Animations/1101002_exskill_1_1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101003/Animations/1101003_exskill_1_1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101007/Animations/1101007_exskill_1_1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101008/Animations/1101008_exskill_1_1.playable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101004/Animations/1101004_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101005/Animations/1101005_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101006/Animations/1101006_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101009/Animations/1101009_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101010/Animations/1101010_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101011/Animations/1101011_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101012/Animations/1101012_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101013/Animations/1101013_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101014/Animations/1101014_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101015/Animations/1101015_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101017/Animations/1101017_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101020/Animations/1101020_exskill_1_1.palyable</t>
-  </si>
-  <si>
-    <t>Art/Roles/rol_1101022/Animations/1101022_exskill_1_1.palyable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1101001/Animations/1101001_exskill_3.playable</t>
   </si>
   <si>
@@ -2878,6 +2824,68 @@
   </si>
   <si>
     <t>Art/Roles/rol_1102030/Animations/1102030_exskill_1.playable</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Pefabs/model_yqq_1101015_z.prefab</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101001/Animations/1101001_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101002/Animations/1101002_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101003/Animations/1101003_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101007/Animations/1101007_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101008/Animations/1101008_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101004/Animations/1101004_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101005/Animations/1101005_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101006/Animations/1101006_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101009/Animations/1101009_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101010/Animations/1101010_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101011/Animations/1101011_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101012/Animations/1101012_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101013/Animations/1101013_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101014/Animations/1101014_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101015/Animations/1101015_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101017/Animations/1101017_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101020/Animations/1101020_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1101022/Animations/1101022_summon_1.playable</t>
+  </si>
+  <si>
+    <t>Map_luoshajiedao_1-3</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3697,11 +3705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5928,7 +5936,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>205</v>
+        <v>900</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>725</v>
@@ -20154,8 +20162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20424,7 +20432,7 @@
         <v>268</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>791</v>
+        <v>882</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>269</v>
@@ -20492,7 +20500,7 @@
         <v>276</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>792</v>
+        <v>883</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>277</v>
@@ -20560,7 +20568,7 @@
         <v>284</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>793</v>
+        <v>884</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>285</v>
@@ -20595,7 +20603,7 @@
         <v>290</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="E7" s="4">
         <v>1.75</v>
@@ -20628,7 +20636,7 @@
         <v>291</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>794</v>
+        <v>885</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>292</v>
@@ -20696,7 +20704,7 @@
         <v>299</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>795</v>
+        <v>886</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>300</v>
@@ -21020,7 +21028,7 @@
         <v>331</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>796</v>
+        <v>887</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>332</v>
@@ -21088,7 +21096,7 @@
         <v>337</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>797</v>
+        <v>888</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>338</v>
@@ -21156,7 +21164,7 @@
         <v>343</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>798</v>
+        <v>889</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>344</v>
@@ -21224,7 +21232,7 @@
         <v>351</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>799</v>
+        <v>890</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>352</v>
@@ -21292,7 +21300,7 @@
         <v>357</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>358</v>
@@ -21360,7 +21368,7 @@
         <v>363</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>801</v>
+        <v>892</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>364</v>
@@ -21428,7 +21436,7 @@
         <v>369</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>802</v>
+        <v>893</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>370</v>
@@ -21496,7 +21504,7 @@
         <v>375</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>803</v>
+        <v>894</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>376</v>
@@ -21564,7 +21572,7 @@
         <v>381</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>382</v>
@@ -21599,7 +21607,7 @@
         <v>386</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>387</v>
+        <v>881</v>
       </c>
       <c r="E22" s="4">
         <v>1.7</v>
@@ -21632,7 +21640,7 @@
         <v>387</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>805</v>
+        <v>896</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>388</v>
@@ -21700,7 +21708,7 @@
         <v>393</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>806</v>
+        <v>897</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>394</v>
@@ -21768,7 +21776,7 @@
         <v>399</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>807</v>
+        <v>898</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>400</v>
@@ -21836,7 +21844,7 @@
         <v>405</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>808</v>
+        <v>899</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>406</v>
@@ -22127,7 +22135,7 @@
         <v>431</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="E30" s="4">
         <v>1.7</v>
@@ -23655,7 +23663,7 @@
         <v>783</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="E55" s="4">
         <v>1.05</v>
@@ -23719,8 +23727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J67" sqref="A67:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23742,10 +23750,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>720</v>
@@ -23780,10 +23788,10 @@
         <v>111</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>721</v>
@@ -23818,10 +23826,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>722</v>
@@ -23861,7 +23869,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D4" s="31">
         <v>2</v>
@@ -23883,7 +23891,7 @@
         <v/>
       </c>
       <c r="J4" s="29" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="K4" s="29" t="str">
         <f t="shared" ref="K4:K9" si="1">IF(F4=0,"","Art/Roles/rol_"&amp;A4&amp;"/Animations/"&amp;A4&amp;"_exskill_"&amp;IF(D4=2,1,RIGHT(LEFT(G4,4),1))&amp;"_3.playable")</f>
@@ -23902,7 +23910,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D5" s="31">
         <v>2</v>
@@ -23924,7 +23932,7 @@
         <v/>
       </c>
       <c r="J5" s="29" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="K5" s="29" t="str">
         <f t="shared" si="1"/>
@@ -23943,7 +23951,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D6" s="31">
         <v>2</v>
@@ -23965,7 +23973,7 @@
         <v/>
       </c>
       <c r="J6" s="29" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="K6" s="29" t="str">
         <f t="shared" si="1"/>
@@ -23984,7 +23992,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D7" s="31">
         <v>2</v>
@@ -24006,7 +24014,7 @@
         <v/>
       </c>
       <c r="J7" s="29" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="K7" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24025,7 +24033,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D8" s="31">
         <v>2</v>
@@ -24047,7 +24055,7 @@
         <v/>
       </c>
       <c r="J8" s="29" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="K8" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24066,7 +24074,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D9" s="31">
         <v>2</v>
@@ -24088,7 +24096,7 @@
         <v/>
       </c>
       <c r="J9" s="29" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="K9" s="29" t="str">
         <f t="shared" si="1"/>
@@ -24107,7 +24115,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D10" s="31">
         <v>2</v>
@@ -24125,13 +24133,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="L10" s="29">
         <v>1</v>
@@ -24146,7 +24154,7 @@
         <v>黑尔</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D11" s="31">
         <v>2</v>
@@ -24168,7 +24176,7 @@
         <v/>
       </c>
       <c r="J11" s="29" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="K11" s="29" t="str">
         <f>IF(F11=0,"","Art/Roles/rol_"&amp;A11&amp;"/Animations/"&amp;A11&amp;"_exskill_"&amp;IF(D11=2,1,RIGHT(LEFT(G11,4),1))&amp;"_3.playable")</f>
@@ -24187,7 +24195,7 @@
         <v>北落师门</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D12" s="31">
         <v>2</v>
@@ -24209,7 +24217,7 @@
         <v/>
       </c>
       <c r="J12" s="29" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="K12" s="29" t="str">
         <f>IF(F12=0,"","Art/Roles/rol_"&amp;A12&amp;"/Animations/"&amp;A12&amp;"_exskill_"&amp;IF(D12=2,1,RIGHT(LEFT(G12,4),1))&amp;"_3.playable")</f>
@@ -24228,7 +24236,7 @@
         <v>盖文</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D13" s="31">
         <v>2</v>
@@ -24246,13 +24254,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="L13" s="29">
         <v>1</v>
@@ -24267,7 +24275,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D14" s="31">
         <v>2</v>
@@ -24285,13 +24293,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="L14" s="29">
         <v>1</v>
@@ -24306,7 +24314,7 @@
         <v>南御夫</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D15" s="31">
         <v>2</v>
@@ -24328,7 +24336,7 @@
         <v/>
       </c>
       <c r="J15" s="29" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="K15" s="29" t="str">
         <f>IF(F15=0,"","Art/Roles/rol_"&amp;A15&amp;"/Animations/"&amp;A15&amp;"_exskill_"&amp;IF(D15=2,1,RIGHT(LEFT(G15,4),1))&amp;"_3.playable")</f>
@@ -24347,7 +24355,7 @@
         <v>吉拉</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D16" s="31">
         <v>2</v>
@@ -24369,7 +24377,7 @@
         <v/>
       </c>
       <c r="J16" s="29" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="K16" s="29" t="str">
         <f>IF(F16=0,"","Art/Roles/rol_"&amp;A16&amp;"/Animations/"&amp;A16&amp;"_exskill_"&amp;IF(D16=2,1,RIGHT(LEFT(G16,4),1))&amp;"_3.playable")</f>
@@ -24388,7 +24396,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D17" s="31">
         <v>2</v>
@@ -24410,7 +24418,7 @@
         <v/>
       </c>
       <c r="J17" s="29" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="K17" s="29" t="str">
         <f>IF(F17=0,"","Art/Roles/rol_"&amp;A17&amp;"/Animations/"&amp;A17&amp;"_exskill_"&amp;IF(D17=2,1,RIGHT(LEFT(G17,4),1))&amp;"_3.playable")</f>
@@ -24429,7 +24437,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D18" s="31">
         <v>2</v>
@@ -24447,13 +24455,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="L18" s="29">
         <v>1</v>
@@ -24468,7 +24476,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D19" s="31">
         <v>2</v>
@@ -24486,13 +24494,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="L19" s="29">
         <v>1</v>
@@ -24507,7 +24515,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D20" s="31">
         <v>2</v>
@@ -24525,13 +24533,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="L20" s="29">
         <v>1</v>
@@ -24546,7 +24554,7 @@
         <v>幻</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D21" s="31">
         <v>2</v>
@@ -24568,7 +24576,7 @@
         <v/>
       </c>
       <c r="J21" s="29" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="K21" s="29" t="str">
         <f>IF(F21=0,"","Art/Roles/rol_"&amp;A21&amp;"/Animations/"&amp;A21&amp;"_exskill_"&amp;IF(D21=2,1,RIGHT(LEFT(G21,4),1))&amp;"_3.playable")</f>
@@ -24587,7 +24595,7 @@
         <v>关羽</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D22" s="31">
         <v>2</v>
@@ -24605,13 +24613,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="L22" s="29">
         <v>1</v>
@@ -24626,7 +24634,7 @@
         <v>许褚</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D23" s="31">
         <v>2</v>
@@ -24648,7 +24656,7 @@
         <v/>
       </c>
       <c r="J23" s="29" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="K23" s="29" t="str">
         <f>IF(F23=0,"","Art/Roles/rol_"&amp;A23&amp;"/Animations/"&amp;A23&amp;"_exskill_"&amp;IF(D23=2,1,RIGHT(LEFT(G23,4),1))&amp;"_3.playable")</f>
@@ -24667,7 +24675,7 @@
         <v>典韦</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D24" s="31">
         <v>2</v>
@@ -24685,13 +24693,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="L24" s="29">
         <v>1</v>
@@ -24706,7 +24714,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D25" s="31">
         <v>2</v>
@@ -24728,7 +24736,7 @@
         <v/>
       </c>
       <c r="J25" s="29" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="K25" s="29" t="str">
         <f>IF(F25=0,"","Art/Roles/rol_"&amp;A25&amp;"/Animations/"&amp;A25&amp;"_exskill_"&amp;IF(D25=2,1,RIGHT(LEFT(G25,4),1))&amp;"_3.playable")</f>
@@ -24747,7 +24755,7 @@
         <v>李轩辕</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D26" s="31">
         <v>2</v>
@@ -24769,7 +24777,7 @@
         <v/>
       </c>
       <c r="J26" s="29" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="K26" s="29" t="str">
         <f>IF(F26=0,"","Art/Roles/rol_"&amp;A26&amp;"/Animations/"&amp;A26&amp;"_exskill_"&amp;IF(D26=2,1,RIGHT(LEFT(G26,4),1))&amp;"_3.playable")</f>
@@ -24788,7 +24796,7 @@
         <v>项羽</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D27" s="31">
         <v>2</v>
@@ -24810,7 +24818,7 @@
         <v/>
       </c>
       <c r="J27" s="29" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="K27" s="29" t="str">
         <f>IF(F27=0,"","Art/Roles/rol_"&amp;A27&amp;"/Animations/"&amp;A27&amp;"_exskill_"&amp;IF(D27=2,1,RIGHT(LEFT(G27,4),1))&amp;"_3.playable")</f>
@@ -24829,7 +24837,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D28" s="31">
         <v>2</v>
@@ -24851,7 +24859,7 @@
         <v/>
       </c>
       <c r="J28" s="29" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="K28" s="29" t="str">
         <f>IF(F28=0,"","Art/Roles/rol_"&amp;A28&amp;"/Animations/"&amp;A28&amp;"_exskill_"&amp;IF(D28=2,1,RIGHT(LEFT(G28,4),1))&amp;"_3.playable")</f>
@@ -24870,7 +24878,7 @@
         <v>夏侯渊</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D29" s="31">
         <v>2</v>
@@ -24892,7 +24900,7 @@
         <v/>
       </c>
       <c r="J29" s="29" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="K29" s="29" t="str">
         <f>IF(F29=0,"","Art/Roles/rol_"&amp;A29&amp;"/Animations/"&amp;A29&amp;"_exskill_"&amp;IF(D29=2,1,RIGHT(LEFT(G29,4),1))&amp;"_3.playable")</f>
@@ -24911,7 +24919,7 @@
         <v>徐晃</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D30" s="31">
         <v>2</v>
@@ -24929,13 +24937,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="L30" s="29">
         <v>1</v>
@@ -24950,7 +24958,7 @@
         <v>张郃</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D31" s="31">
         <v>2</v>
@@ -24972,7 +24980,7 @@
         <v/>
       </c>
       <c r="J31" s="29" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="K31" s="29" t="str">
         <f>IF(F31=0,"","Art/Roles/rol_"&amp;A31&amp;"/Animations/"&amp;A31&amp;"_exskill_"&amp;IF(D31=2,1,RIGHT(LEFT(G31,4),1))&amp;"_3.playable")</f>
@@ -24991,7 +24999,7 @@
         <v>张飞</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D32" s="31">
         <v>2</v>
@@ -25009,13 +25017,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="L32" s="29">
         <v>1</v>
@@ -25030,7 +25038,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D33" s="31">
         <v>2</v>
@@ -25052,7 +25060,7 @@
         <v/>
       </c>
       <c r="J33" s="29" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="K33" s="29" t="str">
         <f>IF(F33=0,"","Art/Roles/rol_"&amp;A33&amp;"/Animations/"&amp;A33&amp;"_exskill_"&amp;IF(D33=2,1,RIGHT(LEFT(G33,4),1))&amp;"_3.playable")</f>
@@ -25071,7 +25079,7 @@
         <v>塞伯洛斯</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D34" s="31">
         <v>2</v>
@@ -25089,13 +25097,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="L34" s="29">
         <v>1</v>
@@ -25110,7 +25118,7 @@
         <v>石灵明</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D35" s="31">
         <v>2</v>
@@ -25128,13 +25136,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="L35" s="29">
         <v>1</v>
@@ -25149,7 +25157,7 @@
         <v>于禁</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D36" s="31">
         <v>2</v>
@@ -25171,7 +25179,7 @@
         <v/>
       </c>
       <c r="J36" s="29" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="K36" s="29" t="str">
         <f t="shared" ref="K36:K63" si="3">IF(F36=0,"","Art/Roles/rol_"&amp;A36&amp;"/Animations/"&amp;A36&amp;"_exskill_"&amp;IF(D36=2,1,RIGHT(LEFT(G36,4),1))&amp;"_3.playable")</f>
@@ -25190,7 +25198,7 @@
         <v>西方龙</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D37" s="31">
         <v>2</v>
@@ -25212,7 +25220,7 @@
         <v/>
       </c>
       <c r="J37" s="29" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="K37" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25231,7 +25239,7 @@
         <v>飞廉</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D38" s="31">
         <v>2</v>
@@ -25253,7 +25261,7 @@
         <v/>
       </c>
       <c r="J38" s="29" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="K38" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25272,7 +25280,7 @@
         <v>噬日</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D39" s="31">
         <v>2</v>
@@ -25294,7 +25302,7 @@
         <v/>
       </c>
       <c r="J39" s="29" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="K39" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25313,7 +25321,7 @@
         <v>食火蜥</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D40" s="31">
         <v>2</v>
@@ -25335,7 +25343,7 @@
         <v/>
       </c>
       <c r="J40" s="29" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="K40" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25354,7 +25362,7 @@
         <v>高顺</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D41" s="31">
         <v>2</v>
@@ -25376,7 +25384,7 @@
         <v/>
       </c>
       <c r="J41" s="29" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="K41" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25395,7 +25403,7 @@
         <v>烈风螳螂</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D42" s="31">
         <v>2</v>
@@ -25417,7 +25425,7 @@
         <v/>
       </c>
       <c r="J42" s="29" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="K42" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25436,7 +25444,7 @@
         <v>燕青</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D43" s="31">
         <v>2</v>
@@ -25458,7 +25466,7 @@
         <v/>
       </c>
       <c r="J43" s="29" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="K43" s="29" t="str">
         <f t="shared" si="3"/>
@@ -25477,7 +25485,7 @@
         <v>关羽</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D44" s="29">
         <f t="shared" ref="D44:D61" si="4">IF(RIGHT(LEFT(A44,4),1)*1=2,2,1)</f>
@@ -25496,13 +25504,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="L44" s="29">
         <v>1</v>
@@ -25517,7 +25525,7 @@
         <v>关羽</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D45" s="29">
         <f t="shared" si="4"/>
@@ -25536,13 +25544,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="J45" s="29" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="L45" s="29">
         <v>1</v>
@@ -25557,7 +25565,7 @@
         <v>关羽</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D46" s="29">
         <f t="shared" si="4"/>
@@ -25576,13 +25584,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="L46" s="29">
         <v>1</v>
@@ -25597,7 +25605,7 @@
         <v>许褚</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D47" s="29">
         <f t="shared" si="4"/>
@@ -25640,7 +25648,7 @@
         <v>许褚</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D48" s="29">
         <f t="shared" si="4"/>
@@ -25683,7 +25691,7 @@
         <v>许褚</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D49" s="29">
         <f t="shared" si="4"/>
@@ -25726,7 +25734,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D50" s="29">
         <f t="shared" si="4"/>
@@ -25769,7 +25777,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D51" s="29">
         <f t="shared" si="4"/>
@@ -25812,7 +25820,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D52" s="29">
         <f t="shared" si="4"/>
@@ -25855,7 +25863,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D53" s="29">
         <f t="shared" si="4"/>
@@ -25898,7 +25906,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D54" s="29">
         <f t="shared" si="4"/>
@@ -25941,7 +25949,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D55" s="29">
         <f t="shared" si="4"/>
@@ -25984,7 +25992,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D56" s="29">
         <f t="shared" si="4"/>
@@ -26027,7 +26035,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D57" s="29">
         <f t="shared" si="4"/>
@@ -26070,7 +26078,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="4"/>
@@ -26113,7 +26121,7 @@
         <v>石灵明</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D59" s="29">
         <f t="shared" si="4"/>
@@ -26132,13 +26140,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="L59" s="29">
         <v>1</v>
@@ -26153,7 +26161,7 @@
         <v>石灵明</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D60" s="29">
         <f t="shared" si="4"/>
@@ -26172,13 +26180,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="29" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="J60" s="29" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="L60" s="29">
         <v>1</v>
@@ -26193,7 +26201,7 @@
         <v>石灵明</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D61" s="29">
         <f t="shared" si="4"/>
@@ -26212,13 +26220,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="29" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="J61" s="29" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="L61" s="29">
         <v>1</v>
@@ -26233,7 +26241,7 @@
         <v>燕青</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D62" s="31">
         <v>2</v>
@@ -26255,7 +26263,7 @@
         <v/>
       </c>
       <c r="J62" s="29" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="K62" s="29" t="str">
         <f t="shared" si="3"/>
@@ -26274,7 +26282,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D63" s="29">
         <f>IF(RIGHT(LEFT(A63,4),1)*1=2,2,1)</f>
@@ -26317,7 +26325,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D64" s="29">
         <f t="shared" ref="D64:D109" si="8">IF(RIGHT(LEFT(A64,4),1)*1=2,2,1)</f>
@@ -26360,7 +26368,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="8"/>
@@ -26403,7 +26411,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D66" s="29">
         <f t="shared" si="8"/>
@@ -26446,7 +26454,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D67" s="29">
         <f t="shared" si="8"/>
@@ -26489,7 +26497,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="8"/>
@@ -26532,7 +26540,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D69" s="29">
         <f t="shared" si="8"/>
@@ -26575,7 +26583,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="8"/>
@@ -26618,7 +26626,7 @@
         <v>黑尔</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D71" s="29">
         <f t="shared" si="8"/>
@@ -26661,7 +26669,7 @@
         <v>于禁</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D72" s="29">
         <f t="shared" si="8"/>
@@ -26704,7 +26712,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D73" s="29">
         <f t="shared" si="8"/>
@@ -26747,7 +26755,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D74" s="29">
         <f t="shared" si="8"/>
@@ -26790,7 +26798,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D75" s="29">
         <f t="shared" si="8"/>
@@ -26833,7 +26841,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D76" s="29">
         <f t="shared" si="8"/>
@@ -26876,7 +26884,7 @@
         <v>北落师门</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D77" s="29">
         <f t="shared" si="8"/>
@@ -26919,7 +26927,7 @@
         <v>盖文</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D78" s="29">
         <f t="shared" si="8"/>
@@ -26962,7 +26970,7 @@
         <v>盖文</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D79" s="29">
         <f t="shared" si="8"/>
@@ -27005,7 +27013,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D80" s="29">
         <f t="shared" si="8"/>
@@ -27048,7 +27056,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D81" s="29">
         <f t="shared" si="8"/>
@@ -27091,7 +27099,7 @@
         <v>南御夫</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D82" s="29">
         <f t="shared" si="8"/>
@@ -27134,7 +27142,7 @@
         <v>吉拉</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D83" s="29">
         <f t="shared" si="8"/>
@@ -27177,7 +27185,7 @@
         <v>吉拉</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D84" s="29">
         <f t="shared" si="8"/>
@@ -27220,7 +27228,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D85" s="29">
         <f t="shared" si="8"/>
@@ -27263,7 +27271,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D86" s="29">
         <f t="shared" si="8"/>
@@ -27306,7 +27314,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D87" s="29">
         <f t="shared" si="8"/>
@@ -27349,7 +27357,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D88" s="29">
         <f t="shared" si="8"/>
@@ -27392,7 +27400,7 @@
         <v>典韦</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D89" s="29">
         <f t="shared" si="8"/>
@@ -27435,7 +27443,7 @@
         <v>李轩辕</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D90" s="29">
         <f t="shared" si="8"/>
@@ -27478,7 +27486,7 @@
         <v>项羽</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D91" s="29">
         <f t="shared" si="8"/>
@@ -27521,7 +27529,7 @@
         <v>徐晃</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D92" s="29">
         <f t="shared" si="8"/>
@@ -27564,7 +27572,7 @@
         <v>张郃</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D93" s="29">
         <f t="shared" si="8"/>
@@ -27607,7 +27615,7 @@
         <v>张飞</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D94" s="29">
         <f t="shared" si="8"/>
@@ -27650,7 +27658,7 @@
         <v>塞伯洛斯</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D95" s="29">
         <f t="shared" si="8"/>
@@ -27693,7 +27701,7 @@
         <v>西方龙</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D96" s="29">
         <f t="shared" si="8"/>
@@ -27736,7 +27744,7 @@
         <v>飞廉</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D97" s="29">
         <f t="shared" si="8"/>
@@ -27779,7 +27787,7 @@
         <v>噬日</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D98" s="29">
         <f t="shared" si="8"/>
@@ -27822,7 +27830,7 @@
         <v>食火蜥</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D99" s="29">
         <f t="shared" si="8"/>
@@ -27865,7 +27873,7 @@
         <v>高顺</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D100" s="29">
         <f t="shared" si="8"/>
@@ -27908,7 +27916,7 @@
         <v>高顺</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D101" s="29">
         <f t="shared" si="8"/>
@@ -27951,7 +27959,7 @@
         <v>烈风螳螂</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D102" s="29">
         <f t="shared" si="8"/>
@@ -27994,7 +28002,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D103" s="29">
         <f t="shared" si="8"/>
@@ -28037,7 +28045,7 @@
         <v>诸葛一心</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D104" s="29">
         <f t="shared" si="8"/>
@@ -28080,7 +28088,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D105" s="29">
         <f t="shared" si="8"/>
@@ -28123,7 +28131,7 @@
         <v>姬烟华</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D106" s="29">
         <f t="shared" si="8"/>
@@ -28166,7 +28174,7 @@
         <v>幻</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D107" s="29">
         <f t="shared" si="8"/>
@@ -28209,7 +28217,7 @@
         <v>幻</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D108" s="29">
         <f t="shared" si="8"/>
@@ -28252,7 +28260,7 @@
         <v>砍刀鬼兵</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D109" s="29">
         <f t="shared" si="8"/>
@@ -28295,7 +28303,7 @@
         <v>双刃鬼兵</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D110" s="29">
         <f t="shared" ref="D110:D127" si="12">IF(RIGHT(LEFT(A110,4),1)*1=2,2,1)</f>
@@ -28338,7 +28346,7 @@
         <v>链球鬼兵</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D111" s="29">
         <f t="shared" si="12"/>
@@ -28381,7 +28389,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D112" s="29">
         <f t="shared" si="12"/>
@@ -28424,7 +28432,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D113" s="29">
         <f t="shared" si="12"/>
@@ -28467,7 +28475,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D114" s="29">
         <f t="shared" si="12"/>
@@ -28510,7 +28518,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D115" s="29">
         <f t="shared" si="12"/>
@@ -28553,7 +28561,7 @@
         <v>骷髅小兵1</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D116" s="29">
         <f t="shared" si="12"/>
@@ -28596,7 +28604,7 @@
         <v>骷髅小兵2</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D117" s="29">
         <f t="shared" si="12"/>
@@ -28639,7 +28647,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D118" s="29">
         <f t="shared" si="12"/>
@@ -28682,7 +28690,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D119" s="29">
         <f t="shared" si="12"/>
@@ -28725,7 +28733,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D120" s="29">
         <f t="shared" si="12"/>
@@ -28768,7 +28776,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D121" s="29">
         <f t="shared" si="12"/>
@@ -28811,7 +28819,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D122" s="29">
         <f t="shared" si="12"/>
@@ -28854,7 +28862,7 @@
         <v>小蜘蛛</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D123" s="29">
         <f t="shared" si="12"/>
@@ -28897,7 +28905,7 @@
         <v>魔导机兵团</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D124" s="29">
         <f t="shared" si="12"/>
@@ -28940,7 +28948,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D125" s="29">
         <f t="shared" si="12"/>
@@ -28983,7 +28991,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D126" s="29">
         <f t="shared" si="12"/>
@@ -29026,7 +29034,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="D127" s="29">
         <f t="shared" si="12"/>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49648C9-6693-4451-8725-C8C66E2AAA4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89BEBC3-DA83-41F7-A2E3-59FB38AC6E7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="902">
   <si>
     <t>sheet名</t>
   </si>
@@ -2886,6 +2886,10 @@
   </si>
   <si>
     <t>Map_luoshajiedao_1-3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1302009-1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3705,11 +3709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20162,8 +20166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23725,10 +23729,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J67" sqref="A67:J68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26328,7 +26332,7 @@
         <v>860</v>
       </c>
       <c r="D64" s="29">
-        <f t="shared" ref="D64:D109" si="8">IF(RIGHT(LEFT(A64,4),1)*1=2,2,1)</f>
+        <f t="shared" ref="D64:D110" si="8">IF(RIGHT(LEFT(A64,4),1)*1=2,2,1)</f>
         <v>1</v>
       </c>
       <c r="E64" s="29" t="s">
@@ -26344,15 +26348,15 @@
         <v>1</v>
       </c>
       <c r="I64" s="29" t="str">
-        <f t="shared" ref="I64:I109" si="9">IF(F64=0,"",IF(D64=1,"Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;RIGHT(LEFT(G64,4),1)&amp;"_1.playable","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_skill_2_1.playable"))</f>
+        <f t="shared" ref="I64:I110" si="9">IF(F64=0,"",IF(D64=1,"Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;RIGHT(LEFT(G64,4),1)&amp;"_1.playable","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_skill_2_1.playable"))</f>
         <v/>
       </c>
       <c r="J64" s="29" t="str">
-        <f t="shared" ref="J64:J109" si="10">IF(F64=0,"Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=1,RIGHT(LEFT(G64,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=2,1,RIGHT(LEFT(G64,4),1))&amp;"_2.playable")</f>
+        <f t="shared" ref="J64:J110" si="10">IF(F64=0,"Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=1,RIGHT(LEFT(G64,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=2,1,RIGHT(LEFT(G64,4),1))&amp;"_2.playable")</f>
         <v>Art/Roles/rol_1101001/Animations/1101001_exskill_2.playable</v>
       </c>
       <c r="K64" s="29" t="str">
-        <f t="shared" ref="K64:K109" si="11">IF(F64=0,"","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=2,1,RIGHT(LEFT(G64,4),1))&amp;"_3.playable")</f>
+        <f t="shared" ref="K64:K110" si="11">IF(F64=0,"","Art/Roles/rol_"&amp;A64&amp;"/Animations/"&amp;A64&amp;"_exskill_"&amp;IF(D64=2,1,RIGHT(LEFT(G64,4),1))&amp;"_3.playable")</f>
         <v/>
       </c>
       <c r="L64" s="29">
@@ -26920,49 +26924,49 @@
     </row>
     <row r="78" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="29">
-        <v>1101010</v>
+        <v>1101009</v>
       </c>
       <c r="B78" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A78,战场角色!A:A,0))</f>
-        <v>盖文</v>
+        <v>北落师门</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D78" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D78" si="12">IF(RIGHT(LEFT(A78,4),1)*1=2,2,1)</f>
         <v>1</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" s="29" t="s">
-        <v>578</v>
+        <v>901</v>
       </c>
       <c r="H78" s="12">
         <v>1</v>
       </c>
       <c r="I78" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_1.playable</v>
+        <f t="shared" ref="I78" si="13">IF(F78=0,"",IF(D78=1,"Art/Roles/rol_"&amp;A78&amp;"/Animations/"&amp;A78&amp;"_exskill_"&amp;RIGHT(LEFT(G78,4),1)&amp;"_1.playable","Art/Roles/rol_"&amp;A78&amp;"/Animations/"&amp;A78&amp;"_skill_2_1.playable"))</f>
+        <v/>
       </c>
       <c r="J78" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_2.playable</v>
+        <f t="shared" ref="J78" si="14">IF(F78=0,"Art/Roles/rol_"&amp;A78&amp;"/Animations/"&amp;A78&amp;"_exskill_"&amp;IF(D78=1,RIGHT(LEFT(G78,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A78&amp;"/Animations/"&amp;A78&amp;"_exskill_"&amp;IF(D78=2,1,RIGHT(LEFT(G78,4),1))&amp;"_2.playable")</f>
+        <v>Art/Roles/rol_1101009/Animations/1101009_exskill_2.playable</v>
       </c>
       <c r="K78" s="29" t="str">
-        <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_3.playable</v>
+        <f t="shared" ref="K78" si="15">IF(F78=0,"","Art/Roles/rol_"&amp;A78&amp;"/Animations/"&amp;A78&amp;"_exskill_"&amp;IF(D78=2,1,RIGHT(LEFT(G78,4),1))&amp;"_3.playable")</f>
+        <v/>
       </c>
       <c r="L78" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+      <c r="A79" s="29">
         <v>1101010</v>
       </c>
       <c r="B79" s="29" t="str">
@@ -26976,41 +26980,41 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="12">
-        <v>1</v>
-      </c>
-      <c r="G79" s="12" t="s">
-        <v>579</v>
+      <c r="F79" s="29">
+        <v>1</v>
+      </c>
+      <c r="G79" s="29" t="s">
+        <v>578</v>
       </c>
       <c r="H79" s="12">
         <v>1</v>
       </c>
       <c r="I79" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_1.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_1.playable</v>
       </c>
       <c r="J79" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_2.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_2.playable</v>
       </c>
       <c r="K79" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_3.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_1_3.playable</v>
       </c>
       <c r="L79" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="29">
-        <v>1101011</v>
+      <c r="A80" s="12">
+        <v>1101010</v>
       </c>
       <c r="B80" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A80,战场角色!A:A,0))</f>
-        <v>阎风吒</v>
+        <v>盖文</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>860</v>
@@ -27019,29 +27023,29 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="29">
-        <v>1</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>580</v>
+      <c r="F80" s="12">
+        <v>1</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>579</v>
       </c>
       <c r="H80" s="12">
         <v>1</v>
       </c>
       <c r="I80" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_1.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_1.playable</v>
       </c>
       <c r="J80" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_2.playable</v>
       </c>
       <c r="K80" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_3.playable</v>
+        <v>Art/Roles/rol_1101010/Animations/1101010_exskill_2_3.playable</v>
       </c>
       <c r="L80" s="29">
         <v>1</v>
@@ -27069,22 +27073,22 @@
         <v>1</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H81" s="12">
         <v>1</v>
       </c>
       <c r="I81" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_1.playable</v>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_1.playable</v>
       </c>
       <c r="J81" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_2.playable</v>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_2.playable</v>
       </c>
       <c r="K81" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_3.playable</v>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_1_3.playable</v>
       </c>
       <c r="L81" s="29">
         <v>1</v>
@@ -27092,11 +27096,11 @@
     </row>
     <row r="82" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="29">
-        <v>1101012</v>
+        <v>1101011</v>
       </c>
       <c r="B82" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A82,战场角色!A:A,0))</f>
-        <v>南御夫</v>
+        <v>阎风吒</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>860</v>
@@ -27109,25 +27113,25 @@
         <v>13</v>
       </c>
       <c r="F82" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="29" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H82" s="12">
         <v>1</v>
       </c>
       <c r="I82" s="29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_1.playable</v>
       </c>
       <c r="J82" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101012/Animations/1101012_exskill_1.playable</v>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_2.playable</v>
       </c>
       <c r="K82" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Art/Roles/rol_1101011/Animations/1101011_exskill_2_3.playable</v>
       </c>
       <c r="L82" s="29">
         <v>1</v>
@@ -27135,11 +27139,11 @@
     </row>
     <row r="83" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="29">
-        <v>1101013</v>
+        <v>1101012</v>
       </c>
       <c r="B83" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A83,战场角色!A:A,0))</f>
-        <v>吉拉</v>
+        <v>南御夫</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>860</v>
@@ -27155,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H83" s="12">
         <v>1</v>
@@ -27166,7 +27170,7 @@
       </c>
       <c r="J83" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101013/Animations/1101013_exskill_1.playable</v>
+        <v>Art/Roles/rol_1101012/Animations/1101012_exskill_1.playable</v>
       </c>
       <c r="K83" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27198,7 +27202,7 @@
         <v>0</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H84" s="12">
         <v>1</v>
@@ -27209,7 +27213,7 @@
       </c>
       <c r="J84" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101013/Animations/1101013_exskill_2.playable</v>
+        <v>Art/Roles/rol_1101013/Animations/1101013_exskill_1.playable</v>
       </c>
       <c r="K84" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27221,11 +27225,11 @@
     </row>
     <row r="85" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="29">
-        <v>1101014</v>
+        <v>1101013</v>
       </c>
       <c r="B85" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A85,战场角色!A:A,0))</f>
-        <v>吕仙宫</v>
+        <v>吉拉</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>860</v>
@@ -27241,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H85" s="12">
         <v>1</v>
@@ -27252,7 +27256,7 @@
       </c>
       <c r="J85" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101014/Animations/1101014_exskill_1.playable</v>
+        <v>Art/Roles/rol_1101013/Animations/1101013_exskill_2.playable</v>
       </c>
       <c r="K85" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27284,7 +27288,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H86" s="12">
         <v>1</v>
@@ -27295,7 +27299,7 @@
       </c>
       <c r="J86" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101014/Animations/1101014_exskill_2.playable</v>
+        <v>Art/Roles/rol_1101014/Animations/1101014_exskill_1.playable</v>
       </c>
       <c r="K86" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27307,11 +27311,11 @@
     </row>
     <row r="87" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="29">
-        <v>1101015</v>
+        <v>1101014</v>
       </c>
       <c r="B87" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A87,战场角色!A:A,0))</f>
-        <v>阎巧巧</v>
+        <v>吕仙宫</v>
       </c>
       <c r="C87" s="29" t="s">
         <v>860</v>
@@ -27324,32 +27328,32 @@
         <v>13</v>
       </c>
       <c r="F87" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H87" s="12">
         <v>1</v>
       </c>
       <c r="I87" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_1.playable</v>
+        <v/>
       </c>
       <c r="J87" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1101014/Animations/1101014_exskill_2.playable</v>
       </c>
       <c r="K87" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_3.playable</v>
+        <v/>
       </c>
       <c r="L87" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
+      <c r="A88" s="29">
         <v>1101015</v>
       </c>
       <c r="B88" s="29" t="str">
@@ -27363,72 +27367,72 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="12">
-        <v>1</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>588</v>
+      <c r="F88" s="29">
+        <v>1</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>587</v>
       </c>
       <c r="H88" s="12">
         <v>1</v>
       </c>
       <c r="I88" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_1.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_1.playable</v>
       </c>
       <c r="J88" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_2.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_2.playable</v>
       </c>
       <c r="K88" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_3.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_1_3.playable</v>
       </c>
       <c r="L88" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="29">
-        <v>1102003</v>
+      <c r="A89" s="12">
+        <v>1101015</v>
       </c>
       <c r="B89" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A89,战场角色!A:A,0))</f>
-        <v>典韦</v>
+        <v>阎巧巧</v>
       </c>
       <c r="C89" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D89" s="29">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="E89" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="29">
-        <v>1</v>
-      </c>
-      <c r="G89" s="29" t="s">
-        <v>589</v>
+      <c r="F89" s="12">
+        <v>1</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>588</v>
       </c>
       <c r="H89" s="12">
         <v>1</v>
       </c>
       <c r="I89" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1102003/Animations/1102003_skill_2_1.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_1.playable</v>
       </c>
       <c r="J89" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102003/Animations/1102003_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_2.playable</v>
       </c>
       <c r="K89" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1102003/Animations/1102003_exskill_1_3.playable</v>
+        <v>Art/Roles/rol_1101015/Animations/1101015_exskill_2_3.playable</v>
       </c>
       <c r="L89" s="29">
         <v>1</v>
@@ -27436,11 +27440,11 @@
     </row>
     <row r="90" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="29">
-        <v>1102005</v>
+        <v>1102003</v>
       </c>
       <c r="B90" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A90,战场角色!A:A,0))</f>
-        <v>李轩辕</v>
+        <v>典韦</v>
       </c>
       <c r="C90" s="29" t="s">
         <v>860</v>
@@ -27453,25 +27457,25 @@
         <v>13</v>
       </c>
       <c r="F90" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H90" s="12">
         <v>1</v>
       </c>
       <c r="I90" s="29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Art/Roles/rol_1102003/Animations/1102003_skill_2_1.playable</v>
       </c>
       <c r="J90" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102005/Animations/1102005_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102003/Animations/1102003_exskill_1_2.playable</v>
       </c>
       <c r="K90" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Art/Roles/rol_1102003/Animations/1102003_exskill_1_3.playable</v>
       </c>
       <c r="L90" s="29">
         <v>1</v>
@@ -27479,11 +27483,11 @@
     </row>
     <row r="91" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="29">
-        <v>1102006</v>
+        <v>1102005</v>
       </c>
       <c r="B91" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A91,战场角色!A:A,0))</f>
-        <v>项羽</v>
+        <v>李轩辕</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>860</v>
@@ -27499,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H91" s="12">
         <v>1</v>
@@ -27510,7 +27514,7 @@
       </c>
       <c r="J91" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102006/Animations/1102006_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102005/Animations/1102005_exskill_1.playable</v>
       </c>
       <c r="K91" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27522,11 +27526,11 @@
     </row>
     <row r="92" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="29">
-        <v>1102009</v>
+        <v>1102006</v>
       </c>
       <c r="B92" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A92,战场角色!A:A,0))</f>
-        <v>徐晃</v>
+        <v>项羽</v>
       </c>
       <c r="C92" s="29" t="s">
         <v>860</v>
@@ -27539,25 +27543,25 @@
         <v>13</v>
       </c>
       <c r="F92" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="29" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H92" s="12">
         <v>1</v>
       </c>
       <c r="I92" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1102009/Animations/1102009_skill_2_1.playable</v>
+        <v/>
       </c>
       <c r="J92" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102009/Animations/1102009_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1102006/Animations/1102006_exskill_1.playable</v>
       </c>
       <c r="K92" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1102009/Animations/1102009_exskill_1_3.playable</v>
+        <v/>
       </c>
       <c r="L92" s="29">
         <v>1</v>
@@ -27565,11 +27569,11 @@
     </row>
     <row r="93" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="29">
-        <v>1102010</v>
+        <v>1102009</v>
       </c>
       <c r="B93" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A93,战场角色!A:A,0))</f>
-        <v>张郃</v>
+        <v>徐晃</v>
       </c>
       <c r="C93" s="29" t="s">
         <v>860</v>
@@ -27582,25 +27586,25 @@
         <v>13</v>
       </c>
       <c r="F93" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H93" s="12">
         <v>1</v>
       </c>
       <c r="I93" s="29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Art/Roles/rol_1102009/Animations/1102009_skill_2_1.playable</v>
       </c>
       <c r="J93" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102010/Animations/1102010_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102009/Animations/1102009_exskill_1_2.playable</v>
       </c>
       <c r="K93" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Art/Roles/rol_1102009/Animations/1102009_exskill_1_3.playable</v>
       </c>
       <c r="L93" s="29">
         <v>1</v>
@@ -27608,11 +27612,11 @@
     </row>
     <row r="94" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="29">
-        <v>1102011</v>
+        <v>1102010</v>
       </c>
       <c r="B94" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A94,战场角色!A:A,0))</f>
-        <v>张飞</v>
+        <v>张郃</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>860</v>
@@ -27625,25 +27629,25 @@
         <v>13</v>
       </c>
       <c r="F94" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H94" s="12">
         <v>1</v>
       </c>
       <c r="I94" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1102011/Animations/1102011_skill_2_1.playable</v>
+        <v/>
       </c>
       <c r="J94" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102011/Animations/1102011_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1102010/Animations/1102010_exskill_1.playable</v>
       </c>
       <c r="K94" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1102011/Animations/1102011_exskill_1_3.playable</v>
+        <v/>
       </c>
       <c r="L94" s="29">
         <v>1</v>
@@ -27651,11 +27655,11 @@
     </row>
     <row r="95" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="29">
-        <v>1102013</v>
+        <v>1102011</v>
       </c>
       <c r="B95" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A95,战场角色!A:A,0))</f>
-        <v>塞伯洛斯</v>
+        <v>张飞</v>
       </c>
       <c r="C95" s="29" t="s">
         <v>860</v>
@@ -27671,22 +27675,22 @@
         <v>1</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H95" s="12">
         <v>1</v>
       </c>
       <c r="I95" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1102013/Animations/1102013_skill_2_1.playable</v>
+        <v>Art/Roles/rol_1102011/Animations/1102011_skill_2_1.playable</v>
       </c>
       <c r="J95" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102013/Animations/1102013_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1102011/Animations/1102011_exskill_1_2.playable</v>
       </c>
       <c r="K95" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1102013/Animations/1102013_exskill_1_3.playable</v>
+        <v>Art/Roles/rol_1102011/Animations/1102011_exskill_1_3.playable</v>
       </c>
       <c r="L95" s="29">
         <v>1</v>
@@ -27694,11 +27698,11 @@
     </row>
     <row r="96" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="29">
-        <v>1102016</v>
+        <v>1102013</v>
       </c>
       <c r="B96" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A96,战场角色!A:A,0))</f>
-        <v>西方龙</v>
+        <v>塞伯洛斯</v>
       </c>
       <c r="C96" s="29" t="s">
         <v>860</v>
@@ -27711,25 +27715,25 @@
         <v>13</v>
       </c>
       <c r="F96" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H96" s="12">
         <v>1</v>
       </c>
       <c r="I96" s="29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Art/Roles/rol_1102013/Animations/1102013_skill_2_1.playable</v>
       </c>
       <c r="J96" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102016/Animations/1102016_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102013/Animations/1102013_exskill_1_2.playable</v>
       </c>
       <c r="K96" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Art/Roles/rol_1102013/Animations/1102013_exskill_1_3.playable</v>
       </c>
       <c r="L96" s="29">
         <v>1</v>
@@ -27737,11 +27741,11 @@
     </row>
     <row r="97" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
-        <v>1102017</v>
+        <v>1102016</v>
       </c>
       <c r="B97" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A97,战场角色!A:A,0))</f>
-        <v>飞廉</v>
+        <v>西方龙</v>
       </c>
       <c r="C97" s="29" t="s">
         <v>860</v>
@@ -27757,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H97" s="12">
         <v>1</v>
@@ -27768,7 +27772,7 @@
       </c>
       <c r="J97" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102017/Animations/1102017_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102016/Animations/1102016_exskill_1.playable</v>
       </c>
       <c r="K97" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27780,11 +27784,11 @@
     </row>
     <row r="98" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
-        <v>1102018</v>
+        <v>1102017</v>
       </c>
       <c r="B98" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A98,战场角色!A:A,0))</f>
-        <v>噬日</v>
+        <v>飞廉</v>
       </c>
       <c r="C98" s="29" t="s">
         <v>860</v>
@@ -27800,7 +27804,7 @@
         <v>0</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H98" s="12">
         <v>1</v>
@@ -27811,7 +27815,7 @@
       </c>
       <c r="J98" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102018/Animations/1102018_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102017/Animations/1102017_exskill_1.playable</v>
       </c>
       <c r="K98" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27823,11 +27827,11 @@
     </row>
     <row r="99" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
-        <v>1102019</v>
+        <v>1102018</v>
       </c>
       <c r="B99" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A99,战场角色!A:A,0))</f>
-        <v>食火蜥</v>
+        <v>噬日</v>
       </c>
       <c r="C99" s="29" t="s">
         <v>860</v>
@@ -27843,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H99" s="12">
         <v>1</v>
@@ -27854,7 +27858,7 @@
       </c>
       <c r="J99" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102019/Animations/1102019_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102018/Animations/1102018_exskill_1.playable</v>
       </c>
       <c r="K99" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27866,11 +27870,11 @@
     </row>
     <row r="100" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
-        <v>1102020</v>
+        <v>1102019</v>
       </c>
       <c r="B100" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A100,战场角色!A:A,0))</f>
-        <v>高顺</v>
+        <v>食火蜥</v>
       </c>
       <c r="C100" s="29" t="s">
         <v>860</v>
@@ -27886,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H100" s="12">
         <v>1</v>
@@ -27897,7 +27901,7 @@
       </c>
       <c r="J100" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102020/Animations/1102020_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102019/Animations/1102019_exskill_1.playable</v>
       </c>
       <c r="K100" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27929,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H101" s="12">
         <v>1</v>
@@ -27952,11 +27956,11 @@
     </row>
     <row r="102" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
-        <v>1102021</v>
+        <v>1102020</v>
       </c>
       <c r="B102" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A102,战场角色!A:A,0))</f>
-        <v>烈风螳螂</v>
+        <v>高顺</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>860</v>
@@ -27972,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H102" s="12">
         <v>1</v>
@@ -27983,7 +27987,7 @@
       </c>
       <c r="J102" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1102021/Animations/1102021_exskill_1.playable</v>
+        <v>Art/Roles/rol_1102020/Animations/1102020_exskill_1.playable</v>
       </c>
       <c r="K102" s="29" t="str">
         <f t="shared" si="11"/>
@@ -27995,42 +27999,42 @@
     </row>
     <row r="103" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
-        <v>1101017</v>
+        <v>1102021</v>
       </c>
       <c r="B103" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A103,战场角色!A:A,0))</f>
-        <v>诸葛一心</v>
+        <v>烈风螳螂</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D103" s="29">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F103" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H103" s="12">
         <v>1</v>
       </c>
       <c r="I103" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_1.playable</v>
+        <v/>
       </c>
       <c r="J103" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1102021/Animations/1102021_exskill_1.playable</v>
       </c>
       <c r="K103" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_3.playable</v>
+        <v/>
       </c>
       <c r="L103" s="29">
         <v>1</v>
@@ -28058,22 +28062,22 @@
         <v>1</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H104" s="12">
         <v>1</v>
       </c>
       <c r="I104" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_1.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_1.playable</v>
       </c>
       <c r="J104" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_2.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_2.playable</v>
       </c>
       <c r="K104" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_3.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_1_3.playable</v>
       </c>
       <c r="L104" s="29">
         <v>1</v>
@@ -28081,11 +28085,11 @@
     </row>
     <row r="105" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
-        <v>1101020</v>
+        <v>1101017</v>
       </c>
       <c r="B105" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A105,战场角色!A:A,0))</f>
-        <v>姬烟华</v>
+        <v>诸葛一心</v>
       </c>
       <c r="C105" s="29" t="s">
         <v>860</v>
@@ -28101,22 +28105,22 @@
         <v>1</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H105" s="12">
         <v>1</v>
       </c>
       <c r="I105" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_1.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_1.playable</v>
       </c>
       <c r="J105" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_2.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_2.playable</v>
       </c>
       <c r="K105" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_3.playable</v>
+        <v>Art/Roles/rol_1101017/Animations/1101017_exskill_2_3.playable</v>
       </c>
       <c r="L105" s="29">
         <v>1</v>
@@ -28144,22 +28148,22 @@
         <v>1</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H106" s="12">
         <v>1</v>
       </c>
       <c r="I106" s="29" t="str">
         <f t="shared" si="9"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_1.playable</v>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_1.playable</v>
       </c>
       <c r="J106" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_2.playable</v>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_2.playable</v>
       </c>
       <c r="K106" s="29" t="str">
         <f t="shared" si="11"/>
-        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_3.playable</v>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_1_3.playable</v>
       </c>
       <c r="L106" s="29">
         <v>1</v>
@@ -28167,11 +28171,11 @@
     </row>
     <row r="107" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
-        <v>1101022</v>
+        <v>1101020</v>
       </c>
       <c r="B107" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A107,战场角色!A:A,0))</f>
-        <v>幻</v>
+        <v>姬烟华</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>860</v>
@@ -28184,25 +28188,25 @@
         <v>13</v>
       </c>
       <c r="F107" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H107" s="12">
         <v>1</v>
       </c>
       <c r="I107" s="29" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_1.playable</v>
       </c>
       <c r="J107" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101022/Animations/1101022_exskill_1.playable</v>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_2.playable</v>
       </c>
       <c r="K107" s="29" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>Art/Roles/rol_1101020/Animations/1101020_exskill_2_3.playable</v>
       </c>
       <c r="L107" s="29">
         <v>1</v>
@@ -28230,7 +28234,7 @@
         <v>0</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H108" s="12">
         <v>1</v>
@@ -28241,7 +28245,7 @@
       </c>
       <c r="J108" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1101022/Animations/1101022_exskill_2.playable</v>
+        <v>Art/Roles/rol_1101022/Animations/1101022_exskill_1.playable</v>
       </c>
       <c r="K108" s="29" t="str">
         <f t="shared" si="11"/>
@@ -28253,11 +28257,11 @@
     </row>
     <row r="109" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
-        <v>1201001</v>
+        <v>1101022</v>
       </c>
       <c r="B109" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A109,战场角色!A:A,0))</f>
-        <v>砍刀鬼兵</v>
+        <v>幻</v>
       </c>
       <c r="C109" s="29" t="s">
         <v>860</v>
@@ -28273,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H109" s="12">
         <v>1</v>
@@ -28284,7 +28288,7 @@
       </c>
       <c r="J109" s="29" t="str">
         <f t="shared" si="10"/>
-        <v>Art/Roles/rol_1201001/Animations/1201001_exskill_1.playable</v>
+        <v>Art/Roles/rol_1101022/Animations/1101022_exskill_2.playable</v>
       </c>
       <c r="K109" s="29" t="str">
         <f t="shared" si="11"/>
@@ -28296,17 +28300,17 @@
     </row>
     <row r="110" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
-        <v>1201002</v>
+        <v>1201001</v>
       </c>
       <c r="B110" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A110,战场角色!A:A,0))</f>
-        <v>双刃鬼兵</v>
+        <v>砍刀鬼兵</v>
       </c>
       <c r="C110" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D110" s="29">
-        <f t="shared" ref="D110:D127" si="12">IF(RIGHT(LEFT(A110,4),1)*1=2,2,1)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E110" s="29" t="s">
@@ -28316,21 +28320,21 @@
         <v>0</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H110" s="12">
         <v>1</v>
       </c>
       <c r="I110" s="29" t="str">
-        <f t="shared" ref="I110:I127" si="13">IF(F110=0,"",IF(D110=1,"Art/Roles/rol_"&amp;A110&amp;"/Animations/"&amp;A110&amp;"_exskill_"&amp;RIGHT(LEFT(G110,4),1)&amp;"_1.playable","Art/Roles/rol_"&amp;A110&amp;"/Animations/"&amp;A110&amp;"_skill_2_1.playable"))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J110" s="29" t="str">
-        <f t="shared" ref="J110:J127" si="14">IF(F110=0,"Art/Roles/rol_"&amp;A110&amp;"/Animations/"&amp;A110&amp;"_exskill_"&amp;IF(D110=1,RIGHT(LEFT(G110,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A110&amp;"/Animations/"&amp;A110&amp;"_exskill_"&amp;IF(D110=2,1,RIGHT(LEFT(G110,4),1))&amp;"_2.playable")</f>
-        <v>Art/Roles/rol_1201002/Animations/1201002_exskill_1.playable</v>
+        <f t="shared" si="10"/>
+        <v>Art/Roles/rol_1201001/Animations/1201001_exskill_1.playable</v>
       </c>
       <c r="K110" s="29" t="str">
-        <f t="shared" ref="K110:K127" si="15">IF(F110=0,"","Art/Roles/rol_"&amp;A110&amp;"/Animations/"&amp;A110&amp;"_exskill_"&amp;IF(D110=2,1,RIGHT(LEFT(G110,4),1))&amp;"_3.playable")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L110" s="29">
@@ -28339,17 +28343,17 @@
     </row>
     <row r="111" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="29">
-        <v>1201003</v>
+        <v>1201002</v>
       </c>
       <c r="B111" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A111,战场角色!A:A,0))</f>
-        <v>链球鬼兵</v>
+        <v>双刃鬼兵</v>
       </c>
       <c r="C111" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D111" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D111:D128" si="16">IF(RIGHT(LEFT(A111,4),1)*1=2,2,1)</f>
         <v>1</v>
       </c>
       <c r="E111" s="29" t="s">
@@ -28359,21 +28363,21 @@
         <v>0</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H111" s="12">
         <v>1</v>
       </c>
       <c r="I111" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I111:I128" si="17">IF(F111=0,"",IF(D111=1,"Art/Roles/rol_"&amp;A111&amp;"/Animations/"&amp;A111&amp;"_exskill_"&amp;RIGHT(LEFT(G111,4),1)&amp;"_1.playable","Art/Roles/rol_"&amp;A111&amp;"/Animations/"&amp;A111&amp;"_skill_2_1.playable"))</f>
         <v/>
       </c>
       <c r="J111" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201003/Animations/1201003_exskill_1.playable</v>
+        <f t="shared" ref="J111:J128" si="18">IF(F111=0,"Art/Roles/rol_"&amp;A111&amp;"/Animations/"&amp;A111&amp;"_exskill_"&amp;IF(D111=1,RIGHT(LEFT(G111,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A111&amp;"/Animations/"&amp;A111&amp;"_exskill_"&amp;IF(D111=2,1,RIGHT(LEFT(G111,4),1))&amp;"_2.playable")</f>
+        <v>Art/Roles/rol_1201002/Animations/1201002_exskill_1.playable</v>
       </c>
       <c r="K111" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="K111:K128" si="19">IF(F111=0,"","Art/Roles/rol_"&amp;A111&amp;"/Animations/"&amp;A111&amp;"_exskill_"&amp;IF(D111=2,1,RIGHT(LEFT(G111,4),1))&amp;"_3.playable")</f>
         <v/>
       </c>
       <c r="L111" s="29">
@@ -28382,17 +28386,17 @@
     </row>
     <row r="112" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="29">
-        <v>1201004</v>
+        <v>1201003</v>
       </c>
       <c r="B112" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A112,战场角色!A:A,0))</f>
-        <v>鬼将军</v>
+        <v>链球鬼兵</v>
       </c>
       <c r="C112" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D112" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E112" s="29" t="s">
@@ -28402,21 +28406,21 @@
         <v>0</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H112" s="12">
         <v>1</v>
       </c>
       <c r="I112" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J112" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201004/Animations/1201004_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201003/Animations/1201003_exskill_1.playable</v>
       </c>
       <c r="K112" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L112" s="29">
@@ -28435,7 +28439,7 @@
         <v>860</v>
       </c>
       <c r="D113" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E113" s="29" t="s">
@@ -28445,21 +28449,21 @@
         <v>0</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H113" s="12">
         <v>1</v>
       </c>
       <c r="I113" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J113" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201004/Animations/1201004_exskill_2.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201004/Animations/1201004_exskill_1.playable</v>
       </c>
       <c r="K113" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L113" s="29">
@@ -28468,17 +28472,17 @@
     </row>
     <row r="114" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="29">
-        <v>1201005</v>
+        <v>1201004</v>
       </c>
       <c r="B114" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A114,战场角色!A:A,0))</f>
-        <v>变身后鬼将军</v>
+        <v>鬼将军</v>
       </c>
       <c r="C114" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D114" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E114" s="29" t="s">
@@ -28488,21 +28492,21 @@
         <v>0</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H114" s="12">
         <v>1</v>
       </c>
       <c r="I114" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J114" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201005/Animations/1201005_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201004/Animations/1201004_exskill_2.playable</v>
       </c>
       <c r="K114" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L114" s="29">
@@ -28521,7 +28525,7 @@
         <v>860</v>
       </c>
       <c r="D115" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E115" s="29" t="s">
@@ -28531,21 +28535,21 @@
         <v>0</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H115" s="12">
         <v>1</v>
       </c>
       <c r="I115" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J115" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201005/Animations/1201005_exskill_2.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201005/Animations/1201005_exskill_1.playable</v>
       </c>
       <c r="K115" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L115" s="29">
@@ -28554,17 +28558,17 @@
     </row>
     <row r="116" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="29">
-        <v>1201006</v>
+        <v>1201005</v>
       </c>
       <c r="B116" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A116,战场角色!A:A,0))</f>
-        <v>骷髅小兵1</v>
+        <v>变身后鬼将军</v>
       </c>
       <c r="C116" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D116" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E116" s="29" t="s">
@@ -28574,21 +28578,21 @@
         <v>0</v>
       </c>
       <c r="G116" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H116" s="12">
         <v>1</v>
       </c>
       <c r="I116" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J116" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201006/Animations/1201006_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201005/Animations/1201005_exskill_2.playable</v>
       </c>
       <c r="K116" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L116" s="29">
@@ -28597,17 +28601,17 @@
     </row>
     <row r="117" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="29">
-        <v>1201007</v>
+        <v>1201006</v>
       </c>
       <c r="B117" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A117,战场角色!A:A,0))</f>
-        <v>骷髅小兵2</v>
+        <v>骷髅小兵1</v>
       </c>
       <c r="C117" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D117" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E117" s="29" t="s">
@@ -28617,21 +28621,21 @@
         <v>0</v>
       </c>
       <c r="G117" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H117" s="12">
         <v>1</v>
       </c>
       <c r="I117" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J117" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201007/Animations/1201007_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201006/Animations/1201006_exskill_1.playable</v>
       </c>
       <c r="K117" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L117" s="29">
@@ -28640,17 +28644,17 @@
     </row>
     <row r="118" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="29">
-        <v>1201008</v>
+        <v>1201007</v>
       </c>
       <c r="B118" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A118,战场角色!A:A,0))</f>
-        <v>伏尸将军</v>
+        <v>骷髅小兵2</v>
       </c>
       <c r="C118" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D118" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E118" s="29" t="s">
@@ -28660,21 +28664,21 @@
         <v>0</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H118" s="12">
         <v>1</v>
       </c>
       <c r="I118" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J118" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201007/Animations/1201007_exskill_1.playable</v>
       </c>
       <c r="K118" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L118" s="29">
@@ -28693,7 +28697,7 @@
         <v>860</v>
       </c>
       <c r="D119" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E119" s="29" t="s">
@@ -28703,21 +28707,21 @@
         <v>0</v>
       </c>
       <c r="G119" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H119" s="12">
         <v>1</v>
       </c>
       <c r="I119" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J119" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_2.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_1.playable</v>
       </c>
       <c r="K119" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L119" s="29">
@@ -28736,7 +28740,7 @@
         <v>860</v>
       </c>
       <c r="D120" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E120" s="29" t="s">
@@ -28746,21 +28750,21 @@
         <v>0</v>
       </c>
       <c r="G120" s="29" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H120" s="12">
         <v>1</v>
       </c>
       <c r="I120" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J120" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_3.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_2.playable</v>
       </c>
       <c r="K120" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L120" s="29">
@@ -28769,17 +28773,17 @@
     </row>
     <row r="121" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="29">
-        <v>1201009</v>
+        <v>1201008</v>
       </c>
       <c r="B121" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A121,战场角色!A:A,0))</f>
-        <v>石瀑将军</v>
+        <v>伏尸将军</v>
       </c>
       <c r="C121" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D121" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E121" s="29" t="s">
@@ -28789,21 +28793,21 @@
         <v>0</v>
       </c>
       <c r="G121" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H121" s="12">
         <v>1</v>
       </c>
       <c r="I121" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J121" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201009/Animations/1201009_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201008/Animations/1201008_exskill_3.playable</v>
       </c>
       <c r="K121" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L121" s="29">
@@ -28822,7 +28826,7 @@
         <v>860</v>
       </c>
       <c r="D122" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E122" s="29" t="s">
@@ -28832,21 +28836,21 @@
         <v>0</v>
       </c>
       <c r="G122" s="29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H122" s="12">
         <v>1</v>
       </c>
       <c r="I122" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J122" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201009/Animations/1201009_exskill_2.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201009/Animations/1201009_exskill_1.playable</v>
       </c>
       <c r="K122" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L122" s="29">
@@ -28855,17 +28859,17 @@
     </row>
     <row r="123" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="29">
-        <v>1201010</v>
+        <v>1201009</v>
       </c>
       <c r="B123" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A123,战场角色!A:A,0))</f>
-        <v>小蜘蛛</v>
+        <v>石瀑将军</v>
       </c>
       <c r="C123" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D123" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E123" s="29" t="s">
@@ -28875,21 +28879,21 @@
         <v>0</v>
       </c>
       <c r="G123" s="29" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H123" s="12">
         <v>1</v>
       </c>
       <c r="I123" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J123" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201010/Animations/1201010_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201009/Animations/1201009_exskill_2.playable</v>
       </c>
       <c r="K123" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L123" s="29">
@@ -28898,17 +28902,17 @@
     </row>
     <row r="124" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="29">
-        <v>1201011</v>
+        <v>1201010</v>
       </c>
       <c r="B124" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A124,战场角色!A:A,0))</f>
-        <v>魔导机兵团</v>
+        <v>小蜘蛛</v>
       </c>
       <c r="C124" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D124" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E124" s="29" t="s">
@@ -28918,21 +28922,21 @@
         <v>0</v>
       </c>
       <c r="G124" s="29" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H124" s="12">
         <v>1</v>
       </c>
       <c r="I124" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J124" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201011/Animations/1201011_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201010/Animations/1201010_exskill_1.playable</v>
       </c>
       <c r="K124" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L124" s="29">
@@ -28941,17 +28945,17 @@
     </row>
     <row r="125" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="29">
-        <v>1201012</v>
+        <v>1201011</v>
       </c>
       <c r="B125" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A125,战场角色!A:A,0))</f>
-        <v>山蜘蛛</v>
+        <v>魔导机兵团</v>
       </c>
       <c r="C125" s="29" t="s">
         <v>860</v>
       </c>
       <c r="D125" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E125" s="29" t="s">
@@ -28961,21 +28965,21 @@
         <v>0</v>
       </c>
       <c r="G125" s="29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H125" s="12">
         <v>1</v>
       </c>
       <c r="I125" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J125" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201012/Animations/1201012_exskill_1.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201011/Animations/1201011_exskill_1.playable</v>
       </c>
       <c r="K125" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L125" s="29">
@@ -28994,7 +28998,7 @@
         <v>860</v>
       </c>
       <c r="D126" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E126" s="29" t="s">
@@ -29004,21 +29008,21 @@
         <v>0</v>
       </c>
       <c r="G126" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H126" s="12">
         <v>1</v>
       </c>
       <c r="I126" s="29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J126" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>Art/Roles/rol_1201012/Animations/1201012_exskill_2.playable</v>
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201012/Animations/1201012_exskill_1.playable</v>
       </c>
       <c r="K126" s="29" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L126" s="29">
@@ -29037,7 +29041,7 @@
         <v>860</v>
       </c>
       <c r="D127" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="E127" s="29" t="s">
@@ -29047,24 +29051,67 @@
         <v>0</v>
       </c>
       <c r="G127" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="H127" s="12">
+        <v>1</v>
+      </c>
+      <c r="I127" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J127" s="29" t="str">
+        <f t="shared" si="18"/>
+        <v>Art/Roles/rol_1201012/Animations/1201012_exskill_2.playable</v>
+      </c>
+      <c r="K127" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L127" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="29">
+        <v>1201012</v>
+      </c>
+      <c r="B128" s="29" t="str">
+        <f>INDEX(战场角色!B:B,MATCH(skillInfo!A128,战场角色!A:A,0))</f>
+        <v>山蜘蛛</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>860</v>
+      </c>
+      <c r="D128" s="29">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="29">
+        <v>0</v>
+      </c>
+      <c r="G128" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="H127" s="12">
-        <v>1</v>
-      </c>
-      <c r="I127" s="29" t="str">
-        <f t="shared" si="13"/>
+      <c r="H128" s="12">
+        <v>1</v>
+      </c>
+      <c r="I128" s="29" t="str">
+        <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="J127" s="29" t="str">
-        <f t="shared" si="14"/>
+      <c r="J128" s="29" t="str">
+        <f t="shared" si="18"/>
         <v>Art/Roles/rol_1201012/Animations/1201012_exskill_3.playable</v>
       </c>
-      <c r="K127" s="29" t="str">
-        <f t="shared" si="15"/>
+      <c r="K128" s="29" t="str">
+        <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="L127" s="29">
+      <c r="L128" s="29">
         <v>1</v>
       </c>
     </row>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A6FE80-976A-42E0-A404-275128F541D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481C8D3-C2E1-42B5-87A7-577CF9BB78A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1252">
   <si>
     <t>sheet名</t>
   </si>
@@ -2206,9 +2206,6 @@
   </si>
   <si>
     <t>yq_1102030_vo_summon</t>
-  </si>
-  <si>
-    <t>常服夏玲</t>
   </si>
   <si>
     <t>model_cfxl_1101041_p</t>
@@ -2857,9 +2854,6 @@
     <t>1801006-1</t>
   </si>
   <si>
-    <t>Art/Roles/rol_1201006/Animations/1201006_skill_1_1.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1201006/Animations/1201006_skill_1_2.playable</t>
   </si>
   <si>
@@ -3953,6 +3947,22 @@
   </si>
   <si>
     <t>出场技通用特效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1201006/Animations/1201006_skill_1_1.playable</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服夏铃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4374,7 +4384,77 @@
     <cellStyle name="中文标题" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="纵向标题" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -22014,9 +22094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L50" sqref="L50"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22095,7 +22175,7 @@
         <v>251</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>252</v>
@@ -22143,7 +22223,7 @@
         <v>266</v>
       </c>
       <c r="AG1" s="40" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -22196,7 +22276,7 @@
         <v>120</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>120</v>
@@ -22297,7 +22377,7 @@
         <v>286</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
@@ -22343,7 +22423,7 @@
         <v>300</v>
       </c>
       <c r="AG3" s="42" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -22442,7 +22522,7 @@
         <v>kp_km_1101001</v>
       </c>
       <c r="AG4" s="22" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -22541,7 +22621,7 @@
         <v>kp_km_1101002</v>
       </c>
       <c r="AG5" s="22" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -22640,7 +22720,7 @@
         <v>kp_km_1101003</v>
       </c>
       <c r="AG6" s="22" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -22732,14 +22812,14 @@
         <v>350</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AF7" s="22" t="str">
         <f t="shared" si="1"/>
         <v>kp_km_1101007</v>
       </c>
       <c r="AG7" s="22" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -23024,7 +23104,7 @@
         <v>kp_km_1102002</v>
       </c>
       <c r="AG10" s="22" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -25025,7 +25105,7 @@
         <v>1102013</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>576</v>
+        <v>1250</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>577</v>
@@ -25850,7 +25930,7 @@
         <v>kp_km_1201001</v>
       </c>
       <c r="AG40" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -25939,7 +26019,7 @@
         <v>kp_km_1201002</v>
       </c>
       <c r="AG41" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -26115,7 +26195,7 @@
         <v>kp_km_1201004</v>
       </c>
       <c r="AG43" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -26819,17 +26899,17 @@
         <v>1101041</v>
       </c>
       <c r="B52" s="22" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>710</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>711</v>
       </c>
       <c r="D52" s="22" t="str">
         <f t="shared" si="0"/>
         <v>kp_km_1101041</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F52" s="22">
         <v>1.7</v>
@@ -26856,29 +26936,29 @@
         <v>1.4</v>
       </c>
       <c r="N52" s="39" t="s">
+        <v>711</v>
+      </c>
+      <c r="O52" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="P52" s="22" t="s">
         <v>713</v>
-      </c>
-      <c r="P52" s="22" t="s">
-        <v>714</v>
       </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="S52" s="22" t="s">
         <v>715</v>
-      </c>
-      <c r="S52" s="22" t="s">
-        <v>716</v>
       </c>
       <c r="T52" s="22" t="s">
         <v>335</v>
       </c>
       <c r="U52" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="V52" s="22" t="s">
         <v>717</v>
-      </c>
-      <c r="V52" s="22" t="s">
-        <v>718</v>
       </c>
       <c r="W52" s="22" t="s">
         <v>310</v>
@@ -26890,7 +26970,7 @@
         <v>311</v>
       </c>
       <c r="Z52" s="22" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AA52" s="22" t="s">
         <v>313</v>
@@ -26900,17 +26980,17 @@
       </c>
       <c r="AC52" s="22"/>
       <c r="AD52" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE52" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AF52" s="22" t="str">
         <f t="shared" si="1"/>
         <v>kp_km_1101041</v>
       </c>
       <c r="AG52" s="22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -26918,17 +26998,17 @@
         <v>1102050</v>
       </c>
       <c r="B53" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>720</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>721</v>
       </c>
       <c r="D53" s="22" t="str">
         <f t="shared" si="0"/>
         <v>kp_km_1102050</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F53" s="22">
         <v>1.3</v>
@@ -26955,7 +27035,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O53" s="39"/>
       <c r="P53" s="22"/>
@@ -26964,16 +27044,16 @@
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="22" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="T53" s="22" t="s">
         <v>308</v>
       </c>
       <c r="U53" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="V53" s="22" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W53" s="22" t="s">
         <v>325</v>
@@ -26985,7 +27065,7 @@
         <v>311</v>
       </c>
       <c r="Z53" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AA53" s="22" t="s">
         <v>313</v>
@@ -26995,10 +27075,10 @@
       </c>
       <c r="AC53" s="22"/>
       <c r="AD53" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE53" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="AE53" s="5" t="s">
-        <v>726</v>
       </c>
       <c r="AF53" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27011,10 +27091,10 @@
         <v>1101016</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D54" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27049,7 +27129,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="39" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="O54" s="39" t="str">
         <f>"Art/Roles/rol_"&amp;A54&amp;"/Animations/"&amp;A54&amp;"_summon_1.playable"</f>
@@ -27072,10 +27152,10 @@
         <v>308</v>
       </c>
       <c r="U54" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="V54" s="22" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="W54" s="22" t="s">
         <v>310</v>
@@ -27087,7 +27167,7 @@
         <v>311</v>
       </c>
       <c r="Z54" s="22" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AA54" s="22" t="s">
         <v>313</v>
@@ -27097,10 +27177,10 @@
       </c>
       <c r="AC54" s="22"/>
       <c r="AD54" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AE54" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AF54" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27113,7 +27193,7 @@
         <v>1101020</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>501</v>
@@ -27174,7 +27254,7 @@
         <v>308</v>
       </c>
       <c r="U55" s="22" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="V55" s="22" t="s">
         <v>503</v>
@@ -27211,11 +27291,11 @@
       <c r="AG55" s="22"/>
     </row>
     <row r="56" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="22">
+      <c r="A56" s="20">
         <v>1101022</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>1101</v>
+      <c r="B56" s="20" t="s">
+        <v>1099</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>506</v>
@@ -27276,7 +27356,7 @@
         <v>308</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="V56" s="22" t="s">
         <v>508</v>
@@ -27317,10 +27397,10 @@
         <v>1101023</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D57" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27355,7 +27435,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="39" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="O57" s="39" t="str">
         <f t="shared" si="3"/>
@@ -27378,10 +27458,10 @@
         <v>308</v>
       </c>
       <c r="U57" s="22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="V57" s="22" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="W57" s="22" t="s">
         <v>310</v>
@@ -27393,7 +27473,7 @@
         <v>311</v>
       </c>
       <c r="Z57" s="22" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AA57" s="22" t="s">
         <v>313</v>
@@ -27403,10 +27483,10 @@
       </c>
       <c r="AC57" s="22"/>
       <c r="AD57" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="AE57" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AF57" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27419,10 +27499,10 @@
         <v>1101026</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D58" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27457,7 +27537,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="39" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="O58" s="39" t="str">
         <f t="shared" si="3"/>
@@ -27480,10 +27560,10 @@
         <v>308</v>
       </c>
       <c r="U58" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="V58" s="22" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="W58" s="22" t="s">
         <v>310</v>
@@ -27495,7 +27575,7 @@
         <v>311</v>
       </c>
       <c r="Z58" s="22" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AA58" s="22" t="s">
         <v>313</v>
@@ -27505,10 +27585,10 @@
       </c>
       <c r="AC58" s="22"/>
       <c r="AD58" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="AE58" s="5" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AF58" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27521,10 +27601,10 @@
         <v>1101030</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D59" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27559,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="N59" s="39" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="O59" s="39" t="str">
         <f t="shared" si="3"/>
@@ -27582,10 +27662,10 @@
         <v>308</v>
       </c>
       <c r="U59" s="22" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="V59" s="22" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="W59" s="22" t="s">
         <v>310</v>
@@ -27597,7 +27677,7 @@
         <v>311</v>
       </c>
       <c r="Z59" s="22" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AA59" s="22" t="s">
         <v>313</v>
@@ -27607,10 +27687,10 @@
       </c>
       <c r="AC59" s="22"/>
       <c r="AD59" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AE59" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="AF59" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27619,14 +27699,14 @@
       <c r="AG59" s="22"/>
     </row>
     <row r="60" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="22">
+      <c r="A60" s="20">
         <v>1102023</v>
       </c>
-      <c r="B60" s="22" t="s">
-        <v>1105</v>
+      <c r="B60" s="20" t="s">
+        <v>1103</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D60" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27661,7 +27741,7 @@
         <v>1</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="O60" s="39"/>
       <c r="P60" s="22"/>
@@ -27677,10 +27757,10 @@
         <v>308</v>
       </c>
       <c r="U60" s="22" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="V60" s="22" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="W60" s="22" t="s">
         <v>310</v>
@@ -27692,7 +27772,7 @@
         <v>311</v>
       </c>
       <c r="Z60" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AA60" s="22" t="s">
         <v>313</v>
@@ -27702,10 +27782,10 @@
       </c>
       <c r="AC60" s="22"/>
       <c r="AD60" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AE60" s="5" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="AF60" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27718,10 +27798,10 @@
         <v>1102024</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D61" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27756,7 +27836,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="39" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="O61" s="39"/>
       <c r="P61" s="22"/>
@@ -27772,10 +27852,10 @@
         <v>308</v>
       </c>
       <c r="U61" s="22" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="V61" s="22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="W61" s="22" t="s">
         <v>310</v>
@@ -27787,7 +27867,7 @@
         <v>311</v>
       </c>
       <c r="Z61" s="22" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AA61" s="22" t="s">
         <v>313</v>
@@ -27797,10 +27877,10 @@
       </c>
       <c r="AC61" s="22"/>
       <c r="AD61" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AE61" s="5" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AF61" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27813,10 +27893,10 @@
         <v>1102026</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D62" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27851,7 +27931,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="39" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="O62" s="39"/>
       <c r="P62" s="22"/>
@@ -27867,10 +27947,10 @@
         <v>308</v>
       </c>
       <c r="U62" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="V62" s="22" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="W62" s="22" t="s">
         <v>310</v>
@@ -27882,7 +27962,7 @@
         <v>311</v>
       </c>
       <c r="Z62" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AA62" s="22" t="s">
         <v>313</v>
@@ -27892,10 +27972,10 @@
       </c>
       <c r="AC62" s="22"/>
       <c r="AD62" s="5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AF62" s="22" t="str">
         <f t="shared" si="1"/>
@@ -27908,10 +27988,10 @@
         <v>1102028</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D63" s="22" t="str">
         <f t="shared" si="0"/>
@@ -27946,7 +28026,7 @@
         <v>1</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="O63" s="39"/>
       <c r="P63" s="22"/>
@@ -27962,10 +28042,10 @@
         <v>308</v>
       </c>
       <c r="U63" s="22" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="V63" s="22" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="W63" s="22" t="s">
         <v>310</v>
@@ -27977,7 +28057,7 @@
         <v>311</v>
       </c>
       <c r="Z63" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AA63" s="22" t="s">
         <v>313</v>
@@ -27987,10 +28067,10 @@
       </c>
       <c r="AC63" s="22"/>
       <c r="AD63" s="5" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="AE63" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AF63" s="22" t="str">
         <f t="shared" si="1"/>
@@ -28003,7 +28083,7 @@
         <v>1102030</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>705</v>
@@ -28057,7 +28137,7 @@
         <v>308</v>
       </c>
       <c r="U64" s="22" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="V64" s="22" t="s">
         <v>707</v>
@@ -28098,10 +28178,10 @@
         <v>1102031</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D65" s="22" t="str">
         <f t="shared" si="0"/>
@@ -28136,7 +28216,7 @@
         <v>1</v>
       </c>
       <c r="N65" s="39" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="O65" s="39"/>
       <c r="P65" s="22"/>
@@ -28152,10 +28232,10 @@
         <v>308</v>
       </c>
       <c r="U65" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="V65" s="22" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="W65" s="22" t="s">
         <v>310</v>
@@ -28167,7 +28247,7 @@
         <v>311</v>
       </c>
       <c r="Z65" s="22" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AA65" s="22" t="s">
         <v>313</v>
@@ -28177,10 +28257,10 @@
       </c>
       <c r="AC65" s="22"/>
       <c r="AD65" s="5" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AE65" s="5" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AF65" s="22" t="str">
         <f t="shared" si="1"/>
@@ -28193,17 +28273,17 @@
         <v>1101043</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D66" s="22" t="str">
         <f t="shared" ref="D66" si="7">"kp_km_"&amp;A66</f>
         <v>kp_km_1101043</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F66" s="22">
         <v>1.5</v>
@@ -28230,29 +28310,29 @@
         <v>1</v>
       </c>
       <c r="N66" s="39" t="s">
+        <v>1228</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>1229</v>
+      </c>
+      <c r="P66" s="22" t="s">
         <v>1230</v>
-      </c>
-      <c r="O66" s="39" t="s">
-        <v>1231</v>
-      </c>
-      <c r="P66" s="22" t="s">
-        <v>1232</v>
       </c>
       <c r="Q66" s="22"/>
       <c r="R66" s="22" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="S66" s="22" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="T66" s="22" t="s">
         <v>335</v>
       </c>
       <c r="U66" s="22" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="V66" s="22" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="W66" s="22" t="s">
         <v>310</v>
@@ -28264,7 +28344,7 @@
         <v>311</v>
       </c>
       <c r="Z66" s="22" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AA66" s="22" t="s">
         <v>313</v>
@@ -28274,17 +28354,17 @@
       </c>
       <c r="AC66" s="22"/>
       <c r="AD66" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AE66" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AF66" s="22" t="str">
         <f t="shared" ref="AF66" si="8">"kp_km_"&amp;A66</f>
         <v>kp_km_1101043</v>
       </c>
       <c r="AG66" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
@@ -28299,10 +28379,10 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28328,37 +28408,37 @@
         <v>255</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>736</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -28372,16 +28452,16 @@
         <v>119</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>739</v>
-      </c>
       <c r="F2" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>738</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>739</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>268</v>
@@ -28407,38 +28487,38 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>746</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>747</v>
       </c>
       <c r="J3" s="28" t="str">
         <f>RIGHT(LEFT(G4,4),1)</f>
         <v>3</v>
       </c>
       <c r="K3" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="L3" s="28" t="s">
         <v>748</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>749</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -28451,7 +28531,7 @@
         <v>关羽</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" s="31">
         <f t="shared" ref="D4:D21" si="0">IF(RIGHT(LEFT(A4,4),1)*1=2,2,1)</f>
@@ -28464,23 +28544,23 @@
         <v>1</v>
       </c>
       <c r="G4" s="31" t="s">
+        <v>750</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="H4" s="32">
-        <v>1</v>
-      </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>752</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>753</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="31">
         <v>1</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28492,7 +28572,7 @@
         <v>关羽</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D5" s="31">
         <f t="shared" si="0"/>
@@ -28505,23 +28585,23 @@
         <v>1</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>755</v>
       </c>
-      <c r="H5" s="32">
-        <v>1</v>
-      </c>
-      <c r="I5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>756</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>757</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31">
         <v>1</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28533,7 +28613,7 @@
         <v>关羽</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D6" s="31">
         <f t="shared" si="0"/>
@@ -28546,23 +28626,23 @@
         <v>1</v>
       </c>
       <c r="G6" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="H6" s="32">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="s">
+      <c r="J6" s="31" t="s">
         <v>760</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>761</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31">
         <v>1</v>
       </c>
       <c r="M6" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28574,7 +28654,7 @@
         <v>许褚</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D7" s="31">
         <f t="shared" si="0"/>
@@ -28587,23 +28667,23 @@
         <v>1</v>
       </c>
       <c r="G7" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="H7" s="32">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="31" t="s">
         <v>764</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>765</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31">
         <v>1</v>
       </c>
       <c r="M7" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28615,7 +28695,7 @@
         <v>许褚</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D8" s="31">
         <f t="shared" si="0"/>
@@ -28628,23 +28708,23 @@
         <v>1</v>
       </c>
       <c r="G8" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>767</v>
       </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="31" t="s">
+      <c r="J8" s="31" t="s">
         <v>768</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>769</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31">
         <v>1</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28656,7 +28736,7 @@
         <v>许褚</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D9" s="31">
         <f t="shared" si="0"/>
@@ -28669,23 +28749,23 @@
         <v>1</v>
       </c>
       <c r="G9" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>771</v>
       </c>
-      <c r="H9" s="32">
-        <v>1</v>
-      </c>
-      <c r="I9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>772</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>773</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31">
         <v>1</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28697,7 +28777,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D10" s="31">
         <f t="shared" si="0"/>
@@ -28710,23 +28790,23 @@
         <v>1</v>
       </c>
       <c r="G10" s="31" t="s">
+        <v>774</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="H10" s="32">
-        <v>1</v>
-      </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="31" t="s">
         <v>776</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>777</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31">
         <v>1</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28738,7 +28818,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D11" s="31">
         <f t="shared" si="0"/>
@@ -28751,23 +28831,23 @@
         <v>1</v>
       </c>
       <c r="G11" s="31" t="s">
+        <v>778</v>
+      </c>
+      <c r="H11" s="32">
+        <v>1</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="H11" s="32">
-        <v>1</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="J11" s="31" t="s">
         <v>780</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>781</v>
       </c>
       <c r="K11" s="31"/>
       <c r="L11" s="31">
         <v>1</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28779,7 +28859,7 @@
         <v>唐流雨</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D12" s="31">
         <f t="shared" si="0"/>
@@ -28792,23 +28872,23 @@
         <v>1</v>
       </c>
       <c r="G12" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31" t="s">
         <v>783</v>
       </c>
-      <c r="H12" s="32">
-        <v>1</v>
-      </c>
-      <c r="I12" s="31" t="s">
+      <c r="J12" s="31" t="s">
         <v>784</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>785</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31">
         <v>1</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28820,7 +28900,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D13" s="31">
         <f t="shared" si="0"/>
@@ -28833,23 +28913,23 @@
         <v>1</v>
       </c>
       <c r="G13" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="H13" s="32">
-        <v>1</v>
-      </c>
-      <c r="I13" s="31" t="s">
+      <c r="J13" s="31" t="s">
         <v>788</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>789</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="31">
         <v>1</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28861,7 +28941,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D14" s="31">
         <f t="shared" si="0"/>
@@ -28874,23 +28954,23 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="H14" s="32">
-        <v>1</v>
-      </c>
-      <c r="I14" s="31" t="s">
+      <c r="J14" s="31" t="s">
         <v>792</v>
-      </c>
-      <c r="J14" s="31" t="s">
-        <v>793</v>
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31">
         <v>1</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28902,7 +28982,7 @@
         <v>天使缇娜</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D15" s="31">
         <f t="shared" si="0"/>
@@ -28915,23 +28995,23 @@
         <v>1</v>
       </c>
       <c r="G15" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="H15" s="32">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31" t="s">
         <v>795</v>
       </c>
-      <c r="H15" s="32">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31" t="s">
+      <c r="J15" s="31" t="s">
         <v>796</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>797</v>
       </c>
       <c r="K15" s="31"/>
       <c r="L15" s="31">
         <v>1</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28943,7 +29023,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D16" s="31">
         <f t="shared" si="0"/>
@@ -28956,23 +29036,23 @@
         <v>1</v>
       </c>
       <c r="G16" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31" t="s">
+      <c r="J16" s="31" t="s">
         <v>800</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>801</v>
       </c>
       <c r="K16" s="31"/>
       <c r="L16" s="31">
         <v>1</v>
       </c>
       <c r="M16" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -28984,7 +29064,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D17" s="31">
         <f t="shared" si="0"/>
@@ -28997,23 +29077,23 @@
         <v>1</v>
       </c>
       <c r="G17" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="H17" s="32">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="H17" s="32">
-        <v>1</v>
-      </c>
-      <c r="I17" s="31" t="s">
+      <c r="J17" s="31" t="s">
         <v>804</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>805</v>
       </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31">
         <v>1</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -29025,7 +29105,7 @@
         <v>夏侯惇</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D18" s="31">
         <f t="shared" si="0"/>
@@ -29038,23 +29118,23 @@
         <v>1</v>
       </c>
       <c r="G18" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31" t="s">
         <v>807</v>
       </c>
-      <c r="H18" s="32">
-        <v>1</v>
-      </c>
-      <c r="I18" s="31" t="s">
+      <c r="J18" s="31" t="s">
         <v>808</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>809</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31">
         <v>1</v>
       </c>
       <c r="M18" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -29066,7 +29146,7 @@
         <v>石灵明</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D19" s="31">
         <f t="shared" si="0"/>
@@ -29079,23 +29159,23 @@
         <v>1</v>
       </c>
       <c r="G19" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="H19" s="32">
-        <v>1</v>
-      </c>
-      <c r="I19" s="31" t="s">
+      <c r="J19" s="31" t="s">
         <v>812</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>813</v>
       </c>
       <c r="K19" s="31"/>
       <c r="L19" s="31">
         <v>1</v>
       </c>
       <c r="M19" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -29107,7 +29187,7 @@
         <v>石灵明</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
@@ -29120,23 +29200,23 @@
         <v>1</v>
       </c>
       <c r="G20" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="H20" s="32">
-        <v>1</v>
-      </c>
-      <c r="I20" s="31" t="s">
+      <c r="J20" s="31" t="s">
         <v>816</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>817</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31">
         <v>1</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.2">
@@ -29148,7 +29228,7 @@
         <v>石灵明</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D21" s="31">
         <f t="shared" si="0"/>
@@ -29161,23 +29241,23 @@
         <v>1</v>
       </c>
       <c r="G21" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>819</v>
       </c>
-      <c r="H21" s="32">
-        <v>1</v>
-      </c>
-      <c r="I21" s="31" t="s">
+      <c r="J21" s="31" t="s">
         <v>820</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>821</v>
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="31">
         <v>1</v>
       </c>
       <c r="M21" s="31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -29189,7 +29269,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D22" s="29">
         <f t="shared" ref="D22:D30" si="1">IF(RIGHT(LEFT(A22,4),1)*1=2,2,1)</f>
@@ -29202,7 +29282,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H22" s="30">
         <v>1</v>
@@ -29233,7 +29313,7 @@
         <v>常服曹焱兵</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D23" s="29">
         <f t="shared" si="1"/>
@@ -29246,7 +29326,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H23" s="30">
         <v>1</v>
@@ -29274,7 +29354,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D24" s="29">
         <f t="shared" si="1"/>
@@ -29287,7 +29367,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H24" s="30">
         <v>1</v>
@@ -29318,7 +29398,7 @@
         <v>曹玄亮</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D25" s="29">
         <f t="shared" si="1"/>
@@ -29331,7 +29411,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H25" s="30">
         <v>1</v>
@@ -29359,7 +29439,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D26" s="29">
         <f t="shared" si="1"/>
@@ -29372,7 +29452,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H26" s="30">
         <v>1</v>
@@ -29400,7 +29480,7 @@
         <v>战斗夏铃</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D27" s="29">
         <f t="shared" si="1"/>
@@ -29413,7 +29493,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H27" s="30">
         <v>1</v>
@@ -29441,7 +29521,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D28" s="29">
         <f t="shared" si="1"/>
@@ -29454,7 +29534,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H28" s="30">
         <v>1</v>
@@ -29485,7 +29565,7 @@
         <v>战斗曹焱兵</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D29" s="29">
         <f t="shared" si="1"/>
@@ -29498,7 +29578,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H29" s="30">
         <v>1</v>
@@ -29529,7 +29609,7 @@
         <v>黑尔坎普</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D30" s="29">
         <f t="shared" si="1"/>
@@ -29542,7 +29622,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H30" s="30">
         <v>1</v>
@@ -29573,7 +29653,7 @@
         <v>黑尔坎普</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D31" s="29">
         <v>1</v>
@@ -29585,7 +29665,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H31" s="30">
         <v>1</v>
@@ -29611,7 +29691,7 @@
         <v>于禁</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D32" s="29">
         <f t="shared" ref="D32:D67" si="6">IF(RIGHT(LEFT(A32,4),1)*1=2,2,1)</f>
@@ -29624,13 +29704,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="H32" s="30">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="s">
         <v>834</v>
-      </c>
-      <c r="H32" s="30">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>835</v>
       </c>
       <c r="J32" s="29" t="str">
         <f t="shared" ref="J32:J66" si="7">IF(F32=0,"Art/Roles/rol_"&amp;A32&amp;"/Animations/"&amp;A32&amp;"_exskill_"&amp;IF(D32=1,RIGHT(LEFT(G32,4),1),1)&amp;".playable","Art/Roles/rol_"&amp;A32&amp;"/Animations/"&amp;A32&amp;"_exskill_"&amp;IF(D32=2,1,RIGHT(LEFT(G32,4),1))&amp;"_2.playable")</f>
@@ -29654,7 +29734,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D33" s="29">
         <f t="shared" si="6"/>
@@ -29667,7 +29747,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H33" s="30">
         <v>1</v>
@@ -29698,7 +29778,7 @@
         <v>项昆仑</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D34" s="29">
         <f t="shared" si="6"/>
@@ -29711,7 +29791,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H34" s="30">
         <v>1</v>
@@ -29739,7 +29819,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D35" s="29">
         <f t="shared" si="6"/>
@@ -29752,7 +29832,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H35" s="30">
         <v>1</v>
@@ -29780,7 +29860,7 @@
         <v>刘羽禅</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D36" s="29">
         <f t="shared" ref="D36" si="10">IF(RIGHT(LEFT(A36,4),1)*1=2,2,1)</f>
@@ -29793,7 +29873,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H36" s="30">
         <v>1</v>
@@ -29821,7 +29901,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D37" s="29">
         <f t="shared" si="6"/>
@@ -29834,7 +29914,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H37" s="30">
         <v>1</v>
@@ -29862,7 +29942,7 @@
         <v>红莲缇娜</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D38" s="29">
         <f t="shared" ref="D38" si="13">IF(RIGHT(LEFT(A38,4),1)*1=2,2,1)</f>
@@ -29875,7 +29955,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H38" s="30">
         <v>1</v>
@@ -29903,7 +29983,7 @@
         <v>北落师门</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D39" s="29">
         <f t="shared" si="6"/>
@@ -29916,7 +29996,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H39" s="30">
         <v>1</v>
@@ -29947,7 +30027,7 @@
         <v>北落师门</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D40" s="29">
         <f t="shared" ref="D40" si="16">IF(RIGHT(LEFT(A40,4),1)*1=2,2,1)</f>
@@ -29960,7 +30040,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H40" s="30">
         <v>1</v>
@@ -29988,7 +30068,7 @@
         <v>盖文</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D41" s="29">
         <f t="shared" si="6"/>
@@ -30001,7 +30081,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H41" s="30">
         <v>1</v>
@@ -30032,7 +30112,7 @@
         <v>盖文</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D42" s="29">
         <f t="shared" si="6"/>
@@ -30045,7 +30125,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H42" s="30">
         <v>1</v>
@@ -30076,7 +30156,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D43" s="29">
         <f t="shared" si="6"/>
@@ -30089,7 +30169,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H43" s="30">
         <v>1</v>
@@ -30120,7 +30200,7 @@
         <v>阎风吒</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D44" s="29">
         <f t="shared" si="6"/>
@@ -30133,7 +30213,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H44" s="30">
         <v>1</v>
@@ -30164,7 +30244,7 @@
         <v>南御夫</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D45" s="29">
         <f t="shared" si="6"/>
@@ -30177,7 +30257,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H45" s="30">
         <v>1</v>
@@ -30205,7 +30285,7 @@
         <v>南御夫</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D46" s="29">
         <f t="shared" ref="D46" si="19">IF(RIGHT(LEFT(A46,4),1)*1=2,2,1)</f>
@@ -30218,7 +30298,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H46" s="30">
         <v>1</v>
@@ -30246,7 +30326,7 @@
         <v>吉拉</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D47" s="29">
         <f t="shared" si="6"/>
@@ -30259,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H47" s="30">
         <v>1</v>
@@ -30287,7 +30367,7 @@
         <v>吉拉</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D48" s="29">
         <f t="shared" si="6"/>
@@ -30300,7 +30380,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H48" s="30">
         <v>1</v>
@@ -30328,7 +30408,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D49" s="29">
         <f t="shared" si="6"/>
@@ -30341,7 +30421,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H49" s="30">
         <v>1</v>
@@ -30372,7 +30452,7 @@
         <v>吕仙宫</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D50" s="29">
         <f t="shared" si="6"/>
@@ -30385,7 +30465,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H50" s="30">
         <v>1</v>
@@ -30413,7 +30493,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D51" s="29">
         <f t="shared" si="6"/>
@@ -30426,7 +30506,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H51" s="30">
         <v>1</v>
@@ -30457,7 +30537,7 @@
         <v>阎巧巧</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D52" s="29">
         <f t="shared" si="6"/>
@@ -30470,7 +30550,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H52" s="30">
         <v>1</v>
@@ -30501,7 +30581,7 @@
         <v>典韦</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D53" s="29">
         <f t="shared" si="6"/>
@@ -30514,13 +30594,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="29" t="s">
+        <v>855</v>
+      </c>
+      <c r="H53" s="30">
+        <v>1</v>
+      </c>
+      <c r="I53" s="29" t="s">
         <v>856</v>
-      </c>
-      <c r="H53" s="30">
-        <v>1</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>857</v>
       </c>
       <c r="J53" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30544,7 +30624,7 @@
         <v>李轩辕</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D54" s="29">
         <f t="shared" si="6"/>
@@ -30557,13 +30637,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="H54" s="30">
+        <v>1</v>
+      </c>
+      <c r="I54" s="29" t="s">
         <v>858</v>
-      </c>
-      <c r="H54" s="30">
-        <v>1</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>859</v>
       </c>
       <c r="J54" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30584,7 +30664,7 @@
         <v>项羽</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D55" s="29">
         <f t="shared" si="6"/>
@@ -30597,13 +30677,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="29" t="s">
+        <v>859</v>
+      </c>
+      <c r="H55" s="30">
+        <v>1</v>
+      </c>
+      <c r="I55" s="29" t="s">
         <v>860</v>
-      </c>
-      <c r="H55" s="30">
-        <v>1</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>861</v>
       </c>
       <c r="J55" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30627,7 +30707,7 @@
         <v>徐晃</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D56" s="29">
         <f t="shared" si="6"/>
@@ -30640,13 +30720,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="H56" s="30">
+        <v>1</v>
+      </c>
+      <c r="I56" s="29" t="s">
         <v>862</v>
-      </c>
-      <c r="H56" s="30">
-        <v>1</v>
-      </c>
-      <c r="I56" s="29" t="s">
-        <v>863</v>
       </c>
       <c r="J56" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30670,7 +30750,7 @@
         <v>张郃</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D57" s="29">
         <f t="shared" si="6"/>
@@ -30683,13 +30763,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="29" t="s">
+        <v>863</v>
+      </c>
+      <c r="H57" s="30">
+        <v>1</v>
+      </c>
+      <c r="I57" s="29" t="s">
         <v>864</v>
-      </c>
-      <c r="H57" s="30">
-        <v>1</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>865</v>
       </c>
       <c r="J57" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30710,7 +30790,7 @@
         <v>张飞</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D58" s="29">
         <f t="shared" si="6"/>
@@ -30723,13 +30803,13 @@
         <v>1</v>
       </c>
       <c r="G58" s="29" t="s">
+        <v>865</v>
+      </c>
+      <c r="H58" s="30">
+        <v>1</v>
+      </c>
+      <c r="I58" s="29" t="s">
         <v>866</v>
-      </c>
-      <c r="H58" s="30">
-        <v>1</v>
-      </c>
-      <c r="I58" s="29" t="s">
-        <v>867</v>
       </c>
       <c r="J58" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30750,10 +30830,10 @@
       </c>
       <c r="B59" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A59,战场角色!A:A,0))</f>
-        <v>塞伯洛斯</v>
+        <v>塞伯罗斯</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D59" s="29">
         <f t="shared" si="6"/>
@@ -30766,13 +30846,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="29" t="s">
+        <v>867</v>
+      </c>
+      <c r="H59" s="30">
+        <v>1</v>
+      </c>
+      <c r="I59" s="29" t="s">
         <v>868</v>
-      </c>
-      <c r="H59" s="30">
-        <v>1</v>
-      </c>
-      <c r="I59" s="29" t="s">
-        <v>869</v>
       </c>
       <c r="J59" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30796,7 +30876,7 @@
         <v>西方龙</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D60" s="29">
         <f t="shared" si="6"/>
@@ -30809,13 +30889,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="29" t="s">
+        <v>869</v>
+      </c>
+      <c r="H60" s="30">
+        <v>1</v>
+      </c>
+      <c r="I60" s="29" t="s">
         <v>870</v>
-      </c>
-      <c r="H60" s="30">
-        <v>1</v>
-      </c>
-      <c r="I60" s="29" t="s">
-        <v>871</v>
       </c>
       <c r="J60" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30839,7 +30919,7 @@
         <v>飞廉</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D61" s="29">
         <f t="shared" si="6"/>
@@ -30852,13 +30932,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="H61" s="30">
+        <v>1</v>
+      </c>
+      <c r="I61" s="29" t="s">
         <v>872</v>
-      </c>
-      <c r="H61" s="30">
-        <v>1</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>873</v>
       </c>
       <c r="J61" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30879,7 +30959,7 @@
         <v>噬日</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D62" s="29">
         <f t="shared" si="6"/>
@@ -30892,13 +30972,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="H62" s="30">
+        <v>1</v>
+      </c>
+      <c r="I62" s="29" t="s">
         <v>874</v>
-      </c>
-      <c r="H62" s="30">
-        <v>1</v>
-      </c>
-      <c r="I62" s="29" t="s">
-        <v>875</v>
       </c>
       <c r="J62" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30922,7 +31002,7 @@
         <v>食火蜥</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="6"/>
@@ -30935,13 +31015,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="29" t="s">
+        <v>875</v>
+      </c>
+      <c r="H63" s="30">
+        <v>1</v>
+      </c>
+      <c r="I63" s="29" t="s">
         <v>876</v>
-      </c>
-      <c r="H63" s="30">
-        <v>1</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>877</v>
       </c>
       <c r="J63" s="29" t="str">
         <f t="shared" si="7"/>
@@ -30962,7 +31042,7 @@
         <v>高顺</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D64" s="29">
         <f t="shared" si="6"/>
@@ -30975,13 +31055,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="29" t="s">
+        <v>877</v>
+      </c>
+      <c r="H64" s="30">
+        <v>1</v>
+      </c>
+      <c r="I64" s="29" t="s">
         <v>878</v>
-      </c>
-      <c r="H64" s="30">
-        <v>1</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>879</v>
       </c>
       <c r="J64" s="29" t="str">
         <f t="shared" si="7"/>
@@ -31005,7 +31085,7 @@
         <v>高顺</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="6"/>
@@ -31018,14 +31098,14 @@
         <v>1</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H65" s="30">
         <v>1</v>
       </c>
       <c r="I65" s="29"/>
       <c r="J65" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K65" s="29"/>
       <c r="L65" s="29">
@@ -31042,7 +31122,7 @@
         <v>烈风螳螂</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D66" s="29">
         <f t="shared" si="6"/>
@@ -31055,13 +31135,13 @@
         <v>1</v>
       </c>
       <c r="G66" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="H66" s="30">
+        <v>1</v>
+      </c>
+      <c r="I66" s="29" t="s">
         <v>882</v>
-      </c>
-      <c r="H66" s="30">
-        <v>1</v>
-      </c>
-      <c r="I66" s="29" t="s">
-        <v>883</v>
       </c>
       <c r="J66" s="29" t="str">
         <f t="shared" si="7"/>
@@ -31085,7 +31165,7 @@
         <v>链球鬼兵</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D67" s="29">
         <f t="shared" si="6"/>
@@ -31098,19 +31178,19 @@
         <v>0</v>
       </c>
       <c r="G67" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="H67" s="30">
+        <v>1</v>
+      </c>
+      <c r="I67" s="29" t="s">
         <v>884</v>
       </c>
-      <c r="H67" s="30">
-        <v>1</v>
-      </c>
-      <c r="I67" s="29" t="s">
+      <c r="J67" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="J67" s="29" t="s">
+      <c r="K67" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="K67" s="29" t="s">
-        <v>887</v>
       </c>
       <c r="L67" s="29">
         <v>1</v>
@@ -31126,7 +31206,7 @@
         <v>链球鬼兵</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" ref="D68:D69" si="22">IF(RIGHT(LEFT(A68,4),1)*1=2,2,1)</f>
@@ -31139,19 +31219,19 @@
         <v>0</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H68" s="30">
         <v>1</v>
       </c>
       <c r="I68" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="J68" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="J68" s="29" t="s">
+      <c r="K68" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="K68" s="29" t="s">
-        <v>887</v>
       </c>
       <c r="L68" s="29">
         <v>1</v>
@@ -31167,7 +31247,7 @@
         <v>链球鬼兵</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D69" s="29">
         <f t="shared" si="22"/>
@@ -31180,19 +31260,19 @@
         <v>0</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H69" s="30">
         <v>1</v>
       </c>
       <c r="I69" s="29" t="s">
+        <v>884</v>
+      </c>
+      <c r="J69" s="29" t="s">
         <v>885</v>
       </c>
-      <c r="J69" s="29" t="s">
+      <c r="K69" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>887</v>
       </c>
       <c r="L69" s="29">
         <v>1</v>
@@ -31208,7 +31288,7 @@
         <v>砍刀鬼兵</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" ref="D70:D94" si="23">IF(RIGHT(LEFT(A70,4),1)*1=2,2,1)</f>
@@ -31221,19 +31301,19 @@
         <v>0</v>
       </c>
       <c r="G70" s="29" t="s">
+        <v>889</v>
+      </c>
+      <c r="H70" s="30">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29" t="s">
         <v>890</v>
       </c>
-      <c r="H70" s="30">
-        <v>1</v>
-      </c>
-      <c r="I70" s="29" t="s">
+      <c r="J70" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="J70" s="29" t="s">
+      <c r="K70" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="K70" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="L70" s="29">
         <v>1</v>
@@ -31249,7 +31329,7 @@
         <v>砍刀鬼兵</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D71" s="29">
         <f t="shared" ref="D71:D72" si="24">IF(RIGHT(LEFT(A71,4),1)*1=2,2,1)</f>
@@ -31262,19 +31342,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H71" s="30">
         <v>1</v>
       </c>
       <c r="I71" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="J71" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="J71" s="29" t="s">
+      <c r="K71" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="K71" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="L71" s="29">
         <v>1</v>
@@ -31290,7 +31370,7 @@
         <v>砍刀鬼兵</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D72" s="29">
         <f t="shared" si="24"/>
@@ -31303,19 +31383,19 @@
         <v>0</v>
       </c>
       <c r="G72" s="29" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H72" s="30">
         <v>1</v>
       </c>
       <c r="I72" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="J72" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="J72" s="29" t="s">
+      <c r="K72" s="29" t="s">
         <v>892</v>
-      </c>
-      <c r="K72" s="29" t="s">
-        <v>893</v>
       </c>
       <c r="L72" s="29">
         <v>1</v>
@@ -31331,7 +31411,7 @@
         <v>双刃鬼兵</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D73" s="29">
         <f t="shared" si="23"/>
@@ -31344,19 +31424,19 @@
         <v>0</v>
       </c>
       <c r="G73" s="29" t="s">
+        <v>895</v>
+      </c>
+      <c r="H73" s="30">
+        <v>1</v>
+      </c>
+      <c r="I73" s="29" t="s">
         <v>896</v>
       </c>
-      <c r="H73" s="30">
-        <v>1</v>
-      </c>
-      <c r="I73" s="29" t="s">
+      <c r="J73" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="K73" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="K73" s="29" t="s">
-        <v>899</v>
       </c>
       <c r="L73" s="29">
         <v>1</v>
@@ -31372,7 +31452,7 @@
         <v>双刃鬼兵</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D74" s="29">
         <f t="shared" ref="D74:D75" si="25">IF(RIGHT(LEFT(A74,4),1)*1=2,2,1)</f>
@@ -31385,19 +31465,19 @@
         <v>0</v>
       </c>
       <c r="G74" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H74" s="30">
         <v>1</v>
       </c>
       <c r="I74" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="J74" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="J74" s="29" t="s">
+      <c r="K74" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="K74" s="29" t="s">
-        <v>899</v>
       </c>
       <c r="L74" s="29">
         <v>1</v>
@@ -31413,7 +31493,7 @@
         <v>双刃鬼兵</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D75" s="29">
         <f t="shared" si="25"/>
@@ -31426,19 +31506,19 @@
         <v>0</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H75" s="30">
         <v>1</v>
       </c>
       <c r="I75" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="J75" s="29" t="s">
         <v>897</v>
       </c>
-      <c r="J75" s="29" t="s">
+      <c r="K75" s="29" t="s">
         <v>898</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>899</v>
       </c>
       <c r="L75" s="29">
         <v>1</v>
@@ -31454,7 +31534,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D76" s="29">
         <f t="shared" si="23"/>
@@ -31467,19 +31547,19 @@
         <v>0</v>
       </c>
       <c r="G76" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="H76" s="30">
+        <v>1</v>
+      </c>
+      <c r="I76" s="29" t="s">
         <v>902</v>
       </c>
-      <c r="H76" s="30">
-        <v>1</v>
-      </c>
-      <c r="I76" s="29" t="s">
+      <c r="J76" s="29" t="s">
         <v>903</v>
       </c>
-      <c r="J76" s="29" t="s">
+      <c r="K76" s="29" t="s">
         <v>904</v>
-      </c>
-      <c r="K76" s="29" t="s">
-        <v>905</v>
       </c>
       <c r="L76" s="29">
         <v>1</v>
@@ -31495,7 +31575,7 @@
         <v>鬼将军</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D77" s="29">
         <f t="shared" si="23"/>
@@ -31508,19 +31588,19 @@
         <v>0</v>
       </c>
       <c r="G77" s="29" t="s">
+        <v>905</v>
+      </c>
+      <c r="H77" s="30">
+        <v>1</v>
+      </c>
+      <c r="I77" s="29" t="s">
         <v>906</v>
       </c>
-      <c r="H77" s="30">
-        <v>1</v>
-      </c>
-      <c r="I77" s="29" t="s">
+      <c r="J77" s="29" t="s">
         <v>907</v>
       </c>
-      <c r="J77" s="29" t="s">
+      <c r="K77" s="29" t="s">
         <v>908</v>
-      </c>
-      <c r="K77" s="29" t="s">
-        <v>909</v>
       </c>
       <c r="L77" s="29">
         <v>1</v>
@@ -31536,7 +31616,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D78" s="29">
         <f t="shared" si="23"/>
@@ -31549,19 +31629,19 @@
         <v>0</v>
       </c>
       <c r="G78" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="H78" s="30">
+        <v>1</v>
+      </c>
+      <c r="I78" s="29" t="s">
         <v>910</v>
       </c>
-      <c r="H78" s="30">
-        <v>1</v>
-      </c>
-      <c r="I78" s="29" t="s">
+      <c r="J78" s="29" t="s">
         <v>911</v>
       </c>
-      <c r="J78" s="29" t="s">
+      <c r="K78" s="29" t="s">
         <v>912</v>
-      </c>
-      <c r="K78" s="29" t="s">
-        <v>913</v>
       </c>
       <c r="L78" s="29">
         <v>1</v>
@@ -31577,7 +31657,7 @@
         <v>变身后鬼将军</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D79" s="29">
         <f t="shared" si="23"/>
@@ -31590,19 +31670,19 @@
         <v>0</v>
       </c>
       <c r="G79" s="29" t="s">
+        <v>913</v>
+      </c>
+      <c r="H79" s="30">
+        <v>1</v>
+      </c>
+      <c r="I79" s="29" t="s">
         <v>914</v>
       </c>
-      <c r="H79" s="30">
-        <v>1</v>
-      </c>
-      <c r="I79" s="29" t="s">
+      <c r="J79" s="29" t="s">
         <v>915</v>
       </c>
-      <c r="J79" s="29" t="s">
+      <c r="K79" s="29" t="s">
         <v>916</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>917</v>
       </c>
       <c r="L79" s="29">
         <v>1</v>
@@ -31618,7 +31698,7 @@
         <v>骷髅小兵1</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D80" s="29">
         <f t="shared" si="23"/>
@@ -31631,19 +31711,19 @@
         <v>0</v>
       </c>
       <c r="G80" s="29" t="s">
+        <v>917</v>
+      </c>
+      <c r="H80" s="30">
+        <v>1</v>
+      </c>
+      <c r="I80" s="29" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J80" s="29" t="s">
         <v>918</v>
       </c>
-      <c r="H80" s="30">
-        <v>1</v>
-      </c>
-      <c r="I80" s="29" t="s">
+      <c r="K80" s="29" t="s">
         <v>919</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>920</v>
-      </c>
-      <c r="K80" s="29" t="s">
-        <v>921</v>
       </c>
       <c r="L80" s="29">
         <v>1</v>
@@ -31659,7 +31739,7 @@
         <v>骷髅小兵2</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D81" s="29">
         <f t="shared" si="23"/>
@@ -31672,19 +31752,19 @@
         <v>0</v>
       </c>
       <c r="G81" s="29" t="s">
+        <v>920</v>
+      </c>
+      <c r="H81" s="30">
+        <v>1</v>
+      </c>
+      <c r="I81" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="J81" s="29" t="s">
         <v>922</v>
       </c>
-      <c r="H81" s="30">
-        <v>1</v>
-      </c>
-      <c r="I81" s="29" t="s">
+      <c r="K81" s="29" t="s">
         <v>923</v>
-      </c>
-      <c r="J81" s="29" t="s">
-        <v>924</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>925</v>
       </c>
       <c r="L81" s="29">
         <v>1</v>
@@ -31700,7 +31780,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D82" s="29">
         <f t="shared" si="23"/>
@@ -31713,19 +31793,19 @@
         <v>0</v>
       </c>
       <c r="G82" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="H82" s="30">
+        <v>1</v>
+      </c>
+      <c r="I82" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="J82" s="29" t="s">
         <v>926</v>
       </c>
-      <c r="H82" s="30">
-        <v>1</v>
-      </c>
-      <c r="I82" s="29" t="s">
+      <c r="K82" s="29" t="s">
         <v>927</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>928</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>929</v>
       </c>
       <c r="L82" s="29">
         <v>1</v>
@@ -31741,7 +31821,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D83" s="29">
         <f t="shared" si="23"/>
@@ -31754,16 +31834,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="29" t="s">
+        <v>928</v>
+      </c>
+      <c r="H83" s="30">
+        <v>1</v>
+      </c>
+      <c r="I83" s="29" t="s">
+        <v>929</v>
+      </c>
+      <c r="J83" s="29" t="s">
         <v>930</v>
-      </c>
-      <c r="H83" s="30">
-        <v>1</v>
-      </c>
-      <c r="I83" s="29" t="s">
-        <v>931</v>
-      </c>
-      <c r="J83" s="29" t="s">
-        <v>932</v>
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="29">
@@ -31780,7 +31860,7 @@
         <v>伏尸将军</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D84" s="29">
         <f t="shared" si="23"/>
@@ -31793,19 +31873,19 @@
         <v>0</v>
       </c>
       <c r="G84" s="29" t="s">
+        <v>931</v>
+      </c>
+      <c r="H84" s="30">
+        <v>1</v>
+      </c>
+      <c r="I84" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="J84" s="29" t="s">
         <v>933</v>
       </c>
-      <c r="H84" s="30">
-        <v>1</v>
-      </c>
-      <c r="I84" s="29" t="s">
+      <c r="K84" s="29" t="s">
         <v>934</v>
-      </c>
-      <c r="J84" s="29" t="s">
-        <v>935</v>
-      </c>
-      <c r="K84" s="29" t="s">
-        <v>936</v>
       </c>
       <c r="L84" s="29">
         <v>1</v>
@@ -31821,7 +31901,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D85" s="29">
         <f t="shared" si="23"/>
@@ -31834,19 +31914,19 @@
         <v>0</v>
       </c>
       <c r="G85" s="29" t="s">
+        <v>935</v>
+      </c>
+      <c r="H85" s="30">
+        <v>1</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="J85" s="29" t="s">
         <v>937</v>
       </c>
-      <c r="H85" s="30">
-        <v>1</v>
-      </c>
-      <c r="I85" s="29" t="s">
+      <c r="K85" s="29" t="s">
         <v>938</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>939</v>
-      </c>
-      <c r="K85" s="29" t="s">
-        <v>940</v>
       </c>
       <c r="L85" s="29">
         <v>1</v>
@@ -31862,7 +31942,7 @@
         <v>石瀑将军</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D86" s="29">
         <f t="shared" si="23"/>
@@ -31875,19 +31955,19 @@
         <v>0</v>
       </c>
       <c r="G86" s="29" t="s">
+        <v>939</v>
+      </c>
+      <c r="H86" s="30">
+        <v>1</v>
+      </c>
+      <c r="I86" s="29" t="s">
+        <v>940</v>
+      </c>
+      <c r="J86" s="29" t="s">
         <v>941</v>
       </c>
-      <c r="H86" s="30">
-        <v>1</v>
-      </c>
-      <c r="I86" s="29" t="s">
+      <c r="K86" s="29" t="s">
         <v>942</v>
-      </c>
-      <c r="J86" s="29" t="s">
-        <v>943</v>
-      </c>
-      <c r="K86" s="29" t="s">
-        <v>944</v>
       </c>
       <c r="L86" s="29">
         <v>1</v>
@@ -31903,7 +31983,7 @@
         <v>小蜘蛛</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D87" s="29">
         <f t="shared" si="23"/>
@@ -31916,19 +31996,19 @@
         <v>0</v>
       </c>
       <c r="G87" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="H87" s="30">
+        <v>1</v>
+      </c>
+      <c r="I87" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="J87" s="29" t="s">
         <v>945</v>
       </c>
-      <c r="H87" s="30">
-        <v>1</v>
-      </c>
-      <c r="I87" s="29" t="s">
+      <c r="K87" s="29" t="s">
         <v>946</v>
-      </c>
-      <c r="J87" s="29" t="s">
-        <v>947</v>
-      </c>
-      <c r="K87" s="29" t="s">
-        <v>948</v>
       </c>
       <c r="L87" s="29">
         <v>1</v>
@@ -31944,7 +32024,7 @@
         <v>魔导机兵团</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D88" s="29">
         <f t="shared" si="23"/>
@@ -31957,16 +32037,16 @@
         <v>0</v>
       </c>
       <c r="G88" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="H88" s="30">
+        <v>1</v>
+      </c>
+      <c r="I88" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="J88" s="29" t="s">
         <v>949</v>
-      </c>
-      <c r="H88" s="30">
-        <v>1</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>950</v>
-      </c>
-      <c r="J88" s="29" t="s">
-        <v>951</v>
       </c>
       <c r="K88" s="29"/>
       <c r="L88" s="29">
@@ -31983,7 +32063,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D89" s="29">
         <f t="shared" si="23"/>
@@ -31996,19 +32076,19 @@
         <v>0</v>
       </c>
       <c r="G89" s="29" t="s">
+        <v>950</v>
+      </c>
+      <c r="H89" s="30">
+        <v>1</v>
+      </c>
+      <c r="I89" s="29" t="s">
+        <v>951</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>952</v>
       </c>
-      <c r="H89" s="30">
-        <v>1</v>
-      </c>
-      <c r="I89" s="29" t="s">
+      <c r="K89" s="29" t="s">
         <v>953</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>954</v>
-      </c>
-      <c r="K89" s="29" t="s">
-        <v>955</v>
       </c>
       <c r="L89" s="29">
         <v>1</v>
@@ -32024,7 +32104,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D90" s="29">
         <f t="shared" si="23"/>
@@ -32037,16 +32117,16 @@
         <v>0</v>
       </c>
       <c r="G90" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="H90" s="30">
+        <v>1</v>
+      </c>
+      <c r="I90" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>956</v>
-      </c>
-      <c r="H90" s="30">
-        <v>1</v>
-      </c>
-      <c r="I90" s="29" t="s">
-        <v>957</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>958</v>
       </c>
       <c r="K90" s="34"/>
       <c r="L90" s="29">
@@ -32063,7 +32143,7 @@
         <v>山蜘蛛</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D91" s="29">
         <f t="shared" si="23"/>
@@ -32076,16 +32156,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="29" t="s">
+        <v>957</v>
+      </c>
+      <c r="H91" s="30">
+        <v>1</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>958</v>
+      </c>
+      <c r="J91" s="29" t="s">
         <v>959</v>
-      </c>
-      <c r="H91" s="30">
-        <v>1</v>
-      </c>
-      <c r="I91" s="29" t="s">
-        <v>960</v>
-      </c>
-      <c r="J91" s="29" t="s">
-        <v>961</v>
       </c>
       <c r="K91" s="34"/>
       <c r="L91" s="29">
@@ -32099,10 +32179,10 @@
       </c>
       <c r="B92" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A92,战场角色!A:A,0))</f>
-        <v>常服夏玲</v>
+        <v>常服夏铃</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D92" s="29">
         <f t="shared" si="23"/>
@@ -32115,16 +32195,16 @@
         <v>1</v>
       </c>
       <c r="G92" s="29" t="s">
+        <v>960</v>
+      </c>
+      <c r="H92" s="30">
+        <v>1</v>
+      </c>
+      <c r="I92" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="J92" s="29" t="s">
         <v>962</v>
-      </c>
-      <c r="H92" s="30">
-        <v>1</v>
-      </c>
-      <c r="I92" s="29" t="s">
-        <v>963</v>
-      </c>
-      <c r="J92" s="29" t="s">
-        <v>964</v>
       </c>
       <c r="K92" s="29"/>
       <c r="L92" s="29">
@@ -32138,10 +32218,10 @@
       </c>
       <c r="B93" s="29" t="str">
         <f>INDEX(战场角色!B:B,MATCH(skillInfo!A93,战场角色!A:A,0))</f>
-        <v>常服夏玲</v>
+        <v>常服夏铃</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D93" s="29">
         <f t="shared" si="23"/>
@@ -32154,19 +32234,19 @@
         <v>1</v>
       </c>
       <c r="G93" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="H93" s="30">
+        <v>1</v>
+      </c>
+      <c r="I93" s="29" t="s">
+        <v>964</v>
+      </c>
+      <c r="J93" s="29" t="s">
         <v>965</v>
       </c>
-      <c r="H93" s="30">
-        <v>1</v>
-      </c>
-      <c r="I93" s="29" t="s">
+      <c r="K93" s="29" t="s">
         <v>966</v>
-      </c>
-      <c r="J93" s="29" t="s">
-        <v>967</v>
-      </c>
-      <c r="K93" s="29" t="s">
-        <v>968</v>
       </c>
       <c r="L93" s="29">
         <v>1</v>
@@ -32182,7 +32262,7 @@
         <v>柠檬精</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D94" s="29">
         <f t="shared" si="23"/>
@@ -32195,19 +32275,19 @@
         <v>1</v>
       </c>
       <c r="G94" s="29" t="s">
+        <v>967</v>
+      </c>
+      <c r="H94" s="30">
+        <v>1</v>
+      </c>
+      <c r="I94" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="J94" s="29" t="s">
         <v>969</v>
       </c>
-      <c r="H94" s="30">
-        <v>1</v>
-      </c>
-      <c r="I94" s="29" t="s">
+      <c r="K94" s="29" t="s">
         <v>970</v>
-      </c>
-      <c r="J94" s="29" t="s">
-        <v>971</v>
-      </c>
-      <c r="K94" s="29" t="s">
-        <v>972</v>
       </c>
       <c r="L94" s="29">
         <v>1</v>
@@ -32219,10 +32299,10 @@
         <v>1101016</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D95" s="29">
         <v>1</v>
@@ -32234,19 +32314,19 @@
         <v>1</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H95" s="30">
         <v>1</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J95" s="29" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K95" s="29" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="L95" s="29">
         <v>1</v>
@@ -32258,10 +32338,10 @@
         <v>1101016</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D96" s="29">
         <v>1</v>
@@ -32273,19 +32353,19 @@
         <v>1</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H96" s="30">
         <v>1</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J96" s="29" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="K96" s="29" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L96" s="29">
         <v>1</v>
@@ -32297,10 +32377,10 @@
         <v>1101020</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D97" s="29">
         <v>1</v>
@@ -32312,19 +32392,19 @@
         <v>1</v>
       </c>
       <c r="G97" s="29" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H97" s="30">
         <v>1</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J97" s="29" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="K97" s="29" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="L97" s="29">
         <v>1</v>
@@ -32336,10 +32416,10 @@
         <v>1101020</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D98" s="29">
         <v>1</v>
@@ -32351,19 +32431,19 @@
         <v>1</v>
       </c>
       <c r="G98" s="29" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H98" s="30">
         <v>1</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J98" s="29" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="K98" s="29" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="L98" s="29">
         <v>1</v>
@@ -32375,10 +32455,10 @@
         <v>1101022</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D99" s="29">
         <v>1</v>
@@ -32390,19 +32470,19 @@
         <v>1</v>
       </c>
       <c r="G99" s="29" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H99" s="30">
         <v>1</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="J99" s="29" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="K99" s="29" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="L99" s="29">
         <v>1</v>
@@ -32414,10 +32494,10 @@
         <v>1101022</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D100" s="29">
         <v>1</v>
@@ -32429,19 +32509,19 @@
         <v>1</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H100" s="30">
         <v>1</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="J100" s="29" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K100" s="29" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L100" s="29">
         <v>1</v>
@@ -32453,10 +32533,10 @@
         <v>1101023</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D101" s="29">
         <v>1</v>
@@ -32468,19 +32548,19 @@
         <v>1</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H101" s="30">
         <v>1</v>
       </c>
       <c r="I101" s="29" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="K101" s="29" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L101" s="29">
         <v>1</v>
@@ -32492,10 +32572,10 @@
         <v>1101023</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D102" s="29">
         <v>1</v>
@@ -32507,19 +32587,19 @@
         <v>1</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H102" s="30">
         <v>1</v>
       </c>
       <c r="I102" s="29" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J102" s="29" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K102" s="29" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="L102" s="29">
         <v>1</v>
@@ -32531,10 +32611,10 @@
         <v>1101026</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D103" s="29">
         <v>1</v>
@@ -32546,19 +32626,19 @@
         <v>1</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H103" s="30">
         <v>1</v>
       </c>
       <c r="I103" s="29" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J103" s="29" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="L103" s="29">
         <v>1</v>
@@ -32570,10 +32650,10 @@
         <v>1101026</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D104" s="29">
         <v>1</v>
@@ -32585,19 +32665,19 @@
         <v>1</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J104" s="29" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L104" s="29">
         <v>1</v>
@@ -32609,10 +32689,10 @@
         <v>1101030</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D105" s="29">
         <v>1</v>
@@ -32624,19 +32704,19 @@
         <v>1</v>
       </c>
       <c r="G105" s="29" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H105" s="30">
         <v>1</v>
       </c>
       <c r="I105" s="29" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="K105" s="29" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="L105" s="29">
         <v>1</v>
@@ -32648,10 +32728,10 @@
         <v>1101030</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D106" s="29">
         <v>1</v>
@@ -32663,19 +32743,19 @@
         <v>1</v>
       </c>
       <c r="G106" s="29" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H106" s="30">
         <v>1</v>
       </c>
       <c r="I106" s="29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J106" s="29" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="K106" s="29" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="L106" s="29">
         <v>1</v>
@@ -32687,10 +32767,10 @@
         <v>1102023</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D107" s="29">
         <v>2</v>
@@ -32702,19 +32782,19 @@
         <v>1</v>
       </c>
       <c r="G107" s="29" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H107" s="30">
         <v>1</v>
       </c>
       <c r="I107" s="29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K107" s="29" t="s">
         <v>1216</v>
-      </c>
-      <c r="J107" s="29" t="s">
-        <v>1217</v>
-      </c>
-      <c r="K107" s="29" t="s">
-        <v>1218</v>
       </c>
       <c r="L107" s="29">
         <v>1</v>
@@ -32726,10 +32806,10 @@
         <v>1102024</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D108" s="29">
         <v>2</v>
@@ -32741,19 +32821,19 @@
         <v>1</v>
       </c>
       <c r="G108" s="29" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H108" s="30">
         <v>1</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J108" s="29" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K108" s="29" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="L108" s="29">
         <v>1</v>
@@ -32765,10 +32845,10 @@
         <v>1102026</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D109" s="29">
         <v>2</v>
@@ -32780,19 +32860,19 @@
         <v>1</v>
       </c>
       <c r="G109" s="29" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H109" s="30">
         <v>1</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="J109" s="29" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="K109" s="29" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="L109" s="29">
         <v>1</v>
@@ -32804,10 +32884,10 @@
         <v>1102028</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D110" s="29">
         <v>2</v>
@@ -32819,19 +32899,19 @@
         <v>1</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H110" s="30">
         <v>1</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="J110" s="29" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K110" s="29" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="L110" s="29">
         <v>1</v>
@@ -32843,10 +32923,10 @@
         <v>1102030</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D111" s="29">
         <v>2</v>
@@ -32858,19 +32938,19 @@
         <v>1</v>
       </c>
       <c r="G111" s="29" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H111" s="30">
         <v>1</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="J111" s="29" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="K111" s="29" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="L111" s="29">
         <v>1</v>
@@ -32882,10 +32962,10 @@
         <v>1102031</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D112" s="29">
         <v>2</v>
@@ -32897,19 +32977,19 @@
         <v>1</v>
       </c>
       <c r="G112" s="29" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H112" s="30">
         <v>1</v>
       </c>
       <c r="I112" s="29" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="J112" s="29" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="K112" s="29" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="L112" s="29">
         <v>1</v>
@@ -32925,7 +33005,7 @@
         <v>少年曹玄亮</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D113" s="29">
         <f t="shared" ref="D113:D114" si="26">IF(RIGHT(LEFT(A113,4),1)*1=2,2,1)</f>
@@ -32938,7 +33018,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="29" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H113" s="30">
         <v>1</v>
@@ -32969,7 +33049,7 @@
         <v>少年曹玄亮</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D114" s="29">
         <f t="shared" si="26"/>
@@ -32982,7 +33062,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="29" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H114" s="30">
         <v>1</v>
@@ -33042,37 +33122,37 @@
         <v>255</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="H1" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>736</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -33086,16 +33166,16 @@
         <v>119</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>739</v>
-      </c>
       <c r="F2" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>738</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>739</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>268</v>
@@ -33121,37 +33201,37 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="C3" s="28" t="s">
         <v>740</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>741</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>744</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="28" t="s">
         <v>746</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="28" t="s">
+        <v>971</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="J3" s="28" t="s">
-        <v>973</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="L3" s="28" t="s">
         <v>748</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>749</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -33164,7 +33244,7 @@
         <v>张郃</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4" s="29">
         <f t="shared" ref="D4" si="0">IF(RIGHT(LEFT(A4,4),1)*1=2,2,1)</f>
@@ -33177,16 +33257,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H4" s="30">
         <v>1</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29">
@@ -33205,10 +33285,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33223,21 +33303,21 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C2" t="s">
         <v>978</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="C2" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -33245,10 +33325,10 @@
         <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -33256,7 +33336,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -33265,7 +33345,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C5" s="22"/>
     </row>
@@ -33274,7 +33354,7 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C6" s="22"/>
     </row>
@@ -33283,7 +33363,7 @@
         <v>1304004</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -33292,7 +33372,7 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -33301,7 +33381,7 @@
         <v>1304006</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -33310,7 +33390,7 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C10" s="22"/>
     </row>
@@ -33319,7 +33399,7 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C11" s="23"/>
     </row>
@@ -33328,7 +33408,7 @@
         <v>1304009</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C12" s="23"/>
     </row>
@@ -33337,7 +33417,7 @@
         <v>1304010</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C13" s="22"/>
     </row>
@@ -33346,7 +33426,7 @@
         <v>1304011</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -33355,7 +33435,7 @@
         <v>1304012</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C15" s="22"/>
     </row>
@@ -33364,7 +33444,7 @@
         <v>1304013</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C16" s="22"/>
     </row>
@@ -33373,7 +33453,7 @@
         <v>1304014</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C17" s="9"/>
     </row>
@@ -33382,7 +33462,7 @@
         <v>1304015</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C18" s="9"/>
     </row>
@@ -33391,7 +33471,7 @@
         <v>1304016</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -33400,7 +33480,7 @@
         <v>1304017</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -33409,7 +33489,7 @@
         <v>1304018</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -33418,7 +33498,7 @@
         <v>1304019</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -33427,7 +33507,7 @@
         <v>1304020</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -33436,7 +33516,7 @@
         <v>1304021</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -33445,7 +33525,7 @@
         <v>1304022</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -33454,7 +33534,7 @@
         <v>1304023</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -33463,7 +33543,7 @@
         <v>1304024</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C27" s="9"/>
     </row>
@@ -33472,7 +33552,7 @@
         <v>1304025</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -33481,7 +33561,7 @@
         <v>1304026</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C29" s="9"/>
     </row>
@@ -33490,7 +33570,7 @@
         <v>1304027</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -33499,7 +33579,7 @@
         <v>1304028</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -33508,7 +33588,7 @@
         <v>1304029</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C32" s="9"/>
     </row>
@@ -33517,7 +33597,7 @@
         <v>1304030</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -33526,7 +33606,7 @@
         <v>1304031</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C34" s="9"/>
     </row>
@@ -33535,7 +33615,7 @@
         <v>1304032</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C35" s="9"/>
     </row>
@@ -33544,7 +33624,7 @@
         <v>1304033</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C36" s="9"/>
     </row>
@@ -33553,7 +33633,7 @@
         <v>1304034</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C37" s="9"/>
     </row>
@@ -33562,7 +33642,7 @@
         <v>1304035</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C38" s="9"/>
     </row>
@@ -33571,7 +33651,7 @@
         <v>1304036</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C39" s="9"/>
     </row>
@@ -33580,7 +33660,7 @@
         <v>1304037</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C40" s="9"/>
     </row>
@@ -33589,7 +33669,7 @@
         <v>1304038</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C41" s="9"/>
     </row>
@@ -33598,7 +33678,7 @@
         <v>1304039</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -33607,7 +33687,7 @@
         <v>1304040</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C43" s="9"/>
     </row>
@@ -33616,7 +33696,7 @@
         <v>1304041</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C44" s="9"/>
     </row>
@@ -33625,7 +33705,7 @@
         <v>1804012</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C45" s="22"/>
     </row>
@@ -33634,7 +33714,7 @@
         <v>1805001</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C46" s="9"/>
     </row>
@@ -33643,7 +33723,7 @@
         <v>1806001</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C47" s="9"/>
     </row>
@@ -33652,7 +33732,7 @@
         <v>1807001</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C48" s="9"/>
     </row>
@@ -33661,7 +33741,7 @@
         <v>1808001</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C49" s="9"/>
     </row>
@@ -33670,7 +33750,7 @@
         <v>1809001</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C50" s="9"/>
     </row>
@@ -33679,7 +33759,7 @@
         <v>1810001</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C51" s="9"/>
     </row>
@@ -33688,7 +33768,7 @@
         <v>1811001</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C52" s="9"/>
     </row>
@@ -33697,7 +33777,7 @@
         <v>1812001</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C53" s="9"/>
     </row>
@@ -33706,7 +33786,7 @@
         <v>1813001</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C54" s="9"/>
     </row>
@@ -33715,7 +33795,7 @@
         <v>1814001</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C55" s="9"/>
     </row>
@@ -33724,7 +33804,7 @@
         <v>1815001</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C56" s="9"/>
     </row>
@@ -33733,7 +33813,7 @@
         <v>1816001</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C57" s="9"/>
     </row>
@@ -33742,7 +33822,7 @@
         <v>1817001</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C58" s="9"/>
     </row>
@@ -33751,7 +33831,7 @@
         <v>1818001</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -33760,7 +33840,7 @@
         <v>1819001</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C60" s="9"/>
     </row>
@@ -33769,7 +33849,7 @@
         <v>1820001</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C61" s="9"/>
     </row>
@@ -33778,22 +33858,115 @@
         <v>1821001</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="22">
+        <v>1822001</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="22">
+        <v>1823001</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="22">
+        <v>1824001</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="22">
+        <v>1825001</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="22">
+        <v>1826001</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="22">
+        <v>1827001</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="22">
+        <v>1828001</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="22">
+        <v>1829001</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C70" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:A47">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A50">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A62">
+  <conditionalFormatting sqref="A51:A63">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33805,7 +33978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -33826,31 +33999,31 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -33858,13 +34031,13 @@
         <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E2" t="s">
         <v>268</v>
@@ -33888,31 +34061,31 @@
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -34790,7 +34963,7 @@
       </c>
       <c r="C28" s="16" t="str">
         <f>INDEX(战场角色!B:B,MATCH(武灵技信息!B28,战场角色!A:A,0))</f>
-        <v>塞伯洛斯</v>
+        <v>塞伯罗斯</v>
       </c>
       <c r="D28" s="16">
         <v>1</v>
@@ -34825,7 +34998,7 @@
       </c>
       <c r="C29" s="16" t="str">
         <f>INDEX(战场角色!B:B,MATCH(武灵技信息!B29,战场角色!A:A,0))</f>
-        <v>塞伯洛斯</v>
+        <v>塞伯罗斯</v>
       </c>
       <c r="D29" s="16">
         <v>1</v>
@@ -35452,13 +35625,13 @@
         <v>2</v>
       </c>
       <c r="F46" s="18" t="s">
+        <v>987</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>988</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>989</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>990</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>991</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18">
@@ -35483,13 +35656,13 @@
         <v>1</v>
       </c>
       <c r="F47" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>992</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>993</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>994</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="18">
@@ -35944,13 +36117,13 @@
         <v>1201001_skill_1</v>
       </c>
       <c r="G60" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="I60" s="15" t="s">
         <v>886</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>887</v>
       </c>
       <c r="J60" s="15"/>
     </row>
@@ -35976,13 +36149,13 @@
         <v>1201002_skill_1</v>
       </c>
       <c r="G61" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="I61" s="15" t="s">
         <v>892</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>893</v>
       </c>
       <c r="J61" s="15"/>
     </row>
@@ -36008,13 +36181,13 @@
         <v>1201003_skill_1</v>
       </c>
       <c r="G62" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>897</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="I62" s="15" t="s">
         <v>898</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>899</v>
       </c>
       <c r="J62" s="15"/>
     </row>
@@ -36040,13 +36213,13 @@
         <v>1201004_skill_1</v>
       </c>
       <c r="G63" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="H63" s="15" t="s">
+      <c r="I63" s="15" t="s">
         <v>904</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>905</v>
       </c>
       <c r="J63" s="15"/>
     </row>
@@ -36072,13 +36245,13 @@
         <v>1201005_skill_1</v>
       </c>
       <c r="G64" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="H64" s="15" t="s">
+      <c r="I64" s="15" t="s">
         <v>912</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>913</v>
       </c>
       <c r="J64" s="15"/>
     </row>
@@ -36104,13 +36277,13 @@
         <v>1201008_skill_1</v>
       </c>
       <c r="G65" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="I65" s="15" t="s">
         <v>927</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>928</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>929</v>
       </c>
       <c r="J65" s="15"/>
     </row>
@@ -36136,13 +36309,13 @@
         <v>1201009_skill_1</v>
       </c>
       <c r="G66" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>937</v>
+      </c>
+      <c r="I66" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>939</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>940</v>
       </c>
       <c r="J66" s="15"/>
     </row>
@@ -36168,13 +36341,13 @@
         <v>1201010_skill_1</v>
       </c>
       <c r="G67" s="15" t="s">
+        <v>944</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>945</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>946</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>947</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>948</v>
       </c>
       <c r="J67" s="15"/>
     </row>
@@ -36200,10 +36373,10 @@
         <v>1201011_skill_1</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
@@ -36230,13 +36403,13 @@
         <v>1201012_skill_1</v>
       </c>
       <c r="G69" s="15" t="s">
+        <v>951</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>952</v>
+      </c>
+      <c r="I69" s="15" t="s">
         <v>953</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>954</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>955</v>
       </c>
       <c r="J69" s="15"/>
     </row>
@@ -36251,8 +36424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36274,22 +36447,22 @@
         <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -36300,16 +36473,16 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E2" t="s">
         <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G2" t="s">
         <v>118</v>
@@ -36320,28 +36493,28 @@
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>1006</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -36349,7 +36522,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -36358,7 +36531,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -36375,7 +36548,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -36384,7 +36557,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -36401,7 +36574,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -36410,7 +36583,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -36427,7 +36600,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -36436,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -36453,7 +36626,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -36462,7 +36635,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -36479,7 +36652,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -36488,7 +36661,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -36505,7 +36678,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -36514,7 +36687,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -36531,7 +36704,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -36540,7 +36713,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -36557,7 +36730,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -36566,7 +36739,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -36583,7 +36756,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -36592,7 +36765,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -36609,7 +36782,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -36618,7 +36791,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -36635,7 +36808,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -36644,7 +36817,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -36661,7 +36834,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -36670,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -36687,7 +36860,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -36696,7 +36869,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -36713,7 +36886,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -36722,7 +36895,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -36739,7 +36912,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
@@ -36748,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -36765,7 +36938,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
@@ -36774,7 +36947,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -36791,7 +36964,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
@@ -36800,7 +36973,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -36817,7 +36990,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -36826,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -36843,7 +37016,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -36852,7 +37025,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -36869,7 +37042,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -36878,7 +37051,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -36895,7 +37068,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -36904,7 +37077,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -36921,7 +37094,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
@@ -36930,7 +37103,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -36947,7 +37120,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -36956,7 +37129,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -36973,7 +37146,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -36982,7 +37155,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -36999,7 +37172,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
@@ -37008,7 +37181,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -37025,7 +37198,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -37034,7 +37207,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -37051,7 +37224,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -37060,7 +37233,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -37077,7 +37250,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -37086,7 +37259,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -37103,7 +37276,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -37112,7 +37285,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -37129,7 +37302,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -37138,7 +37311,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -37155,7 +37328,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -37164,7 +37337,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
@@ -37181,7 +37354,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C36" s="5">
         <v>2</v>
@@ -37190,7 +37363,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -37207,7 +37380,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
@@ -37216,7 +37389,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -37233,7 +37406,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
@@ -37242,7 +37415,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -37259,7 +37432,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -37268,7 +37441,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -37285,7 +37458,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
@@ -37294,7 +37467,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -37311,7 +37484,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -37320,7 +37493,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -37337,7 +37510,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -37346,7 +37519,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
@@ -37363,7 +37536,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
@@ -37372,7 +37545,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F43" s="10">
         <v>1</v>

--- a/Excel/镇魂街/battle.战场配置.xlsx
+++ b/Excel/镇魂街/battle.战场配置.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1371">
   <si>
     <t>sheet名</t>
   </si>
@@ -3701,9 +3701,6 @@
     <t>Art/Roles/rol_1102021/Animations/1102021_exskill_1_e_2.playable</t>
   </si>
   <si>
-    <t>Art/Roles/rol_1102021/Animations/1102021_exskill_1_e_3.playable</t>
-  </si>
-  <si>
     <t>Art/Roles/rol_1102003/Animations/1102003_exskill_1_e_1.playable</t>
   </si>
   <si>
@@ -3750,6 +3747,15 @@
   </si>
   <si>
     <t>Art/Roles/rol_1102004/Animations/1102004_exskill_1_a_e_2.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102009/Animations/1102009_exskill_1_e_2.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102006/Animations/1102006_exskill_1_e_2.playable</t>
+  </si>
+  <si>
+    <t>Art/Roles/rol_1102006/Animations/1102006_exskill_1_3.playable</t>
   </si>
   <si>
     <t>skillTimeLine</t>
@@ -4206,18 +4212,36 @@
   <si>
     <t>雷电爆发</t>
   </si>
+  <si>
+    <t>Art/EffectRes/Common/FX_c_buff_huotiZD.prefab</t>
+  </si>
+  <si>
+    <t>活体炸弹</t>
+  </si>
+  <si>
+    <t>Art/EffectRes/Common/FX_c_buff_huotiZD_over.prefab</t>
+  </si>
+  <si>
+    <t>活体炸弹爆炸</t>
+  </si>
+  <si>
+    <t>Art/EffectRes/Common/FX_c_buff_gedang.prefab</t>
+  </si>
+  <si>
+    <t>格挡BUFF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4259,20 +4283,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4287,14 +4297,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4309,6 +4346,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4316,25 +4360,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4346,11 +4375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4359,9 +4383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4383,25 +4406,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4413,11 +4421,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4430,6 +4446,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4482,13 +4506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4500,13 +4548,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4518,7 +4596,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4530,61 +4632,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4608,6 +4662,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4620,55 +4686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149327066866054"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4767,15 +4791,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4806,17 +4821,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4835,8 +4844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4844,8 +4853,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4883,31 +4907,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4916,139 +4940,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
@@ -29359,11 +29383,11 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="$A16:$XFD18"/>
+      <selection pane="bottomRight" activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32127,10 +32151,7 @@
         <f t="shared" si="7"/>
         <v>Art/Roles/rol_1102021/Animations/1102021_exskill_1_2.playable</v>
       </c>
-      <c r="K66" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>Art/Roles/rol_1102021/Animations/1102021_exskill_1_3.playable</v>
-      </c>
+      <c r="K66" s="34"/>
       <c r="L66" s="34">
         <v>1</v>
       </c>
@@ -34074,10 +34095,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -34768,9 +34789,7 @@
       <c r="J18" s="31" t="s">
         <v>1206</v>
       </c>
-      <c r="K18" s="31" t="s">
-        <v>1207</v>
-      </c>
+      <c r="K18" s="31"/>
       <c r="L18" s="31">
         <v>1</v>
       </c>
@@ -34802,13 +34821,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="31" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>1208</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="K19" s="31" t="s">
         <v>1209</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>1210</v>
       </c>
       <c r="L19" s="31">
         <v>1</v>
@@ -34841,10 +34860,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>1211</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>1212</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31">
@@ -34878,10 +34897,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="31" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J21" s="31" t="s">
         <v>1213</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>1214</v>
       </c>
       <c r="K21" s="31"/>
       <c r="L21" s="31">
@@ -34915,10 +34934,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="31" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J22" s="31" t="s">
         <v>1215</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>1216</v>
       </c>
       <c r="K22" s="31"/>
       <c r="L22" s="31">
@@ -34955,7 +34974,7 @@
         <v>1008</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31">
@@ -34992,7 +35011,7 @@
         <v>986</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31">
@@ -35029,7 +35048,7 @@
         <v>1158</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="31">
@@ -35066,7 +35085,7 @@
         <v>1098</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="31">
@@ -35103,7 +35122,7 @@
         <v>996</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="31">
@@ -35140,7 +35159,7 @@
         <v>1002</v>
       </c>
       <c r="J28" s="31" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K28" s="31"/>
       <c r="L28" s="31">
@@ -35177,13 +35196,89 @@
         <v>903</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K29" s="31"/>
       <c r="L29" s="31">
         <v>1</v>
       </c>
       <c r="M29" s="31"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:13">
+      <c r="A30" s="31">
+        <v>1102009</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D30" s="31">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>989</v>
+      </c>
+      <c r="H30" s="31">
+        <v>1</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>990</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31">
+        <v>1</v>
+      </c>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:13">
+      <c r="A31" s="31">
+        <v>1102006</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>987</v>
+      </c>
+      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>988</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L31" s="31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35212,21 +35307,21 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="C2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:3">
@@ -35234,10 +35329,10 @@
         <v>285</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
@@ -35245,7 +35340,7 @@
         <v>1304001</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="23"/>
     </row>
@@ -35254,7 +35349,7 @@
         <v>1304002</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="23"/>
     </row>
@@ -35263,7 +35358,7 @@
         <v>1304003</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C6" s="23"/>
     </row>
@@ -35272,7 +35367,7 @@
         <v>1304004</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C7" s="23"/>
     </row>
@@ -35281,7 +35376,7 @@
         <v>1304005</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C8" s="23"/>
     </row>
@@ -35290,7 +35385,7 @@
         <v>1304006</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C9" s="23"/>
     </row>
@@ -35299,7 +35394,7 @@
         <v>1304007</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C10" s="23"/>
     </row>
@@ -35308,7 +35403,7 @@
         <v>1304008</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C11" s="10"/>
     </row>
@@ -35317,7 +35412,7 @@
         <v>1304009</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -35326,7 +35421,7 @@
         <v>1304010</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C13" s="23"/>
     </row>
@@ -35335,7 +35430,7 @@
         <v>1304011</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C14" s="23"/>
     </row>
@@ -35344,7 +35439,7 @@
         <v>1304012</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C15" s="23"/>
     </row>
@@ -35353,7 +35448,7 @@
         <v>1304013</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C16" s="23"/>
     </row>
@@ -35362,7 +35457,7 @@
         <v>1304014</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C17" s="9"/>
     </row>
@@ -35371,7 +35466,7 @@
         <v>1304015</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C18" s="9"/>
     </row>
@@ -35380,7 +35475,7 @@
         <v>1304016</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C19" s="9"/>
     </row>
@@ -35389,7 +35484,7 @@
         <v>1304017</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C20" s="9"/>
     </row>
@@ -35398,7 +35493,7 @@
         <v>1304018</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C21" s="9"/>
     </row>
@@ -35407,7 +35502,7 @@
         <v>1304019</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C22" s="9"/>
     </row>
@@ -35416,7 +35511,7 @@
         <v>1304020</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C23" s="9"/>
     </row>
@@ -35425,7 +35520,7 @@
         <v>1304021</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -35434,7 +35529,7 @@
         <v>1304022</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C25" s="9"/>
     </row>
@@ -35443,7 +35538,7 @@
         <v>1304023</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C26" s="9"/>
     </row>
@@ -35452,7 +35547,7 @@
         <v>1304024</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C27" s="9"/>
     </row>
@@ -35461,7 +35556,7 @@
         <v>1304025</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="9"/>
     </row>
@@ -35470,7 +35565,7 @@
         <v>1304026</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C29" s="9"/>
     </row>
@@ -35479,7 +35574,7 @@
         <v>1304027</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C30" s="9"/>
     </row>
@@ -35488,7 +35583,7 @@
         <v>1304028</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C31" s="9"/>
     </row>
@@ -35497,7 +35592,7 @@
         <v>1304029</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C32" s="9"/>
     </row>
@@ -35506,7 +35601,7 @@
         <v>1304030</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C33" s="9"/>
     </row>
@@ -35515,7 +35610,7 @@
         <v>1304031</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C34" s="9"/>
     </row>
@@ -35524,7 +35619,7 @@
         <v>1304032</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C35" s="9"/>
     </row>
@@ -35533,7 +35628,7 @@
         <v>1304033</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C36" s="9"/>
     </row>
@@ -35542,7 +35637,7 @@
         <v>1304034</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C37" s="9"/>
     </row>
@@ -35551,7 +35646,7 @@
         <v>1304035</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C38" s="9"/>
     </row>
@@ -35560,7 +35655,7 @@
         <v>1304036</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C39" s="9"/>
     </row>
@@ -35569,7 +35664,7 @@
         <v>1304037</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C40" s="9"/>
     </row>
@@ -35578,7 +35673,7 @@
         <v>1304038</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C41" s="9"/>
     </row>
@@ -35587,7 +35682,7 @@
         <v>1304039</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C42" s="9"/>
     </row>
@@ -35596,7 +35691,7 @@
         <v>1304040</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C43" s="9"/>
     </row>
@@ -35605,7 +35700,7 @@
         <v>1304041</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C44" s="9"/>
     </row>
@@ -35614,7 +35709,7 @@
         <v>1304042</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C45" s="9"/>
     </row>
@@ -35623,7 +35718,7 @@
         <v>1804012</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C46" s="23"/>
     </row>
@@ -35632,7 +35727,7 @@
         <v>1805001</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C47" s="9"/>
     </row>
@@ -35641,7 +35736,7 @@
         <v>1806001</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C48" s="9"/>
     </row>
@@ -35650,7 +35745,7 @@
         <v>1807001</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C49" s="9"/>
     </row>
@@ -35659,7 +35754,7 @@
         <v>1808001</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C50" s="9"/>
     </row>
@@ -35668,7 +35763,7 @@
         <v>1809001</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C51" s="9"/>
     </row>
@@ -35677,7 +35772,7 @@
         <v>1810001</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C52" s="9"/>
     </row>
@@ -35686,7 +35781,7 @@
         <v>1811001</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C53" s="9"/>
     </row>
@@ -35695,7 +35790,7 @@
         <v>1812001</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C54" s="9"/>
     </row>
@@ -35704,7 +35799,7 @@
         <v>1813001</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C55" s="9"/>
     </row>
@@ -35713,7 +35808,7 @@
         <v>1814001</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C56" s="9"/>
     </row>
@@ -35722,7 +35817,7 @@
         <v>1815001</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C57" s="9"/>
     </row>
@@ -35731,7 +35826,7 @@
         <v>1816001</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C58" s="9"/>
     </row>
@@ -35740,7 +35835,7 @@
         <v>1817001</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C59" s="9"/>
     </row>
@@ -35749,7 +35844,7 @@
         <v>1818001</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C60" s="9"/>
     </row>
@@ -35758,7 +35853,7 @@
         <v>1819001</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C61" s="9"/>
     </row>
@@ -35767,7 +35862,7 @@
         <v>1820001</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C62" s="9"/>
     </row>
@@ -35776,7 +35871,7 @@
         <v>1821001</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C63" s="9"/>
     </row>
@@ -35785,7 +35880,7 @@
         <v>1822001</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C64" s="9"/>
     </row>
@@ -35794,7 +35889,7 @@
         <v>1823001</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C65" s="9"/>
     </row>
@@ -35803,7 +35898,7 @@
         <v>1824001</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C66" s="9"/>
     </row>
@@ -35812,7 +35907,7 @@
         <v>1825001</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C67" s="9"/>
     </row>
@@ -35821,7 +35916,7 @@
         <v>1826001</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C68" s="9"/>
     </row>
@@ -35830,7 +35925,7 @@
         <v>1827001</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C69" s="9"/>
     </row>
@@ -35839,7 +35934,7 @@
         <v>1828001</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C70" s="9"/>
     </row>
@@ -35848,7 +35943,7 @@
         <v>1829001</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C71" s="9"/>
     </row>
@@ -35857,7 +35952,7 @@
         <v>1830001</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C72" s="9"/>
     </row>
@@ -35866,7 +35961,7 @@
         <v>1831001</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C73" s="9"/>
     </row>
@@ -35875,7 +35970,7 @@
         <v>1832001</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C74" s="9"/>
     </row>
@@ -35884,7 +35979,7 @@
         <v>1835001</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C75" s="9"/>
     </row>
@@ -35893,7 +35988,7 @@
         <v>1836001</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C76" s="9"/>
     </row>
@@ -35902,7 +35997,7 @@
         <v>1837001</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C77" s="9"/>
     </row>
@@ -35911,7 +36006,7 @@
         <v>1838001</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C78" s="9"/>
     </row>
@@ -35920,7 +36015,7 @@
         <v>1839001</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C79" s="9"/>
     </row>
@@ -35929,7 +36024,7 @@
         <v>1840001</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C80" s="9"/>
     </row>
@@ -35938,7 +36033,7 @@
         <v>1841001</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="C81" s="9"/>
     </row>
@@ -35947,7 +36042,7 @@
         <v>1842001</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="83" ht="16.5" spans="1:2">
@@ -35955,7 +36050,7 @@
         <v>1842002</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="84" ht="16.5" spans="1:2">
@@ -35963,7 +36058,7 @@
         <v>1845001</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="85" ht="16.5" spans="1:2">
@@ -35971,7 +36066,7 @@
         <v>1304043</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="86" ht="16.5" spans="1:2">
@@ -35979,7 +36074,7 @@
         <v>1304044</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="87" ht="16.5" spans="1:2">
@@ -35987,7 +36082,7 @@
         <v>1304046</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="88" ht="16.5" spans="1:2">
@@ -35995,7 +36090,7 @@
         <v>1304047</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="89" ht="16.5" spans="1:2">
@@ -36003,7 +36098,7 @@
         <v>1304048</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="90" ht="16.5" spans="1:2">
@@ -36011,7 +36106,7 @@
         <v>1304049</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="91" ht="16.5" spans="1:2">
@@ -36019,7 +36114,7 @@
         <v>1304050</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="92" ht="16.5" spans="1:2">
@@ -36027,7 +36122,7 @@
         <v>1304051</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="93" ht="16.5" spans="1:2">
@@ -36035,7 +36130,7 @@
         <v>1304052</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="94" ht="16.5" spans="1:2">
@@ -36043,7 +36138,7 @@
         <v>1304053</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="95" ht="16.5" spans="1:2">
@@ -36051,7 +36146,7 @@
         <v>1304055</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>
@@ -36127,10 +36222,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>857</v>
@@ -36139,7 +36234,7 @@
         <v>859</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>860</v>
@@ -36189,10 +36284,10 @@
     <row r="3" ht="45" spans="1:10">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>871</v>
@@ -36201,7 +36296,7 @@
         <v>873</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>874</v>
@@ -37753,13 +37848,13 @@
         <v>2</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19">
@@ -37784,13 +37879,13 @@
         <v>1</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19">
@@ -38548,10 +38643,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38574,28 +38669,28 @@
         <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -38624,42 +38719,42 @@
         <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="J2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
@@ -38667,7 +38762,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -38676,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -38699,7 +38794,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -38708,7 +38803,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -38731,7 +38826,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -38740,7 +38835,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -38763,7 +38858,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -38772,7 +38867,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -38795,7 +38890,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
@@ -38804,7 +38899,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -38827,7 +38922,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -38836,7 +38931,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -38859,7 +38954,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -38868,7 +38963,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -38891,7 +38986,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
@@ -38900,7 +38995,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -38923,7 +39018,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
@@ -38932,7 +39027,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -38955,7 +39050,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
@@ -38964,7 +39059,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -38987,7 +39082,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
@@ -38996,7 +39091,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -39019,7 +39114,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
@@ -39028,7 +39123,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -39051,7 +39146,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
@@ -39060,7 +39155,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -39083,7 +39178,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
@@ -39092,7 +39187,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -39115,7 +39210,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
@@ -39124,7 +39219,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -39147,7 +39242,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
@@ -39156,7 +39251,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -39179,7 +39274,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
@@ -39188,7 +39283,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -39211,7 +39306,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
@@ -39220,7 +39315,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -39243,7 +39338,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
@@ -39252,7 +39347,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -39275,7 +39370,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
@@ -39284,7 +39379,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -39307,7 +39402,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
@@ -39316,7 +39411,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -39339,7 +39434,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C25" s="5">
         <v>2</v>
@@ -39348,7 +39443,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -39371,7 +39466,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C26" s="5">
         <v>2</v>
@@ -39380,7 +39475,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -39403,7 +39498,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
@@ -39412,7 +39507,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -39435,7 +39530,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C28" s="5">
         <v>2</v>
@@ -39444,7 +39539,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
@@ -39467,7 +39562,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C29" s="5">
         <v>2</v>
@@ -39476,7 +39571,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -39499,7 +39594,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C30" s="5">
         <v>2</v>
@@ -39508,7 +39603,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
@@ -39531,7 +39626,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -39540,7 +39635,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -39563,7 +39658,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -39572,7 +39667,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -39595,7 +39690,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -39604,7 +39699,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -39627,7 +39722,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C34" s="5">
         <v>2</v>
@@ -39636,7 +39731,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -39659,7 +39754,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="C35" s="5">
         <v>2</v>
@@ -39668,7 +39763,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
@@ -39691,7 +39786,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C36" s="5">
         <v>2</v>
@@ -39700,7 +39795,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
@@ -39723,7 +39818,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C37" s="5">
         <v>2</v>
@@ -39732,7 +39827,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -39755,7 +39850,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="C38" s="5">
         <v>2</v>
@@ -39764,7 +39859,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -39787,7 +39882,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C39" s="5">
         <v>2</v>
@@ -39796,7 +39891,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -39819,7 +39914,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
@@ -39828,7 +39923,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F40" s="5">
         <v>1</v>
@@ -39851,7 +39946,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="C41" s="5">
         <v>2</v>
@@ -39860,7 +39955,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
@@ -39883,7 +39978,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C42" s="5">
         <v>2</v>
@@ -39892,7 +39987,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
@@ -39915,7 +40010,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C43" s="5">
         <v>3</v>
@@ -39924,7 +40019,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -39947,7 +40042,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="C44" s="12">
         <v>3</v>
@@ -39956,7 +40051,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
@@ -39979,7 +40074,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C45" s="13">
         <v>3</v>
@@ -39988,7 +40083,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
@@ -40011,7 +40106,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C46" s="9">
         <v>3</v>
@@ -40020,7 +40115,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F46" s="9">
         <v>1</v>
@@ -40043,7 +40138,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C47" s="9">
         <v>3</v>
@@ -40052,7 +40147,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F47" s="9">
         <v>1</v>
@@ -40075,7 +40170,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C48" s="9">
         <v>2</v>
@@ -40084,7 +40179,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -40107,7 +40202,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="C49" s="9">
         <v>2</v>
@@ -40116,7 +40211,7 @@
         <v>9</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F49" s="9">
         <v>1</v>
@@ -40139,7 +40234,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C50" s="9">
         <v>2</v>
@@ -40148,7 +40243,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -40171,7 +40266,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="C51" s="9">
         <v>2</v>
@@ -40180,7 +40275,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
@@ -40203,7 +40298,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="C52" s="9">
         <v>2</v>
@@ -40212,7 +40307,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -40235,7 +40330,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="C53" s="9">
         <v>2</v>
@@ -40244,7 +40339,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -40267,7 +40362,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C54" s="9">
         <v>2</v>
@@ -40276,7 +40371,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -40291,6 +40386,102 @@
         <v>1</v>
       </c>
       <c r="J54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="9">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F55" s="9">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
+        <v>2</v>
+      </c>
+      <c r="H55" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="9">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C56" s="9">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F56" s="9">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I56" s="9">
+        <v>1</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="9">
+        <v>54</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C57" s="9">
+        <v>2</v>
+      </c>
+      <c r="D57" s="9">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1</v>
+      </c>
+      <c r="J57" s="9">
         <v>0</v>
       </c>
     </row>
